--- a/StaffProject240.xlsx
+++ b/StaffProject240.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="606">
   <si>
     <t>Staff Name</t>
   </si>
@@ -23,160 +23,1675 @@
     <t>Stream</t>
   </si>
   <si>
+    <t>Tupac Shakur</t>
+  </si>
+  <si>
+    <t>producing Hipbop records</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>Barney Rubble</t>
+  </si>
+  <si>
+    <t>pedalling engine-less cars</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>Walt Whitman</t>
+  </si>
+  <si>
+    <t>writing modern poetry</t>
+  </si>
+  <si>
+    <t>CS+DS</t>
+  </si>
+  <si>
+    <t>Mary Poppins</t>
+  </si>
+  <si>
+    <t>looking after children</t>
+  </si>
+  <si>
+    <t>Tom Ripley</t>
+  </si>
+  <si>
+    <t>cashing checks</t>
+  </si>
+  <si>
+    <t>Michael Jackson</t>
+  </si>
+  <si>
+    <t>performing moon walks</t>
+  </si>
+  <si>
+    <t>Dorothy Parker</t>
+  </si>
+  <si>
+    <t>making witty remarks</t>
+  </si>
+  <si>
+    <t>Paul McCartney</t>
+  </si>
+  <si>
+    <t>writing pop songs</t>
+  </si>
+  <si>
+    <t>Dame Edna Everage</t>
+  </si>
+  <si>
+    <t>moaning about men</t>
+  </si>
+  <si>
+    <t>Lex Luthor</t>
+  </si>
+  <si>
+    <t>collecting green Kryponite</t>
+  </si>
+  <si>
+    <t>Edward Cullen</t>
+  </si>
+  <si>
+    <t>avoiding growing old</t>
+  </si>
+  <si>
+    <t>Steve Martin</t>
+  </si>
+  <si>
+    <t>playing the banjo</t>
+  </si>
+  <si>
+    <t>Julia Roberts</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Jeff "Comic Book Guy" Albertson</t>
+  </si>
+  <si>
+    <t>spouting movie trivia</t>
+  </si>
+  <si>
+    <t>Al Gore</t>
+  </si>
+  <si>
+    <t>lecturing about climate change</t>
+  </si>
+  <si>
+    <t>Merlin</t>
+  </si>
+  <si>
+    <t>performing magic tricks</t>
+  </si>
+  <si>
+    <t>Uriah Heap</t>
+  </si>
+  <si>
+    <t>cooking the books</t>
+  </si>
+  <si>
+    <t>Ricky Martin</t>
+  </si>
+  <si>
+    <t>singing pop songs</t>
+  </si>
+  <si>
+    <t>Wesley Crusher</t>
+  </si>
+  <si>
+    <t>studying science</t>
+  </si>
+  <si>
+    <t>Robert Downey Jr.</t>
+  </si>
+  <si>
+    <t>making Superhero movies</t>
+  </si>
+  <si>
+    <t>Ariana Grande</t>
+  </si>
+  <si>
+    <t>Lou Reed</t>
+  </si>
+  <si>
+    <t>playing rock music</t>
+  </si>
+  <si>
+    <t>Lady Macbeth</t>
+  </si>
+  <si>
+    <t>climbing social ladders</t>
+  </si>
+  <si>
+    <t>Deep Throat</t>
+  </si>
+  <si>
+    <t>offering advice</t>
+  </si>
+  <si>
+    <t>Wyatt Earp</t>
+  </si>
+  <si>
+    <t>running a frontier town</t>
+  </si>
+  <si>
+    <t>Evel Knievel</t>
+  </si>
+  <si>
+    <t>performing motorcycle stunts</t>
+  </si>
+  <si>
+    <t>Cary Grant</t>
+  </si>
+  <si>
+    <t>starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Kellyanne Conway</t>
+  </si>
+  <si>
+    <t>Nikola Tesla</t>
+  </si>
+  <si>
+    <t>pioneering new technologies</t>
+  </si>
+  <si>
+    <t>Jerry Lewis</t>
+  </si>
+  <si>
+    <t>doing stand-up</t>
+  </si>
+  <si>
+    <t>Ann Coulter</t>
+  </si>
+  <si>
+    <t>ranting about liberals</t>
+  </si>
+  <si>
+    <t>H.A.L. 9000</t>
+  </si>
+  <si>
+    <t>murdering astronauts</t>
+  </si>
+  <si>
+    <t>Carl Sagan</t>
+  </si>
+  <si>
+    <t>studying the cosmos</t>
+  </si>
+  <si>
+    <t>Jerry Springer</t>
+  </si>
+  <si>
+    <t>hosting reality TV shows</t>
+  </si>
+  <si>
+    <t>Chewbacca</t>
+  </si>
+  <si>
+    <t>fighting for the rebel alliance</t>
+  </si>
+  <si>
+    <t>Peter Parker</t>
+  </si>
+  <si>
+    <t>King Arthur</t>
+  </si>
+  <si>
+    <t>running a kingdom</t>
+  </si>
+  <si>
+    <t>William Shatner</t>
+  </si>
+  <si>
+    <t>starring in science fiction movies</t>
+  </si>
+  <si>
+    <t>Austin Powers</t>
+  </si>
+  <si>
+    <t>foiling the schemes of evil villains</t>
+  </si>
+  <si>
+    <t>Steve Guttenberg</t>
+  </si>
+  <si>
+    <t>getting plastic surgery</t>
+  </si>
+  <si>
+    <t>Dr. Henry Jekyll</t>
+  </si>
+  <si>
+    <t>suppressing violent urges</t>
+  </si>
+  <si>
+    <t>George Foreman</t>
+  </si>
+  <si>
+    <t>winning boxing matches</t>
+  </si>
+  <si>
+    <t>Sergey Brin</t>
+  </si>
+  <si>
+    <t>performing Web searches</t>
+  </si>
+  <si>
+    <t>jumping over buses on motorbikes</t>
+  </si>
+  <si>
+    <t>Hannibal Lecter</t>
+  </si>
+  <si>
+    <t>eating people</t>
+  </si>
+  <si>
+    <t>Forrest Gump</t>
+  </si>
+  <si>
+    <t>fishing for shrimps</t>
+  </si>
+  <si>
+    <t>Phoebe Buffay</t>
+  </si>
+  <si>
+    <t>singing parody songs</t>
+  </si>
+  <si>
+    <t>Melania Trump</t>
+  </si>
+  <si>
+    <t>posing for photographs</t>
+  </si>
+  <si>
+    <t>Morgana Le Fay</t>
+  </si>
+  <si>
+    <t>teaching magic</t>
+  </si>
+  <si>
+    <t>Leonardo Da Vinci</t>
+  </si>
+  <si>
+    <t>developing new technologies</t>
+  </si>
+  <si>
+    <t>Martin Luther</t>
+  </si>
+  <si>
+    <t>recruiting dissidents</t>
+  </si>
+  <si>
+    <t>Grace Kelly</t>
+  </si>
+  <si>
+    <t>Usain Bolt</t>
+  </si>
+  <si>
+    <t>competing in the Olympics</t>
+  </si>
+  <si>
+    <t>Lord Percy Percy</t>
+  </si>
+  <si>
+    <t>flaunting foppish fashions</t>
+  </si>
+  <si>
+    <t>Pac Man</t>
+  </si>
+  <si>
+    <t>eluding electronic ghosts</t>
+  </si>
+  <si>
+    <t>Del Boy Trotter</t>
+  </si>
+  <si>
+    <t>selling tat</t>
+  </si>
+  <si>
+    <t>Lara Croft</t>
+  </si>
+  <si>
+    <t>unearthing ancient tombs</t>
+  </si>
+  <si>
+    <t>Johannes Gutenberg</t>
+  </si>
+  <si>
+    <t>Nick Fury</t>
+  </si>
+  <si>
+    <t>running a clandestine spy organization</t>
+  </si>
+  <si>
+    <t>Nigel Farage</t>
+  </si>
+  <si>
+    <t>promoting conservative values</t>
+  </si>
+  <si>
+    <t>Principal Seymour Skinner</t>
+  </si>
+  <si>
+    <t>disciplining students</t>
+  </si>
+  <si>
+    <t>Federico Fellini</t>
+  </si>
+  <si>
+    <t>making Italian movies</t>
+  </si>
+  <si>
+    <t>Captain America</t>
+  </si>
+  <si>
+    <t>defending the weak</t>
+  </si>
+  <si>
+    <t>Agent Smith</t>
+  </si>
+  <si>
+    <t>fighting the resistance</t>
+  </si>
+  <si>
+    <t>Nicolas Cage</t>
+  </si>
+  <si>
+    <t>over-acting</t>
+  </si>
+  <si>
+    <t>Woody Guthrie</t>
+  </si>
+  <si>
+    <t>campaigning for environmental causes</t>
+  </si>
+  <si>
+    <t>Pope Francis</t>
+  </si>
+  <si>
+    <t>promoting Catholic values</t>
+  </si>
+  <si>
+    <t>John McEnroe</t>
+  </si>
+  <si>
+    <t>winning tennis tournaments</t>
+  </si>
+  <si>
+    <t>Glenn Quagmire</t>
+  </si>
+  <si>
+    <t>looking for sex</t>
+  </si>
+  <si>
+    <t>Tom Brady</t>
+  </si>
+  <si>
+    <t>signing sports memorabilia</t>
+  </si>
+  <si>
+    <t>Modesty Blaise</t>
+  </si>
+  <si>
+    <t>pulling capers</t>
+  </si>
+  <si>
+    <t>running a tech giant</t>
+  </si>
+  <si>
+    <t>Katniss Everdeen</t>
+  </si>
+  <si>
+    <t>instigating rebellion</t>
+  </si>
+  <si>
+    <t>Barack Obama</t>
+  </si>
+  <si>
+    <t>campaigning for the presidency</t>
+  </si>
+  <si>
+    <t>Rudy Giuliani</t>
+  </si>
+  <si>
+    <t>running a large metropolitan city</t>
+  </si>
+  <si>
+    <t>Adolf Eichmann</t>
+  </si>
+  <si>
+    <t>running a bureaucracy</t>
+  </si>
+  <si>
+    <t>Martha Stewart</t>
+  </si>
+  <si>
+    <t>cooking dinners</t>
+  </si>
+  <si>
+    <t>Frank Lloyd Wright</t>
+  </si>
+  <si>
+    <t>designing modern buildings</t>
+  </si>
+  <si>
+    <t>Deadpool</t>
+  </si>
+  <si>
+    <t>doing the Kessel run</t>
+  </si>
+  <si>
+    <t>Archie Bunker</t>
+  </si>
+  <si>
+    <t>Gore Vidal</t>
+  </si>
+  <si>
+    <t>writing modern fiction</t>
+  </si>
+  <si>
+    <t>Mickey Mouse</t>
+  </si>
+  <si>
+    <t>starring in animated movies</t>
+  </si>
+  <si>
+    <t>Chris Rock</t>
+  </si>
+  <si>
+    <t>cross-dressing in women's clothes</t>
+  </si>
+  <si>
+    <t>Sideshow Bob</t>
+  </si>
+  <si>
+    <t>developing cunning plans</t>
+  </si>
+  <si>
+    <t>Hillary Clinton</t>
+  </si>
+  <si>
+    <t>running for the senate</t>
+  </si>
+  <si>
+    <t>Jenna Maroney</t>
+  </si>
+  <si>
+    <t>Newt Gingrich</t>
+  </si>
+  <si>
+    <t>running for the presidency</t>
+  </si>
+  <si>
+    <t>Wilkins Micawber</t>
+  </si>
+  <si>
+    <t>buying on credit</t>
+  </si>
+  <si>
+    <t>Harry Potter</t>
+  </si>
+  <si>
+    <t>playing quidditch</t>
+  </si>
+  <si>
+    <t>Jack Nicholson</t>
+  </si>
+  <si>
+    <t>womanizing</t>
+  </si>
+  <si>
+    <t>James T. Kirk</t>
+  </si>
+  <si>
+    <t>commanding a spaceship</t>
+  </si>
+  <si>
+    <t>Lord Macbeth</t>
+  </si>
+  <si>
+    <t>grabbing power</t>
+  </si>
+  <si>
+    <t>Osama Bin Laden</t>
+  </si>
+  <si>
+    <t>plotting terrorist outrages</t>
+  </si>
+  <si>
+    <t>Robert De Niro</t>
+  </si>
+  <si>
+    <t>Selena Gomez</t>
+  </si>
+  <si>
+    <t>Ron Burgundy</t>
+  </si>
+  <si>
+    <t>reading the news</t>
+  </si>
+  <si>
+    <t>Coco Chanel</t>
+  </si>
+  <si>
+    <t>selling perfumes</t>
+  </si>
+  <si>
+    <t>John F. Kennedy</t>
+  </si>
+  <si>
+    <t>chasing starlets</t>
+  </si>
+  <si>
+    <t>Bill Gates</t>
+  </si>
+  <si>
+    <t>making billions</t>
+  </si>
+  <si>
+    <t>Henry Kissinger</t>
+  </si>
+  <si>
+    <t>brokering peace deals</t>
+  </si>
+  <si>
+    <t>Carl Von Clausewitz</t>
+  </si>
+  <si>
+    <t>developing military strategies</t>
+  </si>
+  <si>
+    <t>General George Patton</t>
+  </si>
+  <si>
+    <t>planning tank battles</t>
+  </si>
+  <si>
+    <t>Nigel Tufnel</t>
+  </si>
+  <si>
+    <t>turning it up to 11</t>
+  </si>
+  <si>
+    <t>Sam Winchester</t>
+  </si>
+  <si>
+    <t>hunting demons</t>
+  </si>
+  <si>
+    <t>Stephen Hawking</t>
+  </si>
+  <si>
+    <t>Cardinal Richelieu</t>
+  </si>
+  <si>
+    <t>directing the business of state</t>
+  </si>
+  <si>
+    <t>Tyrion Lannister</t>
+  </si>
+  <si>
+    <t>developing political strategies</t>
+  </si>
+  <si>
+    <t>sucking blood</t>
+  </si>
+  <si>
+    <t>Hedda Hopper</t>
+  </si>
+  <si>
+    <t>maintaining a secret identity</t>
+  </si>
+  <si>
+    <t>Florence Nightingale</t>
+  </si>
+  <si>
+    <t>treating the injured</t>
+  </si>
+  <si>
+    <t>Snake Plissken</t>
+  </si>
+  <si>
+    <t>organizing prison breaks</t>
+  </si>
+  <si>
+    <t>Bruce Lee</t>
+  </si>
+  <si>
+    <t>performing kung-fu moves</t>
+  </si>
+  <si>
+    <t>Robert Mueller</t>
+  </si>
+  <si>
+    <t>Jeffrey Lebowski</t>
+  </si>
+  <si>
+    <t>drinking White Russians</t>
+  </si>
+  <si>
+    <t>Father Ted</t>
+  </si>
+  <si>
+    <t>preaching tolerance</t>
+  </si>
+  <si>
+    <t>Stanley Kowalski</t>
+  </si>
+  <si>
+    <t>moaning about women</t>
+  </si>
+  <si>
+    <t>Steve Bannon</t>
+  </si>
+  <si>
+    <t>Cosmo Kramer</t>
+  </si>
+  <si>
+    <t>developing crazy schemes</t>
+  </si>
+  <si>
+    <t>Waylon Smithers</t>
+  </si>
+  <si>
+    <t>fawning on the boss</t>
+  </si>
+  <si>
+    <t>Benjamin Franklin</t>
+  </si>
+  <si>
+    <t>testing scientific theories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenneth Parcell </t>
+  </si>
+  <si>
+    <t>leading tour groups</t>
+  </si>
+  <si>
+    <t>Joey Tribbiani</t>
+  </si>
+  <si>
+    <t>seducing women</t>
+  </si>
+  <si>
+    <t>Simon Pegg</t>
+  </si>
+  <si>
+    <t>dressing up in cosplay costumes</t>
+  </si>
+  <si>
+    <t>giving speeches</t>
+  </si>
+  <si>
+    <t>Pepé Le Pew</t>
+  </si>
+  <si>
+    <t>chasing cats</t>
+  </si>
+  <si>
+    <t>Huckleberry Finn</t>
+  </si>
+  <si>
+    <t>growing up poor</t>
+  </si>
+  <si>
+    <t>Spongebob Squarepants</t>
+  </si>
+  <si>
+    <t>flipping hamburgers</t>
+  </si>
+  <si>
+    <t>Wolfgang Amadeus Mozart</t>
+  </si>
+  <si>
+    <t>composing classical music</t>
+  </si>
+  <si>
+    <t>Uri Geller</t>
+  </si>
+  <si>
+    <t>bending spoons</t>
+  </si>
+  <si>
+    <t>Staff Member</t>
+  </si>
+  <si>
+    <t>Mel Brooks</t>
+  </si>
+  <si>
+    <t>writing funny movies</t>
+  </si>
+  <si>
+    <t>Colin Farrell</t>
+  </si>
+  <si>
+    <t>Francis Bacon</t>
+  </si>
+  <si>
+    <t>painting dark pictures</t>
+  </si>
+  <si>
+    <t>Spider-Man</t>
+  </si>
+  <si>
+    <t>Dante Alighieri</t>
+  </si>
+  <si>
+    <t>writing poetry</t>
+  </si>
+  <si>
+    <t>Conan the Barbarian</t>
+  </si>
+  <si>
+    <t>Charlie Chaplin</t>
+  </si>
+  <si>
+    <t>rescuing kids</t>
+  </si>
+  <si>
+    <t>Dirty Harry Callahan</t>
+  </si>
+  <si>
+    <t>preventing crime</t>
+  </si>
+  <si>
+    <t>Galileo Galilei</t>
+  </si>
+  <si>
+    <t>promoting Heliocentrism</t>
+  </si>
+  <si>
+    <t>Larry David</t>
+  </si>
+  <si>
+    <t>Andrew Lloyd Webber</t>
+  </si>
+  <si>
+    <t>making insipid musicals</t>
+  </si>
+  <si>
+    <t>Sir Lancelot</t>
+  </si>
+  <si>
+    <t>fighting with swords</t>
+  </si>
+  <si>
+    <t>Jack Kerouac</t>
+  </si>
+  <si>
+    <t>writing beat fiction</t>
+  </si>
+  <si>
+    <t>Spartacus</t>
+  </si>
+  <si>
+    <t>leading revolts</t>
+  </si>
+  <si>
+    <t>Rachel Green</t>
+  </si>
+  <si>
+    <t>getting a nose job</t>
+  </si>
+  <si>
+    <t>starring in kung-fu movies</t>
+  </si>
+  <si>
+    <t>Charlie Parker</t>
+  </si>
+  <si>
+    <t>playing jazz saxophone</t>
+  </si>
+  <si>
+    <t>Niccolò Paganini</t>
+  </si>
+  <si>
+    <t>playing the violin</t>
+  </si>
+  <si>
+    <t>Pythagoras</t>
+  </si>
+  <si>
+    <t>studying mathematics</t>
+  </si>
+  <si>
+    <t>Plato</t>
+  </si>
+  <si>
+    <t>teaching the next generation</t>
+  </si>
+  <si>
+    <t>King Lear</t>
+  </si>
+  <si>
+    <t>going senile</t>
+  </si>
+  <si>
+    <t>Eddie Murphy</t>
+  </si>
+  <si>
+    <t>starring in action movies</t>
+  </si>
+  <si>
+    <t>Tina Turner</t>
+  </si>
+  <si>
+    <t>singing rock songs</t>
+  </si>
+  <si>
+    <t>Michelangelo</t>
+  </si>
+  <si>
+    <t>painting church ceilings</t>
+  </si>
+  <si>
+    <t>Richard B. Riddick</t>
+  </si>
+  <si>
+    <t>evading mercenaries</t>
+  </si>
+  <si>
+    <t>Hugh Jackman</t>
+  </si>
+  <si>
+    <t>promoting American values</t>
+  </si>
+  <si>
+    <t>Groucho Marx</t>
+  </si>
+  <si>
+    <t>starring in madcap comedies</t>
+  </si>
+  <si>
+    <t>Peter Pan</t>
+  </si>
+  <si>
+    <t>Daniel Day-Lewis</t>
+  </si>
+  <si>
+    <t>winning Oscars</t>
+  </si>
+  <si>
+    <t>Madonna</t>
+  </si>
+  <si>
+    <t>Ebenezer Scrooge</t>
+  </si>
+  <si>
+    <t>saving money</t>
+  </si>
+  <si>
+    <t>Mr. Bean</t>
+  </si>
+  <si>
+    <t>causing mayhem</t>
+  </si>
+  <si>
+    <t>Robin Hood</t>
+  </si>
+  <si>
+    <t>robbing from the rich</t>
+  </si>
+  <si>
+    <t>Bob Marley</t>
+  </si>
+  <si>
+    <t>singing reggae songs</t>
+  </si>
+  <si>
+    <t>Ferdinand Magellan</t>
+  </si>
+  <si>
+    <t>searching for a new world</t>
+  </si>
+  <si>
+    <t>Ayn Rand</t>
+  </si>
+  <si>
+    <t>promoting Objectivism</t>
+  </si>
+  <si>
+    <t>selling dodgy goods</t>
+  </si>
+  <si>
+    <t>Confucius</t>
+  </si>
+  <si>
+    <t>spreading philosophy</t>
+  </si>
+  <si>
+    <t>Cicero</t>
+  </si>
+  <si>
+    <t>Mark Twain</t>
+  </si>
+  <si>
+    <t>writing folksy fiction</t>
+  </si>
+  <si>
+    <t>Richard Dawkins</t>
+  </si>
+  <si>
+    <t>promoting atheism</t>
+  </si>
+  <si>
+    <t>Tarzan</t>
+  </si>
+  <si>
+    <t>swinging from tree to tree</t>
+  </si>
+  <si>
+    <t>Russell Brand</t>
+  </si>
+  <si>
+    <t>Maximus Decimus Meridius</t>
+  </si>
+  <si>
+    <t>commanding Roman legions</t>
+  </si>
+  <si>
+    <t>terrorizing employees</t>
+  </si>
+  <si>
+    <t>Jor El</t>
+  </si>
+  <si>
+    <t>making escape plans</t>
+  </si>
+  <si>
+    <t>Billie Holiday</t>
+  </si>
+  <si>
+    <t>singing jazz songs</t>
+  </si>
+  <si>
+    <t>Alan Turing</t>
+  </si>
+  <si>
+    <t>studying computability</t>
+  </si>
+  <si>
+    <t>Joan Crawford</t>
+  </si>
+  <si>
+    <t>Norma Desmond</t>
+  </si>
+  <si>
+    <t>seducing toy boys</t>
+  </si>
+  <si>
+    <t>Princess Diana</t>
+  </si>
+  <si>
+    <t>carving magnificent statues</t>
+  </si>
+  <si>
+    <t>Nigella Lawson</t>
+  </si>
+  <si>
+    <t>Richie Rich</t>
+  </si>
+  <si>
+    <t>enjoying money</t>
+  </si>
+  <si>
+    <t>Queen Victoria</t>
+  </si>
+  <si>
+    <t>Adolf Hitler</t>
+  </si>
+  <si>
+    <t>launching a war</t>
+  </si>
+  <si>
+    <t>Jenna Jameson</t>
+  </si>
+  <si>
+    <t>starring in pornographic movies</t>
+  </si>
+  <si>
+    <t>Matt "Daredevil" Murdock</t>
+  </si>
+  <si>
+    <t>pursuing criminals</t>
+  </si>
+  <si>
+    <t>Bette Davis</t>
+  </si>
+  <si>
+    <t>John Merrick</t>
+  </si>
+  <si>
+    <t>hiding from the public</t>
+  </si>
+  <si>
+    <t>Ray Charles</t>
+  </si>
+  <si>
+    <t>singing the blues</t>
+  </si>
+  <si>
+    <t>Jar Jar Binks</t>
+  </si>
+  <si>
+    <t>providing comic relief</t>
+  </si>
+  <si>
+    <t>Sterling Archer</t>
+  </si>
+  <si>
+    <t>LeBron James</t>
+  </si>
+  <si>
+    <t>making dunk shots</t>
+  </si>
+  <si>
+    <t>David Beckham</t>
+  </si>
+  <si>
+    <t>promoting hair products</t>
+  </si>
+  <si>
+    <t>Brian Griffin</t>
+  </si>
+  <si>
+    <t>ranting about conservatives</t>
+  </si>
+  <si>
+    <t>Bill O'Reilly</t>
+  </si>
+  <si>
+    <t>Montgomery Burns</t>
+  </si>
+  <si>
+    <t>amassing wealth</t>
+  </si>
+  <si>
+    <t>blowing bubbles</t>
+  </si>
+  <si>
     <t>Jerry Maguire</t>
   </si>
   <si>
     <t>promoting greed</t>
   </si>
   <si>
-    <t>DS</t>
+    <t>John Wilkes Booth</t>
+  </si>
+  <si>
+    <t>assassinating presidents</t>
+  </si>
+  <si>
+    <t>Mick Jagger</t>
+  </si>
+  <si>
+    <t>writing rock songs</t>
+  </si>
+  <si>
+    <t>Jane Eyre</t>
+  </si>
+  <si>
+    <t>Christina Aguilera</t>
+  </si>
+  <si>
+    <t>Arthur Dent</t>
+  </si>
+  <si>
+    <t>drinking tea</t>
+  </si>
+  <si>
+    <t>Colonel Sanders</t>
+  </si>
+  <si>
+    <t>selling fried chicken</t>
+  </si>
+  <si>
+    <t>Angela Merkel</t>
+  </si>
+  <si>
+    <t>plotting election strategies</t>
+  </si>
+  <si>
+    <t>Meryl Streep</t>
+  </si>
+  <si>
+    <t>performing serious acting</t>
+  </si>
+  <si>
+    <t>Errol Flynn</t>
+  </si>
+  <si>
+    <t>Gustavo Fring</t>
+  </si>
+  <si>
+    <t>deep-frying chicken</t>
+  </si>
+  <si>
+    <t>Marilyn Monroe</t>
+  </si>
+  <si>
+    <t>Aristotle</t>
+  </si>
+  <si>
+    <t>Dr. John Watson</t>
+  </si>
+  <si>
+    <t>writing up case notes</t>
+  </si>
+  <si>
+    <t>Warren Buffett</t>
+  </si>
+  <si>
+    <t>giving investment advice</t>
+  </si>
+  <si>
+    <t>Fredo Corleone</t>
+  </si>
+  <si>
+    <t>complaining about big brother</t>
+  </si>
+  <si>
+    <t>John Belushi</t>
+  </si>
+  <si>
+    <t>frowning at errant husbands</t>
+  </si>
+  <si>
+    <t>Frodo Baggins</t>
+  </si>
+  <si>
+    <t>disposing of unwanted jewelry</t>
+  </si>
+  <si>
+    <t>squandering money</t>
+  </si>
+  <si>
+    <t>Jean-Paul Sartre</t>
+  </si>
+  <si>
+    <t>smoking Boyard cigarettes</t>
+  </si>
+  <si>
+    <t>Ridley Scott</t>
+  </si>
+  <si>
+    <t>directing science fiction movies</t>
+  </si>
+  <si>
+    <t>Gregor Mendel</t>
+  </si>
+  <si>
+    <t>tending the garden</t>
+  </si>
+  <si>
+    <t>Charlie Brown</t>
+  </si>
+  <si>
+    <t>playing baseball</t>
+  </si>
+  <si>
+    <t>promoting movie violence</t>
+  </si>
+  <si>
+    <t>Yogi Berra</t>
+  </si>
+  <si>
+    <t>Elton John</t>
+  </si>
+  <si>
+    <t>peacocking in fancy clothes</t>
+  </si>
+  <si>
+    <t>directing comedies</t>
+  </si>
+  <si>
+    <t>Katy Perry</t>
+  </si>
+  <si>
+    <t>Buddha</t>
+  </si>
+  <si>
+    <t>promoting Buddhism</t>
+  </si>
+  <si>
+    <t>Anna Karenina</t>
+  </si>
+  <si>
+    <t>worrying about adultery</t>
+  </si>
+  <si>
+    <t>promoting Kaballah</t>
+  </si>
+  <si>
+    <t>Tom Waits</t>
+  </si>
+  <si>
+    <t>writing blues songs</t>
+  </si>
+  <si>
+    <t>Bruce Springsteen</t>
+  </si>
+  <si>
+    <t>Tony Robbins</t>
+  </si>
+  <si>
+    <t>selling self-help books</t>
+  </si>
+  <si>
+    <t>Dr. Strangelove</t>
+  </si>
+  <si>
+    <t>pushing the hardline</t>
+  </si>
+  <si>
+    <t>Peter Rabbit</t>
+  </si>
+  <si>
+    <t>eating carrots</t>
+  </si>
+  <si>
+    <t>Orville Wright</t>
+  </si>
+  <si>
+    <t>promoting new technologies</t>
+  </si>
+  <si>
+    <t>Tim Burton</t>
+  </si>
+  <si>
+    <t>making bizarre movies</t>
+  </si>
+  <si>
+    <t>Billy Crystal</t>
+  </si>
+  <si>
+    <t>Dan Quayle</t>
+  </si>
+  <si>
+    <t>campaigning for the senate</t>
+  </si>
+  <si>
+    <t>Wayne Gretzky</t>
+  </si>
+  <si>
+    <t>playing ice hockey</t>
+  </si>
+  <si>
+    <t>Lance Armstrong</t>
+  </si>
+  <si>
+    <t>taking anabolic steroids</t>
+  </si>
+  <si>
+    <t>David Hasselhoff</t>
+  </si>
+  <si>
+    <t>constructing an ironic public image</t>
+  </si>
+  <si>
+    <t>writing cook books</t>
+  </si>
+  <si>
+    <t>Groundskeeper Willie MacDougal</t>
+  </si>
+  <si>
+    <t>cleaning floors</t>
+  </si>
+  <si>
+    <t>E.T.</t>
+  </si>
+  <si>
+    <t>phoning home</t>
+  </si>
+  <si>
+    <t>Sylvester Stallone</t>
+  </si>
+  <si>
+    <t>making action movies</t>
+  </si>
+  <si>
+    <t>Anthony Scaramucci</t>
+  </si>
+  <si>
+    <t>managing hedge funds</t>
+  </si>
+  <si>
+    <t>Tiger Woods</t>
+  </si>
+  <si>
+    <t>playing golf</t>
+  </si>
+  <si>
+    <t>Scott Evil</t>
+  </si>
+  <si>
+    <t>squabbling on television</t>
+  </si>
+  <si>
+    <t>Agent Phil Coulson</t>
+  </si>
+  <si>
+    <t>collecting Captain America trading cards</t>
+  </si>
+  <si>
+    <t>casting magic spells</t>
+  </si>
+  <si>
+    <t>Roy Batty</t>
+  </si>
+  <si>
+    <t>avoiding retirement</t>
+  </si>
+  <si>
+    <t>Bill Murray</t>
+  </si>
+  <si>
+    <t>telling dry jokes</t>
+  </si>
+  <si>
+    <t>Reince Priebus</t>
+  </si>
+  <si>
+    <t>Dolly Parton</t>
+  </si>
+  <si>
+    <t>singing country music</t>
+  </si>
+  <si>
+    <t>Bruce Banner</t>
+  </si>
+  <si>
+    <t>bursting out of shirts</t>
+  </si>
+  <si>
+    <t>Sarah Connor</t>
+  </si>
+  <si>
+    <t>preparing for the apocalypse</t>
+  </si>
+  <si>
+    <t>Natasha Romanova</t>
+  </si>
+  <si>
+    <t>spying for the enemy</t>
   </si>
   <si>
     <t>Johann Sebastian Bach</t>
   </si>
   <si>
-    <t>composing classical music</t>
-  </si>
-  <si>
-    <t>CS+DS</t>
-  </si>
-  <si>
-    <t>Marlene Dietrich</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>Condoleezza Rice</t>
-  </si>
-  <si>
-    <t>advising on foreign affairs</t>
-  </si>
-  <si>
-    <t>Sam Spade</t>
-  </si>
-  <si>
-    <t>solving mysteries</t>
-  </si>
-  <si>
-    <t>Al Capone</t>
-  </si>
-  <si>
-    <t>selling illegal alcohol</t>
-  </si>
-  <si>
-    <t>Dr. Strangelove</t>
-  </si>
-  <si>
-    <t>pushing the hardline</t>
-  </si>
-  <si>
-    <t>Lord Byron</t>
-  </si>
-  <si>
-    <t>seducing women</t>
-  </si>
-  <si>
-    <t>Bobby Fischer</t>
-  </si>
-  <si>
-    <t>playing aggressive chess</t>
-  </si>
-  <si>
-    <t>Pontius Pilate</t>
-  </si>
-  <si>
-    <t>obsessively washing hands</t>
-  </si>
-  <si>
-    <t>Ann Coulter</t>
-  </si>
-  <si>
-    <t>ranting about liberals</t>
-  </si>
-  <si>
-    <t>Marge Simpson</t>
-  </si>
-  <si>
-    <t>raising a family</t>
-  </si>
-  <si>
-    <t>Ivanka Trump</t>
-  </si>
-  <si>
-    <t>running a business empire</t>
-  </si>
-  <si>
-    <t>Wernher von Braun</t>
-  </si>
-  <si>
-    <t>building rocket ships</t>
-  </si>
-  <si>
-    <t>Joseph McCarthy</t>
-  </si>
-  <si>
-    <t>fighting for democracy</t>
-  </si>
-  <si>
-    <t>Jeffrey Lebowski</t>
-  </si>
-  <si>
-    <t>going bowling</t>
-  </si>
-  <si>
-    <t>Dexter Morgan</t>
-  </si>
-  <si>
-    <t>analyzing murder scenes</t>
-  </si>
-  <si>
-    <t>Jaime Lannister</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Tupac Shakur</t>
-  </si>
-  <si>
-    <t>producing Hipbop records</t>
-  </si>
-  <si>
-    <t>Nelson Muntz</t>
-  </si>
-  <si>
-    <t>bullying schoolkids</t>
-  </si>
-  <si>
-    <t>Ayn Rand</t>
-  </si>
-  <si>
-    <t>promoting Objectivism</t>
-  </si>
-  <si>
-    <t>Grace Jones</t>
-  </si>
-  <si>
-    <t>writing pop songs</t>
-  </si>
-  <si>
-    <t>Joey Tribbiani</t>
-  </si>
-  <si>
-    <t>Bridget Jones</t>
-  </si>
-  <si>
-    <t>moaning about men</t>
-  </si>
-  <si>
-    <t>Dr. Henry Jekyll</t>
-  </si>
-  <si>
-    <t>suppressing violent urges</t>
+    <t>playing the organ</t>
+  </si>
+  <si>
+    <t>Tim Berners-Lee</t>
+  </si>
+  <si>
+    <t>promoting the Web</t>
+  </si>
+  <si>
+    <t>Eliot Ness</t>
+  </si>
+  <si>
+    <t>fighting with the mob</t>
+  </si>
+  <si>
+    <t>Edward Scissorhands</t>
+  </si>
+  <si>
+    <t>making topiary sculptures</t>
+  </si>
+  <si>
+    <t>playing rock guitar</t>
+  </si>
+  <si>
+    <t>delivering forehand slams</t>
+  </si>
+  <si>
+    <t>Cameron Diaz</t>
+  </si>
+  <si>
+    <t>Jesus Christ</t>
+  </si>
+  <si>
+    <t>spreading Christianity</t>
+  </si>
+  <si>
+    <t>Wilson "Kingpin" Fisk</t>
+  </si>
+  <si>
+    <t>devising evil schemes</t>
+  </si>
+  <si>
+    <t>Moe Szyslak</t>
+  </si>
+  <si>
+    <t>falling for prank calls</t>
+  </si>
+  <si>
+    <t>Judas Iscariot</t>
+  </si>
+  <si>
+    <t>selling out</t>
+  </si>
+  <si>
+    <t>Fox Mulder</t>
+  </si>
+  <si>
+    <t>postulating bizarre theories</t>
+  </si>
+  <si>
+    <t>Arnold Schwarzenegger</t>
+  </si>
+  <si>
+    <t>Daniel Boone</t>
+  </si>
+  <si>
+    <t>hunting raccoons</t>
+  </si>
+  <si>
+    <t>Johnny Cash</t>
+  </si>
+  <si>
+    <t>Aung San Suu Kyi</t>
+  </si>
+  <si>
+    <t>campaigning for democracy</t>
+  </si>
+  <si>
+    <t>Kim Jung-un</t>
+  </si>
+  <si>
+    <t>amassing nuclear weapons</t>
+  </si>
+  <si>
+    <t>Kanye West</t>
+  </si>
+  <si>
+    <t>singing Hipbop songs</t>
+  </si>
+  <si>
+    <t>Mark Zuckerberg</t>
+  </si>
+  <si>
+    <t>hanging out on Facebook</t>
+  </si>
+  <si>
+    <t>Kenny G</t>
+  </si>
+  <si>
+    <t>playing the saxophone</t>
+  </si>
+  <si>
+    <t>promoting Darwinism</t>
+  </si>
+  <si>
+    <t>Pamela Anderson</t>
+  </si>
+  <si>
+    <t>monetizing physical assets</t>
+  </si>
+  <si>
+    <t>Buzz Lightyear</t>
+  </si>
+  <si>
+    <t>falling gracefully</t>
+  </si>
+  <si>
+    <t>Michelle Obama</t>
+  </si>
+  <si>
+    <t>promoting feminism</t>
+  </si>
+  <si>
+    <t>starring in daytime soap operas</t>
+  </si>
+  <si>
+    <t>Ben Affleck</t>
+  </si>
+  <si>
+    <t>making bad movie choices</t>
+  </si>
+  <si>
+    <t>Norman Bates</t>
+  </si>
+  <si>
+    <t>spying on girls</t>
+  </si>
+  <si>
+    <t>Bugs Bunny</t>
+  </si>
+  <si>
+    <t>eluding hunters</t>
+  </si>
+  <si>
+    <t>Jay Leno</t>
+  </si>
+  <si>
+    <t>Ashton Kutcher</t>
+  </si>
+  <si>
+    <t>starring in sit-coms</t>
+  </si>
+  <si>
+    <t>Chelsea Manning</t>
+  </si>
+  <si>
+    <t>leaking classified documents</t>
+  </si>
+  <si>
+    <t>Eddy Merckx</t>
+  </si>
+  <si>
+    <t>winning cycling races</t>
+  </si>
+  <si>
+    <t>Wayne Rooney</t>
+  </si>
+  <si>
+    <t>playing soccer</t>
+  </si>
+  <si>
+    <t>Christian Bale</t>
+  </si>
+  <si>
+    <t>John McCain</t>
+  </si>
+  <si>
+    <t>recruiting disaffected youths</t>
+  </si>
+  <si>
+    <t>Jim Carrey</t>
+  </si>
+  <si>
+    <t>gurning for the camera</t>
+  </si>
+  <si>
+    <t>Mae West</t>
+  </si>
+  <si>
+    <t>Samwise Gamgee</t>
+  </si>
+  <si>
+    <t>Nicolas Sarkozy</t>
+  </si>
+  <si>
+    <t>partying on yachts</t>
+  </si>
+  <si>
+    <t>Bear Grylls</t>
+  </si>
+  <si>
+    <t>licking frogs</t>
+  </si>
+  <si>
+    <t>Sean Penn</t>
+  </si>
+  <si>
+    <t>Charles Atlas</t>
+  </si>
+  <si>
+    <t>working out</t>
+  </si>
+  <si>
+    <t>Boris Johnson</t>
+  </si>
+  <si>
+    <t>George Armstrong Custer</t>
+  </si>
+  <si>
+    <t>going on commando missions</t>
+  </si>
+  <si>
+    <t>Eminem</t>
+  </si>
+  <si>
+    <t>writing rap songs</t>
+  </si>
+  <si>
+    <t>Bertie Wooster</t>
+  </si>
+  <si>
+    <t>doing the Charleston</t>
+  </si>
+  <si>
+    <t>Wolverine</t>
+  </si>
+  <si>
+    <t>slashing victims</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emmeline Pankhurst </t>
+  </si>
+  <si>
+    <t>Keyser Söze</t>
+  </si>
+  <si>
+    <t>eluding the FBI</t>
+  </si>
+  <si>
+    <t>King Solomon</t>
+  </si>
+  <si>
+    <t>Benny Hill</t>
+  </si>
+  <si>
+    <t>chasing old women</t>
+  </si>
+  <si>
+    <t>Boy George</t>
+  </si>
+  <si>
+    <t>investigating alien abductions</t>
+  </si>
+  <si>
+    <t>Ralph Nader</t>
+  </si>
+  <si>
+    <t>campaigning for consumer rights</t>
   </si>
   <si>
     <t>Reginald Jeeves</t>
@@ -185,1669 +1700,136 @@
     <t>rescuing aristocrats</t>
   </si>
   <si>
-    <t>Hunter S. Thompson</t>
-  </si>
-  <si>
-    <t>writing about manly pursuits</t>
-  </si>
-  <si>
-    <t>Bill O'Reilly</t>
-  </si>
-  <si>
-    <t>promoting conservative values</t>
-  </si>
-  <si>
-    <t>Euclid</t>
-  </si>
-  <si>
-    <t>proving math theorems</t>
-  </si>
-  <si>
-    <t>Justin Bieber</t>
-  </si>
-  <si>
-    <t>singing to teenagers</t>
-  </si>
-  <si>
-    <t>Sean Hannity</t>
-  </si>
-  <si>
-    <t>Gordon Gekko</t>
-  </si>
-  <si>
-    <t>promoting capitalism</t>
-  </si>
-  <si>
-    <t>Le Chiffre</t>
-  </si>
-  <si>
-    <t>cheating at poker</t>
+    <t>Shrek</t>
+  </si>
+  <si>
+    <t>wallowing in mud</t>
+  </si>
+  <si>
+    <t>whining at umpires</t>
+  </si>
+  <si>
+    <t>Tony Montana</t>
+  </si>
+  <si>
+    <t>running a crime family</t>
+  </si>
+  <si>
+    <t>Julius Caesar</t>
+  </si>
+  <si>
+    <t>running an empire</t>
   </si>
   <si>
     <t>Jesse Pinkman</t>
   </si>
   <si>
-    <t>running a criminal empire</t>
-  </si>
-  <si>
-    <t>Mr. Edward Hyde</t>
-  </si>
-  <si>
-    <t>expressing violent urges</t>
-  </si>
-  <si>
-    <t>Michael Corleone</t>
-  </si>
-  <si>
-    <t>running a crime family</t>
-  </si>
-  <si>
-    <t>Mrs. Doubtfire</t>
-  </si>
-  <si>
-    <t>impersonating women</t>
-  </si>
-  <si>
-    <t>Annie Oakley</t>
-  </si>
-  <si>
-    <t>promoting circus attractions</t>
-  </si>
-  <si>
-    <t>Marco Polo</t>
-  </si>
-  <si>
-    <t>exploring foreign countries</t>
-  </si>
-  <si>
-    <t>Pyotr Ilyich Tchaikovsky</t>
-  </si>
-  <si>
-    <t>Wyatt Earp</t>
-  </si>
-  <si>
-    <t>running a frontier town</t>
-  </si>
-  <si>
-    <t>Elmore Leonard</t>
-  </si>
-  <si>
-    <t>writing compelling dialogue</t>
-  </si>
-  <si>
-    <t>George Soros</t>
-  </si>
-  <si>
-    <t>managing hedge funds</t>
-  </si>
-  <si>
-    <t>making billions</t>
-  </si>
-  <si>
-    <t>Hugh Hefner</t>
-  </si>
-  <si>
-    <t>popping Viagra</t>
-  </si>
-  <si>
-    <t>Atticus Finch</t>
-  </si>
-  <si>
-    <t>representing the disenfranchised</t>
-  </si>
-  <si>
-    <t>Ashton Kutcher</t>
-  </si>
-  <si>
-    <t>starring in sit-coms</t>
-  </si>
-  <si>
-    <t>Eleanor Rigby</t>
-  </si>
-  <si>
-    <t>performing household chores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emmeline Pankhurst </t>
-  </si>
-  <si>
-    <t>campaigning for social causes</t>
-  </si>
-  <si>
-    <t>Victor Frankenstein</t>
-  </si>
-  <si>
-    <t>creating monsters</t>
-  </si>
-  <si>
-    <t>Stormy Daniels</t>
-  </si>
-  <si>
-    <t>starring in pornographic movies</t>
-  </si>
-  <si>
-    <t>Sauron</t>
-  </si>
-  <si>
-    <t>building an army</t>
-  </si>
-  <si>
-    <t>Pope Francis</t>
-  </si>
-  <si>
-    <t>promoting Catholic values</t>
-  </si>
-  <si>
-    <t>Bill Gates</t>
-  </si>
-  <si>
-    <t>funding a cure for malaria</t>
-  </si>
-  <si>
-    <t>Huckleberry Finn</t>
-  </si>
-  <si>
-    <t>growing up poor</t>
-  </si>
-  <si>
-    <t>Gregor Mendel</t>
-  </si>
-  <si>
-    <t>tending the garden</t>
-  </si>
-  <si>
-    <t>Thomas Jefferson</t>
-  </si>
-  <si>
-    <t>campaigning for democracy</t>
-  </si>
-  <si>
-    <t>Voltaire</t>
-  </si>
-  <si>
-    <t>promoting enlightenment</t>
-  </si>
-  <si>
-    <t>Nigel Tufnel</t>
-  </si>
-  <si>
-    <t>turning it up to 11</t>
-  </si>
-  <si>
-    <t>Daffy Duck</t>
-  </si>
-  <si>
-    <t>chasing rabbits</t>
-  </si>
-  <si>
-    <t>Barney Rubble</t>
-  </si>
-  <si>
-    <t>pedalling engine-less cars</t>
-  </si>
-  <si>
-    <t>Kylo Ren</t>
-  </si>
-  <si>
-    <t>promoting the Dark Side</t>
-  </si>
-  <si>
-    <t>Billy Bob Thornton</t>
-  </si>
-  <si>
-    <t>starring in indy movies</t>
-  </si>
-  <si>
-    <t>Don Draper</t>
-  </si>
-  <si>
-    <t>developing advertising campaigns</t>
-  </si>
-  <si>
-    <t>John McClane</t>
-  </si>
-  <si>
-    <t>foiling the schemes of evil villains</t>
-  </si>
-  <si>
-    <t>Jimi Hendrix</t>
-  </si>
-  <si>
-    <t>writing rock songs</t>
-  </si>
-  <si>
-    <t>Salvador Dali</t>
-  </si>
-  <si>
-    <t>creating optical illusions</t>
-  </si>
-  <si>
-    <t>Joe Louis</t>
-  </si>
-  <si>
-    <t>winning boxing matches</t>
-  </si>
-  <si>
-    <t>Richard B. Riddick</t>
-  </si>
-  <si>
-    <t>evading mercenaries</t>
-  </si>
-  <si>
-    <t>Rick Deckard</t>
-  </si>
-  <si>
-    <t>retiring replicants</t>
-  </si>
-  <si>
-    <t>singing pop songs</t>
-  </si>
-  <si>
-    <t>Bing Crosby</t>
-  </si>
-  <si>
-    <t>singing middle-of-the-road songs</t>
-  </si>
-  <si>
-    <t>Eddard Stark</t>
-  </si>
-  <si>
-    <t>Sterling Archer</t>
-  </si>
-  <si>
-    <t>kicking ass</t>
-  </si>
-  <si>
-    <t>Principal Seymour Skinner</t>
-  </si>
-  <si>
-    <t>looking after mother</t>
-  </si>
-  <si>
-    <t>Nigel Farage</t>
+    <t>cooking chrystal meth</t>
   </si>
   <si>
     <t>Tomás de Torquemada</t>
   </si>
   <si>
-    <t>Darth Maul</t>
-  </si>
-  <si>
-    <t>duelling acrobatically</t>
-  </si>
-  <si>
-    <t>David Blaine</t>
-  </si>
-  <si>
-    <t>performing street magic</t>
-  </si>
-  <si>
-    <t>Mark Zuckerberg</t>
-  </si>
-  <si>
-    <t>changing privacy settings</t>
-  </si>
-  <si>
-    <t>John McCain</t>
-  </si>
-  <si>
-    <t>campaigning for the presidency</t>
-  </si>
-  <si>
-    <t>Mother Teresa</t>
-  </si>
-  <si>
-    <t>Emily Dickinson</t>
-  </si>
-  <si>
-    <t>writing poetry</t>
-  </si>
-  <si>
-    <t>Santa Claus</t>
-  </si>
-  <si>
-    <t>delivering presents</t>
-  </si>
-  <si>
-    <t>Bob Marley</t>
-  </si>
-  <si>
-    <t>singing reggae songs</t>
-  </si>
-  <si>
-    <t>Peter Griffin</t>
-  </si>
-  <si>
-    <t>making silly decisions</t>
-  </si>
-  <si>
-    <t>Vincent Van Gogh</t>
-  </si>
-  <si>
-    <t>going slowly mad</t>
-  </si>
-  <si>
-    <t>John Keats</t>
-  </si>
-  <si>
-    <t>writing romantic poetry</t>
-  </si>
-  <si>
-    <t>Cher</t>
-  </si>
-  <si>
-    <t>R2D2</t>
-  </si>
-  <si>
-    <t>fighting for the rebel alliance</t>
-  </si>
-  <si>
-    <t>Karl Marx</t>
-  </si>
-  <si>
-    <t>arguing against capitalism</t>
-  </si>
-  <si>
-    <t>Michelangelo</t>
-  </si>
-  <si>
-    <t>carving magnificent statues</t>
-  </si>
-  <si>
-    <t>Jim Morrison</t>
-  </si>
-  <si>
-    <t>Hedda Hopper</t>
-  </si>
-  <si>
-    <t>Jim Carrey</t>
-  </si>
-  <si>
-    <t>pulling faces</t>
-  </si>
-  <si>
-    <t>Karl Rove</t>
-  </si>
-  <si>
-    <t>Ed Wood</t>
-  </si>
-  <si>
-    <t>directing science fiction movies</t>
-  </si>
-  <si>
-    <t>Billy Crystal</t>
-  </si>
-  <si>
-    <t>doing stand-up</t>
-  </si>
-  <si>
-    <t>Kobe Bryant</t>
+    <t>extracting confessions</t>
+  </si>
+  <si>
+    <t>Tina Fey</t>
+  </si>
+  <si>
+    <t>writing comedy</t>
+  </si>
+  <si>
+    <t>chasing criminals</t>
+  </si>
+  <si>
+    <t>pulling pranks</t>
+  </si>
+  <si>
+    <t>Joan Rivers</t>
   </si>
   <si>
     <t>playing basketball</t>
   </si>
   <si>
-    <t>Dante Alighieri</t>
-  </si>
-  <si>
-    <t>Grace Kelly</t>
-  </si>
-  <si>
-    <t>dining with playboy princes</t>
-  </si>
-  <si>
-    <t>Dr. John Watson</t>
-  </si>
-  <si>
-    <t>chasing criminals</t>
-  </si>
-  <si>
-    <t>Adam Sandler</t>
-  </si>
-  <si>
-    <t>making dumb comedies</t>
-  </si>
-  <si>
-    <t>Henry Miller</t>
-  </si>
-  <si>
-    <t>writing erotic fiction</t>
-  </si>
-  <si>
-    <t>Leonard Hofstadter</t>
-  </si>
-  <si>
-    <t>obeying annoying rules</t>
-  </si>
-  <si>
-    <t>Mayor Joe Quimby</t>
-  </si>
-  <si>
-    <t>taking bribes from organized crime</t>
-  </si>
-  <si>
-    <t>Jane Eyre</t>
-  </si>
-  <si>
-    <t>looking after children</t>
-  </si>
-  <si>
-    <t>Fred Flintstone</t>
+    <t>running a reich</t>
+  </si>
+  <si>
+    <t>Emperor Constantine</t>
+  </si>
+  <si>
+    <t>promoting nerd culture</t>
+  </si>
+  <si>
+    <t>Heath Ledger</t>
+  </si>
+  <si>
+    <t>Keith Richards</t>
+  </si>
+  <si>
+    <t>John Lennon</t>
+  </si>
+  <si>
+    <t>making lewd remarks</t>
+  </si>
+  <si>
+    <t>making fantasy movies</t>
+  </si>
+  <si>
+    <t>Glenn Beck</t>
+  </si>
+  <si>
+    <t>Kim Philby</t>
+  </si>
+  <si>
+    <t>leaking information</t>
+  </si>
+  <si>
+    <t>Jeremy Clarkson</t>
+  </si>
+  <si>
+    <t>insulting minorities</t>
   </si>
   <si>
     <t>eating dinosaur ribs</t>
   </si>
   <si>
-    <t>Simon Cowell</t>
-  </si>
-  <si>
-    <t>manipulating ingenues</t>
-  </si>
-  <si>
-    <t>Mel Brooks</t>
-  </si>
-  <si>
-    <t>writing funny movies</t>
-  </si>
-  <si>
-    <t>Monsieur Hulot</t>
-  </si>
-  <si>
-    <t>causing mayhem</t>
-  </si>
-  <si>
-    <t>Neville Chamberlain</t>
-  </si>
-  <si>
-    <t>appeasing belligerent dictators</t>
-  </si>
-  <si>
-    <t>Inspector Jacques Clouseau</t>
-  </si>
-  <si>
-    <t>solving crimes</t>
-  </si>
-  <si>
-    <t>Johann von Goethe</t>
-  </si>
-  <si>
-    <t>Glenn Beck</t>
-  </si>
-  <si>
-    <t>Willie Nelson</t>
-  </si>
-  <si>
-    <t>singing country music</t>
-  </si>
-  <si>
-    <t>Glenn Quagmire</t>
-  </si>
-  <si>
-    <t>looking for sex</t>
-  </si>
-  <si>
-    <t>Tyra Banks</t>
-  </si>
-  <si>
-    <t>modeling clothes</t>
-  </si>
-  <si>
-    <t>Stan Lee</t>
-  </si>
-  <si>
-    <t>inventing superheroes</t>
-  </si>
-  <si>
-    <t>Linus Torvalds</t>
-  </si>
-  <si>
-    <t>promoting open-source software</t>
-  </si>
-  <si>
-    <t>Gustavo Fring</t>
+    <t>Keith Moon</t>
+  </si>
+  <si>
+    <t>raising cain</t>
   </si>
   <si>
     <t>Weird Al Yankovic</t>
   </si>
   <si>
-    <t>singing parody songs</t>
-  </si>
-  <si>
-    <t>Michael O'Leary</t>
-  </si>
-  <si>
-    <t>promoting air travel</t>
-  </si>
-  <si>
-    <t>Cicero</t>
-  </si>
-  <si>
-    <t>defending plaintiffs</t>
-  </si>
-  <si>
-    <t>Homer</t>
-  </si>
-  <si>
-    <t>telling epic tales</t>
-  </si>
-  <si>
-    <t>Fagin</t>
-  </si>
-  <si>
-    <t>running a criminal enterprise</t>
-  </si>
-  <si>
-    <t>Bill Cosby</t>
-  </si>
-  <si>
-    <t>telling affable jokes</t>
-  </si>
-  <si>
-    <t>David Hasselhoff</t>
-  </si>
-  <si>
-    <t>starring in reality TV shows</t>
-  </si>
-  <si>
-    <t>Archie Bunker</t>
-  </si>
-  <si>
-    <t>ranting about minorities</t>
-  </si>
-  <si>
-    <t>Emperor Constantine</t>
-  </si>
-  <si>
-    <t>running an empire</t>
-  </si>
-  <si>
-    <t>Jason Bourne</t>
-  </si>
-  <si>
-    <t>eluding the CIA</t>
-  </si>
-  <si>
-    <t>Deepak Chopra</t>
-  </si>
-  <si>
-    <t>promoting Eastern philosophy</t>
-  </si>
-  <si>
-    <t>Mae West</t>
-  </si>
-  <si>
-    <t>Hillary Clinton</t>
-  </si>
-  <si>
-    <t>running for the senate</t>
-  </si>
-  <si>
-    <t>Krusty the Clown</t>
-  </si>
-  <si>
-    <t>introducing cartoons</t>
-  </si>
-  <si>
-    <t>Wilbur Wright</t>
-  </si>
-  <si>
-    <t>testing new technologies</t>
-  </si>
-  <si>
-    <t>Beyoncé</t>
-  </si>
-  <si>
-    <t>singing Hipbop songs</t>
-  </si>
-  <si>
-    <t>Ellen DeGeneres</t>
-  </si>
-  <si>
-    <t>interviewing celebrities</t>
-  </si>
-  <si>
-    <t>Gary Larson</t>
-  </si>
-  <si>
-    <t>drawing whimsical cartoons</t>
-  </si>
-  <si>
-    <t>Morpheus</t>
-  </si>
-  <si>
-    <t>searching for the messiah</t>
-  </si>
-  <si>
-    <t>devising evil schemes</t>
-  </si>
-  <si>
-    <t>Naomi Campbell</t>
-  </si>
-  <si>
-    <t>peacocking in fancy clothes</t>
-  </si>
-  <si>
-    <t>Woody Guthrie</t>
-  </si>
-  <si>
-    <t>James Brown</t>
-  </si>
-  <si>
-    <t>singing blues songs</t>
-  </si>
-  <si>
-    <t>Heath Ledger</t>
-  </si>
-  <si>
-    <t>Anthony Bourdain</t>
-  </si>
-  <si>
-    <t>eating the inedible</t>
-  </si>
-  <si>
-    <t>Marlon Brando</t>
-  </si>
-  <si>
-    <t>Caitlyn Jenner</t>
-  </si>
-  <si>
-    <t>Violet Baudelaire</t>
-  </si>
-  <si>
-    <t>pioneering new technologies</t>
-  </si>
-  <si>
-    <t>George McFly</t>
-  </si>
-  <si>
-    <t>standing up to bullies</t>
-  </si>
-  <si>
-    <t>Richard Dawkins</t>
-  </si>
-  <si>
-    <t>promoting science</t>
-  </si>
-  <si>
-    <t>Jack Sparrow</t>
-  </si>
-  <si>
-    <t>collecting pirate booty</t>
-  </si>
-  <si>
-    <t>Phoebe Buffay</t>
-  </si>
-  <si>
-    <t>singing goofy songs</t>
-  </si>
-  <si>
-    <t>Rainier Luftwaffe Wolfcastle</t>
-  </si>
-  <si>
-    <t>starring in action movies</t>
-  </si>
-  <si>
-    <t>Conan the Barbarian</t>
-  </si>
-  <si>
-    <t>Morgana Le Fay</t>
-  </si>
-  <si>
-    <t>teaching magic</t>
-  </si>
-  <si>
-    <t>Liz Lemon</t>
-  </si>
-  <si>
-    <t>writing comedy</t>
-  </si>
-  <si>
-    <t>Carl Bernstein</t>
-  </si>
-  <si>
-    <t>following the money</t>
-  </si>
-  <si>
-    <t>King Arthur</t>
-  </si>
-  <si>
-    <t>running a kingdom</t>
-  </si>
-  <si>
-    <t>Adolf Eichmann</t>
-  </si>
-  <si>
-    <t>Sydney Bristow</t>
-  </si>
-  <si>
-    <t>Waylon Smithers</t>
-  </si>
-  <si>
-    <t>currying favour</t>
-  </si>
-  <si>
-    <t>Mr. Miyagi</t>
-  </si>
-  <si>
-    <t>teaching martial arts</t>
-  </si>
-  <si>
-    <t>Wile E. Coyote</t>
-  </si>
-  <si>
-    <t>Winona Ryder</t>
-  </si>
-  <si>
-    <t>Andy Warhol</t>
-  </si>
-  <si>
-    <t>painting over photographs</t>
-  </si>
-  <si>
-    <t>Steve Martin</t>
-  </si>
-  <si>
-    <t>playing the banjo</t>
-  </si>
-  <si>
-    <t>Yosemite Sam</t>
-  </si>
-  <si>
-    <t>losing control</t>
-  </si>
-  <si>
-    <t>George W. Bush</t>
-  </si>
-  <si>
-    <t>launching foreign wars</t>
-  </si>
-  <si>
-    <t>eating exotic foods</t>
-  </si>
-  <si>
-    <t>Mike  Pence</t>
-  </si>
-  <si>
-    <t>Benito Mussolini</t>
-  </si>
-  <si>
-    <t>making trains run on time</t>
-  </si>
-  <si>
-    <t>Mr. Krabs</t>
-  </si>
-  <si>
-    <t>running a fast-food business</t>
-  </si>
-  <si>
-    <t>Trinity</t>
-  </si>
-  <si>
-    <t>hacking into corporate mainframes</t>
-  </si>
-  <si>
-    <t>Al Bundy</t>
-  </si>
-  <si>
-    <t>watching TV</t>
-  </si>
-  <si>
-    <t>Del Boy Trotter</t>
-  </si>
-  <si>
-    <t>selling tat</t>
-  </si>
-  <si>
-    <t>Abraham Lincoln</t>
-  </si>
-  <si>
-    <t>fighting for civil rights</t>
-  </si>
-  <si>
-    <t>Pac Man</t>
-  </si>
-  <si>
-    <t>eluding electronic ghosts</t>
-  </si>
-  <si>
-    <t>Walt Longmire</t>
-  </si>
-  <si>
-    <t>finding clues</t>
-  </si>
-  <si>
-    <t>LeBron James</t>
-  </si>
-  <si>
-    <t>promoting communism</t>
-  </si>
-  <si>
-    <t>Timothy McGee</t>
-  </si>
-  <si>
-    <t>fighting the forces of good</t>
-  </si>
-  <si>
-    <t>Saga Norén</t>
-  </si>
-  <si>
-    <t>Jerry Lee Lewis</t>
-  </si>
-  <si>
-    <t>playing rock piano</t>
-  </si>
-  <si>
-    <t>Emperor Caligula</t>
-  </si>
-  <si>
-    <t>abusing power</t>
-  </si>
-  <si>
-    <t>Pocahontas</t>
-  </si>
-  <si>
-    <t>bridging cultures</t>
-  </si>
-  <si>
-    <t>Troy McClure</t>
-  </si>
-  <si>
-    <t>hosting educational films</t>
-  </si>
-  <si>
-    <t>Monica Geller</t>
-  </si>
-  <si>
-    <t>arranging dinner parties</t>
-  </si>
-  <si>
-    <t>Mao Tse-tung</t>
+    <t>starring in TV shows</t>
+  </si>
+  <si>
+    <t>ruling over subjects</t>
+  </si>
+  <si>
+    <t>Leon Trotsky</t>
   </si>
   <si>
     <t>wielding political power</t>
   </si>
   <si>
-    <t>John Travolta</t>
-  </si>
-  <si>
-    <t>dancing to disco music</t>
-  </si>
-  <si>
-    <t>Ayatollah Khomeini</t>
-  </si>
-  <si>
-    <t>issuing fatwas</t>
-  </si>
-  <si>
-    <t>Christopher Columbus</t>
+    <t>Dian Fossey</t>
+  </si>
+  <si>
+    <t>living amongst apes</t>
   </si>
   <si>
     <t>exploring the new world</t>
   </si>
   <si>
-    <t>Paris Hilton</t>
-  </si>
-  <si>
-    <t>making unauthorized sex tapes</t>
-  </si>
-  <si>
-    <t>Theodore Roosevelt</t>
-  </si>
-  <si>
-    <t>pushing anti-trust legislation</t>
-  </si>
-  <si>
-    <t>Ron Burgundy</t>
-  </si>
-  <si>
-    <t>preening in front of the mirror</t>
-  </si>
-  <si>
-    <t>Dr. Julius No</t>
-  </si>
-  <si>
-    <t>Tim Berners-Lee</t>
-  </si>
-  <si>
-    <t>promoting the Web</t>
-  </si>
-  <si>
-    <t>painting church ceilings</t>
-  </si>
-  <si>
-    <t>John Grisham</t>
-  </si>
-  <si>
-    <t>writing legal fiction</t>
-  </si>
-  <si>
-    <t>Adam Smith</t>
-  </si>
-  <si>
-    <t>Commissioner James Gordon</t>
-  </si>
-  <si>
-    <t>arresting criminals</t>
-  </si>
-  <si>
-    <t>Pepé Le Pew</t>
-  </si>
-  <si>
-    <t>Thomas Aquinas</t>
-  </si>
-  <si>
-    <t>spreading philosophy</t>
-  </si>
-  <si>
-    <t>Frank Underwood</t>
-  </si>
-  <si>
-    <t>plotting election strategies</t>
-  </si>
-  <si>
-    <t>Megyn Kelly</t>
-  </si>
-  <si>
-    <t>Sylvia Plath</t>
-  </si>
-  <si>
-    <t>playing God</t>
-  </si>
-  <si>
-    <t>chasing murderers</t>
-  </si>
-  <si>
-    <t>Staff Member</t>
-  </si>
-  <si>
-    <t>Captain William Bligh</t>
-  </si>
-  <si>
-    <t>cracking the whip</t>
-  </si>
-  <si>
-    <t>Kellyanne Conway</t>
-  </si>
-  <si>
-    <t>offering advice</t>
-  </si>
-  <si>
-    <t>fighting for worker's rights</t>
-  </si>
-  <si>
-    <t>David Byrne</t>
-  </si>
-  <si>
-    <t>Morrissey</t>
-  </si>
-  <si>
-    <t>Kate Moss</t>
-  </si>
-  <si>
-    <t>selling cosmetics</t>
-  </si>
-  <si>
-    <t>Archimedes</t>
-  </si>
-  <si>
-    <t>Han Solo</t>
-  </si>
-  <si>
-    <t>doing the Kessel run</t>
-  </si>
-  <si>
-    <t>promoting democracy</t>
-  </si>
-  <si>
-    <t>Chief Clarence Wiggum</t>
-  </si>
-  <si>
-    <t>eating donuts</t>
-  </si>
-  <si>
-    <t>Garry Kasparov</t>
-  </si>
-  <si>
-    <t>Truman Capote</t>
-  </si>
-  <si>
-    <t>writing short stories</t>
-  </si>
-  <si>
-    <t>playing the organ</t>
-  </si>
-  <si>
-    <t>Mickey Mouse</t>
-  </si>
-  <si>
-    <t>starring in animated movies</t>
-  </si>
-  <si>
-    <t>Professor James Moriarty</t>
-  </si>
-  <si>
-    <t>amassing ill-gotten wealth</t>
-  </si>
-  <si>
-    <t>King Lear</t>
-  </si>
-  <si>
-    <t>going senile</t>
-  </si>
-  <si>
-    <t>Alan Partridge</t>
-  </si>
-  <si>
-    <t>hosting radio shows</t>
-  </si>
-  <si>
-    <t>Groucho Marx</t>
-  </si>
-  <si>
-    <t>starring in madcap comedies</t>
-  </si>
-  <si>
-    <t>Neil Armstrong</t>
-  </si>
-  <si>
-    <t>staring at the moon</t>
-  </si>
-  <si>
-    <t>Howard Hughes</t>
-  </si>
-  <si>
-    <t>running a movie studio</t>
-  </si>
-  <si>
-    <t>Charlemagne</t>
-  </si>
-  <si>
-    <t>consolidating an empire</t>
-  </si>
-  <si>
-    <t>selling dodgy goods</t>
-  </si>
-  <si>
-    <t>Eddie Murphy</t>
-  </si>
-  <si>
-    <t>starring in comedies</t>
-  </si>
-  <si>
-    <t>Brian Wilson</t>
-  </si>
-  <si>
-    <t>singing multipart harmonies</t>
-  </si>
-  <si>
-    <t>King Richard III</t>
-  </si>
-  <si>
-    <t>grabbing power</t>
-  </si>
-  <si>
-    <t>Steve Jobs</t>
-  </si>
-  <si>
-    <t>running a budget airline</t>
-  </si>
-  <si>
-    <t>Victor Meldrew</t>
-  </si>
-  <si>
-    <t>complaining about everything</t>
-  </si>
-  <si>
-    <t>Marco Pierre White</t>
-  </si>
-  <si>
-    <t>running restaurants</t>
-  </si>
-  <si>
-    <t>Reince Priebus</t>
-  </si>
-  <si>
-    <t>Jimmy Carter</t>
-  </si>
-  <si>
-    <t>building houses for poor people</t>
-  </si>
-  <si>
-    <t>Rocket Raccoon</t>
-  </si>
-  <si>
-    <t>guarding the galaxy</t>
-  </si>
-  <si>
-    <t>John Constantine</t>
-  </si>
-  <si>
-    <t>exorcising demons</t>
-  </si>
-  <si>
-    <t>Katniss Everdeen</t>
-  </si>
-  <si>
-    <t>fighting for justice</t>
-  </si>
-  <si>
-    <t>Simone de Beauvoir</t>
-  </si>
-  <si>
-    <t>promoting feminism</t>
-  </si>
-  <si>
-    <t>Bilbo Baggins</t>
-  </si>
-  <si>
-    <t>posing riddles</t>
-  </si>
-  <si>
-    <t>Romeo Montague</t>
-  </si>
-  <si>
-    <t>falling in love</t>
-  </si>
-  <si>
-    <t>Kim Jong-Il</t>
-  </si>
-  <si>
-    <t>crushing dissent</t>
-  </si>
-  <si>
-    <t>Leroy Jethro Gibbs</t>
-  </si>
-  <si>
-    <t>RuPaul</t>
-  </si>
-  <si>
-    <t>cross-dressing in women's clothes</t>
-  </si>
-  <si>
-    <t>Boudicca</t>
-  </si>
-  <si>
-    <t>instigating rebellion</t>
-  </si>
-  <si>
-    <t>Keyser Söze</t>
-  </si>
-  <si>
-    <t>eluding the FBI</t>
-  </si>
-  <si>
-    <t>Dick Cheney</t>
-  </si>
-  <si>
-    <t>promoting big business</t>
-  </si>
-  <si>
-    <t>Dan Quayle</t>
-  </si>
-  <si>
-    <t>campaigning for the senate</t>
-  </si>
-  <si>
-    <t>Richie Rich</t>
-  </si>
-  <si>
-    <t>enjoying money</t>
-  </si>
-  <si>
-    <t>Pablo Picasso</t>
-  </si>
-  <si>
-    <t>painting abstract pictures</t>
-  </si>
-  <si>
-    <t>Arya Stark</t>
-  </si>
-  <si>
-    <t>seeking revenge</t>
-  </si>
-  <si>
-    <t>Babe Ruth</t>
-  </si>
-  <si>
-    <t>hitting home runs</t>
-  </si>
-  <si>
-    <t>Marie Curie</t>
-  </si>
-  <si>
-    <t>extracting Radium from pitchblend</t>
-  </si>
-  <si>
-    <t>Shrek</t>
-  </si>
-  <si>
-    <t>wallowing in mud</t>
-  </si>
-  <si>
-    <t>writing epic poetry</t>
-  </si>
-  <si>
-    <t>Sir Hugo Drax</t>
-  </si>
-  <si>
-    <t>striving for world domination</t>
-  </si>
-  <si>
-    <t>performing magic tricks</t>
-  </si>
-  <si>
-    <t>Keith Moon</t>
-  </si>
-  <si>
-    <t>raising cain</t>
-  </si>
-  <si>
-    <t>Buzz Lightyear</t>
-  </si>
-  <si>
-    <t>falling gracefully</t>
-  </si>
-  <si>
-    <t>making action movies</t>
-  </si>
-  <si>
-    <t>plotting criminal schemes</t>
-  </si>
-  <si>
-    <t>Luis Suarez</t>
-  </si>
-  <si>
-    <t>biting opponents</t>
-  </si>
-  <si>
-    <t>Wolfgang Amadeus Mozart</t>
-  </si>
-  <si>
-    <t>Friedrich Nietzsche</t>
-  </si>
-  <si>
-    <t>promoting humanism</t>
-  </si>
-  <si>
-    <t>Sylvester the Cat</t>
-  </si>
-  <si>
-    <t>prowling for dinner</t>
-  </si>
-  <si>
-    <t>Frida Kahlo</t>
-  </si>
-  <si>
-    <t>painting self-portraits</t>
-  </si>
-  <si>
-    <t>Philip Marlowe</t>
-  </si>
-  <si>
-    <t>Michael Jackson</t>
-  </si>
-  <si>
-    <t>Daniel Boone</t>
-  </si>
-  <si>
-    <t>hunting raccoons</t>
-  </si>
-  <si>
-    <t>Steve Ballmer</t>
-  </si>
-  <si>
-    <t>running a technology company</t>
-  </si>
-  <si>
-    <t>Queen Elizabeth I</t>
-  </si>
-  <si>
-    <t>ruling over subjects</t>
-  </si>
-  <si>
-    <t>trading innuendo</t>
-  </si>
-  <si>
-    <t>Bono</t>
-  </si>
-  <si>
-    <t>avoiding taxes</t>
-  </si>
-  <si>
-    <t>smoking cigarettes</t>
-  </si>
-  <si>
-    <t>fighting in duels</t>
-  </si>
-  <si>
-    <t>Elmer Fudd</t>
-  </si>
-  <si>
-    <t>hunting rabbits</t>
-  </si>
-  <si>
-    <t>Yoda</t>
-  </si>
-  <si>
-    <t>fighting for the resistance</t>
-  </si>
-  <si>
-    <t>King Solomon</t>
-  </si>
-  <si>
-    <t>Ben Affleck</t>
-  </si>
-  <si>
-    <t>making bad movie choices</t>
-  </si>
-  <si>
-    <t>Nicolas Cage</t>
-  </si>
-  <si>
-    <t>over-acting</t>
-  </si>
-  <si>
-    <t>Pippi Longstocking</t>
-  </si>
-  <si>
-    <t>playing pranks</t>
-  </si>
-  <si>
-    <t>playing drums</t>
-  </si>
-  <si>
-    <t>Robert Redford</t>
-  </si>
-  <si>
-    <t>Tina Fey</t>
-  </si>
-  <si>
-    <t>going for a spacewalk</t>
-  </si>
-  <si>
-    <t>writing modern fiction</t>
-  </si>
-  <si>
-    <t>Blanche DuBois</t>
-  </si>
-  <si>
-    <t>Gwyneth Paltrow</t>
-  </si>
-  <si>
-    <t>running a new-age website</t>
-  </si>
-  <si>
-    <t>Peter Parker</t>
-  </si>
-  <si>
-    <t>maintaining a secret identity</t>
-  </si>
-  <si>
-    <t>Shirley Temple</t>
-  </si>
-  <si>
-    <t>Ophelia</t>
-  </si>
-  <si>
-    <t>talking in riddles</t>
-  </si>
-  <si>
-    <t>womanizing</t>
-  </si>
-  <si>
-    <t>Lee Harvey Oswald</t>
-  </si>
-  <si>
-    <t>assassinating presidents</t>
-  </si>
-  <si>
-    <t>Tony Blair</t>
-  </si>
-  <si>
-    <t>promoting liberal values</t>
-  </si>
-  <si>
-    <t>The Scarlet Pimpernel</t>
-  </si>
-  <si>
-    <t>Marcel Duchamp</t>
-  </si>
-  <si>
-    <t>challenging artistic norms</t>
-  </si>
-  <si>
-    <t>Mister Magoo</t>
-  </si>
-  <si>
-    <t>Harvey Weinstein</t>
-  </si>
-  <si>
-    <t>chasing after women</t>
-  </si>
-  <si>
-    <t>Greta Garbo</t>
-  </si>
-  <si>
-    <t>Ebenezer Scrooge</t>
-  </si>
-  <si>
-    <t>pinching pennies</t>
-  </si>
-  <si>
-    <t>squandering money</t>
-  </si>
-  <si>
-    <t>Sarah Silverman</t>
-  </si>
-  <si>
-    <t>Tony Soprano</t>
-  </si>
-  <si>
-    <t>Kim Philby</t>
-  </si>
-  <si>
-    <t>leaking information</t>
-  </si>
-  <si>
-    <t>Lisbeth Salander</t>
-  </si>
-  <si>
-    <t>John Belushi</t>
-  </si>
-  <si>
-    <t>casting magic spells</t>
-  </si>
-  <si>
-    <t>Lou Reed</t>
-  </si>
-  <si>
-    <t>playing rock music</t>
-  </si>
-  <si>
-    <t>Alexander Fleming</t>
-  </si>
-  <si>
-    <t>studying science</t>
-  </si>
-  <si>
-    <t>Hercule Poirot</t>
-  </si>
-  <si>
-    <t>tricking criminals</t>
-  </si>
-  <si>
-    <t>Peter Rabbit</t>
-  </si>
-  <si>
-    <t>eating carrots</t>
-  </si>
-  <si>
-    <t>Steven Spielberg</t>
-  </si>
-  <si>
-    <t>producing Hollywood movies</t>
-  </si>
-  <si>
-    <t>John Wayne</t>
-  </si>
-  <si>
-    <t>starring in cowboy movies</t>
-  </si>
-  <si>
-    <t>Sylvester Stallone</t>
-  </si>
-  <si>
-    <t>interpreting evidence</t>
-  </si>
-  <si>
-    <t>Buck Rogers</t>
-  </si>
-  <si>
-    <t>surviving in the 25th century</t>
-  </si>
-  <si>
-    <t>Michael Moore</t>
-  </si>
-  <si>
-    <t>complaining about capitalism</t>
-  </si>
-  <si>
-    <t>Franz Liszt</t>
-  </si>
-  <si>
-    <t>playing classical piano</t>
-  </si>
-  <si>
-    <t>Hans Gruber</t>
-  </si>
-  <si>
-    <t>organizing armed robberies</t>
-  </si>
-  <si>
-    <t>Bette Davis</t>
-  </si>
-  <si>
-    <t>Amelia Earhart</t>
-  </si>
-  <si>
-    <t>breaking records</t>
-  </si>
-  <si>
-    <t>Jenna Maroney</t>
-  </si>
-  <si>
-    <t>singing on TV shows</t>
-  </si>
-  <si>
-    <t>Katharine Hepburn</t>
-  </si>
-  <si>
-    <t>Alfred Nobel</t>
-  </si>
-  <si>
-    <t>promoting pacifism</t>
-  </si>
-  <si>
-    <t>Kevin Spacey</t>
-  </si>
-  <si>
-    <t>Captain America</t>
-  </si>
-  <si>
-    <t>Tarzan</t>
-  </si>
-  <si>
-    <t>swinging from tree to tree</t>
-  </si>
-  <si>
-    <t>flying airplanes</t>
-  </si>
-  <si>
-    <t>Sinead O'Connor</t>
-  </si>
-  <si>
-    <t>Spider-Man</t>
-  </si>
-  <si>
-    <t>Groundskeeper Willie MacDougal</t>
-  </si>
-  <si>
-    <t>cleaning floors</t>
-  </si>
-  <si>
-    <t>playing Baccarat</t>
-  </si>
-  <si>
-    <t>Antonio Vivaldi</t>
-  </si>
-  <si>
-    <t>Roy Batty</t>
-  </si>
-  <si>
-    <t>looking for immortality</t>
-  </si>
-  <si>
-    <t>James Bond</t>
-  </si>
-  <si>
-    <t>Jack Kerouac</t>
-  </si>
-  <si>
-    <t>driving around America</t>
-  </si>
-  <si>
-    <t>Ralph Nader</t>
-  </si>
-  <si>
-    <t>campaigning for consumer rights</t>
-  </si>
-  <si>
-    <t>Brad Pitt</t>
-  </si>
-  <si>
-    <t>Henry Ford</t>
-  </si>
-  <si>
-    <t>running assembly lines</t>
-  </si>
-  <si>
-    <t>George Foreman</t>
-  </si>
-  <si>
-    <t>knocking out opponents</t>
-  </si>
-  <si>
-    <t>James Cook</t>
-  </si>
-  <si>
-    <t>opening new markets</t>
-  </si>
-  <si>
-    <t>Morty Smith</t>
-  </si>
-  <si>
-    <t>spying on girls</t>
-  </si>
-  <si>
-    <t>Lex Luthor</t>
-  </si>
-  <si>
-    <t>launching hostile takeovers</t>
-  </si>
-  <si>
-    <t>Kevin Bacon</t>
-  </si>
-  <si>
-    <t>forming new social connections</t>
-  </si>
-  <si>
-    <t>Peter Jackson</t>
-  </si>
-  <si>
-    <t>making fantasy movies</t>
-  </si>
-  <si>
-    <t>promoting Fascism</t>
+    <t>Thanos</t>
+  </si>
+  <si>
+    <t>Amy Schumer</t>
+  </si>
+  <si>
+    <t>making vulgar jokes</t>
   </si>
 </sst>
 </file>
@@ -1906,7 +1888,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="31.08203125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="32.42578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="36.9765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.69921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -1962,7 +1944,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1973,7 +1955,7 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1984,7 +1966,7 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -2017,7 +1999,7 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -2039,7 +2021,7 @@
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -2050,7 +2032,7 @@
         <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14">
@@ -2061,7 +2043,7 @@
         <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -2083,7 +2065,7 @@
         <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -2094,7 +2076,7 @@
         <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -2105,7 +2087,7 @@
         <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -2127,7 +2109,7 @@
         <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -2146,32 +2128,32 @@
         <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
         <v>48</v>
       </c>
-      <c r="B23" t="s">
-        <v>49</v>
-      </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
         <v>50</v>
       </c>
-      <c r="B24" t="s">
-        <v>21</v>
-      </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -2182,7 +2164,7 @@
         <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26">
@@ -2204,7 +2186,7 @@
         <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28">
@@ -2215,7 +2197,7 @@
         <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29">
@@ -2223,18 +2205,18 @@
         <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
         <v>61</v>
-      </c>
-      <c r="B30" t="s">
-        <v>62</v>
       </c>
       <c r="C30" t="s">
         <v>11</v>
@@ -2242,24 +2224,24 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" t="s">
         <v>63</v>
       </c>
-      <c r="B31" t="s">
-        <v>64</v>
-      </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" t="s">
         <v>65</v>
       </c>
-      <c r="B32" t="s">
-        <v>27</v>
-      </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33">
@@ -2270,7 +2252,7 @@
         <v>67</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
@@ -2292,7 +2274,7 @@
         <v>71</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36">
@@ -2303,7 +2285,7 @@
         <v>73</v>
       </c>
       <c r="C36" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
@@ -2311,40 +2293,40 @@
         <v>74</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" t="s">
         <v>76</v>
       </c>
-      <c r="B38" t="s">
-        <v>77</v>
-      </c>
       <c r="C38" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" t="s">
         <v>78</v>
       </c>
-      <c r="B39" t="s">
-        <v>79</v>
-      </c>
       <c r="C39" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" t="s">
         <v>80</v>
-      </c>
-      <c r="B40" t="s">
-        <v>81</v>
       </c>
       <c r="C40" t="s">
         <v>8</v>
@@ -2352,13 +2334,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" t="s">
         <v>82</v>
       </c>
-      <c r="B41" t="s">
-        <v>7</v>
-      </c>
       <c r="C41" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42">
@@ -2380,7 +2362,7 @@
         <v>86</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44">
@@ -2391,18 +2373,18 @@
         <v>88</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="B45" t="s">
         <v>89</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46">
@@ -2413,7 +2395,7 @@
         <v>91</v>
       </c>
       <c r="C46" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47">
@@ -2424,7 +2406,7 @@
         <v>93</v>
       </c>
       <c r="C47" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48">
@@ -2435,7 +2417,7 @@
         <v>95</v>
       </c>
       <c r="C48" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49">
@@ -2446,7 +2428,7 @@
         <v>97</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50">
@@ -2487,51 +2469,51 @@
         <v>104</v>
       </c>
       <c r="B53" t="s">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="C53" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" t="s">
         <v>106</v>
       </c>
-      <c r="B54" t="s">
-        <v>107</v>
-      </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" t="s">
         <v>108</v>
       </c>
-      <c r="B55" t="s">
-        <v>109</v>
-      </c>
       <c r="C55" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" t="s">
         <v>110</v>
       </c>
-      <c r="B56" t="s">
-        <v>111</v>
-      </c>
       <c r="C56" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" t="s">
         <v>112</v>
-      </c>
-      <c r="B57" t="s">
-        <v>113</v>
       </c>
       <c r="C57" t="s">
         <v>8</v>
@@ -2539,76 +2521,76 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" t="s">
         <v>114</v>
       </c>
-      <c r="B58" t="s">
-        <v>115</v>
-      </c>
       <c r="C58" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B59" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B60" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C60" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B61" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C61" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B62" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C62" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C63" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B64" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C64" t="s">
         <v>8</v>
@@ -2616,21 +2598,21 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B65" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C65" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B66" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -2638,54 +2620,54 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B67" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B68" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C68" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B69" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C69" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B70" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C70" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B71" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -2693,10 +2675,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>48</v>
+        <v>140</v>
       </c>
       <c r="B72" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C72" t="s">
         <v>8</v>
@@ -2704,54 +2686,54 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>143</v>
+        <v>87</v>
       </c>
       <c r="B73" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B74" t="s">
-        <v>41</v>
+        <v>144</v>
       </c>
       <c r="C74" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
+        <v>145</v>
+      </c>
+      <c r="B75" t="s">
         <v>146</v>
       </c>
-      <c r="B75" t="s">
-        <v>147</v>
-      </c>
       <c r="C75" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
+        <v>147</v>
+      </c>
+      <c r="B76" t="s">
         <v>148</v>
       </c>
-      <c r="B76" t="s">
-        <v>149</v>
-      </c>
       <c r="C76" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
+        <v>149</v>
+      </c>
+      <c r="B77" t="s">
         <v>150</v>
-      </c>
-      <c r="B77" t="s">
-        <v>60</v>
       </c>
       <c r="C77" t="s">
         <v>11</v>
@@ -2762,7 +2744,7 @@
         <v>151</v>
       </c>
       <c r="B78" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="C78" t="s">
         <v>11</v>
@@ -2770,43 +2752,43 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B79" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C79" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B80" t="s">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="C80" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
+        <v>72</v>
+      </c>
+      <c r="B81" t="s">
         <v>156</v>
       </c>
-      <c r="B81" t="s">
-        <v>157</v>
-      </c>
       <c r="C81" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B82" t="s">
-        <v>159</v>
+        <v>65</v>
       </c>
       <c r="C82" t="s">
         <v>8</v>
@@ -2814,32 +2796,32 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B83" t="s">
-        <v>107</v>
+        <v>159</v>
       </c>
       <c r="C83" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
+        <v>160</v>
+      </c>
+      <c r="B84" t="s">
         <v>161</v>
       </c>
-      <c r="B84" t="s">
-        <v>162</v>
-      </c>
       <c r="C84" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
+        <v>162</v>
+      </c>
+      <c r="B85" t="s">
         <v>163</v>
-      </c>
-      <c r="B85" t="s">
-        <v>164</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -2847,10 +2829,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
+        <v>164</v>
+      </c>
+      <c r="B86" t="s">
         <v>165</v>
-      </c>
-      <c r="B86" t="s">
-        <v>166</v>
       </c>
       <c r="C86" t="s">
         <v>8</v>
@@ -2858,10 +2840,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
+        <v>166</v>
+      </c>
+      <c r="B87" t="s">
         <v>167</v>
-      </c>
-      <c r="B87" t="s">
-        <v>168</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -2869,21 +2851,21 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B88" t="s">
-        <v>170</v>
+        <v>41</v>
       </c>
       <c r="C88" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B89" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C89" t="s">
         <v>11</v>
@@ -2891,10 +2873,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B90" t="s">
-        <v>49</v>
+        <v>172</v>
       </c>
       <c r="C90" t="s">
         <v>8</v>
@@ -2902,46 +2884,46 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
+        <v>173</v>
+      </c>
+      <c r="B91" t="s">
         <v>174</v>
       </c>
-      <c r="B91" t="s">
-        <v>175</v>
-      </c>
       <c r="C91" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
+        <v>175</v>
+      </c>
+      <c r="B92" t="s">
         <v>176</v>
       </c>
-      <c r="B92" t="s">
-        <v>177</v>
-      </c>
       <c r="C92" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
+        <v>177</v>
+      </c>
+      <c r="B93" t="s">
         <v>178</v>
       </c>
-      <c r="B93" t="s">
-        <v>179</v>
-      </c>
       <c r="C93" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
+        <v>179</v>
+      </c>
+      <c r="B94" t="s">
         <v>180</v>
       </c>
-      <c r="B94" t="s">
-        <v>133</v>
-      </c>
       <c r="C94" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95">
@@ -2949,21 +2931,21 @@
         <v>181</v>
       </c>
       <c r="B95" t="s">
-        <v>60</v>
+        <v>182</v>
       </c>
       <c r="C95" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B96" t="s">
-        <v>183</v>
+        <v>31</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97">
@@ -2971,10 +2953,10 @@
         <v>184</v>
       </c>
       <c r="B97" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="C97" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98">
@@ -2996,7 +2978,7 @@
         <v>188</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100">
@@ -3007,7 +2989,7 @@
         <v>190</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="101">
@@ -3015,18 +2997,18 @@
         <v>191</v>
       </c>
       <c r="B101" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B102" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C102" t="s">
         <v>11</v>
@@ -3034,21 +3016,21 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B103" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C103" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B104" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C104" t="s">
         <v>11</v>
@@ -3056,10 +3038,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B105" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C105" t="s">
         <v>8</v>
@@ -3067,21 +3049,21 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B106" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C106" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B107" t="s">
-        <v>203</v>
+        <v>43</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -3106,48 +3088,48 @@
         <v>207</v>
       </c>
       <c r="C109" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
+        <v>26</v>
+      </c>
+      <c r="B110" t="s">
         <v>208</v>
       </c>
-      <c r="B110" t="s">
-        <v>209</v>
-      </c>
       <c r="C110" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B111" t="s">
-        <v>211</v>
+        <v>119</v>
       </c>
       <c r="C111" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>212</v>
+        <v>74</v>
       </c>
       <c r="B112" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C112" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B113" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C113" t="s">
         <v>11</v>
@@ -3155,21 +3137,21 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B114" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C114" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B115" t="s">
-        <v>162</v>
+        <v>216</v>
       </c>
       <c r="C115" t="s">
         <v>11</v>
@@ -3177,10 +3159,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B116" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="C116" t="s">
         <v>11</v>
@@ -3188,32 +3170,32 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B117" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C117" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B118" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C118" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B119" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C119" t="s">
         <v>8</v>
@@ -3221,21 +3203,21 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B120" t="s">
-        <v>227</v>
+        <v>119</v>
       </c>
       <c r="C120" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B121" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C121" t="s">
         <v>8</v>
@@ -3243,43 +3225,43 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B122" t="s">
-        <v>71</v>
+        <v>228</v>
       </c>
       <c r="C122" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>231</v>
+        <v>166</v>
       </c>
       <c r="B123" t="s">
-        <v>232</v>
+        <v>146</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B124" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B125" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C125" t="s">
         <v>8</v>
@@ -3287,32 +3269,32 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B126" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C126" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B127" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C127" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>241</v>
+        <v>145</v>
       </c>
       <c r="B128" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C128" t="s">
         <v>11</v>
@@ -3320,76 +3302,76 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B129" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C129" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B130" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C130" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B131" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C131" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B132" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C132" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B133" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B134" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B135" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C135" t="s">
         <v>11</v>
@@ -3397,10 +3379,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B136" t="s">
-        <v>257</v>
+        <v>31</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -3408,120 +3390,120 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B137" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B138" t="s">
-        <v>261</v>
+        <v>210</v>
       </c>
       <c r="C138" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B139" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C139" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B140" t="s">
-        <v>265</v>
+        <v>80</v>
       </c>
       <c r="C140" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="B141" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C141" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>68</v>
+        <v>260</v>
       </c>
       <c r="B142" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C142" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B143" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B144" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B145" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B146" t="s">
-        <v>10</v>
+        <v>268</v>
       </c>
       <c r="C146" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B147" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C147" t="s">
         <v>11</v>
@@ -3529,10 +3511,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B148" t="s">
-        <v>99</v>
+        <v>272</v>
       </c>
       <c r="C148" t="s">
         <v>8</v>
@@ -3540,32 +3522,32 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B149" t="s">
-        <v>99</v>
+        <v>274</v>
       </c>
       <c r="C149" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>279</v>
+        <v>215</v>
       </c>
       <c r="B150" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C150" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B151" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -3573,10 +3555,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B152" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C152" t="s">
         <v>11</v>
@@ -3584,10 +3566,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B153" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -3595,54 +3577,54 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B154" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C154" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B155" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C155" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B156" t="s">
-        <v>131</v>
+        <v>287</v>
       </c>
       <c r="C156" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B157" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C157" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B158" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -3650,10 +3632,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B159" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C159" t="s">
         <v>8</v>
@@ -3661,21 +3643,21 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B160" t="s">
-        <v>299</v>
+        <v>31</v>
       </c>
       <c r="C160" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>300</v>
+        <v>124</v>
       </c>
       <c r="B161" t="s">
-        <v>240</v>
+        <v>295</v>
       </c>
       <c r="C161" t="s">
         <v>8</v>
@@ -3683,32 +3665,32 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B162" t="s">
-        <v>147</v>
+        <v>297</v>
       </c>
       <c r="C162" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B163" t="s">
-        <v>303</v>
+        <v>27</v>
       </c>
       <c r="C163" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B164" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -3716,43 +3698,43 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B165" t="s">
-        <v>259</v>
+        <v>21</v>
       </c>
       <c r="C165" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B166" t="s">
-        <v>10</v>
+        <v>303</v>
       </c>
       <c r="C166" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B167" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C167" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B168" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C168" t="s">
         <v>8</v>
@@ -3760,43 +3742,43 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B169" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C169" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B170" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
       <c r="B171" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C171" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>317</v>
+        <v>111</v>
       </c>
       <c r="B172" t="s">
-        <v>60</v>
+        <v>314</v>
       </c>
       <c r="C172" t="s">
         <v>8</v>
@@ -3804,10 +3786,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B173" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C173" t="s">
         <v>11</v>
@@ -3815,10 +3797,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B174" t="s">
-        <v>321</v>
+        <v>237</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -3826,10 +3808,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B175" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -3837,32 +3819,32 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B176" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C176" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B177" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C177" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B178" t="s">
-        <v>329</v>
+        <v>63</v>
       </c>
       <c r="C178" t="s">
         <v>11</v>
@@ -3870,43 +3852,43 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B179" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C179" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>14</v>
+        <v>302</v>
       </c>
       <c r="B180" t="s">
-        <v>217</v>
+        <v>327</v>
       </c>
       <c r="C180" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B181" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C181" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B182" t="s">
-        <v>190</v>
+        <v>331</v>
       </c>
       <c r="C182" t="s">
         <v>11</v>
@@ -3914,21 +3896,21 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>176</v>
+        <v>332</v>
       </c>
       <c r="B183" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C183" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B184" t="s">
-        <v>217</v>
+        <v>31</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -3936,21 +3918,21 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>152</v>
+        <v>335</v>
       </c>
       <c r="B185" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C185" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B186" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -3958,32 +3940,32 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>339</v>
+        <v>290</v>
       </c>
       <c r="B187" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B188" t="s">
-        <v>342</v>
+        <v>152</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B189" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C189" t="s">
         <v>8</v>
@@ -3991,10 +3973,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B190" t="s">
-        <v>346</v>
+        <v>76</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -4002,10 +3984,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B191" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -4013,21 +3995,21 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B192" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C192" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B193" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C193" t="s">
         <v>8</v>
@@ -4035,21 +4017,21 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B194" t="s">
-        <v>354</v>
+        <v>31</v>
       </c>
       <c r="C194" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B195" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C195" t="s">
         <v>11</v>
@@ -4057,65 +4039,65 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B196" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C196" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B197" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C197" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="B198" t="s">
-        <v>362</v>
+        <v>41</v>
       </c>
       <c r="C198" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B199" t="s">
-        <v>268</v>
+        <v>216</v>
       </c>
       <c r="C199" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="B200" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="C200" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>178</v>
+        <v>359</v>
       </c>
       <c r="B201" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C201" t="s">
         <v>11</v>
@@ -4123,43 +4105,43 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B202" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C202" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B203" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="C203" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B204" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C204" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>372</v>
+        <v>312</v>
       </c>
       <c r="B205" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -4167,43 +4149,43 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>373</v>
+        <v>242</v>
       </c>
       <c r="B206" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="C206" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="B207" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C207" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B208" t="s">
-        <v>27</v>
+        <v>370</v>
       </c>
       <c r="C208" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B209" t="s">
-        <v>162</v>
+        <v>372</v>
       </c>
       <c r="C209" t="s">
         <v>11</v>
@@ -4211,21 +4193,21 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>100</v>
+        <v>373</v>
       </c>
       <c r="B210" t="s">
-        <v>379</v>
+        <v>13</v>
       </c>
       <c r="C210" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>38</v>
+        <v>374</v>
       </c>
       <c r="B211" t="s">
-        <v>380</v>
+        <v>21</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -4233,153 +4215,153 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B212" t="s">
-        <v>1</v>
+        <v>376</v>
       </c>
       <c r="C212" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B213" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C213" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B214" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C214" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>176</v>
+        <v>381</v>
       </c>
       <c r="B215" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C215" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B216" t="s">
-        <v>49</v>
+        <v>176</v>
       </c>
       <c r="C216" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B217" t="s">
-        <v>49</v>
+        <v>385</v>
       </c>
       <c r="C217" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B218" t="s">
-        <v>390</v>
+        <v>31</v>
       </c>
       <c r="C218" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B219" t="s">
-        <v>62</v>
+        <v>283</v>
       </c>
       <c r="C219" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B220" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C220" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>34</v>
+        <v>390</v>
       </c>
       <c r="B221" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C221" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B222" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C222" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B223" t="s">
-        <v>23</v>
+        <v>297</v>
       </c>
       <c r="C223" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>398</v>
+        <v>166</v>
       </c>
       <c r="B224" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C224" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>6</v>
+        <v>396</v>
       </c>
       <c r="B225" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C225" t="s">
         <v>8</v>
@@ -4387,21 +4369,21 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>401</v>
+        <v>340</v>
       </c>
       <c r="B226" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C226" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B227" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -4409,32 +4391,32 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B228" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C228" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B229" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C229" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B230" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C230" t="s">
         <v>8</v>
@@ -4442,21 +4424,21 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>411</v>
+        <v>160</v>
       </c>
       <c r="B231" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C231" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B232" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="C232" t="s">
         <v>11</v>
@@ -4464,54 +4446,54 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B233" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C233" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>326</v>
+        <v>249</v>
       </c>
       <c r="B234" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C234" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B235" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="C235" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B236" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="C236" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B237" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="C237" t="s">
         <v>8</v>
@@ -4519,10 +4501,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>424</v>
+        <v>301</v>
       </c>
       <c r="B238" t="s">
-        <v>280</v>
+        <v>417</v>
       </c>
       <c r="C238" t="s">
         <v>11</v>
@@ -4530,32 +4512,32 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>233</v>
+        <v>418</v>
       </c>
       <c r="B239" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="C239" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B240" t="s">
-        <v>427</v>
+        <v>289</v>
       </c>
       <c r="C240" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="B241" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="C241" t="s">
         <v>11</v>
@@ -4563,10 +4545,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="B242" t="s">
-        <v>60</v>
+        <v>424</v>
       </c>
       <c r="C242" t="s">
         <v>8</v>
@@ -4574,32 +4556,32 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B243" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C243" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B244" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="C244" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B245" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -4607,43 +4589,43 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B246" t="s">
-        <v>438</v>
+        <v>63</v>
       </c>
       <c r="C246" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="B247" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="C247" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="B248" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="C248" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="B249" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -4651,32 +4633,32 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="B250" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="C250" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>447</v>
+        <v>339</v>
       </c>
       <c r="B251" t="s">
-        <v>333</v>
+        <v>440</v>
       </c>
       <c r="C251" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="B252" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="C252" t="s">
         <v>8</v>
@@ -4684,10 +4666,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="B253" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="C253" t="s">
         <v>8</v>
@@ -4695,21 +4677,21 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="B254" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="C254" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="B255" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="C255" t="s">
         <v>11</v>
@@ -4717,32 +4699,32 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="B256" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="C256" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>458</v>
+        <v>46</v>
       </c>
       <c r="B257" t="s">
-        <v>459</v>
+        <v>41</v>
       </c>
       <c r="C257" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="B258" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="C258" t="s">
         <v>8</v>
@@ -4750,21 +4732,21 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="B259" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="C259" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>464</v>
+        <v>36</v>
       </c>
       <c r="B260" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="C260" t="s">
         <v>8</v>
@@ -4772,10 +4754,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="B261" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="C261" t="s">
         <v>8</v>
@@ -4783,21 +4765,21 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="B262" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="C262" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>237</v>
+        <v>460</v>
       </c>
       <c r="B263" t="s">
-        <v>470</v>
+        <v>119</v>
       </c>
       <c r="C263" t="s">
         <v>11</v>
@@ -4805,10 +4787,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="B264" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -4816,21 +4798,21 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>154</v>
+        <v>463</v>
       </c>
       <c r="B265" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="C265" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="B266" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="C266" t="s">
         <v>8</v>
@@ -4838,32 +4820,32 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="B267" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="C267" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>289</v>
+        <v>469</v>
       </c>
       <c r="B268" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="C268" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>403</v>
+        <v>471</v>
       </c>
       <c r="B269" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -4871,21 +4853,21 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="B270" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="C270" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="B271" t="s">
-        <v>7</v>
+        <v>476</v>
       </c>
       <c r="C271" t="s">
         <v>8</v>
@@ -4893,21 +4875,21 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>483</v>
+        <v>47</v>
       </c>
       <c r="B272" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="C272" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>485</v>
+        <v>134</v>
       </c>
       <c r="B273" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -4915,109 +4897,109 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="B274" t="s">
-        <v>488</v>
+        <v>58</v>
       </c>
       <c r="C274" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="B275" t="s">
-        <v>15</v>
+        <v>481</v>
       </c>
       <c r="C275" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="B276" t="s">
-        <v>142</v>
+        <v>483</v>
       </c>
       <c r="C276" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>418</v>
+        <v>484</v>
       </c>
       <c r="B277" t="s">
-        <v>290</v>
+        <v>485</v>
       </c>
       <c r="C277" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="B278" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="C278" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="B279" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="C279" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="B280" t="s">
-        <v>496</v>
+        <v>446</v>
       </c>
       <c r="C280" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>253</v>
+        <v>447</v>
       </c>
       <c r="B281" t="s">
-        <v>497</v>
+        <v>119</v>
       </c>
       <c r="C281" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="B282" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="C282" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>51</v>
+        <v>493</v>
       </c>
       <c r="B283" t="s">
-        <v>500</v>
+        <v>462</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -5025,21 +5007,21 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>443</v>
+        <v>494</v>
       </c>
       <c r="B284" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="C284" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="B285" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
@@ -5047,21 +5029,21 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="B286" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="C286" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B287" t="s">
-        <v>299</v>
+        <v>501</v>
       </c>
       <c r="C287" t="s">
         <v>11</v>
@@ -5069,10 +5051,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B288" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C288" t="s">
         <v>11</v>
@@ -5080,21 +5062,21 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>509</v>
+        <v>320</v>
       </c>
       <c r="B289" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="C289" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B290" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -5102,10 +5084,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>474</v>
+        <v>507</v>
       </c>
       <c r="B291" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C291" t="s">
         <v>8</v>
@@ -5113,21 +5095,21 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="B292" t="s">
-        <v>10</v>
+        <v>510</v>
       </c>
       <c r="C292" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>515</v>
+        <v>233</v>
       </c>
       <c r="B293" t="s">
-        <v>295</v>
+        <v>511</v>
       </c>
       <c r="C293" t="s">
         <v>8</v>
@@ -5135,10 +5117,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>411</v>
+        <v>512</v>
       </c>
       <c r="B294" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C294" t="s">
         <v>11</v>
@@ -5146,32 +5128,32 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>398</v>
+        <v>514</v>
       </c>
       <c r="B295" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C295" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B296" t="s">
-        <v>52</v>
+        <v>517</v>
       </c>
       <c r="C296" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B297" t="s">
-        <v>520</v>
+        <v>63</v>
       </c>
       <c r="C297" t="s">
         <v>11</v>
@@ -5179,10 +5161,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B298" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -5190,10 +5172,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>523</v>
+        <v>371</v>
       </c>
       <c r="B299" t="s">
-        <v>10</v>
+        <v>289</v>
       </c>
       <c r="C299" t="s">
         <v>11</v>
@@ -5201,10 +5183,10 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B300" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C300" t="s">
         <v>5</v>
@@ -5212,10 +5194,10 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>20</v>
+        <v>523</v>
       </c>
       <c r="B301" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C301" t="s">
         <v>11</v>
@@ -5223,32 +5205,32 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B302" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C302" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B303" t="s">
-        <v>530</v>
+        <v>287</v>
       </c>
       <c r="C303" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B304" t="s">
-        <v>56</v>
+        <v>146</v>
       </c>
       <c r="C304" t="s">
         <v>5</v>
@@ -5256,43 +5238,43 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>532</v>
+        <v>181</v>
       </c>
       <c r="B305" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C305" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B306" t="s">
-        <v>213</v>
+        <v>531</v>
       </c>
       <c r="C306" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B307" t="s">
-        <v>536</v>
+        <v>31</v>
       </c>
       <c r="C307" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B308" t="s">
-        <v>10</v>
+        <v>404</v>
       </c>
       <c r="C308" t="s">
         <v>8</v>
@@ -5300,43 +5282,43 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B309" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C309" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>458</v>
+        <v>536</v>
       </c>
       <c r="B310" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C310" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B311" t="s">
-        <v>188</v>
+        <v>31</v>
       </c>
       <c r="C311" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B312" t="s">
-        <v>248</v>
+        <v>540</v>
       </c>
       <c r="C312" t="s">
         <v>5</v>
@@ -5344,57 +5326,57 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B313" t="s">
-        <v>544</v>
+        <v>119</v>
       </c>
       <c r="C313" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>452</v>
+        <v>542</v>
       </c>
       <c r="B314" t="s">
-        <v>240</v>
+        <v>196</v>
       </c>
       <c r="C314" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>545</v>
+        <v>213</v>
       </c>
       <c r="B315" t="s">
-        <v>323</v>
+        <v>543</v>
       </c>
       <c r="C315" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B316" t="s">
-        <v>410</v>
+        <v>545</v>
       </c>
       <c r="C316" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>292</v>
+        <v>546</v>
       </c>
       <c r="B317" t="s">
         <v>547</v>
       </c>
       <c r="C317" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="318">
@@ -5413,7 +5395,7 @@
         <v>550</v>
       </c>
       <c r="B319" t="s">
-        <v>551</v>
+        <v>510</v>
       </c>
       <c r="C319" t="s">
         <v>11</v>
@@ -5421,35 +5403,35 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
+        <v>551</v>
+      </c>
+      <c r="B320" t="s">
         <v>552</v>
       </c>
-      <c r="B320" t="s">
-        <v>553</v>
-      </c>
       <c r="C320" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B321" t="s">
-        <v>555</v>
+        <v>76</v>
       </c>
       <c r="C321" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>83</v>
+        <v>554</v>
       </c>
       <c r="B322" t="s">
-        <v>371</v>
+        <v>555</v>
       </c>
       <c r="C322" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="323">
@@ -5457,18 +5439,18 @@
         <v>556</v>
       </c>
       <c r="B323" t="s">
-        <v>557</v>
+        <v>41</v>
       </c>
       <c r="C323" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>200</v>
+        <v>381</v>
       </c>
       <c r="B324" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="C324" t="s">
         <v>5</v>
@@ -5476,10 +5458,10 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>558</v>
+        <v>488</v>
       </c>
       <c r="B325" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C325" t="s">
         <v>8</v>
@@ -5487,24 +5469,24 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B326" t="s">
-        <v>478</v>
+        <v>559</v>
       </c>
       <c r="C326" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>447</v>
+        <v>560</v>
       </c>
       <c r="B327" t="s">
         <v>561</v>
       </c>
       <c r="C327" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="328">
@@ -5515,59 +5497,59 @@
         <v>563</v>
       </c>
       <c r="C328" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="s">
+        <v>134</v>
+      </c>
+      <c r="B329" t="s">
         <v>564</v>
       </c>
-      <c r="B329" t="s">
-        <v>565</v>
-      </c>
       <c r="C329" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="s">
+        <v>565</v>
+      </c>
+      <c r="B330" t="s">
         <v>566</v>
       </c>
-      <c r="B330" t="s">
-        <v>567</v>
-      </c>
       <c r="C330" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="s">
+        <v>567</v>
+      </c>
+      <c r="B331" t="s">
         <v>568</v>
       </c>
-      <c r="B331" t="s">
-        <v>569</v>
-      </c>
       <c r="C331" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>570</v>
+        <v>356</v>
       </c>
       <c r="B332" t="s">
-        <v>10</v>
+        <v>543</v>
       </c>
       <c r="C332" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B333" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C333" t="s">
         <v>8</v>
@@ -5575,10 +5557,10 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B334" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C334" t="s">
         <v>5</v>
@@ -5586,21 +5568,21 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B335" t="s">
-        <v>10</v>
+        <v>574</v>
       </c>
       <c r="C335" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>576</v>
+        <v>388</v>
       </c>
       <c r="B336" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C336" t="s">
         <v>8</v>
@@ -5608,21 +5590,21 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>578</v>
+        <v>516</v>
       </c>
       <c r="B337" t="s">
-        <v>10</v>
+        <v>576</v>
       </c>
       <c r="C337" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B338" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="C338" t="s">
         <v>5</v>
@@ -5630,10 +5612,10 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>580</v>
+        <v>357</v>
       </c>
       <c r="B339" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C339" t="s">
         <v>5</v>
@@ -5641,54 +5623,54 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>506</v>
+        <v>343</v>
       </c>
       <c r="B340" t="s">
-        <v>496</v>
+        <v>579</v>
       </c>
       <c r="C340" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>571</v>
+        <v>77</v>
       </c>
       <c r="B341" t="s">
-        <v>582</v>
+        <v>439</v>
       </c>
       <c r="C341" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B342" t="s">
-        <v>142</v>
+        <v>568</v>
       </c>
       <c r="C342" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>584</v>
+        <v>235</v>
       </c>
       <c r="B343" t="s">
-        <v>553</v>
+        <v>581</v>
       </c>
       <c r="C343" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B344" t="s">
-        <v>586</v>
+        <v>31</v>
       </c>
       <c r="C344" t="s">
         <v>5</v>
@@ -5696,32 +5678,32 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>68</v>
+        <v>583</v>
       </c>
       <c r="B345" t="s">
-        <v>587</v>
+        <v>48</v>
       </c>
       <c r="C345" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B346" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C346" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>589</v>
+        <v>532</v>
       </c>
       <c r="B347" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="C347" t="s">
         <v>5</v>
@@ -5729,54 +5711,54 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>591</v>
+        <v>401</v>
       </c>
       <c r="B348" t="s">
-        <v>131</v>
+        <v>586</v>
       </c>
       <c r="C348" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="B349" t="s">
-        <v>593</v>
+        <v>65</v>
       </c>
       <c r="C349" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>219</v>
+        <v>588</v>
       </c>
       <c r="B350" t="s">
-        <v>60</v>
+        <v>589</v>
       </c>
       <c r="C350" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="B351" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="C351" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>596</v>
+        <v>6</v>
       </c>
       <c r="B352" t="s">
-        <v>10</v>
+        <v>592</v>
       </c>
       <c r="C352" t="s">
         <v>8</v>
@@ -5784,43 +5766,43 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B353" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="C353" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B354" t="s">
-        <v>600</v>
+        <v>95</v>
       </c>
       <c r="C354" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>601</v>
+        <v>77</v>
       </c>
       <c r="B355" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="C355" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>603</v>
+        <v>342</v>
       </c>
       <c r="B356" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="C356" t="s">
         <v>5</v>
@@ -5828,10 +5810,10 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="B357" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="C357" t="s">
         <v>5</v>
@@ -5839,10 +5821,10 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="B358" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="C358" t="s">
         <v>11</v>
@@ -5850,32 +5832,32 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>187</v>
+        <v>310</v>
       </c>
       <c r="B359" t="s">
-        <v>419</v>
+        <v>602</v>
       </c>
       <c r="C359" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="B360" t="s">
-        <v>610</v>
+        <v>483</v>
       </c>
       <c r="C360" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>318</v>
+        <v>604</v>
       </c>
       <c r="B361" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="C361" t="s">
         <v>11</v>

--- a/StaffProject240.xlsx
+++ b/StaffProject240.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="618">
   <si>
     <t>Staff Name</t>
   </si>
@@ -23,64 +23,1723 @@
     <t>Stream</t>
   </si>
   <si>
+    <t>Audrey Hepburn</t>
+  </si>
+  <si>
+    <t>starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>CS+DS</t>
+  </si>
+  <si>
+    <t>Louis Armstrong</t>
+  </si>
+  <si>
+    <t>singing jazz songs</t>
+  </si>
+  <si>
+    <t>The HamBurglar</t>
+  </si>
+  <si>
+    <t>stealing hamburgers</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>Giacomo Casanova</t>
+  </si>
+  <si>
+    <t>womanizing</t>
+  </si>
+  <si>
+    <t>Charlie Harper</t>
+  </si>
+  <si>
+    <t>seducing young women</t>
+  </si>
+  <si>
+    <t>Mad Max Rockatansky</t>
+  </si>
+  <si>
+    <t>surviving in a post-apocalyptic world</t>
+  </si>
+  <si>
+    <t>Larry Flynt</t>
+  </si>
+  <si>
+    <t>publishing soft pornography</t>
+  </si>
+  <si>
+    <t>Melania Trump</t>
+  </si>
+  <si>
+    <t>posing for photographs</t>
+  </si>
+  <si>
+    <t>Lord Byron</t>
+  </si>
+  <si>
+    <t>writing romantic poetry</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>Bugs Bunny</t>
+  </si>
+  <si>
+    <t>pulling pranks</t>
+  </si>
+  <si>
+    <t>Jack Donaghy</t>
+  </si>
+  <si>
+    <t>running a business empire</t>
+  </si>
+  <si>
+    <t>Selena Gomez</t>
+  </si>
+  <si>
+    <t>singing pop songs</t>
+  </si>
+  <si>
+    <t>Stanley Kowalski</t>
+  </si>
+  <si>
+    <t>moaning about women</t>
+  </si>
+  <si>
+    <t>Zsa Zsa Gabor</t>
+  </si>
+  <si>
+    <t>divorcing husbands</t>
+  </si>
+  <si>
+    <t>Hedda Hopper</t>
+  </si>
+  <si>
+    <t>spreading political gossip</t>
+  </si>
+  <si>
+    <t>Ringo Starr</t>
+  </si>
+  <si>
+    <t>writing pop songs</t>
+  </si>
+  <si>
+    <t>Marge Simpson</t>
+  </si>
+  <si>
+    <t>raising a family</t>
+  </si>
+  <si>
+    <t>Richard Branson</t>
+  </si>
+  <si>
+    <t>running a multinational corporation</t>
+  </si>
+  <si>
+    <t>Fred Astaire</t>
+  </si>
+  <si>
+    <t>starring in musical comedies</t>
+  </si>
+  <si>
+    <t>Jeff "Comic Book Guy" Albertson</t>
+  </si>
+  <si>
+    <t>spouting movie trivia</t>
+  </si>
+  <si>
+    <t>Lisa Simpson</t>
+  </si>
+  <si>
+    <t>playing the saxophone</t>
+  </si>
+  <si>
+    <t>Bob Marley</t>
+  </si>
+  <si>
+    <t>singing reggae songs</t>
+  </si>
+  <si>
+    <t>Tupac Shakur</t>
+  </si>
+  <si>
+    <t>singing Hipbop songs</t>
+  </si>
+  <si>
+    <t>Marc Jacobs</t>
+  </si>
+  <si>
+    <t>designing clothes</t>
+  </si>
+  <si>
+    <t>Nikola Tesla</t>
+  </si>
+  <si>
+    <t>inventing electrical marvels</t>
+  </si>
+  <si>
+    <t>Maximus Decimus Meridius</t>
+  </si>
+  <si>
+    <t>killing rival gladiators</t>
+  </si>
+  <si>
+    <t>Eleanor Rigby</t>
+  </si>
+  <si>
+    <t>performing household chores</t>
+  </si>
+  <si>
+    <t>Kurt Cobain</t>
+  </si>
+  <si>
+    <t>moaning about life</t>
+  </si>
+  <si>
+    <t>King Henry VIII</t>
+  </si>
+  <si>
+    <t>trading in wives</t>
+  </si>
+  <si>
+    <t>Simon Cowell</t>
+  </si>
+  <si>
+    <t>starring in reality TV shows</t>
+  </si>
+  <si>
+    <t>O.J. Simpson</t>
+  </si>
+  <si>
+    <t>shilling for rental car companies</t>
+  </si>
+  <si>
     <t>Mr. Spock</t>
   </si>
   <si>
+    <t>promoting logical thinking</t>
+  </si>
+  <si>
+    <t>Matt "Daredevil" Murdock</t>
+  </si>
+  <si>
+    <t>maintaining a secret identity</t>
+  </si>
+  <si>
+    <t>Jackie Chan</t>
+  </si>
+  <si>
+    <t>starring in action movies</t>
+  </si>
+  <si>
+    <t>Brian Griffin</t>
+  </si>
+  <si>
+    <t>ranting about conservatives</t>
+  </si>
+  <si>
+    <t>Frank Sinatra</t>
+  </si>
+  <si>
+    <t>recording pop songs</t>
+  </si>
+  <si>
+    <t>Agent Smith</t>
+  </si>
+  <si>
+    <t>fighting the resistance</t>
+  </si>
+  <si>
+    <t>Dexter Morgan</t>
+  </si>
+  <si>
+    <t>analyzing murder scenes</t>
+  </si>
+  <si>
+    <t>Elton John</t>
+  </si>
+  <si>
+    <t>shopping for shoes</t>
+  </si>
+  <si>
+    <t>Scarlett O'Hara</t>
+  </si>
+  <si>
+    <t>attending cotillion balls</t>
+  </si>
+  <si>
+    <t>collecting alimony</t>
+  </si>
+  <si>
+    <t>Edward Scissorhands</t>
+  </si>
+  <si>
+    <t>making ice sculptures</t>
+  </si>
+  <si>
+    <t>Fidel Castro</t>
+  </si>
+  <si>
+    <t>promoting socialism</t>
+  </si>
+  <si>
+    <t>Marco Pierre White</t>
+  </si>
+  <si>
+    <t>cooking dinners</t>
+  </si>
+  <si>
+    <t>Don Draper</t>
+  </si>
+  <si>
+    <t>creating adverts</t>
+  </si>
+  <si>
+    <t>Mr. Darcy</t>
+  </si>
+  <si>
+    <t>looking for love</t>
+  </si>
+  <si>
+    <t>Tracy Jordan</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Charles Darwin</t>
+  </si>
+  <si>
+    <t>explaining natural selection</t>
+  </si>
+  <si>
+    <t>Tom Hanks</t>
+  </si>
+  <si>
+    <t>Martin Luther King</t>
+  </si>
+  <si>
+    <t>promoting racial harmony</t>
+  </si>
+  <si>
+    <t>Robert E. Lee</t>
+  </si>
+  <si>
+    <t>developing military strategies</t>
+  </si>
+  <si>
+    <t>Muhammad Ali</t>
+  </si>
+  <si>
+    <t>knocking out opponents</t>
+  </si>
+  <si>
+    <t>Santa Claus</t>
+  </si>
+  <si>
+    <t>climbing down chimneys</t>
+  </si>
+  <si>
+    <t>Uri Geller</t>
+  </si>
+  <si>
+    <t>bending spoons</t>
+  </si>
+  <si>
+    <t>King Arthur</t>
+  </si>
+  <si>
+    <t>leading armies into battle</t>
+  </si>
+  <si>
+    <t>Don Quixote</t>
+  </si>
+  <si>
+    <t>tilting at windmills</t>
+  </si>
+  <si>
+    <t>Philip Marlowe</t>
+  </si>
+  <si>
+    <t>solving mysteries</t>
+  </si>
+  <si>
+    <t>Jeff Bezos</t>
+  </si>
+  <si>
+    <t>selling consumer goods</t>
+  </si>
+  <si>
+    <t>Stevie Wonder</t>
+  </si>
+  <si>
+    <t>Garry Trudeau</t>
+  </si>
+  <si>
+    <t>drawing political cartoons</t>
+  </si>
+  <si>
+    <t>Chuck Norris</t>
+  </si>
+  <si>
+    <t>Deepak Chopra</t>
+  </si>
+  <si>
+    <t>promoting Eastern philosophy</t>
+  </si>
+  <si>
+    <t>Niccolò Machiavelli</t>
+  </si>
+  <si>
+    <t>currying favour</t>
+  </si>
+  <si>
+    <t>Dalton Trumbo</t>
+  </si>
+  <si>
+    <t>writing compelling dialogue</t>
+  </si>
+  <si>
+    <t>Pete Sampras</t>
+  </si>
+  <si>
+    <t>winning tennis matches</t>
+  </si>
+  <si>
+    <t>Del Boy Trotter</t>
+  </si>
+  <si>
+    <t>selling dodgy goods</t>
+  </si>
+  <si>
+    <t>Dominique Strauss-Kahn</t>
+  </si>
+  <si>
+    <t>throwing sex parties</t>
+  </si>
+  <si>
+    <t>Novak Djokovic</t>
+  </si>
+  <si>
+    <t>winning tennis tournaments</t>
+  </si>
+  <si>
+    <t>Rick Sanchez</t>
+  </si>
+  <si>
+    <t>Queen Elizabeth I</t>
+  </si>
+  <si>
+    <t>ruling over subjects</t>
+  </si>
+  <si>
+    <t>Fred Flintstone</t>
+  </si>
+  <si>
+    <t>pedalling engine-less cars</t>
+  </si>
+  <si>
+    <t>Nigel Farage</t>
+  </si>
+  <si>
+    <t>promoting conservative values</t>
+  </si>
+  <si>
+    <t>Hercule Poirot</t>
+  </si>
+  <si>
+    <t>tricking criminals</t>
+  </si>
+  <si>
+    <t>Daniel Craig</t>
+  </si>
+  <si>
+    <t>Grace Hopper</t>
+  </si>
+  <si>
+    <t>pioneering new technologies</t>
+  </si>
+  <si>
+    <t>Ayn Rand</t>
+  </si>
+  <si>
+    <t>promoting Objectivism</t>
+  </si>
+  <si>
+    <t>Benjamin Franklin</t>
+  </si>
+  <si>
+    <t>testing scientific theories</t>
+  </si>
+  <si>
+    <t>Judy Garland</t>
+  </si>
+  <si>
+    <t>singing torch songs</t>
+  </si>
+  <si>
+    <t>Richie Rich</t>
+  </si>
+  <si>
+    <t>enjoying money</t>
+  </si>
+  <si>
+    <t>Oscar Wilde</t>
+  </si>
+  <si>
+    <t>scandalizing polite society</t>
+  </si>
+  <si>
+    <t>King Solomon</t>
+  </si>
+  <si>
+    <t>running a kingdom</t>
+  </si>
+  <si>
+    <t>Lando Calrissian</t>
+  </si>
+  <si>
+    <t>fighting for the rebel alliance</t>
+  </si>
+  <si>
+    <t>Amelia Earhart</t>
+  </si>
+  <si>
+    <t>flying airplanes</t>
+  </si>
+  <si>
+    <t>Edward Hopper</t>
+  </si>
+  <si>
+    <t>painting melancholy pictures</t>
+  </si>
+  <si>
+    <t>Shirley Temple</t>
+  </si>
+  <si>
+    <t>Al Pacino</t>
+  </si>
+  <si>
+    <t>shouting in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Taylor Swift</t>
+  </si>
+  <si>
+    <t>Tom Wolfe</t>
+  </si>
+  <si>
+    <t>writing serialized stories</t>
+  </si>
+  <si>
+    <t>Truman Capote</t>
+  </si>
+  <si>
+    <t>coining sparkling witticisms</t>
+  </si>
+  <si>
+    <t>Selma Bouvier</t>
+  </si>
+  <si>
+    <t>smoking Laramie Hi-Tars</t>
+  </si>
+  <si>
+    <t>Fredo Corleone</t>
+  </si>
+  <si>
+    <t>disappointing the family</t>
+  </si>
+  <si>
+    <t>starring in comedies</t>
+  </si>
+  <si>
+    <t>Socrates</t>
+  </si>
+  <si>
+    <t>teaching philosophy to future leaders</t>
+  </si>
+  <si>
+    <t>Fletcher Christian</t>
+  </si>
+  <si>
+    <t>undermining authority</t>
+  </si>
+  <si>
+    <t>Steve Guttenberg</t>
+  </si>
+  <si>
+    <t>getting plastic surgery</t>
+  </si>
+  <si>
+    <t>Sappho</t>
+  </si>
+  <si>
+    <t>writing poetry</t>
+  </si>
+  <si>
+    <t>Alfred Nobel</t>
+  </si>
+  <si>
+    <t>promoting pacifism</t>
+  </si>
+  <si>
+    <t>Ilya Kuryakin</t>
+  </si>
+  <si>
+    <t>foiling the schemes of evil villains</t>
+  </si>
+  <si>
+    <t>Patch Adams</t>
+  </si>
+  <si>
+    <t>treating the sick with jokes</t>
+  </si>
+  <si>
+    <t>Reginald Jeeves</t>
+  </si>
+  <si>
+    <t>rescuing aristocrats</t>
+  </si>
+  <si>
+    <t>Justin Timberlake</t>
+  </si>
+  <si>
+    <t>entertaining teenagers</t>
+  </si>
+  <si>
+    <t>Frank Lloyd Wright</t>
+  </si>
+  <si>
+    <t>designing modern buildings</t>
+  </si>
+  <si>
+    <t>Hamlet</t>
+  </si>
+  <si>
+    <t>avenging loved ones</t>
+  </si>
+  <si>
+    <t>Scott Evil</t>
+  </si>
+  <si>
+    <t>squabbling on television</t>
+  </si>
+  <si>
+    <t>Travis Bickle</t>
+  </si>
+  <si>
+    <t>talking to mirrors</t>
+  </si>
+  <si>
+    <t>Jimmy Stewart</t>
+  </si>
+  <si>
+    <t>playing everyman characters</t>
+  </si>
+  <si>
+    <t>Henry Ford</t>
+  </si>
+  <si>
+    <t>mass-producing cars</t>
+  </si>
+  <si>
+    <t>wooing potential brides</t>
+  </si>
+  <si>
+    <t>George Smiley</t>
+  </si>
+  <si>
+    <t>rooting out spies</t>
+  </si>
+  <si>
+    <t>Lars von Trier</t>
+  </si>
+  <si>
+    <t>making new wave movies</t>
+  </si>
+  <si>
+    <t>Blanche DuBois</t>
+  </si>
+  <si>
+    <t>moaning about men</t>
+  </si>
+  <si>
+    <t>Daffy Duck</t>
+  </si>
+  <si>
+    <t>spitting while speaking</t>
+  </si>
+  <si>
+    <t>John McCain</t>
+  </si>
+  <si>
+    <t>running for the senate</t>
+  </si>
+  <si>
+    <t>going on romantic quests</t>
+  </si>
+  <si>
+    <t>Yoda</t>
+  </si>
+  <si>
+    <t>fighting for the resistance</t>
+  </si>
+  <si>
+    <t>Karl Lagerfeld</t>
+  </si>
+  <si>
+    <t>Bill Cosby</t>
+  </si>
+  <si>
+    <t>telling affable jokes</t>
+  </si>
+  <si>
+    <t>Timothy McGee</t>
+  </si>
+  <si>
+    <t>interpreting evidence</t>
+  </si>
+  <si>
+    <t>selling comic books</t>
+  </si>
+  <si>
+    <t>Julia Child</t>
+  </si>
+  <si>
+    <t>Napoleon Bonaparte</t>
+  </si>
+  <si>
+    <t>winning battles</t>
+  </si>
+  <si>
+    <t>Superman</t>
+  </si>
+  <si>
+    <t>fighting for justice</t>
+  </si>
+  <si>
+    <t>George Michael</t>
+  </si>
+  <si>
+    <t>G. Gordon Liddy</t>
+  </si>
+  <si>
+    <t>ranting about liberals</t>
+  </si>
+  <si>
+    <t>Leonardo Da Vinci</t>
+  </si>
+  <si>
+    <t>developing new technologies</t>
+  </si>
+  <si>
+    <t>Waylon Smithers</t>
+  </si>
+  <si>
+    <t>Willie Nelson</t>
+  </si>
+  <si>
+    <t>singing country music</t>
+  </si>
+  <si>
+    <t>Robert Downey Jr.</t>
+  </si>
+  <si>
+    <t>making Superhero movies</t>
+  </si>
+  <si>
+    <t>Lizzy Bennet</t>
+  </si>
+  <si>
+    <t>disappointing suitors</t>
+  </si>
+  <si>
+    <t>Louis Pasteur</t>
+  </si>
+  <si>
     <t>studying science</t>
   </si>
   <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t>Adrian Monk</t>
-  </si>
-  <si>
-    <t>solving mysteries</t>
-  </si>
-  <si>
-    <t>Frank Lloyd Wright</t>
-  </si>
-  <si>
-    <t>designing modern buildings</t>
-  </si>
-  <si>
-    <t>CS+DS</t>
+    <t>Baldrick</t>
+  </si>
+  <si>
+    <t>providing comic relief</t>
+  </si>
+  <si>
+    <t>George Bernard Shaw</t>
+  </si>
+  <si>
+    <t>writing plays</t>
+  </si>
+  <si>
+    <t>Lady Macbeth</t>
+  </si>
+  <si>
+    <t>climbing social ladders</t>
+  </si>
+  <si>
+    <t>Wernher von Braun</t>
+  </si>
+  <si>
+    <t>building rocket ships</t>
+  </si>
+  <si>
+    <t>Bobby Fischer</t>
+  </si>
+  <si>
+    <t>playing aggressive chess</t>
+  </si>
+  <si>
+    <t>Tweety Pie</t>
+  </si>
+  <si>
+    <t>swinging on a perch</t>
+  </si>
+  <si>
+    <t>Johann von Goethe</t>
+  </si>
+  <si>
+    <t>writing about social problems</t>
+  </si>
+  <si>
+    <t>Pablo Picasso</t>
+  </si>
+  <si>
+    <t>painting abstract pictures</t>
+  </si>
+  <si>
+    <t>Gordon Ramsay</t>
+  </si>
+  <si>
+    <t>cooking fancy food</t>
+  </si>
+  <si>
+    <t>Joan Rivers</t>
+  </si>
+  <si>
+    <t>doing stand-up</t>
+  </si>
+  <si>
+    <t>Sheldon Cooper</t>
+  </si>
+  <si>
+    <t>promoting science</t>
+  </si>
+  <si>
+    <t>Victor Meldrew</t>
+  </si>
+  <si>
+    <t>complaining about everything</t>
+  </si>
+  <si>
+    <t>Dean Winchester</t>
+  </si>
+  <si>
+    <t>killing monsters</t>
+  </si>
+  <si>
+    <t>Clarice Starling</t>
+  </si>
+  <si>
+    <t>hunting serial killers</t>
+  </si>
+  <si>
+    <t>Warren Buffett</t>
+  </si>
+  <si>
+    <t>Walter White</t>
+  </si>
+  <si>
+    <t>running a criminal empire</t>
+  </si>
+  <si>
+    <t>Emma Bovary</t>
+  </si>
+  <si>
+    <t>John Constantine</t>
+  </si>
+  <si>
+    <t>smoking Silk Cut cigarettes</t>
+  </si>
+  <si>
+    <t>Marlene Dietrich</t>
+  </si>
+  <si>
+    <t>General Zod</t>
+  </si>
+  <si>
+    <t>seeking revenge</t>
+  </si>
+  <si>
+    <t>Ron Weasley</t>
+  </si>
+  <si>
+    <t>performing magic tricks</t>
+  </si>
+  <si>
+    <t>Erasmus</t>
+  </si>
+  <si>
+    <t>promoting humanism</t>
+  </si>
+  <si>
+    <t>Kobe Bryant</t>
+  </si>
+  <si>
+    <t>making dunk shots</t>
+  </si>
+  <si>
+    <t>playing jazz trumpet</t>
+  </si>
+  <si>
+    <t>Princess Fiona</t>
+  </si>
+  <si>
+    <t>waiting for a hero</t>
+  </si>
+  <si>
+    <t>Al Capone</t>
+  </si>
+  <si>
+    <t>selling illegal alcohol</t>
+  </si>
+  <si>
+    <t>Salvador Dali</t>
+  </si>
+  <si>
+    <t>painting surreal pictures</t>
+  </si>
+  <si>
+    <t>Gustavo Fring</t>
+  </si>
+  <si>
+    <t>selling fried chicken</t>
+  </si>
+  <si>
+    <t>Gerard Manley Hopkins</t>
+  </si>
+  <si>
+    <t>writing modern poetry</t>
+  </si>
+  <si>
+    <t>Barney Stinson</t>
+  </si>
+  <si>
+    <t>promoting capitalism</t>
+  </si>
+  <si>
+    <t>Thomas Edison</t>
+  </si>
+  <si>
+    <t>Doc Emmett Brown</t>
+  </si>
+  <si>
+    <t>Darth Maul</t>
+  </si>
+  <si>
+    <t>duelling acrobatically</t>
+  </si>
+  <si>
+    <t>Antonio Salieri</t>
+  </si>
+  <si>
+    <t>burning with envy</t>
+  </si>
+  <si>
+    <t>George Soros</t>
+  </si>
+  <si>
+    <t>making billions</t>
+  </si>
+  <si>
+    <t>Pippi Longstocking</t>
+  </si>
+  <si>
+    <t>playing pranks</t>
+  </si>
+  <si>
+    <t>Tiger Woods</t>
+  </si>
+  <si>
+    <t>winning golf tournaments</t>
+  </si>
+  <si>
+    <t>Kate Moss</t>
+  </si>
+  <si>
+    <t>modeling clothes</t>
+  </si>
+  <si>
+    <t>Jean-Paul Sartre</t>
+  </si>
+  <si>
+    <t>popping amphetamines</t>
+  </si>
+  <si>
+    <t>selling airline seats</t>
+  </si>
+  <si>
+    <t>Captain America</t>
+  </si>
+  <si>
+    <t>defending the weak</t>
+  </si>
+  <si>
+    <t>Reince Priebus</t>
+  </si>
+  <si>
+    <t>Roy Batty</t>
+  </si>
+  <si>
+    <t>looking for immortality</t>
+  </si>
+  <si>
+    <t>Ariana Grande</t>
+  </si>
+  <si>
+    <t>Gordon Gekko</t>
+  </si>
+  <si>
+    <t>launching hostile takeovers</t>
+  </si>
+  <si>
+    <t>Don King</t>
+  </si>
+  <si>
+    <t>promoting boxing fights</t>
+  </si>
+  <si>
+    <t>Hunter S. Thompson</t>
+  </si>
+  <si>
+    <t>writing about manly pursuits</t>
+  </si>
+  <si>
+    <t>Princess Diana</t>
+  </si>
+  <si>
+    <t>Jonathan Swift</t>
+  </si>
+  <si>
+    <t>writing political satires</t>
+  </si>
+  <si>
+    <t>Heath Ledger</t>
+  </si>
+  <si>
+    <t>complaining about big brother</t>
+  </si>
+  <si>
+    <t>Will Smith</t>
+  </si>
+  <si>
+    <t>Boba Fett</t>
+  </si>
+  <si>
+    <t>tracking down fugitives</t>
+  </si>
+  <si>
+    <t>Jim Morrison</t>
+  </si>
+  <si>
+    <t>writing rock songs</t>
+  </si>
+  <si>
+    <t>Wesley Crusher</t>
+  </si>
+  <si>
+    <t>Michael Jackson</t>
+  </si>
+  <si>
+    <t>Franz Liszt</t>
+  </si>
+  <si>
+    <t>playing classical piano</t>
+  </si>
+  <si>
+    <t>Tiny Tim Cratchit</t>
+  </si>
+  <si>
+    <t>offering blessings</t>
+  </si>
+  <si>
+    <t>Tyra Banks</t>
+  </si>
+  <si>
+    <t>selling cosmetics</t>
+  </si>
+  <si>
+    <t>Lord Voldemort</t>
+  </si>
+  <si>
+    <t>tormenting muggles</t>
+  </si>
+  <si>
+    <t>Annie Oakley</t>
+  </si>
+  <si>
+    <t>promoting circus attractions</t>
+  </si>
+  <si>
+    <t>running a dictatorship</t>
+  </si>
+  <si>
+    <t>Barney Rubble</t>
+  </si>
+  <si>
+    <t>eating dinosaur ribs</t>
+  </si>
+  <si>
+    <t>rooting out moles</t>
+  </si>
+  <si>
+    <t>Noah</t>
+  </si>
+  <si>
+    <t>surviving large-scale floods</t>
+  </si>
+  <si>
+    <t>Walt Disney</t>
+  </si>
+  <si>
+    <t>making cartoons</t>
+  </si>
+  <si>
+    <t>Jor El</t>
+  </si>
+  <si>
+    <t>inventing new technologies</t>
+  </si>
+  <si>
+    <t>solving crimes</t>
+  </si>
+  <si>
+    <t>Fox Mulder</t>
+  </si>
+  <si>
+    <t>postulating bizarre theories</t>
+  </si>
+  <si>
+    <t>Edward Snowden</t>
+  </si>
+  <si>
+    <t>leaking classified documents</t>
+  </si>
+  <si>
+    <t>Adam West</t>
+  </si>
+  <si>
+    <t>wearing tights</t>
+  </si>
+  <si>
+    <t>Orville Wright</t>
+  </si>
+  <si>
+    <t>Robert De Niro</t>
+  </si>
+  <si>
+    <t>Mr. Krabs</t>
+  </si>
+  <si>
+    <t>pinching pennies</t>
+  </si>
+  <si>
+    <t>Ophelia</t>
+  </si>
+  <si>
+    <t>talking in riddles</t>
+  </si>
+  <si>
+    <t>Dan Quayle</t>
+  </si>
+  <si>
+    <t>campaigning for the senate</t>
+  </si>
+  <si>
+    <t>Russell Crowe</t>
+  </si>
+  <si>
+    <t>throwing temper tantrums</t>
+  </si>
+  <si>
+    <t>Huckleberry Finn</t>
+  </si>
+  <si>
+    <t>growing up poor</t>
+  </si>
+  <si>
+    <t>Boy George</t>
+  </si>
+  <si>
+    <t>starring in indy movies</t>
+  </si>
+  <si>
+    <t>The Artful Dodger</t>
+  </si>
+  <si>
+    <t>picking pockets</t>
+  </si>
+  <si>
+    <t>Michael Jordan</t>
+  </si>
+  <si>
+    <t>playing basketball</t>
+  </si>
+  <si>
+    <t>Hugh Jackman</t>
+  </si>
+  <si>
+    <t>Peter Griffin</t>
+  </si>
+  <si>
+    <t>making silly decisions</t>
+  </si>
+  <si>
+    <t>Mrs. Doubtfire</t>
+  </si>
+  <si>
+    <t>Le Chiffre</t>
+  </si>
+  <si>
+    <t>devising evil schemes</t>
+  </si>
+  <si>
+    <t>Buffy Summers</t>
+  </si>
+  <si>
+    <t>hunting monsters</t>
+  </si>
+  <si>
+    <t>Phoebe Buffay</t>
+  </si>
+  <si>
+    <t>singing goofy songs</t>
+  </si>
+  <si>
+    <t>Ricky Martin</t>
+  </si>
+  <si>
+    <t>gyrating hips</t>
+  </si>
+  <si>
+    <t>Donald Duck</t>
+  </si>
+  <si>
+    <t>eating Peking duck</t>
+  </si>
+  <si>
+    <t>Clark Gable</t>
+  </si>
+  <si>
+    <t>Ben Affleck</t>
+  </si>
+  <si>
+    <t>avoiding paparazzi</t>
+  </si>
+  <si>
+    <t>John Wilkes Booth</t>
+  </si>
+  <si>
+    <t>assassinating presidents</t>
+  </si>
+  <si>
+    <t>Mary Poppins</t>
+  </si>
+  <si>
+    <t>looking after children</t>
+  </si>
+  <si>
+    <t>Judas Iscariot</t>
+  </si>
+  <si>
+    <t>betraying friends</t>
+  </si>
+  <si>
+    <t>Sonny Crockett</t>
+  </si>
+  <si>
+    <t>preventing crime</t>
+  </si>
+  <si>
+    <t>Benedict Arnold</t>
+  </si>
+  <si>
+    <t>changing sides</t>
+  </si>
+  <si>
+    <t>Silvio Berlusconi</t>
+  </si>
+  <si>
+    <t>avoiding taxes</t>
+  </si>
+  <si>
+    <t>running an empire</t>
+  </si>
+  <si>
+    <t>Pepé Le Pew</t>
+  </si>
+  <si>
+    <t>seducing women</t>
+  </si>
+  <si>
+    <t>Luis Suarez</t>
+  </si>
+  <si>
+    <t>biting opponents</t>
+  </si>
+  <si>
+    <t>Mel Brooks</t>
+  </si>
+  <si>
+    <t>directing comedies</t>
+  </si>
+  <si>
+    <t>Hulk Hogan</t>
+  </si>
+  <si>
+    <t>pretending to wrestle</t>
+  </si>
+  <si>
+    <t>Darth Vader</t>
+  </si>
+  <si>
+    <t>fighting the forces of good</t>
+  </si>
+  <si>
+    <t>Ashton Kutcher</t>
+  </si>
+  <si>
+    <t>starring in sit-coms</t>
+  </si>
+  <si>
+    <t>Hans Moleman</t>
+  </si>
+  <si>
+    <t>getting run over by cars</t>
+  </si>
+  <si>
+    <t>leaking state secrets</t>
+  </si>
+  <si>
+    <t>Tom Ripley</t>
+  </si>
+  <si>
+    <t>planning confidence tricks</t>
+  </si>
+  <si>
+    <t>Grace Jones</t>
+  </si>
+  <si>
+    <t>Margaret Thatcher</t>
+  </si>
+  <si>
+    <t>Adolf Eichmann</t>
+  </si>
+  <si>
+    <t>running a bureaucracy</t>
+  </si>
+  <si>
+    <t>Savonarola</t>
+  </si>
+  <si>
+    <t>Severus Snape</t>
+  </si>
+  <si>
+    <t>teaching Defence Against the Dark Arts</t>
+  </si>
+  <si>
+    <t>Samwise Gamgee</t>
+  </si>
+  <si>
+    <t>tending the garden</t>
+  </si>
+  <si>
+    <t>Spartacus</t>
+  </si>
+  <si>
+    <t>instigating rebellion</t>
+  </si>
+  <si>
+    <t>Pope Francis</t>
+  </si>
+  <si>
+    <t>promoting Catholic values</t>
+  </si>
+  <si>
+    <t>Trinity</t>
+  </si>
+  <si>
+    <t>hacking into corporate mainframes</t>
   </si>
   <si>
     <t>Kevin Smith</t>
   </si>
   <si>
-    <t>podcasting about movies</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>George Bernard Shaw</t>
-  </si>
-  <si>
-    <t>writing plays</t>
-  </si>
-  <si>
-    <t>Edward Scissorhands</t>
-  </si>
-  <si>
-    <t>trimming bushes</t>
-  </si>
-  <si>
-    <t>Barack Obama</t>
-  </si>
-  <si>
-    <t>giving speeches</t>
-  </si>
-  <si>
-    <t>Rupert Murdoch</t>
-  </si>
-  <si>
-    <t>telling politicians what to do</t>
-  </si>
-  <si>
-    <t>Sheldon Cooper</t>
+    <t>Coco Chanel</t>
+  </si>
+  <si>
+    <t>selling perfumes</t>
+  </si>
+  <si>
+    <t>Richard B. Riddick</t>
+  </si>
+  <si>
+    <t>evading mercenaries</t>
+  </si>
+  <si>
+    <t>Judge Joe Dredd</t>
+  </si>
+  <si>
+    <t>punishing criminals</t>
+  </si>
+  <si>
+    <t>Paris Hilton</t>
+  </si>
+  <si>
+    <t>monetizing celebrity status</t>
+  </si>
+  <si>
+    <t>Saint Peter</t>
+  </si>
+  <si>
+    <t>Brian Wilson</t>
+  </si>
+  <si>
+    <t>waxing a surfboard</t>
+  </si>
+  <si>
+    <t>running a criminal enterprise</t>
+  </si>
+  <si>
+    <t>Robin Hood</t>
+  </si>
+  <si>
+    <t>robbing from the rich</t>
+  </si>
+  <si>
+    <t>Theodore Roosevelt</t>
+  </si>
+  <si>
+    <t>campaigning for environmental causes</t>
+  </si>
+  <si>
+    <t>Peter Rabbit</t>
+  </si>
+  <si>
+    <t>eating carrots</t>
+  </si>
+  <si>
+    <t>pretending to fight</t>
+  </si>
+  <si>
+    <t>P. T. Barnum</t>
+  </si>
+  <si>
+    <t>selling tickets</t>
+  </si>
+  <si>
+    <t>Spider-Man</t>
+  </si>
+  <si>
+    <t>pursuing criminals</t>
+  </si>
+  <si>
+    <t>playing the trumpet</t>
+  </si>
+  <si>
+    <t>Eddy Merckx</t>
+  </si>
+  <si>
+    <t>pedalling furiously</t>
+  </si>
+  <si>
+    <t>Hannibal Lecter</t>
+  </si>
+  <si>
+    <t>eluding FBI profilers</t>
+  </si>
+  <si>
+    <t>Amy Winehouse</t>
+  </si>
+  <si>
+    <t>General George Patton</t>
+  </si>
+  <si>
+    <t>slapping soldiers</t>
+  </si>
+  <si>
+    <t>Robinson Crusoe</t>
+  </si>
+  <si>
+    <t>surviving a shipwreck</t>
+  </si>
+  <si>
+    <t>Joe DiMaggio</t>
+  </si>
+  <si>
+    <t>playing baseball</t>
+  </si>
+  <si>
+    <t>Bing Crosby</t>
+  </si>
+  <si>
+    <t>singing middle-of-the-road songs</t>
+  </si>
+  <si>
+    <t>Kim Kardashian</t>
+  </si>
+  <si>
+    <t>making mediocre movies</t>
+  </si>
+  <si>
+    <t>Marie Curie</t>
+  </si>
+  <si>
+    <t>extracting Radium from pitchblend</t>
+  </si>
+  <si>
+    <t>Becky Sharp</t>
+  </si>
+  <si>
+    <t>James Bond</t>
+  </si>
+  <si>
+    <t>developing cunning plans</t>
+  </si>
+  <si>
+    <t>Bruce Willis</t>
+  </si>
+  <si>
+    <t>making action movies</t>
+  </si>
+  <si>
+    <t>testing new technologies</t>
+  </si>
+  <si>
+    <t>writing on wax tablets</t>
+  </si>
+  <si>
+    <t>Oedipus Rex</t>
+  </si>
+  <si>
+    <t>solving riddles</t>
+  </si>
+  <si>
+    <t>Christiane Amanpour</t>
+  </si>
+  <si>
+    <t>interviewing politicians</t>
+  </si>
+  <si>
+    <t>Katniss Everdeen</t>
+  </si>
+  <si>
+    <t>El Chappo</t>
+  </si>
+  <si>
+    <t>running a crime family</t>
+  </si>
+  <si>
+    <t>Simon Pegg</t>
+  </si>
+  <si>
+    <t>dressing up in cosplay costumes</t>
+  </si>
+  <si>
+    <t>Voltaire</t>
+  </si>
+  <si>
+    <t>promoting enlightenment</t>
+  </si>
+  <si>
+    <t>Joseph Goebbels</t>
+  </si>
+  <si>
+    <t>promoting totalitarianism</t>
+  </si>
+  <si>
+    <t>Jar Jar Binks</t>
+  </si>
+  <si>
+    <t>Holly Golightly</t>
+  </si>
+  <si>
+    <t>Wayne Rooney</t>
+  </si>
+  <si>
+    <t>playing soccer</t>
+  </si>
+  <si>
+    <t>Madeleine Albright</t>
+  </si>
+  <si>
+    <t>fighting for democracy</t>
+  </si>
+  <si>
+    <t>Wolfgang Amadeus Mozart</t>
+  </si>
+  <si>
+    <t>playing the piano</t>
+  </si>
+  <si>
+    <t>John Grisham</t>
+  </si>
+  <si>
+    <t>writing legal fiction</t>
+  </si>
+  <si>
+    <t>Sarah Silverman</t>
+  </si>
+  <si>
+    <t>insulting minorities</t>
+  </si>
+  <si>
+    <t>Beetlejuice</t>
+  </si>
+  <si>
+    <t>practicing the Occult</t>
+  </si>
+  <si>
+    <t>Professor James Moriarty</t>
+  </si>
+  <si>
+    <t>amassing ill-gotten wealth</t>
+  </si>
+  <si>
+    <t>making topiary sculptures</t>
+  </si>
+  <si>
+    <t>Lois Lane</t>
+  </si>
+  <si>
+    <t>reporting for The Daily Planet</t>
+  </si>
+  <si>
+    <t>Richard Wagner</t>
+  </si>
+  <si>
+    <t>making antisemitic remarks</t>
+  </si>
+  <si>
+    <t>Edward Cullen</t>
+  </si>
+  <si>
+    <t>avoiding growing old</t>
+  </si>
+  <si>
+    <t>Monsieur Hulot</t>
+  </si>
+  <si>
+    <t>causing mayhem</t>
+  </si>
+  <si>
+    <t>selling chrystal meth</t>
+  </si>
+  <si>
+    <t>Billy Bob Thornton</t>
+  </si>
+  <si>
+    <t>playing intense characters</t>
+  </si>
+  <si>
+    <t>Thomas Jefferson</t>
+  </si>
+  <si>
+    <t>wielding political power</t>
+  </si>
+  <si>
+    <t>Stewie Griffin</t>
+  </si>
+  <si>
+    <t>plotting against family members</t>
+  </si>
+  <si>
+    <t>promoting greed</t>
+  </si>
+  <si>
+    <t>Tyler Durden</t>
+  </si>
+  <si>
+    <t>Gregor Mendel</t>
+  </si>
+  <si>
+    <t>Mr. Edward Hyde</t>
+  </si>
+  <si>
+    <t>expressing violent urges</t>
+  </si>
+  <si>
+    <t>Jean-Luc Picard</t>
+  </si>
+  <si>
+    <t>commanding a spaceship</t>
+  </si>
+  <si>
+    <t>Tom Waits</t>
+  </si>
+  <si>
+    <t>writing blues songs</t>
+  </si>
+  <si>
+    <t>Hugh Hefner</t>
+  </si>
+  <si>
+    <t>Jerry Lewis</t>
+  </si>
+  <si>
+    <t>doing slapstick comedy</t>
+  </si>
+  <si>
+    <t>Dorothy Parker</t>
+  </si>
+  <si>
+    <t>making witty remarks</t>
+  </si>
+  <si>
+    <t>impersonating women</t>
+  </si>
+  <si>
+    <t>Napoleon Solo</t>
+  </si>
+  <si>
+    <t>Atticus Finch</t>
+  </si>
+  <si>
+    <t>representing the disenfranchised</t>
+  </si>
+  <si>
+    <t>eating bacon cheeseburgers</t>
+  </si>
+  <si>
+    <t>Edgar Allan Poe</t>
+  </si>
+  <si>
+    <t>writing mystery stories</t>
+  </si>
+  <si>
+    <t>Andy Warhol</t>
+  </si>
+  <si>
+    <t>painting soup cans</t>
+  </si>
+  <si>
+    <t>Jane Eyre</t>
+  </si>
+  <si>
+    <t>Donald Trump</t>
+  </si>
+  <si>
+    <t>developing real estate</t>
+  </si>
+  <si>
+    <t>Sergey Brin</t>
+  </si>
+  <si>
+    <t>performing Web searches</t>
   </si>
   <si>
     <t>Morgana Le Fay</t>
@@ -89,1735 +1748,124 @@
     <t>brewing magican potions</t>
   </si>
   <si>
-    <t>Leon Trotsky</t>
-  </si>
-  <si>
-    <t>wielding political power</t>
-  </si>
-  <si>
-    <t>Optimus Prime</t>
-  </si>
-  <si>
-    <t>transforming into vehicles</t>
-  </si>
-  <si>
-    <t>Bob Marley</t>
-  </si>
-  <si>
-    <t>singing reggae songs</t>
-  </si>
-  <si>
-    <t>Judas Iscariot</t>
-  </si>
-  <si>
-    <t>selling out</t>
-  </si>
-  <si>
-    <t>Bane</t>
-  </si>
-  <si>
-    <t>breaking heads</t>
-  </si>
-  <si>
-    <t>Pac Man</t>
-  </si>
-  <si>
-    <t>chasing electronic ghosts</t>
-  </si>
-  <si>
-    <t>Boris Johnson</t>
-  </si>
-  <si>
-    <t>making political gaffes</t>
-  </si>
-  <si>
-    <t>Frank Columbo</t>
+    <t>Larry David</t>
+  </si>
+  <si>
+    <t>writing TV comedies</t>
+  </si>
+  <si>
+    <t>Wolverine</t>
+  </si>
+  <si>
+    <t>slashing victims</t>
+  </si>
+  <si>
+    <t>planning adultery</t>
+  </si>
+  <si>
+    <t>Snake Plissken</t>
+  </si>
+  <si>
+    <t>organizing prison breaks</t>
+  </si>
+  <si>
+    <t>Dr. Strangelove</t>
+  </si>
+  <si>
+    <t>pushing the hardline</t>
+  </si>
+  <si>
+    <t>Peter Parker</t>
+  </si>
+  <si>
+    <t>Winnie the Pooh</t>
+  </si>
+  <si>
+    <t>cooking for friends</t>
+  </si>
+  <si>
+    <t>Neville Chamberlain</t>
+  </si>
+  <si>
+    <t>appeasing belligerent dictators</t>
+  </si>
+  <si>
+    <t>Daniel Day-Lewis</t>
+  </si>
+  <si>
+    <t>winning Oscars</t>
+  </si>
+  <si>
+    <t>singing multipart harmonies</t>
+  </si>
+  <si>
+    <t>eating census takers</t>
+  </si>
+  <si>
+    <t>James Joyce</t>
+  </si>
+  <si>
+    <t>writing modern fiction</t>
+  </si>
+  <si>
+    <t>Frank Capra</t>
+  </si>
+  <si>
+    <t>making idealistic movies</t>
+  </si>
+  <si>
+    <t>Joan of Arc</t>
+  </si>
+  <si>
+    <t>Kim Philby</t>
+  </si>
+  <si>
+    <t>Karl Marx</t>
+  </si>
+  <si>
+    <t>promoting communism</t>
+  </si>
+  <si>
+    <t>Coriolanus Snow</t>
+  </si>
+  <si>
+    <t>crushing dissent</t>
+  </si>
+  <si>
+    <t>Tony Robbins</t>
+  </si>
+  <si>
+    <t>selling self-help books</t>
+  </si>
+  <si>
+    <t>Bill Clinton</t>
+  </si>
+  <si>
+    <t>chasing interns</t>
+  </si>
+  <si>
+    <t>running a media empire</t>
+  </si>
+  <si>
+    <t>Ed Wood</t>
+  </si>
+  <si>
+    <t>directing bad movies</t>
+  </si>
+  <si>
+    <t>expressing dissent</t>
+  </si>
+  <si>
+    <t>Tomás de Torquemada</t>
   </si>
   <si>
     <t>extracting confessions</t>
   </si>
   <si>
-    <t>Mao Tse-tung</t>
-  </si>
-  <si>
-    <t>launching cultural revolutions</t>
-  </si>
-  <si>
-    <t>making mediocre movies</t>
-  </si>
-  <si>
-    <t>Daniel Day-Lewis</t>
-  </si>
-  <si>
-    <t>performing serious acting</t>
-  </si>
-  <si>
-    <t>Scott Evil</t>
-  </si>
-  <si>
-    <t>squabbling on television</t>
-  </si>
-  <si>
-    <t>David Blaine</t>
-  </si>
-  <si>
-    <t>performing magic tricks</t>
-  </si>
-  <si>
-    <t>Walter White</t>
-  </si>
-  <si>
-    <t>running a criminal empire</t>
-  </si>
-  <si>
-    <t>Timothy McGee</t>
-  </si>
-  <si>
-    <t>solving crimes</t>
-  </si>
-  <si>
-    <t>Donald Duck</t>
-  </si>
-  <si>
-    <t>setting mousetraps</t>
-  </si>
-  <si>
-    <t>Mister Magoo</t>
-  </si>
-  <si>
-    <t>causing mayhem</t>
-  </si>
-  <si>
-    <t>Al Pacino</t>
-  </si>
-  <si>
-    <t>shouting in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Robert De Niro</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Rudy Giuliani</t>
-  </si>
-  <si>
-    <t>running a large metropolitan city</t>
-  </si>
-  <si>
-    <t>Tyler Durden</t>
-  </si>
-  <si>
-    <t>Eliot Ness</t>
-  </si>
-  <si>
-    <t>fighting with the mob</t>
-  </si>
-  <si>
-    <t>Bobby Fischer</t>
-  </si>
-  <si>
-    <t>playing aggressive chess</t>
-  </si>
-  <si>
-    <t>Megan Fox</t>
-  </si>
-  <si>
-    <t>Snake Plissken</t>
-  </si>
-  <si>
-    <t>going on commando missions</t>
-  </si>
-  <si>
-    <t>Cary Grant</t>
-  </si>
-  <si>
-    <t>starring in romantic comedies</t>
-  </si>
-  <si>
-    <t>Freddie Mercury</t>
-  </si>
-  <si>
-    <t>writing pop songs</t>
-  </si>
-  <si>
-    <t>Pippi Longstocking</t>
-  </si>
-  <si>
-    <t>playing pranks</t>
-  </si>
-  <si>
-    <t>Dr. Greg House</t>
-  </si>
-  <si>
-    <t>interpreting evidence</t>
-  </si>
-  <si>
-    <t>Lionel Hutz</t>
-  </si>
-  <si>
-    <t>losing court cases</t>
-  </si>
-  <si>
-    <t>Peter Pan</t>
-  </si>
-  <si>
-    <t>avoiding growing old</t>
-  </si>
-  <si>
-    <t>Sitting Bull</t>
-  </si>
-  <si>
-    <t>spreading revolution</t>
-  </si>
-  <si>
-    <t>Ross Geller</t>
-  </si>
-  <si>
-    <t>studying dinosaurs</t>
-  </si>
-  <si>
-    <t>Agent Smith</t>
-  </si>
-  <si>
-    <t>fighting the resistance</t>
-  </si>
-  <si>
-    <t>Buddy Holly</t>
-  </si>
-  <si>
-    <t>singing pop songs</t>
-  </si>
-  <si>
-    <t>Richard B. Riddick</t>
-  </si>
-  <si>
-    <t>evading mercenaries</t>
-  </si>
-  <si>
-    <t>Neville Chamberlain</t>
-  </si>
-  <si>
-    <t>appeasing belligerent dictators</t>
-  </si>
-  <si>
-    <t>Bobby Kennedy</t>
-  </si>
-  <si>
-    <t>campaigning for social causes</t>
-  </si>
-  <si>
-    <t>Dr. John Watson</t>
-  </si>
-  <si>
-    <t>writing up case notes</t>
-  </si>
-  <si>
-    <t>Gloria Steinem</t>
-  </si>
-  <si>
-    <t>moaning about men</t>
-  </si>
-  <si>
-    <t>Sterling Archer</t>
-  </si>
-  <si>
-    <t>Harvey Dent</t>
-  </si>
-  <si>
-    <t>tossing coins</t>
-  </si>
-  <si>
-    <t>King David</t>
-  </si>
-  <si>
-    <t>running a kingdom</t>
-  </si>
-  <si>
-    <t>Spartacus</t>
-  </si>
-  <si>
-    <t>Dr. Evil</t>
-  </si>
-  <si>
-    <t>demanding ransoms from the U.N.</t>
-  </si>
-  <si>
-    <t>Bob Belcher</t>
-  </si>
-  <si>
-    <t>flipping hamburgers</t>
-  </si>
-  <si>
-    <t>Kim Jung-un</t>
-  </si>
-  <si>
-    <t>enriching uranium</t>
-  </si>
-  <si>
-    <t>Barbie</t>
-  </si>
-  <si>
-    <t>promoting hair products</t>
-  </si>
-  <si>
-    <t>El Chappo</t>
-  </si>
-  <si>
-    <t>running a crime family</t>
-  </si>
-  <si>
     <t>Mickey Mouse</t>
   </si>
   <si>
     <t>promoting movie violence</t>
-  </si>
-  <si>
-    <t>Mick Jagger</t>
-  </si>
-  <si>
-    <t>writing rock songs</t>
-  </si>
-  <si>
-    <t>Confucius</t>
-  </si>
-  <si>
-    <t>teaching philosophy</t>
-  </si>
-  <si>
-    <t>Mark Twain</t>
-  </si>
-  <si>
-    <t>writing folksy fiction</t>
-  </si>
-  <si>
-    <t>stealing human fat</t>
-  </si>
-  <si>
-    <t>Benito Mussolini</t>
-  </si>
-  <si>
-    <t>making trains run on time</t>
-  </si>
-  <si>
-    <t>Doris Day</t>
-  </si>
-  <si>
-    <t>Fletcher Christian</t>
-  </si>
-  <si>
-    <t>plotting mutinies</t>
-  </si>
-  <si>
-    <t>starring in animated movies</t>
-  </si>
-  <si>
-    <t>Bart Simpson</t>
-  </si>
-  <si>
-    <t>making prank calls</t>
-  </si>
-  <si>
-    <t>Jesse Jackson</t>
-  </si>
-  <si>
-    <t>suing large corporations</t>
-  </si>
-  <si>
-    <t>King Richard III</t>
-  </si>
-  <si>
-    <t>amassing wealth</t>
-  </si>
-  <si>
-    <t>J.R.R. Tolkein</t>
-  </si>
-  <si>
-    <t>making fantasy movies</t>
-  </si>
-  <si>
-    <t>Thomas "Neo" Anderson</t>
-  </si>
-  <si>
-    <t>performing kung-fu moves</t>
-  </si>
-  <si>
-    <t>Rembrandt</t>
-  </si>
-  <si>
-    <t>painting colorful pictures</t>
-  </si>
-  <si>
-    <t>Jesus Christ</t>
-  </si>
-  <si>
-    <t>preaching tolerance</t>
-  </si>
-  <si>
-    <t>John Wilkes Booth</t>
-  </si>
-  <si>
-    <t>assassinating presidents</t>
-  </si>
-  <si>
-    <t>P. T. Barnum</t>
-  </si>
-  <si>
-    <t>promoting circus attractions</t>
-  </si>
-  <si>
-    <t>Krusty the Clown</t>
-  </si>
-  <si>
-    <t>pushing shoddy merchandise</t>
-  </si>
-  <si>
-    <t>George Foreman</t>
-  </si>
-  <si>
-    <t>winning boxing matches</t>
-  </si>
-  <si>
-    <t>leading revolts</t>
-  </si>
-  <si>
-    <t>Harriet Tubman</t>
-  </si>
-  <si>
-    <t>fighting for civil rights</t>
-  </si>
-  <si>
-    <t>foiling the schemes of evil villains</t>
-  </si>
-  <si>
-    <t>Lizzy Bennet</t>
-  </si>
-  <si>
-    <t>looking for love</t>
-  </si>
-  <si>
-    <t>King Solomon</t>
-  </si>
-  <si>
-    <t>Daniel Boone</t>
-  </si>
-  <si>
-    <t>hunting raccoons</t>
-  </si>
-  <si>
-    <t>Andy Warhol</t>
-  </si>
-  <si>
-    <t>painting soup cans</t>
-  </si>
-  <si>
-    <t>Professor Hans Zarkov</t>
-  </si>
-  <si>
-    <t>building rocket ships</t>
-  </si>
-  <si>
-    <t>Doc Emmett Brown</t>
-  </si>
-  <si>
-    <t>inventing time machines</t>
-  </si>
-  <si>
-    <t>Jerry Springer</t>
-  </si>
-  <si>
-    <t>hosting reality TV shows</t>
-  </si>
-  <si>
-    <t>Napoleon Solo</t>
-  </si>
-  <si>
-    <t>Huckleberry Finn</t>
-  </si>
-  <si>
-    <t>growing up poor</t>
-  </si>
-  <si>
-    <t>Edmund Blackadder</t>
-  </si>
-  <si>
-    <t>manipulating political pawns</t>
-  </si>
-  <si>
-    <t>John Travolta</t>
-  </si>
-  <si>
-    <t>Offred</t>
-  </si>
-  <si>
-    <t>performing household chores</t>
-  </si>
-  <si>
-    <t>Sophocles</t>
-  </si>
-  <si>
-    <t>René Descartes</t>
-  </si>
-  <si>
-    <t>spreading philosophy</t>
-  </si>
-  <si>
-    <t>George Michael</t>
-  </si>
-  <si>
-    <t>Linus Torvalds</t>
-  </si>
-  <si>
-    <t>developing operating systems</t>
-  </si>
-  <si>
-    <t>smoking herb</t>
-  </si>
-  <si>
-    <t>Dan Quayle</t>
-  </si>
-  <si>
-    <t>campaigning for the senate</t>
-  </si>
-  <si>
-    <t>Johnny Cash</t>
-  </si>
-  <si>
-    <t>singing country music</t>
-  </si>
-  <si>
-    <t>Gordon Ramsay</t>
-  </si>
-  <si>
-    <t>winning Michelin stars</t>
-  </si>
-  <si>
-    <t>Shirley Temple</t>
-  </si>
-  <si>
-    <t>Sherlock Holmes</t>
-  </si>
-  <si>
-    <t>Maleficent</t>
-  </si>
-  <si>
-    <t>poisoning an apple</t>
-  </si>
-  <si>
-    <t>Bill Clinton</t>
-  </si>
-  <si>
-    <t>chasing interns</t>
-  </si>
-  <si>
-    <t>Dr. Henry Jekyll</t>
-  </si>
-  <si>
-    <t>suppressing violent urges</t>
-  </si>
-  <si>
-    <t>promoting feminism</t>
-  </si>
-  <si>
-    <t>Don Vito Corleone</t>
-  </si>
-  <si>
-    <t>running an empire</t>
-  </si>
-  <si>
-    <t>Archimedes</t>
-  </si>
-  <si>
-    <t>proving math theorems</t>
-  </si>
-  <si>
-    <t>Humphrey Bogart</t>
-  </si>
-  <si>
-    <t>playing tough guys</t>
-  </si>
-  <si>
-    <t>Selena Gomez</t>
-  </si>
-  <si>
-    <t>Joseph Goebbels</t>
-  </si>
-  <si>
-    <t>promoting totalitarianism</t>
-  </si>
-  <si>
-    <t>Robert Mueller</t>
-  </si>
-  <si>
-    <t>chasing criminals</t>
-  </si>
-  <si>
-    <t>Jim Jones</t>
-  </si>
-  <si>
-    <t>organizing mass suicides</t>
-  </si>
-  <si>
-    <t>Tupac Shakur</t>
-  </si>
-  <si>
-    <t>singing Hipbop songs</t>
-  </si>
-  <si>
-    <t>Biff Tannen</t>
-  </si>
-  <si>
-    <t>giving noogies</t>
-  </si>
-  <si>
-    <t>Buddha</t>
-  </si>
-  <si>
-    <t>promoting Buddhism</t>
-  </si>
-  <si>
-    <t>Tony Stark</t>
-  </si>
-  <si>
-    <t>running a hardware company</t>
-  </si>
-  <si>
-    <t>Janis Joplin</t>
-  </si>
-  <si>
-    <t>singing rock songs</t>
-  </si>
-  <si>
-    <t>Pope Francis</t>
-  </si>
-  <si>
-    <t>promoting Catholic values</t>
-  </si>
-  <si>
-    <t>Bruce Lee</t>
-  </si>
-  <si>
-    <t>Jackson Pollock</t>
-  </si>
-  <si>
-    <t>painting abstract paintings</t>
-  </si>
-  <si>
-    <t>Britney Spears</t>
-  </si>
-  <si>
-    <t>having meltdowns in public</t>
-  </si>
-  <si>
-    <t>George Soros</t>
-  </si>
-  <si>
-    <t>making billions</t>
-  </si>
-  <si>
-    <t>Hedda Hopper</t>
-  </si>
-  <si>
-    <t>spreading political gossip</t>
-  </si>
-  <si>
-    <t>developing new technologies</t>
-  </si>
-  <si>
-    <t>Jonathan Swift</t>
-  </si>
-  <si>
-    <t>writing political satires</t>
-  </si>
-  <si>
-    <t>managing hedge funds</t>
-  </si>
-  <si>
-    <t>Baron Munchausen</t>
-  </si>
-  <si>
-    <t>inventing lies</t>
-  </si>
-  <si>
-    <t>Jackie Chan</t>
-  </si>
-  <si>
-    <t>starring in comedies</t>
-  </si>
-  <si>
-    <t>Oprah Winfrey</t>
-  </si>
-  <si>
-    <t>interviewing celebrities</t>
-  </si>
-  <si>
-    <t>Jean-Luc Picard</t>
-  </si>
-  <si>
-    <t>commanding a spaceship</t>
-  </si>
-  <si>
-    <t>Condoleezza Rice</t>
-  </si>
-  <si>
-    <t>advising on foreign affairs</t>
-  </si>
-  <si>
-    <t>Judy Garland</t>
-  </si>
-  <si>
-    <t>singing torch songs</t>
-  </si>
-  <si>
-    <t>Clint Eastwood</t>
-  </si>
-  <si>
-    <t>directing movies</t>
-  </si>
-  <si>
-    <t>Alexander the Great</t>
-  </si>
-  <si>
-    <t>building empires</t>
-  </si>
-  <si>
-    <t>Moe Szyslak</t>
-  </si>
-  <si>
-    <t>falling for prank calls</t>
-  </si>
-  <si>
-    <t>Beatrix Potter</t>
-  </si>
-  <si>
-    <t>drawing whimsical cartoons</t>
-  </si>
-  <si>
-    <t>Michael Schumacher</t>
-  </si>
-  <si>
-    <t>driving fast cars</t>
-  </si>
-  <si>
-    <t>Stephen Jay Gould</t>
-  </si>
-  <si>
-    <t>promoting evolutionary theory</t>
-  </si>
-  <si>
-    <t>Jayne Mansfield</t>
-  </si>
-  <si>
-    <t>Anna Karenina</t>
-  </si>
-  <si>
-    <t>worrying about adultery</t>
-  </si>
-  <si>
-    <t>Enrico Caruso</t>
-  </si>
-  <si>
-    <t>singing opera arias</t>
-  </si>
-  <si>
-    <t>Rafael Nadal</t>
-  </si>
-  <si>
-    <t>winning tennis tournaments</t>
-  </si>
-  <si>
-    <t>Virginia Woolf</t>
-  </si>
-  <si>
-    <t>writing modern fiction</t>
-  </si>
-  <si>
-    <t>Lee Harvey Oswald</t>
-  </si>
-  <si>
-    <t>Noël Coward</t>
-  </si>
-  <si>
-    <t>coining sparkling witticisms</t>
-  </si>
-  <si>
-    <t>Reince Priebus</t>
-  </si>
-  <si>
-    <t>promoting conservative values</t>
-  </si>
-  <si>
-    <t>Han Solo</t>
-  </si>
-  <si>
-    <t>fighting for the rebel alliance</t>
-  </si>
-  <si>
-    <t>Spider-Man</t>
-  </si>
-  <si>
-    <t>Amelia Earhart</t>
-  </si>
-  <si>
-    <t>flying airplanes</t>
-  </si>
-  <si>
-    <t>breaking bones</t>
-  </si>
-  <si>
-    <t>JD Salinger</t>
-  </si>
-  <si>
-    <t>hiding from the public</t>
-  </si>
-  <si>
-    <t>George Harrison</t>
-  </si>
-  <si>
-    <t>Emma Bovary</t>
-  </si>
-  <si>
-    <t>planning adultery</t>
-  </si>
-  <si>
-    <t>Lindsay Lohan</t>
-  </si>
-  <si>
-    <t>driving under the influence</t>
-  </si>
-  <si>
-    <t>Voltaire</t>
-  </si>
-  <si>
-    <t>promoting liberal values</t>
-  </si>
-  <si>
-    <t>R2D2</t>
-  </si>
-  <si>
-    <t>eluding imperial storm-troopers</t>
-  </si>
-  <si>
-    <t>Socrates</t>
-  </si>
-  <si>
-    <t>teaching the next generation</t>
-  </si>
-  <si>
-    <t>The Scarlet Pimpernel</t>
-  </si>
-  <si>
-    <t>eluding Republicans</t>
-  </si>
-  <si>
-    <t>Princess Diana</t>
-  </si>
-  <si>
-    <t>posing for photographs</t>
-  </si>
-  <si>
-    <t>organizing prison breaks</t>
-  </si>
-  <si>
-    <t>Sid Vicious</t>
-  </si>
-  <si>
-    <t>singing punk rock songs</t>
-  </si>
-  <si>
-    <t>Bob Woodward</t>
-  </si>
-  <si>
-    <t>reporting the news</t>
-  </si>
-  <si>
-    <t>David Hasselhoff</t>
-  </si>
-  <si>
-    <t>constructing an ironic public image</t>
-  </si>
-  <si>
-    <t>Rocky Balboa</t>
-  </si>
-  <si>
-    <t>Adam Sandler</t>
-  </si>
-  <si>
-    <t>making dumb comedies</t>
-  </si>
-  <si>
-    <t>Kevin Bacon</t>
-  </si>
-  <si>
-    <t>forming new social connections</t>
-  </si>
-  <si>
-    <t>E.T.</t>
-  </si>
-  <si>
-    <t>phoning home</t>
-  </si>
-  <si>
-    <t>Niccolò Machiavelli</t>
-  </si>
-  <si>
-    <t>Leo Tolstoy</t>
-  </si>
-  <si>
-    <t>writing Russian novels</t>
-  </si>
-  <si>
-    <t>Louis Pasteur</t>
-  </si>
-  <si>
-    <t>Dame Edna Everage</t>
-  </si>
-  <si>
-    <t>Leni Riefenstahl</t>
-  </si>
-  <si>
-    <t>Willy Wonka</t>
-  </si>
-  <si>
-    <t>pioneering new technologies</t>
-  </si>
-  <si>
-    <t>Seth MacFarlane</t>
-  </si>
-  <si>
-    <t>making vulgar cartoons</t>
-  </si>
-  <si>
-    <t>Hunter S. Thompson</t>
-  </si>
-  <si>
-    <t>writing about manly pursuits</t>
-  </si>
-  <si>
-    <t>Groot</t>
-  </si>
-  <si>
-    <t>guarding the galaxy</t>
-  </si>
-  <si>
-    <t>Dorothy Parker</t>
-  </si>
-  <si>
-    <t>making witty remarks</t>
-  </si>
-  <si>
-    <t>Tweety Pie</t>
-  </si>
-  <si>
-    <t>swinging on a perch</t>
-  </si>
-  <si>
-    <t>promoting open-source software</t>
-  </si>
-  <si>
-    <t>Vladimir Putin</t>
-  </si>
-  <si>
-    <t>Joey Tribbiani</t>
-  </si>
-  <si>
-    <t>starring in daytime soap operas</t>
-  </si>
-  <si>
-    <t>Severus Snape</t>
-  </si>
-  <si>
-    <t>Professor James Moriarty</t>
-  </si>
-  <si>
-    <t>amassing ill-gotten wealth</t>
-  </si>
-  <si>
-    <t>Howard Hughes</t>
-  </si>
-  <si>
-    <t>running a movie studio</t>
-  </si>
-  <si>
-    <t>Eminem</t>
-  </si>
-  <si>
-    <t>writing rap songs</t>
-  </si>
-  <si>
-    <t>Malcolm X</t>
-  </si>
-  <si>
-    <t>Genghis Khan</t>
-  </si>
-  <si>
-    <t>John McEnroe</t>
-  </si>
-  <si>
-    <t>Groucho Marx</t>
-  </si>
-  <si>
-    <t>starring in madcap comedies</t>
-  </si>
-  <si>
-    <t>Harry Houdini</t>
-  </si>
-  <si>
-    <t>escaping from water tanks</t>
-  </si>
-  <si>
-    <t>Lenny Bruce</t>
-  </si>
-  <si>
-    <t>commenting on social issues</t>
-  </si>
-  <si>
-    <t>Tom Brady</t>
-  </si>
-  <si>
-    <t>signing sports memorabilia</t>
-  </si>
-  <si>
-    <t>Commander Data</t>
-  </si>
-  <si>
-    <t>piloting a spaceship</t>
-  </si>
-  <si>
-    <t>Pepé Le Pew</t>
-  </si>
-  <si>
-    <t>seducing women</t>
-  </si>
-  <si>
-    <t>Cinderella</t>
-  </si>
-  <si>
-    <t>climbing social ladders</t>
-  </si>
-  <si>
-    <t>Niccolò Paganini</t>
-  </si>
-  <si>
-    <t>playing the violin</t>
-  </si>
-  <si>
-    <t>Dr. Strangelove</t>
-  </si>
-  <si>
-    <t>pushing the hardline</t>
-  </si>
-  <si>
-    <t>Mae West</t>
-  </si>
-  <si>
-    <t>Franz Liszt</t>
-  </si>
-  <si>
-    <t>playing classical piano</t>
-  </si>
-  <si>
-    <t>Liz Lemon</t>
-  </si>
-  <si>
-    <t>writing comedy</t>
-  </si>
-  <si>
-    <t>Kevin Spacey</t>
-  </si>
-  <si>
-    <t>Hugh Hefner</t>
-  </si>
-  <si>
-    <t>publishing soft pornography</t>
-  </si>
-  <si>
-    <t>Chief Clarence Wiggum</t>
-  </si>
-  <si>
-    <t>eating donuts</t>
-  </si>
-  <si>
-    <t>Wolverine</t>
-  </si>
-  <si>
-    <t>Catherine The Great</t>
-  </si>
-  <si>
-    <t>ruling over subjects</t>
-  </si>
-  <si>
-    <t>starring in action movies</t>
-  </si>
-  <si>
-    <t>David Bowie</t>
-  </si>
-  <si>
-    <t>Anthony Scaramucci</t>
-  </si>
-  <si>
-    <t>ranting about liberals</t>
-  </si>
-  <si>
-    <t>dripping paint onto canvas</t>
-  </si>
-  <si>
-    <t>Karl Marx</t>
-  </si>
-  <si>
-    <t>promoting communism</t>
-  </si>
-  <si>
-    <t>RuPaul</t>
-  </si>
-  <si>
-    <t>cross-dressing in women's clothes</t>
-  </si>
-  <si>
-    <t>Frasier Crane</t>
-  </si>
-  <si>
-    <t>analyzing the sub-conscious</t>
-  </si>
-  <si>
-    <t>Christian Bale</t>
-  </si>
-  <si>
-    <t>developing cunning plans</t>
-  </si>
-  <si>
-    <t>Montgomery Burns</t>
-  </si>
-  <si>
-    <t>Erasmus</t>
-  </si>
-  <si>
-    <t>promoting humanism</t>
-  </si>
-  <si>
-    <t>Archie Bunker</t>
-  </si>
-  <si>
-    <t>Will Smith</t>
-  </si>
-  <si>
-    <t>promoting liberalism</t>
-  </si>
-  <si>
-    <t>Batman</t>
-  </si>
-  <si>
-    <t>Carl Sagan</t>
-  </si>
-  <si>
-    <t>studying the cosmos</t>
-  </si>
-  <si>
-    <t>Dean Martin</t>
-  </si>
-  <si>
-    <t>singing middle-of-the-road songs</t>
-  </si>
-  <si>
-    <t>David Mamet</t>
-  </si>
-  <si>
-    <t>Orson Welles</t>
-  </si>
-  <si>
-    <t>directing indy movies</t>
-  </si>
-  <si>
-    <t>Saul Goodman</t>
-  </si>
-  <si>
-    <t>protecting criminals</t>
-  </si>
-  <si>
-    <t>Santa Claus</t>
-  </si>
-  <si>
-    <t>climbing down chimneys</t>
-  </si>
-  <si>
-    <t>Katniss Everdeen</t>
-  </si>
-  <si>
-    <t>instigating rebellion</t>
-  </si>
-  <si>
-    <t>Steve Ballmer</t>
-  </si>
-  <si>
-    <t>running a software company</t>
-  </si>
-  <si>
-    <t>trading innuendo</t>
-  </si>
-  <si>
-    <t>Michael Jordan</t>
-  </si>
-  <si>
-    <t>playing basketball</t>
-  </si>
-  <si>
-    <t>Scipio Africanus</t>
-  </si>
-  <si>
-    <t>fighting Carthaginians</t>
-  </si>
-  <si>
-    <t>Harvey Weinstein</t>
-  </si>
-  <si>
-    <t>chasing after women</t>
-  </si>
-  <si>
-    <t>Karl Lagerfeld</t>
-  </si>
-  <si>
-    <t>pushing haute couture</t>
-  </si>
-  <si>
-    <t>Elvis Presley</t>
-  </si>
-  <si>
-    <t>gyrating hips</t>
-  </si>
-  <si>
-    <t>Heath Ledger</t>
-  </si>
-  <si>
-    <t>Eliza Doolittle</t>
-  </si>
-  <si>
-    <t>handing out flowers</t>
-  </si>
-  <si>
-    <t>Sarah Connor</t>
-  </si>
-  <si>
-    <t>amassing weapons</t>
-  </si>
-  <si>
-    <t>Frank Capra</t>
-  </si>
-  <si>
-    <t>making idealistic movies</t>
-  </si>
-  <si>
-    <t>Rush Limbaugh</t>
-  </si>
-  <si>
-    <t>Marilyn Monroe</t>
-  </si>
-  <si>
-    <t>Roy Batty</t>
-  </si>
-  <si>
-    <t>looking for immortality</t>
-  </si>
-  <si>
-    <t>Katharine Hepburn</t>
-  </si>
-  <si>
-    <t>Mel Brooks</t>
-  </si>
-  <si>
-    <t>directing comedies</t>
-  </si>
-  <si>
-    <t>Hellboy</t>
-  </si>
-  <si>
-    <t>killing demons</t>
-  </si>
-  <si>
-    <t>Jay Z</t>
-  </si>
-  <si>
-    <t>producing Hipbop records</t>
-  </si>
-  <si>
-    <t>George Costanza</t>
-  </si>
-  <si>
-    <t>complaining about life</t>
-  </si>
-  <si>
-    <t>Jimmy Stewart</t>
-  </si>
-  <si>
-    <t>Joan of Arc</t>
-  </si>
-  <si>
-    <t>fighting with swords</t>
-  </si>
-  <si>
-    <t>Adolf Eichmann</t>
-  </si>
-  <si>
-    <t>running a criminal enterprise</t>
-  </si>
-  <si>
-    <t>Captain America</t>
-  </si>
-  <si>
-    <t>Lt. George Colthurst St Barleigh</t>
-  </si>
-  <si>
-    <t>providing comic relief</t>
-  </si>
-  <si>
-    <t>Deepak Chopra</t>
-  </si>
-  <si>
-    <t>promoting Eastern philosophy</t>
-  </si>
-  <si>
-    <t>Kanye West</t>
-  </si>
-  <si>
-    <t>breaking records</t>
-  </si>
-  <si>
-    <t>Michelle Obama</t>
-  </si>
-  <si>
-    <t>starring in reality TV shows</t>
-  </si>
-  <si>
-    <t>Leroy Jethro Gibbs</t>
-  </si>
-  <si>
-    <t>finding clues</t>
-  </si>
-  <si>
-    <t>Plato</t>
-  </si>
-  <si>
-    <t>Lee Marvin</t>
-  </si>
-  <si>
-    <t>Simon Cowell</t>
-  </si>
-  <si>
-    <t>Carl Von Clausewitz</t>
-  </si>
-  <si>
-    <t>developing military strategies</t>
-  </si>
-  <si>
-    <t>Boudicca</t>
-  </si>
-  <si>
-    <t>Scarlett Johansson</t>
-  </si>
-  <si>
-    <t>Tim Berners-Lee</t>
-  </si>
-  <si>
-    <t>promoting the Web</t>
-  </si>
-  <si>
-    <t>Peter Parker</t>
-  </si>
-  <si>
-    <t>painting self-portraits</t>
-  </si>
-  <si>
-    <t>King Henry VIII</t>
-  </si>
-  <si>
-    <t>trading in wives</t>
-  </si>
-  <si>
-    <t>Lucifer</t>
-  </si>
-  <si>
-    <t>promoting wickedness</t>
-  </si>
-  <si>
-    <t>Ilya Kuryakin</t>
-  </si>
-  <si>
-    <t>Imelda Marcos</t>
-  </si>
-  <si>
-    <t>shopping for shoes</t>
-  </si>
-  <si>
-    <t>Marie Curie</t>
-  </si>
-  <si>
-    <t>extracting Radium from pitchblend</t>
-  </si>
-  <si>
-    <t>Nigel Tufnel</t>
-  </si>
-  <si>
-    <t>playing rock guitar</t>
-  </si>
-  <si>
-    <t>Frank Sinatra</t>
-  </si>
-  <si>
-    <t>making lewd remarks</t>
-  </si>
-  <si>
-    <t>David Byrne</t>
-  </si>
-  <si>
-    <t>Lex Luthor</t>
-  </si>
-  <si>
-    <t>striving for world domination</t>
-  </si>
-  <si>
-    <t>fighting in gladiator arenas</t>
-  </si>
-  <si>
-    <t>Rihanna</t>
-  </si>
-  <si>
-    <t>Albus Dumbledore</t>
-  </si>
-  <si>
-    <t>teaching magic</t>
-  </si>
-  <si>
-    <t>running a multinational corporation</t>
-  </si>
-  <si>
-    <t>Violet Baudelaire</t>
-  </si>
-  <si>
-    <t>Robin Hood</t>
-  </si>
-  <si>
-    <t>giving to the poor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emmeline Pankhurst </t>
-  </si>
-  <si>
-    <t>Lord Byron</t>
-  </si>
-  <si>
-    <t>Buzz Aldrin</t>
-  </si>
-  <si>
-    <t>Cher</t>
-  </si>
-  <si>
-    <t>Harry Potter</t>
-  </si>
-  <si>
-    <t>playing quidditch</t>
-  </si>
-  <si>
-    <t>Steve Guttenberg</t>
-  </si>
-  <si>
-    <t>getting plastic surgery</t>
-  </si>
-  <si>
-    <t>Errol Flynn</t>
-  </si>
-  <si>
-    <t>Pythagoras</t>
-  </si>
-  <si>
-    <t>studying mathematics</t>
-  </si>
-  <si>
-    <t>Jack Sparrow</t>
-  </si>
-  <si>
-    <t>collecting pirate booty</t>
-  </si>
-  <si>
-    <t>Mayor Joe Quimby</t>
-  </si>
-  <si>
-    <t>embezzling tax money</t>
-  </si>
-  <si>
-    <t>Bruce Springsteen</t>
-  </si>
-  <si>
-    <t>Charles Dickens</t>
-  </si>
-  <si>
-    <t>writing about social problems</t>
-  </si>
-  <si>
-    <t>Beyoncé</t>
-  </si>
-  <si>
-    <t>bullying neighboring countries</t>
-  </si>
-  <si>
-    <t>burning the wicked</t>
-  </si>
-  <si>
-    <t>Muhammad Ali</t>
-  </si>
-  <si>
-    <t>winning heavyweight titles</t>
-  </si>
-  <si>
-    <t>Richard Wagner</t>
-  </si>
-  <si>
-    <t>making antisemitic remarks</t>
-  </si>
-  <si>
-    <t>Bill Gates</t>
-  </si>
-  <si>
-    <t>pushing dodgy operating systems</t>
-  </si>
-  <si>
-    <t>Tina Turner</t>
-  </si>
-  <si>
-    <t>Bjork</t>
-  </si>
-  <si>
-    <t>Elmore Leonard</t>
-  </si>
-  <si>
-    <t>writing compelling dialogue</t>
-  </si>
-  <si>
-    <t>running a propaganda machine</t>
-  </si>
-  <si>
-    <t>selling tickets</t>
-  </si>
-  <si>
-    <t>Jeff Koons</t>
-  </si>
-  <si>
-    <t>making modern art</t>
-  </si>
-  <si>
-    <t>Chandler Bing</t>
-  </si>
-  <si>
-    <t>making sarcastic remarks</t>
-  </si>
-  <si>
-    <t>Allan Quatermain</t>
-  </si>
-  <si>
-    <t>exploring darkest Africa</t>
-  </si>
-  <si>
-    <t>Mariah Carey</t>
-  </si>
-  <si>
-    <t>Zsa Zsa Gabor</t>
-  </si>
-  <si>
-    <t>collecting alimony</t>
-  </si>
-  <si>
-    <t>writing funny movies</t>
-  </si>
-  <si>
-    <t>Del Boy Trotter</t>
-  </si>
-  <si>
-    <t>selling dodgy goods</t>
-  </si>
-  <si>
-    <t>John Lennon</t>
-  </si>
-  <si>
-    <t>campaigning for world peace</t>
-  </si>
-  <si>
-    <t>Erik "Magneto" Lehnsherr</t>
-  </si>
-  <si>
-    <t>devising evil schemes</t>
-  </si>
-  <si>
-    <t>Sideshow Bob</t>
-  </si>
-  <si>
-    <t>Joseph McCarthy</t>
-  </si>
-  <si>
-    <t>promoting democracy</t>
-  </si>
-  <si>
-    <t>Boy George</t>
-  </si>
-  <si>
-    <t>Keith Moon</t>
-  </si>
-  <si>
-    <t>throwing TVs out of the windows</t>
-  </si>
-  <si>
-    <t>Arnold Schwarzenegger</t>
-  </si>
-  <si>
-    <t>working out</t>
-  </si>
-  <si>
-    <t>Jay Leno</t>
-  </si>
-  <si>
-    <t>hosting a late night chat show</t>
-  </si>
-  <si>
-    <t>Otto von Bismarck</t>
-  </si>
-  <si>
-    <t>making action movies</t>
-  </si>
-  <si>
-    <t>Ayatollah Khomeini</t>
-  </si>
-  <si>
-    <t>issuing fatwas</t>
-  </si>
-  <si>
-    <t>Michael O'Leary</t>
-  </si>
-  <si>
-    <t>promoting air travel</t>
-  </si>
-  <si>
-    <t>Grace Kelly</t>
-  </si>
-  <si>
-    <t>dining with playboy princes</t>
-  </si>
-  <si>
-    <t>writing serialized stories</t>
-  </si>
-  <si>
-    <t>winning battles</t>
-  </si>
-  <si>
-    <t>Michael J. Fox</t>
-  </si>
-  <si>
-    <t>throwing fund-raisers for Parkinson's disease</t>
-  </si>
-  <si>
-    <t>Peter Jackson</t>
-  </si>
-  <si>
-    <t>Trinity</t>
-  </si>
-  <si>
-    <t>hacking into corporate mainframes</t>
-  </si>
-  <si>
-    <t>Oedipus Rex</t>
-  </si>
-  <si>
-    <t>solving riddles</t>
-  </si>
-  <si>
-    <t>Michael Phelps</t>
-  </si>
-  <si>
-    <t>winning swimming competitions</t>
-  </si>
-  <si>
-    <t>Sinead O'Connor</t>
-  </si>
-  <si>
-    <t>Kim Philby</t>
-  </si>
-  <si>
-    <t>betraying friends</t>
-  </si>
-  <si>
-    <t>Annie Oakley</t>
-  </si>
-  <si>
-    <t>Saga Norén</t>
-  </si>
-  <si>
-    <t>Don Quixote</t>
-  </si>
-  <si>
-    <t>going on romantic quests</t>
-  </si>
-  <si>
-    <t>Theodore Roosevelt</t>
-  </si>
-  <si>
-    <t>campaigning for environmental causes</t>
-  </si>
-  <si>
-    <t>Matt Groening</t>
-  </si>
-  <si>
-    <t>Sam Spade</t>
-  </si>
-  <si>
-    <t>Steven Spielberg</t>
-  </si>
-  <si>
-    <t>directing Hollywood movies</t>
-  </si>
-  <si>
-    <t>Ryan Reynolds</t>
-  </si>
-  <si>
-    <t>Robin Williams</t>
-  </si>
-  <si>
-    <t>making madcap comedies</t>
-  </si>
-  <si>
-    <t>George McFly</t>
-  </si>
-  <si>
-    <t>standing up to bullies</t>
-  </si>
-  <si>
-    <t>Father Ted</t>
-  </si>
-  <si>
-    <t>smoking cigars</t>
-  </si>
-  <si>
-    <t>Marge Simpson</t>
-  </si>
-  <si>
-    <t>raising a family</t>
-  </si>
-  <si>
-    <t>Robert Downey Jr.</t>
-  </si>
-  <si>
-    <t>making Superhero movies</t>
-  </si>
-  <si>
-    <t>running a bureaucracy</t>
-  </si>
-  <si>
-    <t>Lord Macbeth</t>
-  </si>
-  <si>
-    <t>grabbing power</t>
-  </si>
-  <si>
-    <t>Keith Richards</t>
-  </si>
-  <si>
-    <t>playing rock music</t>
   </si>
 </sst>
 </file>
@@ -1875,8 +1923,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="29.09375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="41.19921875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="30.21875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="36.00390625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.69921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -1932,81 +1980,81 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
@@ -2014,54 +2062,54 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -2069,10 +2117,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
@@ -2080,10 +2128,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -2091,43 +2139,43 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -2135,21 +2183,21 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -2157,10 +2205,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -2168,21 +2216,21 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -2190,43 +2238,43 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C29" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -2234,21 +2282,21 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C34" t="s">
         <v>10</v>
@@ -2256,65 +2304,65 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C36" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C39" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -2322,21 +2370,21 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C41" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -2344,10 +2392,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C43" t="s">
         <v>10</v>
@@ -2355,10 +2403,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B44" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -2366,43 +2414,43 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C45" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B46" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C46" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B47" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C47" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B48" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C48" t="s">
         <v>10</v>
@@ -2410,21 +2458,21 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B49" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C49" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" t="s">
         <v>98</v>
-      </c>
-      <c r="B50" t="s">
-        <v>99</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -2432,32 +2480,32 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B51" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C51" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B52" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="C52" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B53" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -2465,32 +2513,32 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B54" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C54" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B55" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="C55" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B56" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -2498,21 +2546,21 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B57" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C57" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B58" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C58" t="s">
         <v>10</v>
@@ -2520,120 +2568,120 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B59" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C59" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B60" t="s">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="C60" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B61" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C61" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B62" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="C62" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B63" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C63" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B64" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C64" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="B65" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C65" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B66" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C66" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B67" t="s">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="C67" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B68" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C68" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="B69" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -2641,32 +2689,32 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B70" t="s">
-        <v>134</v>
+        <v>55</v>
       </c>
       <c r="C70" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B71" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C71" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B72" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C72" t="s">
         <v>10</v>
@@ -2674,87 +2722,87 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B73" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C73" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B74" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C74" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B75" t="s">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="C75" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B76" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C76" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B77" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C77" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B78" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C78" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B79" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C79" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B80" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C80" t="s">
         <v>10</v>
@@ -2762,43 +2810,43 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>84</v>
+        <v>158</v>
       </c>
       <c r="B81" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C81" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B82" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C82" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>27</v>
+        <v>162</v>
       </c>
       <c r="B83" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C83" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B84" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -2806,76 +2854,76 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B85" t="s">
-        <v>106</v>
+        <v>167</v>
       </c>
       <c r="C85" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>162</v>
+        <v>28</v>
       </c>
       <c r="B86" t="s">
-        <v>163</v>
+        <v>37</v>
       </c>
       <c r="C86" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B87" t="s">
-        <v>165</v>
+        <v>98</v>
       </c>
       <c r="C87" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B88" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C88" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B89" t="s">
-        <v>169</v>
+        <v>37</v>
       </c>
       <c r="C89" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B90" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C90" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B91" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -2883,175 +2931,175 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B92" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C92" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B93" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C93" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>177</v>
+        <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>61</v>
+        <v>180</v>
       </c>
       <c r="C94" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B95" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C95" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B96" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C96" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B97" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C97" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B98" t="s">
-        <v>91</v>
+        <v>188</v>
       </c>
       <c r="C98" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B99" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C99" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="B100" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C100" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="B101" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C101" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B102" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C102" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B103" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C103" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B104" t="s">
-        <v>61</v>
+        <v>200</v>
       </c>
       <c r="C104" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="B105" t="s">
-        <v>53</v>
+        <v>202</v>
       </c>
       <c r="C105" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="B106" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="C106" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="B107" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C107" t="s">
         <v>10</v>
@@ -3059,109 +3107,109 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="B108" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="C108" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>100</v>
+        <v>209</v>
       </c>
       <c r="B109" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C109" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>202</v>
+        <v>95</v>
       </c>
       <c r="B110" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="C110" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B111" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="C111" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B112" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="C112" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B113" t="s">
-        <v>91</v>
+        <v>217</v>
       </c>
       <c r="C113" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="B114" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="C114" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="B115" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C115" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>213</v>
+        <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C116" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="B117" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="C117" t="s">
         <v>10</v>
@@ -3169,10 +3217,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="B118" t="s">
-        <v>218</v>
+        <v>53</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -3180,65 +3228,65 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="B119" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="C119" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B120" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="C120" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>223</v>
+        <v>44</v>
       </c>
       <c r="B121" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C121" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B122" t="s">
-        <v>226</v>
+        <v>92</v>
       </c>
       <c r="C122" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B123" t="s">
-        <v>142</v>
+        <v>233</v>
       </c>
       <c r="C123" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B124" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C124" t="s">
         <v>10</v>
@@ -3246,98 +3294,98 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B125" t="s">
-        <v>231</v>
+        <v>37</v>
       </c>
       <c r="C125" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B126" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C126" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B127" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C127" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>168</v>
+        <v>241</v>
       </c>
       <c r="B128" t="s">
-        <v>236</v>
+        <v>127</v>
       </c>
       <c r="C128" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B129" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C129" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="B130" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C130" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B131" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="C131" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B132" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C132" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B133" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C133" t="s">
         <v>10</v>
@@ -3345,32 +3393,32 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B134" t="s">
-        <v>247</v>
+        <v>29</v>
       </c>
       <c r="C134" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B135" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C135" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B136" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C136" t="s">
         <v>10</v>
@@ -3378,109 +3426,109 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B137" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C137" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B138" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C138" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B139" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C139" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B140" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C140" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B141" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C141" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B142" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C142" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B143" t="s">
-        <v>61</v>
+        <v>269</v>
       </c>
       <c r="C143" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B144" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C144" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B145" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="C145" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B146" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="C146" t="s">
         <v>10</v>
@@ -3488,43 +3536,43 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B147" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C147" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="B148" t="s">
-        <v>148</v>
+        <v>27</v>
       </c>
       <c r="C148" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B149" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C149" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="B150" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="C150" t="s">
         <v>10</v>
@@ -3532,32 +3580,32 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B151" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C151" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B152" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="C152" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B153" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C153" t="s">
         <v>10</v>
@@ -3565,43 +3613,43 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>33</v>
+        <v>287</v>
       </c>
       <c r="B154" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="C154" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B155" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C155" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="B156" t="s">
-        <v>91</v>
+        <v>292</v>
       </c>
       <c r="C156" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="B157" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -3609,10 +3657,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B158" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="C158" t="s">
         <v>10</v>
@@ -3620,21 +3668,21 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="B159" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C159" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="B160" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -3642,21 +3690,21 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="B161" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="C161" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>297</v>
+        <v>42</v>
       </c>
       <c r="B162" t="s">
-        <v>298</v>
+        <v>98</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -3664,57 +3712,57 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>299</v>
+        <v>68</v>
       </c>
       <c r="B163" t="s">
-        <v>300</v>
+        <v>271</v>
       </c>
       <c r="C163" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>70</v>
+        <v>302</v>
       </c>
       <c r="B164" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C164" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B165" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C165" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B166" t="s">
-        <v>305</v>
+        <v>149</v>
       </c>
       <c r="C166" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B167" t="s">
-        <v>307</v>
+        <v>240</v>
       </c>
       <c r="C167" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="168">
@@ -3722,95 +3770,95 @@
         <v>308</v>
       </c>
       <c r="B168" t="s">
-        <v>154</v>
+        <v>309</v>
       </c>
       <c r="C168" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B169" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C169" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B170" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C170" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B171" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C171" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B172" t="s">
-        <v>26</v>
+        <v>317</v>
       </c>
       <c r="C172" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B173" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C173" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B174" t="s">
-        <v>4</v>
+        <v>321</v>
       </c>
       <c r="C174" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>319</v>
+        <v>40</v>
       </c>
       <c r="B175" t="s">
-        <v>101</v>
+        <v>322</v>
       </c>
       <c r="C175" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B176" t="s">
-        <v>210</v>
+        <v>324</v>
       </c>
       <c r="C176" t="s">
         <v>10</v>
@@ -3818,10 +3866,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>321</v>
+        <v>102</v>
       </c>
       <c r="B177" t="s">
-        <v>322</v>
+        <v>190</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -3829,131 +3877,131 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B178" t="s">
-        <v>324</v>
+        <v>144</v>
       </c>
       <c r="C178" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>98</v>
+        <v>326</v>
       </c>
       <c r="B179" t="s">
-        <v>212</v>
+        <v>327</v>
       </c>
       <c r="C179" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B180" t="s">
-        <v>326</v>
+        <v>37</v>
       </c>
       <c r="C180" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B181" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C181" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B182" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C182" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B183" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C183" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>184</v>
+        <v>335</v>
       </c>
       <c r="B184" t="s">
-        <v>333</v>
+        <v>20</v>
       </c>
       <c r="C184" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B185" t="s">
-        <v>203</v>
+        <v>337</v>
       </c>
       <c r="C185" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B186" t="s">
-        <v>336</v>
+        <v>98</v>
       </c>
       <c r="C186" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>337</v>
+        <v>178</v>
       </c>
       <c r="B187" t="s">
-        <v>296</v>
+        <v>339</v>
       </c>
       <c r="C187" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B188" t="s">
-        <v>339</v>
+        <v>98</v>
       </c>
       <c r="C188" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B189" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C189" t="s">
         <v>10</v>
@@ -3961,21 +4009,21 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B190" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C190" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B191" t="s">
-        <v>157</v>
+        <v>249</v>
       </c>
       <c r="C191" t="s">
         <v>10</v>
@@ -3983,32 +4031,32 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B192" t="s">
-        <v>203</v>
+        <v>29</v>
       </c>
       <c r="C192" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>25</v>
+        <v>347</v>
       </c>
       <c r="B193" t="s">
-        <v>42</v>
+        <v>348</v>
       </c>
       <c r="C193" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B194" t="s">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="C194" t="s">
         <v>10</v>
@@ -4016,76 +4064,76 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B195" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C195" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B196" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C196" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>206</v>
+        <v>355</v>
       </c>
       <c r="B197" t="s">
-        <v>61</v>
+        <v>356</v>
       </c>
       <c r="C197" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>351</v>
+        <v>89</v>
       </c>
       <c r="B198" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C198" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="B199" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="C199" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>355</v>
+        <v>212</v>
       </c>
       <c r="B200" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C200" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B201" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -4093,10 +4141,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B202" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -4104,208 +4152,208 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B203" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C203" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>363</v>
+        <v>116</v>
       </c>
       <c r="B204" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C204" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B205" t="s">
-        <v>61</v>
+        <v>369</v>
       </c>
       <c r="C205" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B206" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C206" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B207" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C207" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B208" t="s">
-        <v>61</v>
+        <v>240</v>
       </c>
       <c r="C208" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B209" t="s">
-        <v>372</v>
+        <v>98</v>
       </c>
       <c r="C209" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B210" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C210" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B211" t="s">
-        <v>158</v>
+        <v>379</v>
       </c>
       <c r="C211" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B212" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C212" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>242</v>
+        <v>382</v>
       </c>
       <c r="B213" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="C213" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="B214" t="s">
-        <v>75</v>
+        <v>385</v>
       </c>
       <c r="C214" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="B215" t="s">
-        <v>381</v>
+        <v>37</v>
       </c>
       <c r="C215" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>228</v>
+        <v>147</v>
       </c>
       <c r="B216" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="C216" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="B217" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="C217" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>385</v>
+        <v>328</v>
       </c>
       <c r="B218" t="s">
-        <v>386</v>
+        <v>29</v>
       </c>
       <c r="C218" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B219" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C219" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B220" t="s">
-        <v>378</v>
+        <v>98</v>
       </c>
       <c r="C220" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>315</v>
+        <v>393</v>
       </c>
       <c r="B221" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C221" t="s">
         <v>10</v>
@@ -4313,21 +4361,21 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B222" t="s">
-        <v>138</v>
+        <v>59</v>
       </c>
       <c r="C222" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B223" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C223" t="s">
         <v>10</v>
@@ -4335,87 +4383,87 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B224" t="s">
-        <v>381</v>
+        <v>399</v>
       </c>
       <c r="C224" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="B225" t="s">
-        <v>61</v>
+        <v>401</v>
       </c>
       <c r="C225" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>14</v>
+        <v>402</v>
       </c>
       <c r="B226" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="C226" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="B227" t="s">
-        <v>53</v>
+        <v>405</v>
       </c>
       <c r="C227" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>289</v>
+        <v>406</v>
       </c>
       <c r="B228" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="C228" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="B229" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="C229" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="B230" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="C230" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="B231" t="s">
-        <v>253</v>
+        <v>412</v>
       </c>
       <c r="C231" t="s">
         <v>10</v>
@@ -4423,252 +4471,252 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="B232" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="C232" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="B233" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="C233" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="B234" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="C234" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="B235" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="C235" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>411</v>
+        <v>232</v>
       </c>
       <c r="B236" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="C236" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>365</v>
+        <v>422</v>
       </c>
       <c r="B237" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="C237" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="B238" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="C238" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="B239" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="C239" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="B240" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="C240" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="B241" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="C241" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="B242" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="C242" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="B243" t="s">
-        <v>61</v>
+        <v>435</v>
       </c>
       <c r="C243" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>425</v>
+        <v>118</v>
       </c>
       <c r="B244" t="s">
-        <v>426</v>
+        <v>27</v>
       </c>
       <c r="C244" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>427</v>
+        <v>370</v>
       </c>
       <c r="B245" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="C245" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="B246" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="C246" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="B247" t="s">
-        <v>277</v>
+        <v>37</v>
       </c>
       <c r="C247" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="B248" t="s">
-        <v>61</v>
+        <v>238</v>
       </c>
       <c r="C248" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="B249" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C249" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="B250" t="s">
-        <v>61</v>
+        <v>238</v>
       </c>
       <c r="C250" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="B251" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="C251" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="B252" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="C252" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="B253" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="C253" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="B254" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -4676,197 +4724,197 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B255" t="s">
-        <v>61</v>
+        <v>453</v>
       </c>
       <c r="C255" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="B256" t="s">
-        <v>446</v>
+        <v>230</v>
       </c>
       <c r="C256" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="B257" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="C257" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="B258" t="s">
-        <v>158</v>
+        <v>458</v>
       </c>
       <c r="C258" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="B259" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="C259" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="B260" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="C260" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="B261" t="s">
-        <v>216</v>
+        <v>144</v>
       </c>
       <c r="C261" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>281</v>
+        <v>464</v>
       </c>
       <c r="B262" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="C262" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>456</v>
+        <v>162</v>
       </c>
       <c r="B263" t="s">
-        <v>201</v>
+        <v>466</v>
       </c>
       <c r="C263" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>306</v>
+        <v>467</v>
       </c>
       <c r="B264" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="C264" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>181</v>
+        <v>469</v>
       </c>
       <c r="B265" t="s">
-        <v>123</v>
+        <v>470</v>
       </c>
       <c r="C265" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="B266" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="C266" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>460</v>
+        <v>428</v>
       </c>
       <c r="B267" t="s">
-        <v>296</v>
+        <v>473</v>
       </c>
       <c r="C267" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="B268" t="s">
-        <v>207</v>
+        <v>475</v>
       </c>
       <c r="C268" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="B269" t="s">
-        <v>457</v>
+        <v>477</v>
       </c>
       <c r="C269" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>463</v>
+        <v>6</v>
       </c>
       <c r="B270" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="C270" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
       <c r="B271" t="s">
-        <v>155</v>
+        <v>480</v>
       </c>
       <c r="C271" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
       <c r="B272" t="s">
-        <v>386</v>
+        <v>482</v>
       </c>
       <c r="C272" t="s">
         <v>10</v>
@@ -4874,21 +4922,21 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>467</v>
+        <v>483</v>
       </c>
       <c r="B273" t="s">
-        <v>468</v>
+        <v>7</v>
       </c>
       <c r="C273" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="B274" t="s">
-        <v>4</v>
+        <v>485</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -4896,10 +4944,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>143</v>
+        <v>486</v>
       </c>
       <c r="B275" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="C275" t="s">
         <v>10</v>
@@ -4907,32 +4955,32 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
       <c r="B276" t="s">
-        <v>472</v>
+        <v>489</v>
       </c>
       <c r="C276" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>473</v>
+        <v>490</v>
       </c>
       <c r="B277" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="C277" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="B278" t="s">
-        <v>158</v>
+        <v>65</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -4940,76 +4988,76 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>476</v>
+        <v>454</v>
       </c>
       <c r="B279" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="C279" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="B280" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
       <c r="C280" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="B281" t="s">
-        <v>481</v>
+        <v>255</v>
       </c>
       <c r="C281" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="B282" t="s">
-        <v>73</v>
+        <v>192</v>
       </c>
       <c r="C282" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>365</v>
+        <v>126</v>
       </c>
       <c r="B283" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="C283" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
       <c r="B284" t="s">
-        <v>75</v>
+        <v>500</v>
       </c>
       <c r="C284" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>485</v>
+        <v>374</v>
       </c>
       <c r="B285" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
@@ -5017,10 +5065,10 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>107</v>
+        <v>181</v>
       </c>
       <c r="B286" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -5028,10 +5076,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="B287" t="s">
-        <v>91</v>
+        <v>504</v>
       </c>
       <c r="C287" t="s">
         <v>10</v>
@@ -5039,32 +5087,32 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>489</v>
+        <v>505</v>
       </c>
       <c r="B288" t="s">
-        <v>490</v>
+        <v>506</v>
       </c>
       <c r="C288" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>221</v>
+        <v>507</v>
       </c>
       <c r="B289" t="s">
-        <v>491</v>
+        <v>235</v>
       </c>
       <c r="C289" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>492</v>
+        <v>508</v>
       </c>
       <c r="B290" t="s">
-        <v>322</v>
+        <v>509</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -5072,10 +5120,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>493</v>
+        <v>510</v>
       </c>
       <c r="B291" t="s">
-        <v>494</v>
+        <v>511</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -5083,32 +5131,32 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>495</v>
+        <v>512</v>
       </c>
       <c r="B292" t="s">
-        <v>97</v>
+        <v>513</v>
       </c>
       <c r="C292" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>496</v>
+        <v>514</v>
       </c>
       <c r="B293" t="s">
-        <v>358</v>
+        <v>515</v>
       </c>
       <c r="C293" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>497</v>
+        <v>516</v>
       </c>
       <c r="B294" t="s">
-        <v>356</v>
+        <v>251</v>
       </c>
       <c r="C294" t="s">
         <v>10</v>
@@ -5116,76 +5164,76 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>498</v>
+        <v>517</v>
       </c>
       <c r="B295" t="s">
-        <v>75</v>
+        <v>255</v>
       </c>
       <c r="C295" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>499</v>
+        <v>518</v>
       </c>
       <c r="B296" t="s">
-        <v>500</v>
+        <v>519</v>
       </c>
       <c r="C296" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>501</v>
+        <v>24</v>
       </c>
       <c r="B297" t="s">
-        <v>502</v>
+        <v>472</v>
       </c>
       <c r="C297" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>503</v>
+        <v>520</v>
       </c>
       <c r="B298" t="s">
-        <v>61</v>
+        <v>521</v>
       </c>
       <c r="C298" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>504</v>
+        <v>522</v>
       </c>
       <c r="B299" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="C299" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>506</v>
+        <v>524</v>
       </c>
       <c r="B300" t="s">
-        <v>507</v>
+        <v>525</v>
       </c>
       <c r="C300" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>508</v>
+        <v>526</v>
       </c>
       <c r="B301" t="s">
-        <v>509</v>
+        <v>527</v>
       </c>
       <c r="C301" t="s">
         <v>5</v>
@@ -5193,10 +5241,10 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>510</v>
+        <v>528</v>
       </c>
       <c r="B302" t="s">
-        <v>224</v>
+        <v>529</v>
       </c>
       <c r="C302" t="s">
         <v>10</v>
@@ -5204,43 +5252,43 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>511</v>
+        <v>530</v>
       </c>
       <c r="B303" t="s">
-        <v>512</v>
+        <v>531</v>
       </c>
       <c r="C303" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>513</v>
+        <v>87</v>
       </c>
       <c r="B304" t="s">
-        <v>216</v>
+        <v>532</v>
       </c>
       <c r="C304" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>334</v>
+        <v>533</v>
       </c>
       <c r="B305" t="s">
-        <v>514</v>
+        <v>534</v>
       </c>
       <c r="C305" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>473</v>
+        <v>535</v>
       </c>
       <c r="B306" t="s">
-        <v>515</v>
+        <v>536</v>
       </c>
       <c r="C306" t="s">
         <v>5</v>
@@ -5248,32 +5296,32 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>516</v>
+        <v>537</v>
       </c>
       <c r="B307" t="s">
-        <v>517</v>
+        <v>538</v>
       </c>
       <c r="C307" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>518</v>
+        <v>539</v>
       </c>
       <c r="B308" t="s">
-        <v>519</v>
+        <v>540</v>
       </c>
       <c r="C308" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>520</v>
+        <v>300</v>
       </c>
       <c r="B309" t="s">
-        <v>521</v>
+        <v>541</v>
       </c>
       <c r="C309" t="s">
         <v>10</v>
@@ -5281,21 +5329,21 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>522</v>
+        <v>542</v>
       </c>
       <c r="B310" t="s">
-        <v>423</v>
+        <v>543</v>
       </c>
       <c r="C310" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>523</v>
+        <v>300</v>
       </c>
       <c r="B311" t="s">
-        <v>75</v>
+        <v>280</v>
       </c>
       <c r="C311" t="s">
         <v>10</v>
@@ -5303,43 +5351,43 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>524</v>
+        <v>544</v>
       </c>
       <c r="B312" t="s">
-        <v>525</v>
+        <v>545</v>
       </c>
       <c r="C312" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>209</v>
+        <v>546</v>
       </c>
       <c r="B313" t="s">
-        <v>526</v>
+        <v>547</v>
       </c>
       <c r="C313" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>149</v>
+        <v>329</v>
       </c>
       <c r="B314" t="s">
-        <v>527</v>
+        <v>548</v>
       </c>
       <c r="C314" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>528</v>
+        <v>549</v>
       </c>
       <c r="B315" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="C315" t="s">
         <v>10</v>
@@ -5347,43 +5395,43 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>530</v>
+        <v>550</v>
       </c>
       <c r="B316" t="s">
-        <v>531</v>
+        <v>447</v>
       </c>
       <c r="C316" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>532</v>
+        <v>551</v>
       </c>
       <c r="B317" t="s">
-        <v>533</v>
+        <v>552</v>
       </c>
       <c r="C317" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>534</v>
+        <v>120</v>
       </c>
       <c r="B318" t="s">
-        <v>216</v>
+        <v>37</v>
       </c>
       <c r="C318" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="B319" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="C319" t="s">
         <v>10</v>
@@ -5391,65 +5439,65 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>436</v>
+        <v>555</v>
       </c>
       <c r="B320" t="s">
-        <v>537</v>
+        <v>556</v>
       </c>
       <c r="C320" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>538</v>
+        <v>557</v>
       </c>
       <c r="B321" t="s">
-        <v>539</v>
+        <v>18</v>
       </c>
       <c r="C321" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>540</v>
+        <v>358</v>
       </c>
       <c r="B322" t="s">
-        <v>541</v>
+        <v>142</v>
       </c>
       <c r="C322" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="B323" t="s">
-        <v>543</v>
+        <v>559</v>
       </c>
       <c r="C323" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>544</v>
+        <v>560</v>
       </c>
       <c r="B324" t="s">
-        <v>451</v>
+        <v>561</v>
       </c>
       <c r="C324" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>545</v>
+        <v>395</v>
       </c>
       <c r="B325" t="s">
-        <v>546</v>
+        <v>562</v>
       </c>
       <c r="C325" t="s">
         <v>10</v>
@@ -5457,10 +5505,10 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>547</v>
+        <v>563</v>
       </c>
       <c r="B326" t="s">
-        <v>91</v>
+        <v>192</v>
       </c>
       <c r="C326" t="s">
         <v>10</v>
@@ -5468,10 +5516,10 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
       <c r="B327" t="s">
-        <v>549</v>
+        <v>565</v>
       </c>
       <c r="C327" t="s">
         <v>10</v>
@@ -5479,120 +5527,120 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>550</v>
+        <v>274</v>
       </c>
       <c r="B328" t="s">
-        <v>551</v>
+        <v>566</v>
       </c>
       <c r="C328" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>552</v>
+        <v>567</v>
       </c>
       <c r="B329" t="s">
-        <v>553</v>
+        <v>568</v>
       </c>
       <c r="C329" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>554</v>
+        <v>569</v>
       </c>
       <c r="B330" t="s">
-        <v>26</v>
+        <v>570</v>
       </c>
       <c r="C330" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>550</v>
+        <v>571</v>
       </c>
       <c r="B331" t="s">
-        <v>555</v>
+        <v>412</v>
       </c>
       <c r="C331" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>556</v>
+        <v>572</v>
       </c>
       <c r="B332" t="s">
-        <v>557</v>
+        <v>573</v>
       </c>
       <c r="C332" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>558</v>
+        <v>574</v>
       </c>
       <c r="B333" t="s">
-        <v>559</v>
+        <v>575</v>
       </c>
       <c r="C333" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>560</v>
+        <v>576</v>
       </c>
       <c r="B334" t="s">
-        <v>561</v>
+        <v>577</v>
       </c>
       <c r="C334" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>511</v>
+        <v>578</v>
       </c>
       <c r="B335" t="s">
-        <v>562</v>
+        <v>579</v>
       </c>
       <c r="C335" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>416</v>
+        <v>580</v>
       </c>
       <c r="B336" t="s">
-        <v>563</v>
+        <v>581</v>
       </c>
       <c r="C336" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>564</v>
+        <v>281</v>
       </c>
       <c r="B337" t="s">
-        <v>565</v>
+        <v>582</v>
       </c>
       <c r="C337" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>566</v>
+        <v>583</v>
       </c>
       <c r="B338" t="s">
-        <v>140</v>
+        <v>584</v>
       </c>
       <c r="C338" t="s">
         <v>10</v>
@@ -5600,32 +5648,32 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>567</v>
+        <v>585</v>
       </c>
       <c r="B339" t="s">
-        <v>568</v>
+        <v>586</v>
       </c>
       <c r="C339" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>569</v>
+        <v>587</v>
       </c>
       <c r="B340" t="s">
-        <v>570</v>
+        <v>71</v>
       </c>
       <c r="C340" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>571</v>
+        <v>588</v>
       </c>
       <c r="B341" t="s">
-        <v>572</v>
+        <v>589</v>
       </c>
       <c r="C341" t="s">
         <v>10</v>
@@ -5633,120 +5681,120 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>573</v>
+        <v>590</v>
       </c>
       <c r="B342" t="s">
-        <v>75</v>
+        <v>591</v>
       </c>
       <c r="C342" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>574</v>
+        <v>592</v>
       </c>
       <c r="B343" t="s">
-        <v>575</v>
+        <v>593</v>
       </c>
       <c r="C343" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>576</v>
+        <v>464</v>
       </c>
       <c r="B344" t="s">
-        <v>150</v>
+        <v>594</v>
       </c>
       <c r="C344" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>501</v>
+        <v>481</v>
       </c>
       <c r="B345" t="s">
-        <v>310</v>
+        <v>595</v>
       </c>
       <c r="C345" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>577</v>
+        <v>145</v>
       </c>
       <c r="B346" t="s">
-        <v>7</v>
+        <v>477</v>
       </c>
       <c r="C346" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>578</v>
+        <v>596</v>
       </c>
       <c r="B347" t="s">
-        <v>579</v>
+        <v>597</v>
       </c>
       <c r="C347" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>580</v>
+        <v>598</v>
       </c>
       <c r="B348" t="s">
-        <v>581</v>
+        <v>599</v>
       </c>
       <c r="C348" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>582</v>
+        <v>600</v>
       </c>
       <c r="B349" t="s">
-        <v>369</v>
+        <v>113</v>
       </c>
       <c r="C349" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>583</v>
+        <v>601</v>
       </c>
       <c r="B350" t="s">
-        <v>53</v>
+        <v>414</v>
       </c>
       <c r="C350" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="B351" t="s">
-        <v>585</v>
+        <v>603</v>
       </c>
       <c r="C351" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>586</v>
+        <v>604</v>
       </c>
       <c r="B352" t="s">
-        <v>61</v>
+        <v>605</v>
       </c>
       <c r="C352" t="s">
         <v>10</v>
@@ -5754,32 +5802,32 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>587</v>
+        <v>606</v>
       </c>
       <c r="B353" t="s">
-        <v>588</v>
+        <v>607</v>
       </c>
       <c r="C353" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="B354" t="s">
-        <v>590</v>
+        <v>609</v>
       </c>
       <c r="C354" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>591</v>
+        <v>363</v>
       </c>
       <c r="B355" t="s">
-        <v>146</v>
+        <v>610</v>
       </c>
       <c r="C355" t="s">
         <v>5</v>
@@ -5787,10 +5835,10 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>438</v>
+        <v>611</v>
       </c>
       <c r="B356" t="s">
-        <v>592</v>
+        <v>612</v>
       </c>
       <c r="C356" t="s">
         <v>5</v>
@@ -5798,57 +5846,57 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>593</v>
+        <v>183</v>
       </c>
       <c r="B357" t="s">
-        <v>594</v>
+        <v>613</v>
       </c>
       <c r="C357" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>595</v>
+        <v>158</v>
       </c>
       <c r="B358" t="s">
-        <v>596</v>
+        <v>253</v>
       </c>
       <c r="C358" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>447</v>
+        <v>614</v>
       </c>
       <c r="B359" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
       <c r="C359" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>598</v>
+        <v>616</v>
       </c>
       <c r="B360" t="s">
-        <v>599</v>
+        <v>617</v>
       </c>
       <c r="C360" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>600</v>
+        <v>353</v>
       </c>
       <c r="B361" t="s">
-        <v>601</v>
+        <v>397</v>
       </c>
       <c r="C361" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/StaffProject240.xlsx
+++ b/StaffProject240.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="605">
   <si>
     <t>Staff Name</t>
   </si>
@@ -23,1777 +23,1810 @@
     <t>Stream</t>
   </si>
   <si>
-    <t>Giacomo Casanova</t>
-  </si>
-  <si>
-    <t>seducing women</t>
+    <t>Stewie Griffin</t>
+  </si>
+  <si>
+    <t>plotting against family members</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>Lisbeth Salander</t>
+  </si>
+  <si>
+    <t>hacking into corporate mainframes</t>
+  </si>
+  <si>
+    <t>Gustavo Fring</t>
+  </si>
+  <si>
+    <t>deep-frying chicken</t>
+  </si>
+  <si>
+    <t>Bill Murray</t>
+  </si>
+  <si>
+    <t>starring in indy movies</t>
   </si>
   <si>
     <t>CS</t>
   </si>
   <si>
+    <t>Eminem</t>
+  </si>
+  <si>
+    <t>writing rap songs</t>
+  </si>
+  <si>
+    <t>Thor Odinson</t>
+  </si>
+  <si>
+    <t>starting thunderstorms</t>
+  </si>
+  <si>
+    <t>Martin Luther</t>
+  </si>
+  <si>
+    <t>recruiting dissidents</t>
+  </si>
+  <si>
+    <t>Leo Tolstoy</t>
+  </si>
+  <si>
+    <t>writing Russian novels</t>
+  </si>
+  <si>
+    <t>George Michael</t>
+  </si>
+  <si>
+    <t>writing pop songs</t>
+  </si>
+  <si>
+    <t>Al Gore</t>
+  </si>
+  <si>
+    <t>lecturing about climate change</t>
+  </si>
+  <si>
+    <t>CS+DS</t>
+  </si>
+  <si>
+    <t>Sir Hugo Drax</t>
+  </si>
+  <si>
+    <t>devising evil schemes</t>
+  </si>
+  <si>
+    <t>Amelia Earhart</t>
+  </si>
+  <si>
+    <t>flying airplanes</t>
+  </si>
+  <si>
+    <t>Jeff "Comic Book Guy" Albertson</t>
+  </si>
+  <si>
+    <t>spouting movie trivia</t>
+  </si>
+  <si>
+    <t>Roseanne Barr</t>
+  </si>
+  <si>
+    <t>promoting conservative values</t>
+  </si>
+  <si>
+    <t>Austin Powers</t>
+  </si>
+  <si>
+    <t>shagging spies</t>
+  </si>
+  <si>
+    <t>Steve Martin</t>
+  </si>
+  <si>
+    <t>performing stand-up</t>
+  </si>
+  <si>
+    <t>Eddie Van Halen</t>
+  </si>
+  <si>
+    <t>playing rock guitar</t>
+  </si>
+  <si>
+    <t>ranting about liberals</t>
+  </si>
+  <si>
+    <t>Zac Efron</t>
+  </si>
+  <si>
+    <t>making insipid musicals</t>
+  </si>
+  <si>
+    <t>Rick Sanchez</t>
+  </si>
+  <si>
+    <t>inventing electrical marvels</t>
+  </si>
+  <si>
+    <t>Professor Hans Zarkov</t>
+  </si>
+  <si>
+    <t>building rocket ships</t>
+  </si>
+  <si>
+    <t>Frank Zappa</t>
+  </si>
+  <si>
+    <t>singing experimental songs</t>
+  </si>
+  <si>
+    <t>General George Patton</t>
+  </si>
+  <si>
+    <t>planning tank battles</t>
+  </si>
+  <si>
+    <t>Jesse Pinkman</t>
+  </si>
+  <si>
+    <t>running a criminal empire</t>
+  </si>
+  <si>
+    <t>Vincent Van Gogh</t>
+  </si>
+  <si>
+    <t>going slowly mad</t>
+  </si>
+  <si>
+    <t>Principal Seymour Skinner</t>
+  </si>
+  <si>
+    <t>disciplining students</t>
+  </si>
+  <si>
+    <t>Wilbur Wright</t>
+  </si>
+  <si>
+    <t>testing new technologies</t>
+  </si>
+  <si>
+    <t>Alfred Hitchcock</t>
+  </si>
+  <si>
+    <t>making suspense movies</t>
+  </si>
+  <si>
+    <t>Tyrion Lannister</t>
+  </si>
+  <si>
+    <t>developing political strategies</t>
+  </si>
+  <si>
+    <t>Niccolò Machiavelli</t>
+  </si>
+  <si>
+    <t>developing cunning plans</t>
+  </si>
+  <si>
+    <t>Peter Parker</t>
+  </si>
+  <si>
+    <t>maintaining a secret identity</t>
+  </si>
+  <si>
+    <t>Hedda Gabler</t>
+  </si>
+  <si>
+    <t>frowning at errant husbands</t>
+  </si>
+  <si>
+    <t>Santa Claus</t>
+  </si>
+  <si>
+    <t>climbing down chimneys</t>
+  </si>
+  <si>
+    <t>Conan the Barbarian</t>
+  </si>
+  <si>
+    <t>fighting barbarian hordes</t>
+  </si>
+  <si>
+    <t>Wayne Rooney</t>
+  </si>
+  <si>
+    <t>playing soccer</t>
+  </si>
+  <si>
+    <t>Julius Caesar</t>
+  </si>
+  <si>
+    <t>running an empire</t>
+  </si>
+  <si>
+    <t>Reginald Jeeves</t>
+  </si>
+  <si>
+    <t>rescuing aristocrats</t>
+  </si>
+  <si>
+    <t>Ariana Grande</t>
+  </si>
+  <si>
+    <t>singing pop songs</t>
+  </si>
+  <si>
+    <t>Jimmy Cagney</t>
+  </si>
+  <si>
+    <t>playing tough guys</t>
+  </si>
+  <si>
+    <t>Larry King</t>
+  </si>
+  <si>
+    <t>interviewing celebrities</t>
+  </si>
+  <si>
+    <t>Michael Moore</t>
+  </si>
+  <si>
+    <t>making provocative documentaries</t>
+  </si>
+  <si>
+    <t>Michael Bay</t>
+  </si>
+  <si>
+    <t>directing action movies</t>
+  </si>
+  <si>
+    <t>Eric Clapton</t>
+  </si>
+  <si>
+    <t>singing blues songs</t>
+  </si>
+  <si>
+    <t>Charlie Brown</t>
+  </si>
+  <si>
+    <t>playing baseball</t>
+  </si>
+  <si>
+    <t>Carl Sagan</t>
+  </si>
+  <si>
+    <t>studying the cosmos</t>
+  </si>
+  <si>
+    <t>Ellen DeGeneres</t>
+  </si>
+  <si>
+    <t>Karl Lagerfeld</t>
+  </si>
+  <si>
+    <t>pushing haute couture</t>
+  </si>
+  <si>
+    <t>Simon Cowell</t>
+  </si>
+  <si>
+    <t>running a media empire</t>
+  </si>
+  <si>
+    <t>Jeff Koons</t>
+  </si>
+  <si>
+    <t>selling kitsch</t>
+  </si>
+  <si>
+    <t>Don Quixote</t>
+  </si>
+  <si>
+    <t>tilting at windmills</t>
+  </si>
+  <si>
+    <t>Chuck Norris</t>
+  </si>
+  <si>
+    <t>starring in action movies</t>
+  </si>
+  <si>
+    <t>Madeleine Albright</t>
+  </si>
+  <si>
+    <t>fighting for democracy</t>
+  </si>
+  <si>
+    <t>Mariah Carey</t>
+  </si>
+  <si>
+    <t>singing Hipbop songs</t>
+  </si>
+  <si>
+    <t>Arya Stark</t>
+  </si>
+  <si>
+    <t>seeking revenge</t>
+  </si>
+  <si>
+    <t>Don King</t>
+  </si>
+  <si>
+    <t>promoting boxing fights</t>
+  </si>
+  <si>
+    <t>John McClane</t>
+  </si>
+  <si>
+    <t>foiling the schemes of evil villains</t>
+  </si>
+  <si>
+    <t>Sergey Brin</t>
+  </si>
+  <si>
+    <t>running a tech giant</t>
+  </si>
+  <si>
+    <t>Offred</t>
+  </si>
+  <si>
+    <t>performing household chores</t>
+  </si>
+  <si>
+    <t>Eric Cartman</t>
+  </si>
+  <si>
+    <t>making racist jibes</t>
+  </si>
+  <si>
+    <t>Katharine Hepburn</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Inspector Jacques Clouseau</t>
+  </si>
+  <si>
+    <t>finding clues</t>
+  </si>
+  <si>
+    <t>Bart Simpson</t>
+  </si>
+  <si>
+    <t>making prank calls</t>
+  </si>
+  <si>
+    <t>Bruce Wayne</t>
+  </si>
+  <si>
+    <t>making vulgar jokes</t>
+  </si>
+  <si>
+    <t>Neil Armstrong</t>
+  </si>
+  <si>
+    <t>going for a spacewalk</t>
+  </si>
+  <si>
+    <t>Wolfgang Amadeus Mozart</t>
+  </si>
+  <si>
+    <t>composing classical music</t>
+  </si>
+  <si>
+    <t>Alan Sugar</t>
+  </si>
+  <si>
+    <t>selling consumer goods</t>
+  </si>
+  <si>
+    <t>Morpheus</t>
+  </si>
+  <si>
+    <t>raging against the machine</t>
+  </si>
+  <si>
+    <t>Monsieur Hulot</t>
+  </si>
+  <si>
+    <t>causing mayhem</t>
+  </si>
+  <si>
+    <t>Mr. Darcy</t>
+  </si>
+  <si>
+    <t>looking for love</t>
+  </si>
+  <si>
+    <t>Tiny Tim Cratchit</t>
+  </si>
+  <si>
+    <t>saying grace</t>
+  </si>
+  <si>
+    <t>Jane Austen</t>
+  </si>
+  <si>
+    <t>writing romantic fiction</t>
+  </si>
+  <si>
+    <t>Christopher Hitchens</t>
+  </si>
+  <si>
+    <t>ranting about politics</t>
+  </si>
+  <si>
+    <t>Stephen Jay Gould</t>
+  </si>
+  <si>
+    <t>collecting fossils</t>
+  </si>
+  <si>
+    <t>Andy Warhol</t>
+  </si>
+  <si>
+    <t>painting soup cans</t>
+  </si>
+  <si>
+    <t>Michael Jackson</t>
+  </si>
+  <si>
+    <t>playing pop music</t>
+  </si>
+  <si>
+    <t>Annie Oakley</t>
+  </si>
+  <si>
+    <t>piquing public interest</t>
+  </si>
+  <si>
+    <t>Larry Flynt</t>
+  </si>
+  <si>
+    <t>publishing soft pornography</t>
+  </si>
+  <si>
+    <t>starring in comedies</t>
+  </si>
+  <si>
+    <t>Hermione Granger</t>
+  </si>
+  <si>
+    <t>casting magic spells</t>
+  </si>
+  <si>
+    <t>Tina Turner</t>
+  </si>
+  <si>
+    <t>writing rock songs</t>
+  </si>
+  <si>
+    <t>Spongebob Squarepants</t>
+  </si>
+  <si>
+    <t>chasing jellyfish</t>
+  </si>
+  <si>
+    <t>selling tickets</t>
+  </si>
+  <si>
+    <t>William Shakespeare</t>
+  </si>
+  <si>
+    <t>writing plays</t>
+  </si>
+  <si>
+    <t>Colonel Kurtz</t>
+  </si>
+  <si>
+    <t>instilling fear in the enemy</t>
+  </si>
+  <si>
+    <t>Taylor Swift</t>
+  </si>
+  <si>
+    <t>Pope Francis</t>
+  </si>
+  <si>
+    <t>promoting Catholic values</t>
+  </si>
+  <si>
+    <t>Ilya Kuryakin</t>
+  </si>
+  <si>
+    <t>Emmanuel Macron</t>
+  </si>
+  <si>
+    <t>campaigning for the presidency</t>
+  </si>
+  <si>
+    <t>Robert E. Lee</t>
+  </si>
+  <si>
+    <t>leading armies into battle</t>
+  </si>
+  <si>
+    <t>Bruce Willis</t>
+  </si>
+  <si>
+    <t>Jay Z</t>
+  </si>
+  <si>
+    <t>producing Hipbop records</t>
+  </si>
+  <si>
+    <t>Jay Gatsby</t>
+  </si>
+  <si>
+    <t>throwing lavish parties</t>
+  </si>
+  <si>
+    <t>Richard Wagner</t>
+  </si>
+  <si>
+    <t>making antisemitic remarks</t>
+  </si>
+  <si>
+    <t>Michael J. Fox</t>
+  </si>
+  <si>
+    <t>throwing fund-raisers for Parkinson's disease</t>
+  </si>
+  <si>
+    <t>Lisa Simpson</t>
+  </si>
+  <si>
+    <t>over-achieving at school</t>
+  </si>
+  <si>
+    <t>Benito Mussolini</t>
+  </si>
+  <si>
+    <t>promoting Fascism</t>
+  </si>
+  <si>
+    <t>Mel Gibson</t>
+  </si>
+  <si>
+    <t>Alan Partridge</t>
+  </si>
+  <si>
+    <t>hosting radio shows</t>
+  </si>
+  <si>
+    <t>Saint Peter</t>
+  </si>
+  <si>
+    <t>Jared Kushner</t>
+  </si>
+  <si>
+    <t>running a business empire</t>
+  </si>
+  <si>
+    <t>Beetlejuice</t>
+  </si>
+  <si>
+    <t>practicing the Occult</t>
+  </si>
+  <si>
+    <t>Harry Potter</t>
+  </si>
+  <si>
+    <t>studying magic tricks</t>
+  </si>
+  <si>
+    <t>Cary Grant</t>
+  </si>
+  <si>
+    <t>starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Ming The Merciless</t>
+  </si>
+  <si>
+    <t>Lord Byron</t>
+  </si>
+  <si>
+    <t>writing romantic poetry</t>
+  </si>
+  <si>
+    <t>Tweety Pie</t>
+  </si>
+  <si>
+    <t>swinging on a perch</t>
+  </si>
+  <si>
+    <t>Barbra Streisand</t>
+  </si>
+  <si>
+    <t>singing torch songs</t>
+  </si>
+  <si>
+    <t>Ayatollah Khomeini</t>
+  </si>
+  <si>
+    <t>issuing fatwas</t>
+  </si>
+  <si>
+    <t>Sherlock Holmes</t>
+  </si>
+  <si>
+    <t>interpreting evidence</t>
+  </si>
+  <si>
+    <t>Han Solo</t>
+  </si>
+  <si>
+    <t>smuggling contraband</t>
+  </si>
+  <si>
+    <t>slapping soldiers</t>
+  </si>
+  <si>
+    <t>Kevin Bacon</t>
+  </si>
+  <si>
+    <t>forming new social connections</t>
+  </si>
+  <si>
+    <t>Morrissey</t>
+  </si>
+  <si>
+    <t>Tony Robbins</t>
+  </si>
+  <si>
+    <t>selling self-help books</t>
+  </si>
+  <si>
+    <t>Diana Ross</t>
+  </si>
+  <si>
+    <t>C-3PO</t>
+  </si>
+  <si>
+    <t>eluding imperial storm-troopers</t>
+  </si>
+  <si>
+    <t>Al Pacino</t>
+  </si>
+  <si>
+    <t>shouting in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Troy McClure</t>
+  </si>
+  <si>
+    <t>hosting educational films</t>
+  </si>
+  <si>
+    <t>Sydney Bristow</t>
+  </si>
+  <si>
+    <t>spying for the CIA</t>
+  </si>
+  <si>
+    <t>Scott Evil</t>
+  </si>
+  <si>
+    <t>squabbling on television</t>
+  </si>
+  <si>
+    <t>Harry Houdini</t>
+  </si>
+  <si>
+    <t>escaping from handcuffs</t>
+  </si>
+  <si>
+    <t>Timothy McGee</t>
+  </si>
+  <si>
+    <t>Dan Quayle</t>
+  </si>
+  <si>
+    <t>campaigning for the senate</t>
+  </si>
+  <si>
+    <t>Elizabeth Taylor</t>
+  </si>
+  <si>
+    <t>Amy Schumer</t>
+  </si>
+  <si>
+    <t>doing stand-up</t>
+  </si>
+  <si>
+    <t>George Smiley</t>
+  </si>
+  <si>
+    <t>rooting out spies</t>
+  </si>
+  <si>
+    <t>David Beckham</t>
+  </si>
+  <si>
+    <t>promoting hair products</t>
+  </si>
+  <si>
+    <t>Katy Perry</t>
+  </si>
+  <si>
+    <t>Pamela Anderson</t>
+  </si>
+  <si>
+    <t>monetizing physical assets</t>
+  </si>
+  <si>
+    <t>Eddie Murphy</t>
+  </si>
+  <si>
+    <t>Buzz Aldrin</t>
+  </si>
+  <si>
+    <t>piloting the lunar module</t>
+  </si>
+  <si>
+    <t>Mao Tse-tung</t>
+  </si>
+  <si>
+    <t>promoting communism</t>
+  </si>
+  <si>
+    <t>Harvey Weinstein</t>
+  </si>
+  <si>
+    <t>chasing after women</t>
+  </si>
+  <si>
+    <t>King Lear</t>
+  </si>
+  <si>
+    <t>going senile</t>
+  </si>
+  <si>
+    <t>Johnny Carson</t>
+  </si>
+  <si>
+    <t>hosting a late night chat show</t>
+  </si>
+  <si>
+    <t>Emma Bovary</t>
+  </si>
+  <si>
+    <t>climbing social ladders</t>
+  </si>
+  <si>
+    <t>Lord Voldemort</t>
+  </si>
+  <si>
+    <t>meddling in the dark arts</t>
+  </si>
+  <si>
+    <t>David Blaine</t>
+  </si>
+  <si>
+    <t>performing magic tricks</t>
+  </si>
+  <si>
+    <t>Leonardo Da Vinci</t>
+  </si>
+  <si>
+    <t>painting realistic pictures</t>
+  </si>
+  <si>
+    <t>Pablo Escobar</t>
+  </si>
+  <si>
+    <t>running a criminal enterprise</t>
+  </si>
+  <si>
+    <t>Iggy Pop</t>
+  </si>
+  <si>
+    <t>doing raunchy stage acts</t>
+  </si>
+  <si>
+    <t>Albus Dumbledore</t>
+  </si>
+  <si>
+    <t>teaching magic</t>
+  </si>
+  <si>
+    <t>Rain Man</t>
+  </si>
+  <si>
+    <t>counting tooth picks</t>
+  </si>
+  <si>
+    <t>Jenna Maroney</t>
+  </si>
+  <si>
+    <t>Bane</t>
+  </si>
+  <si>
+    <t>breaking heads</t>
+  </si>
+  <si>
+    <t>Richie Rich</t>
+  </si>
+  <si>
+    <t>enjoying money</t>
+  </si>
+  <si>
+    <t>Marilyn Monroe</t>
+  </si>
+  <si>
+    <t>Obi-wan Kenobi</t>
+  </si>
+  <si>
+    <t>fighting for the resistance</t>
+  </si>
+  <si>
+    <t>Jane Eyre</t>
+  </si>
+  <si>
+    <t>looking after children</t>
+  </si>
+  <si>
+    <t>staring at the moon</t>
+  </si>
+  <si>
+    <t>Lee Harvey Oswald</t>
+  </si>
+  <si>
+    <t>assassinating presidents</t>
+  </si>
+  <si>
+    <t>Warren Buffett</t>
+  </si>
+  <si>
+    <t>Benny Hill</t>
+  </si>
+  <si>
+    <t>chasing old women</t>
+  </si>
+  <si>
+    <t>Robert Langdon</t>
+  </si>
+  <si>
+    <t>following clues</t>
+  </si>
+  <si>
+    <t>The Scarlet Pimpernel</t>
+  </si>
+  <si>
+    <t>eluding Republicans</t>
+  </si>
+  <si>
+    <t>Marco Pierre White</t>
+  </si>
+  <si>
+    <t>cooking dinners</t>
+  </si>
+  <si>
+    <t>performing street magic</t>
+  </si>
+  <si>
+    <t>The Joker</t>
+  </si>
+  <si>
+    <t>Tina Fey</t>
+  </si>
+  <si>
+    <t>writing comedy</t>
+  </si>
+  <si>
+    <t>Edna Krabappel</t>
+  </si>
+  <si>
+    <t>smoking during recess</t>
+  </si>
+  <si>
+    <t>Clark Kent</t>
+  </si>
+  <si>
+    <t>reporting for The Daily Planet</t>
+  </si>
+  <si>
+    <t>King Henry VIII</t>
+  </si>
+  <si>
+    <t>trading in wives</t>
+  </si>
+  <si>
+    <t>Bugs Bunny</t>
+  </si>
+  <si>
+    <t>pulling pranks</t>
+  </si>
+  <si>
+    <t>Charlemagne</t>
+  </si>
+  <si>
+    <t>Bridget Jones</t>
+  </si>
+  <si>
+    <t>reading self-help books</t>
+  </si>
+  <si>
+    <t>Sterling Archer</t>
+  </si>
+  <si>
+    <t>going on commando missions</t>
+  </si>
+  <si>
+    <t>Blanche DuBois</t>
+  </si>
+  <si>
+    <t>moaning about men</t>
+  </si>
+  <si>
+    <t>George Washington</t>
+  </si>
+  <si>
+    <t>fighting for liberty</t>
+  </si>
+  <si>
+    <t>David Bowie</t>
+  </si>
+  <si>
+    <t>Bette Midler</t>
+  </si>
+  <si>
+    <t>General Zod</t>
+  </si>
+  <si>
+    <t>rescuing hostages</t>
+  </si>
+  <si>
+    <t>Barney Gumble</t>
+  </si>
+  <si>
+    <t>drinking one's life away</t>
+  </si>
+  <si>
     <t>J. Edgar Hoover</t>
   </si>
   <si>
     <t>cross-dressing in women's clothes</t>
   </si>
   <si>
-    <t>CS+DS</t>
-  </si>
-  <si>
-    <t>Pope Francis</t>
-  </si>
-  <si>
-    <t>promoting Catholic values</t>
-  </si>
-  <si>
-    <t>Harvey Milk</t>
+    <t>Adam Sandler</t>
+  </si>
+  <si>
+    <t>making dumb comedies</t>
+  </si>
+  <si>
+    <t>complaining about everything</t>
+  </si>
+  <si>
+    <t>selling fried chicken</t>
+  </si>
+  <si>
+    <t>Yogi Berra</t>
+  </si>
+  <si>
+    <t>mangling idioms</t>
+  </si>
+  <si>
+    <t>Jenna Jameson</t>
+  </si>
+  <si>
+    <t>starring in pornographic movies</t>
+  </si>
+  <si>
+    <t>P. T. Barnum</t>
+  </si>
+  <si>
+    <t>promoting circus attractions</t>
+  </si>
+  <si>
+    <t>Bruce Lee</t>
+  </si>
+  <si>
+    <t>starring in kung-fu movies</t>
+  </si>
+  <si>
+    <t>Lara Croft</t>
+  </si>
+  <si>
+    <t>digging for antiquities</t>
+  </si>
+  <si>
+    <t>Thomas "Neo" Anderson</t>
+  </si>
+  <si>
+    <t>performing kung-fu moves</t>
+  </si>
+  <si>
+    <t>Stevie Wonder</t>
+  </si>
+  <si>
+    <t>Ashton Kutcher</t>
+  </si>
+  <si>
+    <t>starring in sit-coms</t>
+  </si>
+  <si>
+    <t>Tess Durbeyfield</t>
+  </si>
+  <si>
+    <t>Buddha</t>
+  </si>
+  <si>
+    <t>promoting Buddhism</t>
+  </si>
+  <si>
+    <t>Joan Crawford</t>
+  </si>
+  <si>
+    <t>Bertie Wooster</t>
+  </si>
+  <si>
+    <t>playing the piano</t>
+  </si>
+  <si>
+    <t>Leonardo DiCaprio</t>
+  </si>
+  <si>
+    <t>dating supermodels</t>
+  </si>
+  <si>
+    <t>Jim Carrey</t>
+  </si>
+  <si>
+    <t>gurning for the camera</t>
+  </si>
+  <si>
+    <t>Sid Vicious</t>
+  </si>
+  <si>
+    <t>singing punk rock songs</t>
+  </si>
+  <si>
+    <t>Ivanka Trump</t>
+  </si>
+  <si>
+    <t>Charlie Parker</t>
+  </si>
+  <si>
+    <t>playing jazz saxophone</t>
+  </si>
+  <si>
+    <t>Harvey Dent</t>
+  </si>
+  <si>
+    <t>convicting criminals</t>
+  </si>
+  <si>
+    <t>Groucho Marx</t>
+  </si>
+  <si>
+    <t>starring in madcap comedies</t>
+  </si>
+  <si>
+    <t>Norman Rockwell</t>
+  </si>
+  <si>
+    <t>painting folksy pictures</t>
+  </si>
+  <si>
+    <t>Archimedes</t>
+  </si>
+  <si>
+    <t>proving math theorems</t>
+  </si>
+  <si>
+    <t>Wilkins Micawber</t>
+  </si>
+  <si>
+    <t>incurring debts</t>
+  </si>
+  <si>
+    <t>Selma Bouvier</t>
+  </si>
+  <si>
+    <t>clipping coupons</t>
+  </si>
+  <si>
+    <t>Miss Jane Marple</t>
+  </si>
+  <si>
+    <t>solving crimes</t>
+  </si>
+  <si>
+    <t>Queen Elizabeth I</t>
+  </si>
+  <si>
+    <t>running a kingdom</t>
+  </si>
+  <si>
+    <t>Grigori Rasputin</t>
+  </si>
+  <si>
+    <t>Kenny G</t>
+  </si>
+  <si>
+    <t>playing the saxophone</t>
+  </si>
+  <si>
+    <t>duelling acrobatically</t>
+  </si>
+  <si>
+    <t>Adolf Eichmann</t>
+  </si>
+  <si>
+    <t>Margaret Thatcher</t>
+  </si>
+  <si>
+    <t>Selena Gomez</t>
+  </si>
+  <si>
+    <t>Professor James Moriarty</t>
+  </si>
+  <si>
+    <t>plotting criminal schemes</t>
+  </si>
+  <si>
+    <t>Daffy Duck</t>
+  </si>
+  <si>
+    <t>spitting while speaking</t>
+  </si>
+  <si>
+    <t>Kurt Vonnegut</t>
+  </si>
+  <si>
+    <t>writing science fiction</t>
+  </si>
+  <si>
+    <t>Bob Marley</t>
+  </si>
+  <si>
+    <t>smoking herb</t>
+  </si>
+  <si>
+    <t>Charles Dickens</t>
+  </si>
+  <si>
+    <t>writing serialized stories</t>
+  </si>
+  <si>
+    <t>Cardinal Richelieu</t>
+  </si>
+  <si>
+    <t>directing the business of state</t>
+  </si>
+  <si>
+    <t>Confucius</t>
+  </si>
+  <si>
+    <t>spreading philosophy</t>
+  </si>
+  <si>
+    <t>Julia Roberts</t>
+  </si>
+  <si>
+    <t>Gerard Manley Hopkins</t>
+  </si>
+  <si>
+    <t>writing modern poetry</t>
+  </si>
+  <si>
+    <t>Mr. Krabs</t>
+  </si>
+  <si>
+    <t>pinching pennies</t>
+  </si>
+  <si>
+    <t>Jack Sparrow</t>
+  </si>
+  <si>
+    <t>collecting pirate booty</t>
+  </si>
+  <si>
+    <t>Dr. Greg House</t>
+  </si>
+  <si>
+    <t>diagnosing diseases</t>
+  </si>
+  <si>
+    <t>Dante Alighieri</t>
+  </si>
+  <si>
+    <t>writing poetry</t>
+  </si>
+  <si>
+    <t>Janet Jackson</t>
+  </si>
+  <si>
+    <t>Frank Underwood</t>
+  </si>
+  <si>
+    <t>manipulating political pawns</t>
+  </si>
+  <si>
+    <t>Jeffrey Lebowski</t>
+  </si>
+  <si>
+    <t>drinking White Russians</t>
+  </si>
+  <si>
+    <t>Princess Diana</t>
+  </si>
+  <si>
+    <t>posing for photographs</t>
+  </si>
+  <si>
+    <t>Zsa Zsa Gabor</t>
+  </si>
+  <si>
+    <t>collecting alimony</t>
+  </si>
+  <si>
+    <t>Dorian Gray</t>
+  </si>
+  <si>
+    <t>avoiding growing old</t>
+  </si>
+  <si>
+    <t>Paris Hilton</t>
+  </si>
+  <si>
+    <t>monetizing celebrity status</t>
+  </si>
+  <si>
+    <t>Jack Reacher</t>
+  </si>
+  <si>
+    <t>Nigel Farage</t>
+  </si>
+  <si>
+    <t>Bobby Kennedy</t>
   </si>
   <si>
     <t>campaigning for social causes</t>
   </si>
   <si>
-    <t>Kurt Vonnegut</t>
-  </si>
-  <si>
-    <t>writing science fiction</t>
-  </si>
-  <si>
-    <t>Peter Parker</t>
+    <t>Will Smith</t>
+  </si>
+  <si>
+    <t>Oedipus Rex</t>
+  </si>
+  <si>
+    <t>solving riddles</t>
+  </si>
+  <si>
+    <t>Tony DiNozzo</t>
+  </si>
+  <si>
+    <t>Edward Cullen</t>
+  </si>
+  <si>
+    <t>sucking blood</t>
+  </si>
+  <si>
+    <t>Mother Teresa</t>
+  </si>
+  <si>
+    <t>David Caruso</t>
+  </si>
+  <si>
+    <t>pouting on camera</t>
+  </si>
+  <si>
+    <t>Catherine The Great</t>
+  </si>
+  <si>
+    <t>ruling over subjects</t>
+  </si>
+  <si>
+    <t>Beyoncé</t>
+  </si>
+  <si>
+    <t>Garry Kasparov</t>
+  </si>
+  <si>
+    <t>playing aggressive chess</t>
+  </si>
+  <si>
+    <t>Nicolas Sarkozy</t>
+  </si>
+  <si>
+    <t>partying on yachts</t>
+  </si>
+  <si>
+    <t>Jack Kerouac</t>
+  </si>
+  <si>
+    <t>driving around America</t>
+  </si>
+  <si>
+    <t>Samwise Gamgee</t>
+  </si>
+  <si>
+    <t>planting daffodils</t>
+  </si>
+  <si>
+    <t>keeping a diary</t>
+  </si>
+  <si>
+    <t>Freddie Mercury</t>
+  </si>
+  <si>
+    <t>Ariel Sharon</t>
+  </si>
+  <si>
+    <t>building giant walls</t>
+  </si>
+  <si>
+    <t>Sophocles</t>
+  </si>
+  <si>
+    <t>Fox Mulder</t>
+  </si>
+  <si>
+    <t>investigating alien abductions</t>
+  </si>
+  <si>
+    <t>Inspector Endeavour Morse</t>
+  </si>
+  <si>
+    <t>Sappho</t>
+  </si>
+  <si>
+    <t>Matt Drudge</t>
+  </si>
+  <si>
+    <t>spreading political gossip</t>
+  </si>
+  <si>
+    <t>Victor Frankenstein</t>
+  </si>
+  <si>
+    <t>playing God</t>
+  </si>
+  <si>
+    <t>Alan Turing</t>
+  </si>
+  <si>
+    <t>designing computer systems</t>
+  </si>
+  <si>
+    <t>Popeye</t>
+  </si>
+  <si>
+    <t>promoting healthy eating</t>
+  </si>
+  <si>
+    <t>Leonard Hofstadter</t>
   </si>
   <si>
     <t>studying science</t>
   </si>
   <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t>JD Salinger</t>
-  </si>
-  <si>
-    <t>eluding the public gaze</t>
-  </si>
-  <si>
-    <t>Alfred Nobel</t>
-  </si>
-  <si>
-    <t>promoting pacifism</t>
-  </si>
-  <si>
-    <t>Loki Laufeyson</t>
-  </si>
-  <si>
-    <t>plotting against family members</t>
-  </si>
-  <si>
-    <t>LeBron James</t>
-  </si>
-  <si>
-    <t>making dunk shots</t>
-  </si>
-  <si>
-    <t>Lindsay Lohan</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Tim Burton</t>
-  </si>
-  <si>
-    <t>making bizarre movies</t>
-  </si>
-  <si>
-    <t>Dan Quayle</t>
-  </si>
-  <si>
-    <t>campaigning for the senate</t>
-  </si>
-  <si>
-    <t>Richard Wagner</t>
-  </si>
-  <si>
-    <t>composing classical music</t>
-  </si>
-  <si>
-    <t>Professor Hans Zarkov</t>
-  </si>
-  <si>
-    <t>building rocket ships</t>
-  </si>
-  <si>
-    <t>O.J. Simpson</t>
-  </si>
-  <si>
-    <t>playing golf</t>
-  </si>
-  <si>
-    <t>Evel Knievel</t>
-  </si>
-  <si>
-    <t>jumping over buses on motorbikes</t>
-  </si>
-  <si>
-    <t>Meryl Streep</t>
-  </si>
-  <si>
-    <t>speaking with funny accents</t>
-  </si>
-  <si>
-    <t>Eleanor Roosevelt</t>
-  </si>
-  <si>
-    <t>Mad Max Rockatansky</t>
+    <t>Emperor Palpatine</t>
+  </si>
+  <si>
+    <t>Osama Bin Laden</t>
+  </si>
+  <si>
+    <t>recruiting disaffected youths</t>
+  </si>
+  <si>
+    <t>Tyra Banks</t>
+  </si>
+  <si>
+    <t>selling cosmetics</t>
+  </si>
+  <si>
+    <t>Tom Ripley</t>
+  </si>
+  <si>
+    <t>planning confidence tricks</t>
+  </si>
+  <si>
+    <t>Natasha Romanova</t>
+  </si>
+  <si>
+    <t>spying for the enemy</t>
+  </si>
+  <si>
+    <t>Salman Rushdie</t>
+  </si>
+  <si>
+    <t>writing modern fiction</t>
+  </si>
+  <si>
+    <t>Jon Stewart</t>
+  </si>
+  <si>
+    <t>Gordon Ramsay</t>
+  </si>
+  <si>
+    <t>winning Michelin stars</t>
+  </si>
+  <si>
+    <t>Keyser Söze</t>
+  </si>
+  <si>
+    <t>Nigel Tufnel</t>
+  </si>
+  <si>
+    <t>playing rock music</t>
+  </si>
+  <si>
+    <t>Elvis Presley</t>
+  </si>
+  <si>
+    <t>singing rock songs</t>
+  </si>
+  <si>
+    <t>Scipio Africanus</t>
+  </si>
+  <si>
+    <t>directing robot movies</t>
+  </si>
+  <si>
+    <t>Sarah Connor</t>
+  </si>
+  <si>
+    <t>preparing for the apocalypse</t>
+  </si>
+  <si>
+    <t>breaking records</t>
+  </si>
+  <si>
+    <t>Louis Pasteur</t>
+  </si>
+  <si>
+    <t>Jackie Chan</t>
+  </si>
+  <si>
+    <t>Fred Flintstone</t>
+  </si>
+  <si>
+    <t>pedalling engine-less cars</t>
+  </si>
+  <si>
+    <t>Commissioner James Gordon</t>
+  </si>
+  <si>
+    <t>apprehending criminals</t>
+  </si>
+  <si>
+    <t>Frank Columbo</t>
+  </si>
+  <si>
+    <t>Serena Williams</t>
+  </si>
+  <si>
+    <t>delivering forehand slams</t>
+  </si>
+  <si>
+    <t>Rembrandt</t>
+  </si>
+  <si>
+    <t>painting self-portraits</t>
+  </si>
+  <si>
+    <t>Perry Mason</t>
+  </si>
+  <si>
+    <t>defending the innocent</t>
+  </si>
+  <si>
+    <t>Edward Scissorhands</t>
+  </si>
+  <si>
+    <t>trimming bushes</t>
+  </si>
+  <si>
+    <t>painting over photographs</t>
+  </si>
+  <si>
+    <t>RuPaul</t>
+  </si>
+  <si>
+    <t>Robin Hood</t>
+  </si>
+  <si>
+    <t>giving to the poor</t>
+  </si>
+  <si>
+    <t>Nicolaus Copernicus</t>
+  </si>
+  <si>
+    <t>promoting Heliocentrism</t>
+  </si>
+  <si>
+    <t>Courtney Love</t>
+  </si>
+  <si>
+    <t>playing grungy music</t>
+  </si>
+  <si>
+    <t>Anne Boleyn</t>
+  </si>
+  <si>
+    <t>seducing kings</t>
+  </si>
+  <si>
+    <t>Bob Belcher</t>
+  </si>
+  <si>
+    <t>flipping hamburgers</t>
+  </si>
+  <si>
+    <t>playing pranks</t>
+  </si>
+  <si>
+    <t>Boy George</t>
+  </si>
+  <si>
+    <t>John Wilkes Booth</t>
+  </si>
+  <si>
+    <t>Bob Cratchit</t>
+  </si>
+  <si>
+    <t>writing in ledgers</t>
+  </si>
+  <si>
+    <t>Donald Trump</t>
+  </si>
+  <si>
+    <t>investing in real estate</t>
+  </si>
+  <si>
+    <t>Condoleezza Rice</t>
+  </si>
+  <si>
+    <t>advising on foreign affairs</t>
+  </si>
+  <si>
+    <t>Gordon Gekko</t>
+  </si>
+  <si>
+    <t>making money</t>
+  </si>
+  <si>
+    <t>Sir Lancelot</t>
+  </si>
+  <si>
+    <t>fighting with swords</t>
+  </si>
+  <si>
+    <t>Sylvester the Cat</t>
+  </si>
+  <si>
+    <t>prowling for dinner</t>
+  </si>
+  <si>
+    <t>Bill O'Reilly</t>
+  </si>
+  <si>
+    <t>painting colorful pictures</t>
+  </si>
+  <si>
+    <t>Ella Fitzgerald</t>
+  </si>
+  <si>
+    <t>Dominique Strauss-Kahn</t>
+  </si>
+  <si>
+    <t>planning orgies</t>
+  </si>
+  <si>
+    <t>Shrek</t>
   </si>
   <si>
     <t>defending the weak</t>
   </si>
   <si>
-    <t>Anne Boleyn</t>
-  </si>
-  <si>
-    <t>seducing kings</t>
-  </si>
-  <si>
-    <t>Tyrion Lannister</t>
-  </si>
-  <si>
-    <t>developing political strategies</t>
-  </si>
-  <si>
-    <t>Yosemite Sam</t>
-  </si>
-  <si>
-    <t>losing control</t>
-  </si>
-  <si>
-    <t>Beetlejuice</t>
-  </si>
-  <si>
-    <t>causing mayhem</t>
-  </si>
-  <si>
-    <t>Peter Rabbit</t>
-  </si>
-  <si>
-    <t>eating carrots</t>
-  </si>
-  <si>
-    <t>Peter Pan</t>
-  </si>
-  <si>
-    <t>avoiding growing old</t>
-  </si>
-  <si>
-    <t>William the Conqueror</t>
-  </si>
-  <si>
-    <t>leading armies into battle</t>
-  </si>
-  <si>
-    <t>Adrian Monk</t>
-  </si>
-  <si>
-    <t>solving crimes</t>
-  </si>
-  <si>
-    <t>Fidel Castro</t>
-  </si>
-  <si>
-    <t>running a dictatorship</t>
-  </si>
-  <si>
-    <t>devising evil schemes</t>
-  </si>
-  <si>
-    <t>Leonardo DiCaprio</t>
-  </si>
-  <si>
-    <t>dating supermodels</t>
-  </si>
-  <si>
-    <t>Ella Fitzgerald</t>
-  </si>
-  <si>
-    <t>singing torch songs</t>
-  </si>
-  <si>
-    <t>Christopher Hitchens</t>
-  </si>
-  <si>
-    <t>ranting about politics</t>
-  </si>
-  <si>
-    <t>Cinderella</t>
-  </si>
-  <si>
-    <t>climbing social ladders</t>
-  </si>
-  <si>
-    <t>Miss Havisham</t>
-  </si>
-  <si>
-    <t>seeking revenge</t>
-  </si>
-  <si>
-    <t>Vladimir Putin</t>
-  </si>
-  <si>
-    <t>bullying neighboring countries</t>
+    <t>wisecracking</t>
+  </si>
+  <si>
+    <t>playing quidditch</t>
+  </si>
+  <si>
+    <t>Sauron</t>
+  </si>
+  <si>
+    <t>preparing for war</t>
+  </si>
+  <si>
+    <t>Tyler Durden</t>
+  </si>
+  <si>
+    <t>making soap</t>
+  </si>
+  <si>
+    <t>George Harrison</t>
+  </si>
+  <si>
+    <t>Marlon Brando</t>
+  </si>
+  <si>
+    <t>Naomi Campbell</t>
+  </si>
+  <si>
+    <t>peacocking in fancy clothes</t>
+  </si>
+  <si>
+    <t>plotting terrorist outrages</t>
+  </si>
+  <si>
+    <t>entertaining teenagers</t>
+  </si>
+  <si>
+    <t>Travis Bickle</t>
+  </si>
+  <si>
+    <t>expressing violent urges</t>
+  </si>
+  <si>
+    <t>Bruce Springsteen</t>
+  </si>
+  <si>
+    <t>Jonathan Swift</t>
+  </si>
+  <si>
+    <t>writing political satires</t>
+  </si>
+  <si>
+    <t>Sam Spade</t>
+  </si>
+  <si>
+    <t>creating monsters</t>
+  </si>
+  <si>
+    <t>David Mamet</t>
+  </si>
+  <si>
+    <t>Dr. Dre</t>
+  </si>
+  <si>
+    <t>Nicolas Cage</t>
+  </si>
+  <si>
+    <t>over-acting</t>
   </si>
   <si>
     <t>John Lennon</t>
   </si>
   <si>
-    <t>writing pop songs</t>
-  </si>
-  <si>
-    <t>Hans Moleman</t>
-  </si>
-  <si>
-    <t>getting run over by cars</t>
-  </si>
-  <si>
-    <t>C-3PO</t>
-  </si>
-  <si>
-    <t>complaining about everything</t>
-  </si>
-  <si>
-    <t>Larry Page</t>
-  </si>
-  <si>
-    <t>running a tech giant</t>
-  </si>
-  <si>
-    <t>Marge Simpson</t>
-  </si>
-  <si>
-    <t>raising a family</t>
-  </si>
-  <si>
-    <t>Christopher Columbus</t>
-  </si>
-  <si>
-    <t>exploring the new world</t>
-  </si>
-  <si>
-    <t>Mikhail Gorbachev</t>
-  </si>
-  <si>
-    <t>coasting on past glories</t>
-  </si>
-  <si>
-    <t>Stanley Kowalski</t>
-  </si>
-  <si>
-    <t>moaning about women</t>
-  </si>
-  <si>
-    <t>Steve Jobs</t>
-  </si>
-  <si>
-    <t>pioneering new technologies</t>
-  </si>
-  <si>
-    <t>Lucifer</t>
-  </si>
-  <si>
-    <t>laughing at God</t>
-  </si>
-  <si>
-    <t>Stephen Colbert</t>
-  </si>
-  <si>
-    <t>ranting about liberals</t>
-  </si>
-  <si>
-    <t>Elmer Fudd</t>
-  </si>
-  <si>
-    <t>hunting wabbits</t>
-  </si>
-  <si>
-    <t>Charles Dickens</t>
-  </si>
-  <si>
-    <t>writing about social problems</t>
-  </si>
-  <si>
-    <t>Catwoman</t>
-  </si>
-  <si>
-    <t>Daphne Moon</t>
-  </si>
-  <si>
-    <t>cooking British food</t>
-  </si>
-  <si>
-    <t>Norman Rockwell</t>
-  </si>
-  <si>
-    <t>painting folksy pictures</t>
-  </si>
-  <si>
-    <t>Jerry Lee Lewis</t>
-  </si>
-  <si>
-    <t>marrying underage girls</t>
-  </si>
-  <si>
-    <t>Grace Kelly</t>
-  </si>
-  <si>
-    <t>dining with playboy princes</t>
-  </si>
-  <si>
-    <t>Atticus Finch</t>
-  </si>
-  <si>
-    <t>representing the disenfranchised</t>
-  </si>
-  <si>
-    <t>Pac Man</t>
-  </si>
-  <si>
-    <t>eluding electronic ghosts</t>
-  </si>
-  <si>
-    <t>William Shakespeare</t>
-  </si>
-  <si>
-    <t>writing plays</t>
-  </si>
-  <si>
-    <t>John McCain</t>
-  </si>
-  <si>
-    <t>making maverick choices</t>
-  </si>
-  <si>
-    <t>Donald Rumsfeld</t>
-  </si>
-  <si>
-    <t>offering gnostic advice</t>
-  </si>
-  <si>
-    <t>Jason Voorhees</t>
-  </si>
-  <si>
-    <t>creating nightmares</t>
-  </si>
-  <si>
-    <t>Lisbeth Salander</t>
-  </si>
-  <si>
-    <t>hacking into corporate mainframes</t>
-  </si>
-  <si>
-    <t>Boris Johnson</t>
-  </si>
-  <si>
-    <t>promoting conservative values</t>
-  </si>
-  <si>
-    <t>Bernard Madoff</t>
-  </si>
-  <si>
-    <t>running Ponzi schemes</t>
-  </si>
-  <si>
-    <t>James Brown</t>
-  </si>
-  <si>
-    <t>writing blues songs</t>
-  </si>
-  <si>
-    <t>Hulk Hogan</t>
-  </si>
-  <si>
-    <t>pretending to fight</t>
-  </si>
-  <si>
-    <t>Glenn Beck</t>
-  </si>
-  <si>
-    <t>Edgar Allan Poe</t>
-  </si>
-  <si>
-    <t>writing mystery stories</t>
-  </si>
-  <si>
-    <t>John Rambo</t>
-  </si>
-  <si>
-    <t>eluding authorities</t>
-  </si>
-  <si>
-    <t>Trinity</t>
-  </si>
-  <si>
-    <t>Archimedes</t>
-  </si>
-  <si>
-    <t>studying mathematics</t>
-  </si>
-  <si>
-    <t>Professor Charles Xavier</t>
-  </si>
-  <si>
-    <t>teaching the next generation</t>
+    <t>campaigning for world peace</t>
+  </si>
+  <si>
+    <t>Sideshow Bob</t>
+  </si>
+  <si>
+    <t>providing comic relief</t>
+  </si>
+  <si>
+    <t>James Bond</t>
+  </si>
+  <si>
+    <t>Kim Jong-Il</t>
+  </si>
+  <si>
+    <t>issuing threats</t>
+  </si>
+  <si>
+    <t>George Bernard Shaw</t>
+  </si>
+  <si>
+    <t>Polonius</t>
+  </si>
+  <si>
+    <t>offering bad advice</t>
+  </si>
+  <si>
+    <t>scandalizing polite society</t>
+  </si>
+  <si>
+    <t>Dolly Parton</t>
+  </si>
+  <si>
+    <t>singing country music</t>
+  </si>
+  <si>
+    <t>Robert Redford</t>
+  </si>
+  <si>
+    <t>Orville Wright</t>
+  </si>
+  <si>
+    <t>Edmund Blackadder</t>
+  </si>
+  <si>
+    <t>Thomas Jefferson</t>
+  </si>
+  <si>
+    <t>promoting science</t>
+  </si>
+  <si>
+    <t>Coriolanus Snow</t>
+  </si>
+  <si>
+    <t>running a bureaucracy</t>
   </si>
   <si>
     <t>Henry James</t>
   </si>
   <si>
-    <t>writing modern fiction</t>
-  </si>
-  <si>
-    <t>Kevin Bacon</t>
-  </si>
-  <si>
-    <t>forming new social connections</t>
-  </si>
-  <si>
-    <t>Jeff Bezos</t>
-  </si>
-  <si>
-    <t>selling consumer goods</t>
-  </si>
-  <si>
-    <t>Hillary Clinton</t>
-  </si>
-  <si>
-    <t>running for the senate</t>
-  </si>
-  <si>
-    <t>Sun Tzu</t>
-  </si>
-  <si>
-    <t>developing military strategies</t>
-  </si>
-  <si>
-    <t>Katniss Everdeen</t>
-  </si>
-  <si>
-    <t>fighting for justice</t>
-  </si>
-  <si>
-    <t>Nicolaus Copernicus</t>
-  </si>
-  <si>
-    <t>promoting Heliocentrism</t>
-  </si>
-  <si>
-    <t>Lord Percy Percy</t>
-  </si>
-  <si>
-    <t>providing comic relief</t>
-  </si>
-  <si>
-    <t>Eliot Ness</t>
-  </si>
-  <si>
-    <t>arresting bootleggers</t>
-  </si>
-  <si>
-    <t>Tyler Durden</t>
-  </si>
-  <si>
-    <t>subverting social conventions</t>
-  </si>
-  <si>
-    <t>Santa Claus</t>
-  </si>
-  <si>
-    <t>delivering presents</t>
-  </si>
-  <si>
-    <t>Napoleon Solo</t>
-  </si>
-  <si>
-    <t>rescuing damsels in distress</t>
-  </si>
-  <si>
-    <t>Alfred Hitchcock</t>
-  </si>
-  <si>
-    <t>making suspense movies</t>
-  </si>
-  <si>
-    <t>Angela Merkel</t>
-  </si>
-  <si>
-    <t>plotting election strategies</t>
-  </si>
-  <si>
-    <t>Mayor Joe Quimby</t>
-  </si>
-  <si>
-    <t>taking bribes from organized crime</t>
-  </si>
-  <si>
-    <t>Wayne Rooney</t>
-  </si>
-  <si>
-    <t>playing soccer</t>
-  </si>
-  <si>
-    <t>Anna Karenina</t>
-  </si>
-  <si>
-    <t>worrying about adultery</t>
-  </si>
-  <si>
-    <t>Joan Crawford</t>
-  </si>
-  <si>
-    <t>Blanche DuBois</t>
-  </si>
-  <si>
-    <t>moaning about men</t>
-  </si>
-  <si>
-    <t>Mr. Edward Hyde</t>
-  </si>
-  <si>
-    <t>expressing violent urges</t>
-  </si>
-  <si>
-    <t>Flash Gordon</t>
-  </si>
-  <si>
-    <t>Louis Pasteur</t>
-  </si>
-  <si>
-    <t>Errol Flynn</t>
-  </si>
-  <si>
-    <t>Leon Trotsky</t>
-  </si>
-  <si>
-    <t>launching cultural revolutions</t>
-  </si>
-  <si>
-    <t>Bilbo Baggins</t>
-  </si>
-  <si>
-    <t>posing riddles</t>
-  </si>
-  <si>
-    <t>Isaac Newton</t>
-  </si>
-  <si>
-    <t>proving math theorems</t>
-  </si>
-  <si>
-    <t>Kim Jung-un</t>
-  </si>
-  <si>
-    <t>enriching uranium</t>
-  </si>
-  <si>
-    <t>Agent Phil Coulson</t>
+    <t>Lady Macbeth</t>
+  </si>
+  <si>
+    <t>Erasmus</t>
+  </si>
+  <si>
+    <t>promoting humanism</t>
+  </si>
+  <si>
+    <t>Nick Fury</t>
   </si>
   <si>
     <t>running a clandestine spy organization</t>
   </si>
   <si>
-    <t>Ed Wood</t>
-  </si>
-  <si>
-    <t>making bad movies</t>
-  </si>
-  <si>
-    <t>Jonathan Swift</t>
-  </si>
-  <si>
-    <t>writing political satires</t>
-  </si>
-  <si>
-    <t>The Joker</t>
-  </si>
-  <si>
-    <t>Joey Tribbiani</t>
-  </si>
-  <si>
-    <t>acting off-off-Broadway</t>
-  </si>
-  <si>
-    <t>Michael Jordan</t>
-  </si>
-  <si>
-    <t>playing basketball</t>
-  </si>
-  <si>
-    <t>Joseph Stalin</t>
-  </si>
-  <si>
-    <t>eliminating political rivals</t>
-  </si>
-  <si>
-    <t>Edward Hopper</t>
-  </si>
-  <si>
-    <t>painting melancholy pictures</t>
-  </si>
-  <si>
-    <t>Larry King</t>
+    <t>René Descartes</t>
+  </si>
+  <si>
+    <t>teaching philosophy</t>
+  </si>
+  <si>
+    <t>Piers Morgan</t>
   </si>
   <si>
     <t>interviewing politicians</t>
   </si>
   <si>
-    <t>Winston Churchill</t>
-  </si>
-  <si>
-    <t>fighting against totalitarianism</t>
-  </si>
-  <si>
-    <t>Sylvester Stallone</t>
-  </si>
-  <si>
-    <t>making action movies</t>
-  </si>
-  <si>
-    <t>Joaquin Phoenix</t>
-  </si>
-  <si>
-    <t>starring in action movies</t>
-  </si>
-  <si>
-    <t>Megan Fox</t>
-  </si>
-  <si>
-    <t>Moses</t>
-  </si>
-  <si>
-    <t>leading an exodus</t>
-  </si>
-  <si>
-    <t>Elizabeth Taylor</t>
-  </si>
-  <si>
-    <t>racking up marriages</t>
-  </si>
-  <si>
-    <t>Greta Garbo</t>
-  </si>
-  <si>
-    <t>Howard Stern</t>
-  </si>
-  <si>
-    <t>hosting radio shows</t>
-  </si>
-  <si>
-    <t>Truman Capote</t>
-  </si>
-  <si>
-    <t>writing short stories</t>
-  </si>
-  <si>
-    <t>Cher</t>
-  </si>
-  <si>
-    <t>singing pop songs</t>
-  </si>
-  <si>
-    <t>Moe Szyslak</t>
-  </si>
-  <si>
-    <t>falling for prank calls</t>
-  </si>
-  <si>
-    <t>Henry Miller</t>
-  </si>
-  <si>
-    <t>writing erotic fiction</t>
-  </si>
-  <si>
-    <t>Don Vito Corleone</t>
-  </si>
-  <si>
-    <t>running an empire</t>
-  </si>
-  <si>
-    <t>Carl Bernstein</t>
-  </si>
-  <si>
-    <t>following the money</t>
-  </si>
-  <si>
-    <t>Sarah Palin</t>
-  </si>
-  <si>
-    <t>making political gaffes</t>
-  </si>
-  <si>
-    <t>Rush Limbaugh</t>
-  </si>
-  <si>
-    <t>foiling the schemes of evil villains</t>
-  </si>
-  <si>
-    <t>James Dean</t>
-  </si>
-  <si>
-    <t>racing fast cars</t>
-  </si>
-  <si>
-    <t>Adam West</t>
-  </si>
-  <si>
-    <t>wearing tights</t>
-  </si>
-  <si>
-    <t>Robert Redford</t>
-  </si>
-  <si>
-    <t>running film festivals</t>
-  </si>
-  <si>
-    <t>Croesus</t>
-  </si>
-  <si>
-    <t>collecting treasures</t>
-  </si>
-  <si>
-    <t>Bill Murray</t>
-  </si>
-  <si>
-    <t>telling dry jokes</t>
-  </si>
-  <si>
-    <t>General Zod</t>
-  </si>
-  <si>
-    <t>striving for world domination</t>
-  </si>
-  <si>
-    <t>Timothy McGee</t>
-  </si>
-  <si>
-    <t>interpreting evidence</t>
-  </si>
-  <si>
-    <t>The HamBurglar</t>
-  </si>
-  <si>
-    <t>stealing hamburgers</t>
-  </si>
-  <si>
-    <t>Le Chiffre</t>
-  </si>
-  <si>
-    <t>interviewing celebrities</t>
-  </si>
-  <si>
-    <t>Hellboy</t>
-  </si>
-  <si>
-    <t>hunting demons</t>
-  </si>
-  <si>
-    <t>Cary Grant</t>
-  </si>
-  <si>
-    <t>starring in romantic comedies</t>
-  </si>
-  <si>
-    <t>Martin Luther</t>
-  </si>
-  <si>
-    <t>recruiting dissidents</t>
-  </si>
-  <si>
-    <t>Beatrix Potter</t>
-  </si>
-  <si>
-    <t>drawing whimsical cartoons</t>
-  </si>
-  <si>
-    <t>Robert Downey Jr.</t>
-  </si>
-  <si>
-    <t>making movies</t>
-  </si>
-  <si>
-    <t>Tom Wolfe</t>
-  </si>
-  <si>
-    <t>Wilkins Micawber</t>
-  </si>
-  <si>
-    <t>incurring debts</t>
-  </si>
-  <si>
-    <t>Barbra Streisand</t>
-  </si>
-  <si>
-    <t>Stevie Wonder</t>
-  </si>
-  <si>
-    <t>Alexander the Great</t>
-  </si>
-  <si>
-    <t>building empires</t>
-  </si>
-  <si>
-    <t>Grace Hopper</t>
-  </si>
-  <si>
-    <t>Commissioner James Gordon</t>
-  </si>
-  <si>
-    <t>apprehending criminals</t>
-  </si>
-  <si>
-    <t>Napoleon Bonaparte</t>
-  </si>
-  <si>
-    <t>Yoda</t>
-  </si>
-  <si>
-    <t>fighting for the resistance</t>
-  </si>
-  <si>
-    <t>Dolly Parton</t>
-  </si>
-  <si>
-    <t>singing country music</t>
-  </si>
-  <si>
-    <t>King Richard III</t>
-  </si>
-  <si>
-    <t>grabbing power</t>
-  </si>
-  <si>
-    <t>Bruce Wayne</t>
-  </si>
-  <si>
-    <t>attending cocktail parties</t>
-  </si>
-  <si>
-    <t>Thomas Pynchon</t>
-  </si>
-  <si>
-    <t>Merlin</t>
-  </si>
-  <si>
-    <t>studying magic tricks</t>
-  </si>
-  <si>
-    <t>Richard Nixon</t>
-  </si>
-  <si>
-    <t>pulling dirty political tricks</t>
-  </si>
-  <si>
-    <t>Sylvester the Cat</t>
-  </si>
-  <si>
-    <t>prowling for dinner</t>
-  </si>
-  <si>
-    <t>Chelsea Manning</t>
-  </si>
-  <si>
-    <t>leaking state secrets</t>
-  </si>
-  <si>
-    <t>Dean Martin</t>
-  </si>
-  <si>
-    <t>crooning love songs</t>
-  </si>
-  <si>
-    <t>Steven Spielberg</t>
-  </si>
-  <si>
-    <t>directing Hollywood movies</t>
-  </si>
-  <si>
-    <t>Rihanna</t>
-  </si>
-  <si>
-    <t>King Solomon</t>
-  </si>
-  <si>
-    <t>running a kingdom</t>
-  </si>
-  <si>
-    <t>Benny Hill</t>
-  </si>
-  <si>
-    <t>chasing old women</t>
-  </si>
-  <si>
-    <t>Sideshow Bob</t>
-  </si>
-  <si>
-    <t>developing cunning plans</t>
-  </si>
-  <si>
-    <t>Doc Emmett Brown</t>
-  </si>
-  <si>
-    <t>inventing time machines</t>
-  </si>
-  <si>
-    <t>Shirley Temple</t>
-  </si>
-  <si>
-    <t>Walt Disney</t>
-  </si>
-  <si>
-    <t>running theme parks</t>
-  </si>
-  <si>
-    <t>Hugh Grant</t>
-  </si>
-  <si>
-    <t>Mary Poppins</t>
-  </si>
-  <si>
-    <t>looking after children</t>
-  </si>
-  <si>
-    <t>Bradley Manning</t>
-  </si>
-  <si>
-    <t>leaking classified documents</t>
-  </si>
-  <si>
-    <t>King Lear</t>
-  </si>
-  <si>
-    <t>going senile</t>
-  </si>
-  <si>
-    <t>killing demons</t>
-  </si>
-  <si>
-    <t>buying on credit</t>
-  </si>
-  <si>
-    <t>Arthur Dent</t>
-  </si>
-  <si>
-    <t>making sandwiches</t>
-  </si>
-  <si>
-    <t>Abraham Lincoln</t>
-  </si>
-  <si>
-    <t>fighting for civil rights</t>
-  </si>
-  <si>
-    <t>Han Solo</t>
-  </si>
-  <si>
-    <t>doing the Kessel run</t>
-  </si>
-  <si>
-    <t>Jackson Pollock</t>
-  </si>
-  <si>
-    <t>dripping paint onto canvas</t>
-  </si>
-  <si>
-    <t>Jack The Ripper</t>
-  </si>
-  <si>
-    <t>terrorizing prostitutes</t>
-  </si>
-  <si>
-    <t>Ariel Sharon</t>
-  </si>
-  <si>
-    <t>building giant walls</t>
-  </si>
-  <si>
-    <t>Woody Allen</t>
-  </si>
-  <si>
-    <t>playing the clarinet</t>
-  </si>
-  <si>
-    <t>Kim Kardashian</t>
-  </si>
-  <si>
-    <t>starring in reality TV shows</t>
-  </si>
-  <si>
-    <t>Tom Hanks</t>
-  </si>
-  <si>
-    <t>Philip Marlowe</t>
-  </si>
-  <si>
-    <t>Phoebe Buffay</t>
-  </si>
-  <si>
-    <t>singing parody songs</t>
-  </si>
-  <si>
-    <t>Tom Jones</t>
-  </si>
-  <si>
-    <t>Hermione Granger</t>
-  </si>
-  <si>
-    <t>casting magic spells</t>
-  </si>
-  <si>
-    <t>Sean Penn</t>
-  </si>
-  <si>
-    <t>Bane</t>
-  </si>
-  <si>
-    <t>breaking heads</t>
-  </si>
-  <si>
-    <t>Barney Rubble</t>
-  </si>
-  <si>
-    <t>pedalling engine-less cars</t>
-  </si>
-  <si>
-    <t>fighting for democracy</t>
-  </si>
-  <si>
-    <t>Ashton Kutcher</t>
-  </si>
-  <si>
-    <t>starring in sit-coms</t>
-  </si>
-  <si>
-    <t>Ray Kroc</t>
-  </si>
-  <si>
-    <t>running a multinational corporation</t>
-  </si>
-  <si>
-    <t>reporting the news</t>
-  </si>
-  <si>
-    <t>Salvador Dali</t>
-  </si>
-  <si>
-    <t>painting surreal pictures</t>
+    <t>promoting mysticism</t>
+  </si>
+  <si>
+    <t>Deadpool</t>
+  </si>
+  <si>
+    <t>Scarlett Johansson</t>
+  </si>
+  <si>
+    <t>waging a secret war</t>
+  </si>
+  <si>
+    <t>Ozzy Osbourne</t>
+  </si>
+  <si>
+    <t>Scarlett O'Hara</t>
+  </si>
+  <si>
+    <t>attending cotillion balls</t>
+  </si>
+  <si>
+    <t>Francis Crick</t>
+  </si>
+  <si>
+    <t>modeling DNA</t>
   </si>
   <si>
     <t>Charles Lindbergh</t>
   </si>
   <si>
-    <t>breaking records</t>
-  </si>
-  <si>
-    <t>Nancy Drew</t>
-  </si>
-  <si>
-    <t>finding clues</t>
-  </si>
-  <si>
-    <t>Rachel Green</t>
-  </si>
-  <si>
-    <t>getting a nose job</t>
-  </si>
-  <si>
-    <t>Maleficent</t>
-  </si>
-  <si>
-    <t>poisoning an apple</t>
-  </si>
-  <si>
-    <t>The Artful Dodger</t>
-  </si>
-  <si>
-    <t>picking pockets</t>
-  </si>
-  <si>
-    <t>Russell Crowe</t>
-  </si>
-  <si>
-    <t>throwing temper tantrums</t>
-  </si>
-  <si>
-    <t>Aung San Suu Kyi</t>
-  </si>
-  <si>
-    <t>campaigning for democracy</t>
-  </si>
-  <si>
-    <t>Willie Nelson</t>
-  </si>
-  <si>
-    <t>Sam Winchester</t>
-  </si>
-  <si>
-    <t>drinking demon blood</t>
-  </si>
-  <si>
-    <t>Louis Armstrong</t>
-  </si>
-  <si>
-    <t>playing jazz trumpet</t>
-  </si>
-  <si>
-    <t>Freddie Mercury</t>
-  </si>
-  <si>
-    <t>Joe DiMaggio</t>
-  </si>
-  <si>
-    <t>playing baseball</t>
-  </si>
-  <si>
-    <t>E.T.</t>
-  </si>
-  <si>
-    <t>phoning home</t>
-  </si>
-  <si>
-    <t>George McFly</t>
-  </si>
-  <si>
-    <t>standing up to bullies</t>
-  </si>
-  <si>
-    <t>Principal Seymour Skinner</t>
-  </si>
-  <si>
-    <t>looking after mother</t>
-  </si>
-  <si>
-    <t>Uri Geller</t>
-  </si>
-  <si>
-    <t>bending spoons</t>
-  </si>
-  <si>
-    <t>Jason Bourne</t>
-  </si>
-  <si>
-    <t>eluding capture</t>
-  </si>
-  <si>
-    <t>Gordon Ramsay</t>
-  </si>
-  <si>
-    <t>cooking fancy food</t>
-  </si>
-  <si>
-    <t>Inspector Endeavour Morse</t>
-  </si>
-  <si>
-    <t>John Wayne</t>
-  </si>
-  <si>
-    <t>starring in war movies</t>
-  </si>
-  <si>
-    <t>climbing down chimneys</t>
-  </si>
-  <si>
-    <t>Christian Grey</t>
-  </si>
-  <si>
-    <t>promoting capitalism</t>
-  </si>
-  <si>
-    <t>Alan Sugar</t>
-  </si>
-  <si>
-    <t>Simon Pegg</t>
-  </si>
-  <si>
-    <t>promoting nerd culture</t>
-  </si>
-  <si>
-    <t>Otto von Bismarck</t>
-  </si>
-  <si>
-    <t>wielding political power</t>
-  </si>
-  <si>
-    <t>Marco Polo</t>
-  </si>
-  <si>
-    <t>opening new markets</t>
-  </si>
-  <si>
-    <t>Barney Stinson</t>
-  </si>
-  <si>
-    <t>Bob Dylan</t>
-  </si>
-  <si>
-    <t>singing protest songs</t>
-  </si>
-  <si>
-    <t>Marco Pierre White</t>
-  </si>
-  <si>
-    <t>cooking dinners</t>
-  </si>
-  <si>
-    <t>Will Smith</t>
-  </si>
-  <si>
-    <t>Saint Paul</t>
-  </si>
-  <si>
-    <t>Edith Piaf</t>
-  </si>
-  <si>
-    <t>singing melancholy songs</t>
-  </si>
-  <si>
-    <t>Doctor Stephen Strange</t>
-  </si>
-  <si>
-    <t>Kent Brockman</t>
-  </si>
-  <si>
-    <t>hosting anodyne game shows</t>
-  </si>
-  <si>
-    <t>Selena Gomez</t>
-  </si>
-  <si>
-    <t>Martin Luther King</t>
-  </si>
-  <si>
-    <t>running a fast-food business</t>
-  </si>
-  <si>
-    <t>Frida Kahlo</t>
-  </si>
-  <si>
-    <t>painting self-portraits</t>
-  </si>
-  <si>
-    <t>Karl Rove</t>
-  </si>
-  <si>
-    <t>laughing maniacally</t>
-  </si>
-  <si>
-    <t>Tomás de Torquemada</t>
-  </si>
-  <si>
-    <t>extracting confessions</t>
-  </si>
-  <si>
-    <t>Shrek</t>
-  </si>
-  <si>
-    <t>Barry White</t>
-  </si>
-  <si>
-    <t>singing romantic songs</t>
-  </si>
-  <si>
-    <t>Steve Ballmer</t>
-  </si>
-  <si>
-    <t>running a technology company</t>
-  </si>
-  <si>
-    <t>Wernher von Braun</t>
-  </si>
-  <si>
-    <t>Victor Meldrew</t>
-  </si>
-  <si>
-    <t>Travis Bickle</t>
-  </si>
-  <si>
-    <t>talking to mirrors</t>
-  </si>
-  <si>
-    <t>Tony Soprano</t>
-  </si>
-  <si>
-    <t>running a crime family</t>
-  </si>
-  <si>
-    <t>James Bond</t>
-  </si>
-  <si>
-    <t>ruling over subjects</t>
-  </si>
-  <si>
-    <t>Keyser Söze</t>
-  </si>
-  <si>
-    <t>running a criminal enterprise</t>
-  </si>
-  <si>
-    <t>Baldrick</t>
-  </si>
-  <si>
-    <t>Nicolas Cage</t>
-  </si>
-  <si>
-    <t>over-acting</t>
-  </si>
-  <si>
-    <t>Jenna Jameson</t>
-  </si>
-  <si>
-    <t>starring in pornographic movies</t>
-  </si>
-  <si>
-    <t>Melania Trump</t>
-  </si>
-  <si>
-    <t>posing for photographs</t>
-  </si>
-  <si>
-    <t>Jeff Koons</t>
-  </si>
-  <si>
-    <t>selling kitsch</t>
-  </si>
-  <si>
-    <t>surviving in a post-apocalyptic world</t>
-  </si>
-  <si>
-    <t>Homer</t>
-  </si>
-  <si>
-    <t>writing epic poetry</t>
-  </si>
-  <si>
-    <t>Andrew Lloyd Webber</t>
-  </si>
-  <si>
-    <t>making insipid musicals</t>
-  </si>
-  <si>
-    <t>running pyramid schemes</t>
-  </si>
-  <si>
-    <t>Dante Alighieri</t>
-  </si>
-  <si>
-    <t>writing poetry</t>
-  </si>
-  <si>
-    <t>John Maynard Keynes</t>
-  </si>
-  <si>
-    <t>studying economics</t>
-  </si>
-  <si>
-    <t>promoting social causes</t>
-  </si>
-  <si>
-    <t>Groundskeeper Willie MacDougal</t>
-  </si>
-  <si>
-    <t>burying dead hamsters</t>
-  </si>
-  <si>
-    <t>eluding the FBI</t>
-  </si>
-  <si>
-    <t>Dame Edna Everage</t>
-  </si>
-  <si>
-    <t>Tyra Banks</t>
-  </si>
-  <si>
-    <t>modeling clothes</t>
-  </si>
-  <si>
-    <t>Conchita Wurst</t>
-  </si>
-  <si>
-    <t>painting magazine covers</t>
-  </si>
-  <si>
-    <t>Ludwig Van Beethoven</t>
-  </si>
-  <si>
-    <t>Batman</t>
-  </si>
-  <si>
-    <t>tracking down criminals</t>
-  </si>
-  <si>
-    <t>Johann Sebastian Bach</t>
-  </si>
-  <si>
-    <t>Alan Turing</t>
-  </si>
-  <si>
-    <t>cracking enemy codes</t>
-  </si>
-  <si>
-    <t>Frank Sinatra</t>
-  </si>
-  <si>
-    <t>singing middle-of-the-road songs</t>
-  </si>
-  <si>
-    <t>Michael Moore</t>
-  </si>
-  <si>
-    <t>complaining about capitalism</t>
-  </si>
-  <si>
-    <t>directing science fiction movies</t>
-  </si>
-  <si>
-    <t>Uriah Heap</t>
-  </si>
-  <si>
-    <t>cooking the books</t>
-  </si>
-  <si>
-    <t>Mata Hari</t>
-  </si>
-  <si>
-    <t>selling military secrets</t>
-  </si>
-  <si>
-    <t>Frodo Baggins</t>
-  </si>
-  <si>
-    <t>disposing of unwanted jewelry</t>
-  </si>
-  <si>
-    <t>recording pop songs</t>
-  </si>
-  <si>
-    <t>Cleopatra</t>
-  </si>
-  <si>
-    <t>seducing emperors</t>
-  </si>
-  <si>
-    <t>John Merrick</t>
-  </si>
-  <si>
-    <t>hiding from the public</t>
-  </si>
-  <si>
-    <t>Jon Stewart</t>
-  </si>
-  <si>
-    <t>hosting a late night chat show</t>
-  </si>
-  <si>
-    <t>Gloria Steinem</t>
-  </si>
-  <si>
-    <t>Mariah Carey</t>
-  </si>
-  <si>
-    <t>singing Hipbop songs</t>
-  </si>
-  <si>
-    <t>Cosmo Kramer</t>
-  </si>
-  <si>
-    <t>mooching from neighbors</t>
-  </si>
-  <si>
-    <t>Newt Gingrich</t>
-  </si>
-  <si>
-    <t>Juliet Capulet</t>
-  </si>
-  <si>
-    <t>watching the sun rise</t>
-  </si>
-  <si>
-    <t>Leonard Cohen</t>
-  </si>
-  <si>
-    <t>Jay Gatsby</t>
-  </si>
-  <si>
-    <t>throwing lavish parties</t>
-  </si>
-  <si>
-    <t>George Armstrong Custer</t>
-  </si>
-  <si>
-    <t>Frank Lloyd Wright</t>
-  </si>
-  <si>
-    <t>designing modern buildings</t>
-  </si>
-  <si>
-    <t>working in a freak show</t>
-  </si>
-  <si>
-    <t>Julian Assange</t>
-  </si>
-  <si>
-    <t>promoting openness</t>
-  </si>
-  <si>
-    <t>Scipio Africanus</t>
-  </si>
-  <si>
-    <t>fighting Carthaginians</t>
-  </si>
-  <si>
-    <t>Cardinal Richelieu</t>
-  </si>
-  <si>
-    <t>directing the business of state</t>
-  </si>
-  <si>
-    <t>Rocky Balboa</t>
-  </si>
-  <si>
-    <t>winning heavyweight titles</t>
-  </si>
-  <si>
-    <t>Zac Efron</t>
-  </si>
-  <si>
-    <t>shocking radio listeners</t>
-  </si>
-  <si>
-    <t>Emma Bovary</t>
-  </si>
-  <si>
-    <t>Elvis Presley</t>
-  </si>
-  <si>
-    <t>frying peanut-butter and banana sandwiches</t>
-  </si>
-  <si>
-    <t>Salman Rushdie</t>
-  </si>
-  <si>
-    <t>Ariana Grande</t>
-  </si>
-  <si>
-    <t>Marie Curie</t>
-  </si>
-  <si>
-    <t>extracting Radium from pitchblend</t>
-  </si>
-  <si>
-    <t>Henry Ford</t>
-  </si>
-  <si>
-    <t>making cars</t>
-  </si>
-  <si>
-    <t>Lizzy Bennet</t>
-  </si>
-  <si>
-    <t>disappointing suitors</t>
-  </si>
-  <si>
-    <t>mass-producing cars</t>
-  </si>
-  <si>
-    <t>cleaning floors</t>
-  </si>
-  <si>
-    <t>Hans Gruber</t>
-  </si>
-  <si>
-    <t>organizing armed robberies</t>
-  </si>
-  <si>
-    <t>Bear Grylls</t>
-  </si>
-  <si>
-    <t>sucking roots</t>
-  </si>
-  <si>
-    <t>Antonio Salieri</t>
-  </si>
-  <si>
-    <t>burning with envy</t>
-  </si>
-  <si>
-    <t>Lisa Simpson</t>
-  </si>
-  <si>
-    <t>over-achieving at school</t>
-  </si>
-  <si>
-    <t>Sir Lancelot</t>
-  </si>
-  <si>
-    <t>fighting with swords</t>
-  </si>
-  <si>
-    <t>solving riddles</t>
-  </si>
-  <si>
-    <t>Lando Calrissian</t>
-  </si>
-  <si>
-    <t>fighting for the rebel alliance</t>
-  </si>
-  <si>
-    <t>Audrey Hepburn</t>
-  </si>
-  <si>
-    <t>Angelina Jolie</t>
-  </si>
-  <si>
-    <t>Nelson Muntz</t>
-  </si>
-  <si>
-    <t>bullying schoolkids</t>
-  </si>
-  <si>
-    <t>cursing at kitchen staff</t>
-  </si>
-  <si>
-    <t>Ridley Scott</t>
-  </si>
-  <si>
-    <t>Madeleine Albright</t>
-  </si>
-  <si>
-    <t>Fagin</t>
-  </si>
-  <si>
-    <t>Mr. Miyagi</t>
-  </si>
-  <si>
-    <t>Luke Skywalker</t>
-  </si>
-  <si>
-    <t>playing the saxophone</t>
-  </si>
-  <si>
-    <t>Dalton Trumbo</t>
-  </si>
-  <si>
-    <t>writing compelling dialogue</t>
-  </si>
-  <si>
-    <t>Obi-wan Kenobi</t>
-  </si>
-  <si>
-    <t>promoting mysticism</t>
-  </si>
-  <si>
-    <t>eating power pellets</t>
-  </si>
-  <si>
-    <t>Staff Member</t>
-  </si>
-  <si>
-    <t>Sylvia Plath</t>
-  </si>
-  <si>
-    <t>Tupac Shakur</t>
-  </si>
-  <si>
-    <t>Mr. Bean</t>
-  </si>
-  <si>
-    <t>Sappho</t>
-  </si>
-  <si>
-    <t>promoting socialism</t>
-  </si>
-  <si>
-    <t>Sir Hugo Drax</t>
-  </si>
-  <si>
-    <t>Tony Montana</t>
-  </si>
-  <si>
-    <t>fighting guerilla wars</t>
-  </si>
-  <si>
-    <t>John McClane</t>
-  </si>
-  <si>
-    <t>rescuing hostages</t>
-  </si>
-  <si>
-    <t>driving under the influence</t>
-  </si>
-  <si>
-    <t>Mark Twain</t>
-  </si>
-  <si>
-    <t>writing folksy fiction</t>
-  </si>
-  <si>
-    <t>developing crazy schemes</t>
-  </si>
-  <si>
-    <t>Lord Byron</t>
-  </si>
-  <si>
-    <t>scandalizing polite society</t>
-  </si>
-  <si>
-    <t>Frasier Crane</t>
-  </si>
-  <si>
-    <t>probing the mind</t>
-  </si>
-  <si>
-    <t>selling fast food</t>
-  </si>
-  <si>
-    <t>Billy Crystal</t>
-  </si>
-  <si>
-    <t>starring in comedies</t>
-  </si>
-  <si>
-    <t>Bruce Springsteen</t>
-  </si>
-  <si>
-    <t>singing rock songs</t>
-  </si>
-  <si>
-    <t>Derek Zoolander</t>
-  </si>
-  <si>
-    <t>peacocking in fancy clothes</t>
-  </si>
-  <si>
-    <t>Edward Snowden</t>
-  </si>
-  <si>
-    <t>Jerry Springer</t>
-  </si>
-  <si>
-    <t>hosting reality TV shows</t>
-  </si>
-  <si>
-    <t>singing goofy songs</t>
-  </si>
-  <si>
-    <t>Nelson Mandela</t>
-  </si>
-  <si>
-    <t>Al Gore</t>
-  </si>
-  <si>
-    <t>lecturing about climate change</t>
-  </si>
-  <si>
-    <t>Popeye</t>
-  </si>
-  <si>
-    <t>Genghis Khan</t>
+    <t>blowing bubbles</t>
+  </si>
+  <si>
+    <t>Nurse Ratched</t>
+  </si>
+  <si>
+    <t>terrorizing employees</t>
+  </si>
+  <si>
+    <t>drinking too much red wine</t>
+  </si>
+  <si>
+    <t>Jack Donaghy</t>
   </si>
 </sst>
 </file>
@@ -1851,8 +1884,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="28.25390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="37.12890625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="27.72265625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="37.46875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.11328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -1886,29 +1919,29 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -1919,7 +1952,7 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -1930,51 +1963,51 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
@@ -1996,7 +2029,7 @@
         <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
@@ -2018,7 +2051,7 @@
         <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
@@ -2029,7 +2062,7 @@
         <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -2040,7 +2073,7 @@
         <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18">
@@ -2051,29 +2084,29 @@
         <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
         <v>40</v>
       </c>
-      <c r="B19" t="s">
-        <v>41</v>
-      </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
         <v>42</v>
       </c>
-      <c r="B20" t="s">
-        <v>12</v>
-      </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
@@ -2084,7 +2117,7 @@
         <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -2095,7 +2128,7 @@
         <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -2106,7 +2139,7 @@
         <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
@@ -2117,7 +2150,7 @@
         <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
@@ -2128,7 +2161,7 @@
         <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
@@ -2139,7 +2172,7 @@
         <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
@@ -2150,7 +2183,7 @@
         <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -2161,7 +2194,7 @@
         <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29">
@@ -2172,7 +2205,7 @@
         <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30">
@@ -2183,26 +2216,26 @@
         <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -2210,10 +2243,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -2221,10 +2254,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -2232,145 +2265,145 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C35" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C37" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B39" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C40" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C41" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C43" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B44" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C44" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B45" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C45" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C46" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B47" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C47" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48">
@@ -2381,7 +2414,7 @@
         <v>97</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49">
@@ -2392,7 +2425,7 @@
         <v>99</v>
       </c>
       <c r="C49" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50">
@@ -2403,7 +2436,7 @@
         <v>101</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51">
@@ -2411,51 +2444,51 @@
         <v>102</v>
       </c>
       <c r="B51" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="C51" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B52" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C52" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B53" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C53" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B54" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C54" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B55" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -2463,87 +2496,87 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B56" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C56" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B57" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C57" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B58" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C58" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B59" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C59" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B60" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B61" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C61" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B62" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C62" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B63" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -2551,10 +2584,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B64" t="s">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -2562,35 +2595,35 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
+        <v>32</v>
+      </c>
+      <c r="B65" t="s">
         <v>129</v>
       </c>
-      <c r="B65" t="s">
-        <v>130</v>
-      </c>
       <c r="C65" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" t="s">
         <v>131</v>
       </c>
-      <c r="B66" t="s">
-        <v>132</v>
-      </c>
       <c r="C66" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" t="s">
         <v>133</v>
       </c>
-      <c r="B67" t="s">
-        <v>126</v>
-      </c>
       <c r="C67" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68">
@@ -2601,7 +2634,7 @@
         <v>135</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69">
@@ -2612,7 +2645,7 @@
         <v>137</v>
       </c>
       <c r="C69" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70">
@@ -2620,120 +2653,120 @@
         <v>138</v>
       </c>
       <c r="B70" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="C70" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B71" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B72" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C72" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B73" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B74" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C74" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B75" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C75" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B76" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B77" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C77" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B78" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C78" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B79" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C79" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>157</v>
+        <v>36</v>
       </c>
       <c r="B80" t="s">
         <v>158</v>
       </c>
       <c r="C80" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81">
@@ -2755,7 +2788,7 @@
         <v>162</v>
       </c>
       <c r="C82" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83">
@@ -2766,37 +2799,37 @@
         <v>164</v>
       </c>
       <c r="C83" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
+        <v>154</v>
+      </c>
+      <c r="B84" t="s">
         <v>165</v>
       </c>
-      <c r="B84" t="s">
-        <v>166</v>
-      </c>
       <c r="C84" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
+        <v>166</v>
+      </c>
+      <c r="B85" t="s">
         <v>167</v>
       </c>
-      <c r="B85" t="s">
-        <v>168</v>
-      </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
+        <v>168</v>
+      </c>
+      <c r="B86" t="s">
         <v>169</v>
-      </c>
-      <c r="B86" t="s">
-        <v>170</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -2804,101 +2837,101 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B87" t="s">
-        <v>172</v>
+        <v>22</v>
       </c>
       <c r="C87" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B88" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B89" t="s">
-        <v>176</v>
+        <v>115</v>
       </c>
       <c r="C89" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B90" t="s">
-        <v>27</v>
+        <v>175</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B91" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C91" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B92" t="s">
-        <v>181</v>
+        <v>105</v>
       </c>
       <c r="C92" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B93" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="C93" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B94" t="s">
-        <v>16</v>
+        <v>182</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
+        <v>183</v>
+      </c>
+      <c r="B95" t="s">
         <v>184</v>
       </c>
-      <c r="B95" t="s">
-        <v>27</v>
-      </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96">
@@ -2909,7 +2942,7 @@
         <v>186</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97">
@@ -2920,7 +2953,7 @@
         <v>188</v>
       </c>
       <c r="C97" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98">
@@ -2931,7 +2964,7 @@
         <v>190</v>
       </c>
       <c r="C98" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99">
@@ -2939,84 +2972,84 @@
         <v>191</v>
       </c>
       <c r="B99" t="s">
-        <v>192</v>
+        <v>88</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
+        <v>192</v>
+      </c>
+      <c r="B100" t="s">
         <v>193</v>
       </c>
-      <c r="B100" t="s">
-        <v>194</v>
-      </c>
       <c r="C100" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B101" t="s">
-        <v>196</v>
+        <v>33</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B102" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C102" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B103" t="s">
-        <v>52</v>
+        <v>198</v>
       </c>
       <c r="C103" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
+        <v>199</v>
+      </c>
+      <c r="B104" t="s">
         <v>200</v>
       </c>
-      <c r="B104" t="s">
-        <v>201</v>
-      </c>
       <c r="C104" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
+        <v>201</v>
+      </c>
+      <c r="B105" t="s">
         <v>202</v>
       </c>
-      <c r="B105" t="s">
-        <v>203</v>
-      </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B106" t="s">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -3024,21 +3057,21 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B107" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B108" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -3046,43 +3079,43 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B109" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B110" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C110" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B111" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B112" t="s">
-        <v>27</v>
+        <v>215</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -3090,65 +3123,65 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>217</v>
+        <v>49</v>
       </c>
       <c r="B113" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B114" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C114" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B115" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C115" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B116" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B117" t="s">
-        <v>225</v>
+        <v>22</v>
       </c>
       <c r="C117" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B118" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -3156,21 +3189,21 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B119" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C119" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B120" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -3178,87 +3211,87 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B121" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C121" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B122" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B123" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C123" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B124" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>165</v>
+        <v>236</v>
       </c>
       <c r="B125" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C125" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B126" t="s">
-        <v>241</v>
+        <v>123</v>
       </c>
       <c r="C126" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B127" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B128" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -3266,109 +3299,109 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B129" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B130" t="s">
-        <v>249</v>
+        <v>80</v>
       </c>
       <c r="C130" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B131" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C131" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B132" t="s">
-        <v>253</v>
+        <v>158</v>
       </c>
       <c r="C132" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B133" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C133" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B134" t="s">
-        <v>63</v>
+        <v>252</v>
       </c>
       <c r="C134" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>208</v>
+        <v>253</v>
       </c>
       <c r="B135" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C135" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B136" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C136" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B137" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C137" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B138" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -3376,68 +3409,68 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B139" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B140" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B141" t="s">
-        <v>144</v>
+        <v>266</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B142" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C142" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B143" t="s">
-        <v>67</v>
+        <v>270</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
+        <v>271</v>
+      </c>
+      <c r="B144" t="s">
         <v>272</v>
       </c>
-      <c r="B144" t="s">
-        <v>227</v>
-      </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145">
@@ -3448,7 +3481,7 @@
         <v>274</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="146">
@@ -3456,10 +3489,10 @@
         <v>275</v>
       </c>
       <c r="B146" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="147">
@@ -3470,7 +3503,7 @@
         <v>277</v>
       </c>
       <c r="C147" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="148">
@@ -3478,7 +3511,7 @@
         <v>278</v>
       </c>
       <c r="B148" t="s">
-        <v>58</v>
+        <v>279</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -3486,13 +3519,13 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B149" t="s">
-        <v>280</v>
+        <v>123</v>
       </c>
       <c r="C149" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="150">
@@ -3519,24 +3552,24 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
+        <v>130</v>
+      </c>
+      <c r="B152" t="s">
         <v>285</v>
       </c>
-      <c r="B152" t="s">
-        <v>286</v>
-      </c>
       <c r="C152" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
+        <v>286</v>
+      </c>
+      <c r="B153" t="s">
         <v>287</v>
       </c>
-      <c r="B153" t="s">
-        <v>144</v>
-      </c>
       <c r="C153" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="154">
@@ -3544,139 +3577,139 @@
         <v>288</v>
       </c>
       <c r="B154" t="s">
-        <v>289</v>
+        <v>196</v>
       </c>
       <c r="C154" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
+        <v>289</v>
+      </c>
+      <c r="B155" t="s">
         <v>290</v>
       </c>
-      <c r="B155" t="s">
-        <v>291</v>
-      </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
+        <v>291</v>
+      </c>
+      <c r="B156" t="s">
         <v>292</v>
       </c>
-      <c r="B156" t="s">
-        <v>293</v>
-      </c>
       <c r="C156" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
+        <v>293</v>
+      </c>
+      <c r="B157" t="s">
         <v>294</v>
       </c>
-      <c r="B157" t="s">
-        <v>295</v>
-      </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
+        <v>295</v>
+      </c>
+      <c r="B158" t="s">
         <v>296</v>
       </c>
-      <c r="B158" t="s">
-        <v>297</v>
-      </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>298</v>
+        <v>263</v>
       </c>
       <c r="B159" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C159" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B160" t="s">
-        <v>227</v>
+        <v>139</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B161" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C161" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B162" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B163" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C163" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>307</v>
+        <v>171</v>
       </c>
       <c r="B164" t="s">
-        <v>308</v>
+        <v>172</v>
       </c>
       <c r="C164" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B165" t="s">
-        <v>27</v>
+        <v>306</v>
       </c>
       <c r="C165" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B166" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -3684,32 +3717,32 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B167" t="s">
-        <v>261</v>
+        <v>76</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B168" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C168" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B169" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -3717,76 +3750,76 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B170" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C170" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>258</v>
+        <v>316</v>
       </c>
       <c r="B171" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C171" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>269</v>
+        <v>318</v>
       </c>
       <c r="B172" t="s">
-        <v>320</v>
+        <v>22</v>
       </c>
       <c r="C172" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B173" t="s">
-        <v>322</v>
+        <v>209</v>
       </c>
       <c r="C173" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>323</v>
+        <v>219</v>
       </c>
       <c r="B174" t="s">
-        <v>324</v>
+        <v>80</v>
       </c>
       <c r="C174" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B175" t="s">
-        <v>326</v>
+        <v>111</v>
       </c>
       <c r="C175" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>327</v>
+        <v>114</v>
       </c>
       <c r="B176" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -3794,10 +3827,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B177" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -3805,109 +3838,109 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B178" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="C178" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>9</v>
+        <v>326</v>
       </c>
       <c r="B179" t="s">
-        <v>10</v>
+        <v>327</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>333</v>
+        <v>223</v>
       </c>
       <c r="B180" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>335</v>
+        <v>8</v>
       </c>
       <c r="B181" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B182" t="s">
-        <v>27</v>
+        <v>331</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B183" t="s">
-        <v>60</v>
+        <v>333</v>
       </c>
       <c r="C183" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B184" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C184" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B185" t="s">
-        <v>227</v>
+        <v>337</v>
       </c>
       <c r="C185" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B186" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C186" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>244</v>
+        <v>340</v>
       </c>
       <c r="B187" t="s">
-        <v>27</v>
+        <v>341</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -3915,208 +3948,208 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B188" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C188" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B189" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C189" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B190" t="s">
-        <v>348</v>
+        <v>260</v>
       </c>
       <c r="C190" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>210</v>
+        <v>346</v>
       </c>
       <c r="B191" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B192" t="s">
-        <v>351</v>
+        <v>123</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B193" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C193" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>234</v>
+        <v>351</v>
       </c>
       <c r="B194" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C194" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B195" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C195" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B196" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C196" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B197" t="s">
-        <v>360</v>
+        <v>196</v>
       </c>
       <c r="C197" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B198" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C198" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B199" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C199" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B200" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C200" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B201" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C201" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B202" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C202" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B203" t="s">
-        <v>282</v>
+        <v>369</v>
       </c>
       <c r="C203" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B204" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C204" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>374</v>
+        <v>243</v>
       </c>
       <c r="B205" t="s">
-        <v>375</v>
+        <v>74</v>
       </c>
       <c r="C205" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B206" t="s">
-        <v>227</v>
+        <v>373</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -4124,241 +4157,241 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B207" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C207" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B208" t="s">
-        <v>380</v>
+        <v>260</v>
       </c>
       <c r="C208" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B209" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C209" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>383</v>
+        <v>281</v>
       </c>
       <c r="B210" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C210" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B211" t="s">
-        <v>386</v>
+        <v>268</v>
       </c>
       <c r="C211" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B212" t="s">
-        <v>388</v>
+        <v>40</v>
       </c>
       <c r="C212" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="B213" t="s">
-        <v>390</v>
+        <v>80</v>
       </c>
       <c r="C213" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="B214" t="s">
-        <v>253</v>
+        <v>384</v>
       </c>
       <c r="C214" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="B215" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C215" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>163</v>
+        <v>387</v>
       </c>
       <c r="B216" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C216" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>250</v>
+        <v>389</v>
       </c>
       <c r="B217" t="s">
-        <v>63</v>
+        <v>390</v>
       </c>
       <c r="C217" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B218" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C218" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B219" t="s">
-        <v>148</v>
+        <v>394</v>
       </c>
       <c r="C219" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B220" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C220" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B221" t="s">
-        <v>401</v>
+        <v>123</v>
       </c>
       <c r="C221" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B222" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C222" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B223" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="C223" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B224" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C224" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B225" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C225" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B226" t="s">
-        <v>27</v>
+        <v>407</v>
       </c>
       <c r="C226" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B227" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="C227" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B228" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -4366,46 +4399,46 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B229" t="s">
-        <v>343</v>
+        <v>412</v>
       </c>
       <c r="C229" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>414</v>
+        <v>222</v>
       </c>
       <c r="B230" t="s">
-        <v>415</v>
+        <v>80</v>
       </c>
       <c r="C230" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B231" t="s">
-        <v>227</v>
+        <v>414</v>
       </c>
       <c r="C231" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>296</v>
+        <v>415</v>
       </c>
       <c r="B232" t="s">
-        <v>261</v>
+        <v>416</v>
       </c>
       <c r="C232" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="233">
@@ -4413,29 +4446,29 @@
         <v>417</v>
       </c>
       <c r="B233" t="s">
-        <v>349</v>
+        <v>418</v>
       </c>
       <c r="C233" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>352</v>
+        <v>419</v>
       </c>
       <c r="B234" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C234" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B235" t="s">
-        <v>420</v>
+        <v>213</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -4443,90 +4476,90 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B236" t="s">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="C236" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>199</v>
+        <v>423</v>
       </c>
       <c r="B237" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C237" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B238" t="s">
-        <v>424</v>
+        <v>123</v>
       </c>
       <c r="C238" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B239" t="s">
-        <v>44</v>
+        <v>427</v>
       </c>
       <c r="C239" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B240" t="s">
-        <v>427</v>
+        <v>213</v>
       </c>
       <c r="C240" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B241" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C241" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B242" t="s">
-        <v>35</v>
+        <v>172</v>
       </c>
       <c r="C242" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>431</v>
+        <v>191</v>
       </c>
       <c r="B243" t="s">
-        <v>81</v>
+        <v>184</v>
       </c>
       <c r="C243" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="244">
@@ -4537,7 +4570,7 @@
         <v>433</v>
       </c>
       <c r="C244" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="245">
@@ -4548,7 +4581,7 @@
         <v>435</v>
       </c>
       <c r="C245" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="246">
@@ -4556,62 +4589,62 @@
         <v>436</v>
       </c>
       <c r="B246" t="s">
-        <v>239</v>
+        <v>109</v>
       </c>
       <c r="C246" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>301</v>
+        <v>437</v>
       </c>
       <c r="B247" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C247" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>240</v>
+        <v>439</v>
       </c>
       <c r="B248" t="s">
-        <v>27</v>
+        <v>440</v>
       </c>
       <c r="C248" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B249" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C249" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B250" t="s">
-        <v>306</v>
+        <v>444</v>
       </c>
       <c r="C250" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>441</v>
+        <v>310</v>
       </c>
       <c r="B251" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -4619,87 +4652,87 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B252" t="s">
-        <v>444</v>
+        <v>80</v>
       </c>
       <c r="C252" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>224</v>
+        <v>447</v>
       </c>
       <c r="B253" t="s">
-        <v>144</v>
+        <v>448</v>
       </c>
       <c r="C253" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B254" t="s">
-        <v>446</v>
+        <v>167</v>
       </c>
       <c r="C254" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B255" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C255" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>43</v>
+        <v>452</v>
       </c>
       <c r="B256" t="s">
-        <v>449</v>
+        <v>373</v>
       </c>
       <c r="C256" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B257" t="s">
-        <v>451</v>
+        <v>407</v>
       </c>
       <c r="C257" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B258" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C258" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>127</v>
+        <v>456</v>
       </c>
       <c r="B259" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -4707,21 +4740,21 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B260" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C260" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B261" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -4729,10 +4762,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>344</v>
+        <v>462</v>
       </c>
       <c r="B262" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -4740,43 +4773,43 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="B263" t="s">
-        <v>461</v>
+        <v>76</v>
       </c>
       <c r="C263" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>438</v>
+        <v>465</v>
       </c>
       <c r="B264" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="C264" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="B265" t="s">
-        <v>179</v>
+        <v>468</v>
       </c>
       <c r="C265" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="B266" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
@@ -4784,10 +4817,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="B267" t="s">
-        <v>7</v>
+        <v>472</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -4795,43 +4828,43 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>105</v>
+        <v>473</v>
       </c>
       <c r="B268" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="C268" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="B269" t="s">
-        <v>33</v>
+        <v>258</v>
       </c>
       <c r="C269" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="B270" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="C270" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="B271" t="s">
-        <v>33</v>
+        <v>268</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -4839,120 +4872,120 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="B272" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="C272" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="B273" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="C273" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="B274" t="s">
-        <v>477</v>
+        <v>72</v>
       </c>
       <c r="C274" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>195</v>
+        <v>87</v>
       </c>
       <c r="B275" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="C275" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="B276" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="C276" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>481</v>
+        <v>28</v>
       </c>
       <c r="B277" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="C277" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="B278" t="s">
-        <v>484</v>
+        <v>463</v>
       </c>
       <c r="C278" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>341</v>
+        <v>489</v>
       </c>
       <c r="B279" t="s">
-        <v>485</v>
+        <v>158</v>
       </c>
       <c r="C279" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>440</v>
+        <v>490</v>
       </c>
       <c r="B280" t="s">
-        <v>158</v>
+        <v>491</v>
       </c>
       <c r="C280" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="B281" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="C281" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="B282" t="s">
-        <v>489</v>
+        <v>373</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -4960,76 +4993,76 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="B283" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="C283" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="B284" t="s">
-        <v>179</v>
+        <v>498</v>
       </c>
       <c r="C284" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="B285" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="C285" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="B286" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="C286" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>497</v>
+        <v>150</v>
       </c>
       <c r="B287" t="s">
-        <v>97</v>
+        <v>503</v>
       </c>
       <c r="C287" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="B288" t="s">
-        <v>499</v>
+        <v>325</v>
       </c>
       <c r="C288" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="B289" t="s">
-        <v>412</v>
+        <v>506</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -5037,43 +5070,43 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="B290" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="C290" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B291" t="s">
-        <v>58</v>
+        <v>510</v>
       </c>
       <c r="C291" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="B292" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="C292" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>488</v>
+        <v>513</v>
       </c>
       <c r="B293" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -5081,164 +5114,164 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>507</v>
+        <v>126</v>
       </c>
       <c r="B294" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="C294" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B295" t="s">
-        <v>510</v>
+        <v>22</v>
       </c>
       <c r="C295" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="B296" t="s">
-        <v>512</v>
+        <v>287</v>
       </c>
       <c r="C296" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="B297" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="C297" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="B298" t="s">
-        <v>453</v>
+        <v>521</v>
       </c>
       <c r="C298" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>24</v>
+        <v>522</v>
       </c>
       <c r="B299" t="s">
-        <v>203</v>
+        <v>523</v>
       </c>
       <c r="C299" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>222</v>
+        <v>524</v>
       </c>
       <c r="B300" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="C300" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="B301" t="s">
-        <v>71</v>
+        <v>527</v>
       </c>
       <c r="C301" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>250</v>
+        <v>528</v>
       </c>
       <c r="B302" t="s">
-        <v>73</v>
+        <v>529</v>
       </c>
       <c r="C302" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>466</v>
+        <v>530</v>
       </c>
       <c r="B303" t="s">
-        <v>227</v>
+        <v>40</v>
       </c>
       <c r="C303" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>518</v>
+        <v>53</v>
       </c>
       <c r="B304" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="C304" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="B305" t="s">
-        <v>144</v>
+        <v>209</v>
       </c>
       <c r="C305" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="B306" t="s">
-        <v>227</v>
+        <v>534</v>
       </c>
       <c r="C306" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="B307" t="s">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="C307" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>524</v>
+        <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="C308" t="s">
         <v>5</v>
@@ -5246,21 +5279,21 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>526</v>
+        <v>199</v>
       </c>
       <c r="B309" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
       <c r="C309" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="B310" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="C310" t="s">
         <v>5</v>
@@ -5268,373 +5301,373 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>460</v>
+        <v>541</v>
       </c>
       <c r="B311" t="s">
-        <v>529</v>
+        <v>542</v>
       </c>
       <c r="C311" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>530</v>
+        <v>543</v>
       </c>
       <c r="B312" t="s">
-        <v>531</v>
+        <v>80</v>
       </c>
       <c r="C312" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="B313" t="s">
-        <v>533</v>
+        <v>424</v>
       </c>
       <c r="C313" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="B314" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="C314" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>536</v>
+        <v>465</v>
       </c>
       <c r="B315" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="C315" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>538</v>
+        <v>87</v>
       </c>
       <c r="B316" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="C316" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>187</v>
+        <v>549</v>
       </c>
       <c r="B317" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="C317" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="B318" t="s">
-        <v>542</v>
+        <v>482</v>
       </c>
       <c r="C318" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="B319" t="s">
-        <v>261</v>
+        <v>33</v>
       </c>
       <c r="C319" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="B320" t="s">
-        <v>27</v>
+        <v>553</v>
       </c>
       <c r="C320" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="B321" t="s">
-        <v>546</v>
+        <v>373</v>
       </c>
       <c r="C321" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>389</v>
+        <v>456</v>
       </c>
       <c r="B322" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="C322" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="B323" t="s">
-        <v>478</v>
+        <v>167</v>
       </c>
       <c r="C323" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="B324" t="s">
-        <v>349</v>
+        <v>180</v>
       </c>
       <c r="C324" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="B325" t="s">
-        <v>439</v>
+        <v>559</v>
       </c>
       <c r="C325" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>376</v>
+        <v>560</v>
       </c>
       <c r="B326" t="s">
-        <v>77</v>
+        <v>561</v>
       </c>
       <c r="C326" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
       <c r="B327" t="s">
-        <v>142</v>
+        <v>563</v>
       </c>
       <c r="C327" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="B328" t="s">
-        <v>166</v>
+        <v>115</v>
       </c>
       <c r="C328" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>536</v>
+        <v>565</v>
       </c>
       <c r="B329" t="s">
-        <v>553</v>
+        <v>566</v>
       </c>
       <c r="C329" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>272</v>
+        <v>446</v>
       </c>
       <c r="B330" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="C330" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>554</v>
+        <v>567</v>
       </c>
       <c r="B331" t="s">
-        <v>555</v>
+        <v>167</v>
       </c>
       <c r="C331" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="B332" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="C332" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>113</v>
+        <v>355</v>
       </c>
       <c r="B333" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="C333" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="B334" t="s">
-        <v>1</v>
+        <v>572</v>
       </c>
       <c r="C334" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>560</v>
+        <v>573</v>
       </c>
       <c r="B335" t="s">
-        <v>456</v>
+        <v>123</v>
       </c>
       <c r="C335" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>561</v>
+        <v>574</v>
       </c>
       <c r="B336" t="s">
-        <v>494</v>
+        <v>58</v>
       </c>
       <c r="C336" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
       <c r="B337" t="s">
-        <v>52</v>
+        <v>260</v>
       </c>
       <c r="C337" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="B338" t="s">
-        <v>456</v>
+        <v>107</v>
       </c>
       <c r="C338" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>61</v>
+        <v>462</v>
       </c>
       <c r="B339" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
       <c r="C339" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>565</v>
+        <v>578</v>
       </c>
       <c r="B340" t="s">
-        <v>251</v>
+        <v>579</v>
       </c>
       <c r="C340" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>566</v>
+        <v>580</v>
       </c>
       <c r="B341" t="s">
-        <v>435</v>
+        <v>474</v>
       </c>
       <c r="C341" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>136</v>
+        <v>581</v>
       </c>
       <c r="B342" t="s">
-        <v>567</v>
+        <v>410</v>
       </c>
       <c r="C342" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>568</v>
+        <v>582</v>
       </c>
       <c r="B343" t="s">
-        <v>569</v>
+        <v>583</v>
       </c>
       <c r="C343" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>26</v>
+        <v>584</v>
       </c>
       <c r="B344" t="s">
-        <v>570</v>
+        <v>585</v>
       </c>
       <c r="C344" t="s">
         <v>5</v>
@@ -5642,76 +5675,76 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>571</v>
+        <v>452</v>
       </c>
       <c r="B345" t="s">
-        <v>572</v>
+        <v>125</v>
       </c>
       <c r="C345" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>495</v>
+        <v>586</v>
       </c>
       <c r="B346" t="s">
-        <v>573</v>
+        <v>587</v>
       </c>
       <c r="C346" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>574</v>
+        <v>588</v>
       </c>
       <c r="B347" t="s">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="C347" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>576</v>
+        <v>281</v>
       </c>
       <c r="B348" t="s">
-        <v>577</v>
+        <v>590</v>
       </c>
       <c r="C348" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>352</v>
+        <v>591</v>
       </c>
       <c r="B349" t="s">
-        <v>578</v>
+        <v>129</v>
       </c>
       <c r="C349" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>579</v>
+        <v>592</v>
       </c>
       <c r="B350" t="s">
-        <v>580</v>
+        <v>325</v>
       </c>
       <c r="C350" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>581</v>
+        <v>168</v>
       </c>
       <c r="B351" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="C351" t="s">
         <v>5</v>
@@ -5719,65 +5752,65 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="B352" t="s">
-        <v>584</v>
+        <v>162</v>
       </c>
       <c r="C352" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="B353" t="s">
-        <v>295</v>
+        <v>596</v>
       </c>
       <c r="C353" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>57</v>
+        <v>597</v>
       </c>
       <c r="B354" t="s">
-        <v>539</v>
+        <v>598</v>
       </c>
       <c r="C354" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>586</v>
+        <v>599</v>
       </c>
       <c r="B355" t="s">
-        <v>587</v>
+        <v>487</v>
       </c>
       <c r="C355" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>339</v>
+        <v>163</v>
       </c>
       <c r="B356" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="C356" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="B357" t="s">
-        <v>349</v>
+        <v>602</v>
       </c>
       <c r="C357" t="s">
         <v>5</v>
@@ -5785,10 +5818,10 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>57</v>
+        <v>310</v>
       </c>
       <c r="B358" t="s">
-        <v>437</v>
+        <v>603</v>
       </c>
       <c r="C358" t="s">
         <v>5</v>
@@ -5796,35 +5829,35 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>590</v>
+        <v>452</v>
       </c>
       <c r="B359" t="s">
-        <v>591</v>
+        <v>213</v>
       </c>
       <c r="C359" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="B360" t="s">
-        <v>44</v>
+        <v>196</v>
       </c>
       <c r="C360" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>593</v>
+        <v>557</v>
       </c>
       <c r="B361" t="s">
-        <v>233</v>
+        <v>109</v>
       </c>
       <c r="C361" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/StaffProject240.xlsx
+++ b/StaffProject240.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="600">
   <si>
     <t>Staff Name</t>
   </si>
@@ -23,1849 +23,1795 @@
     <t>Stream</t>
   </si>
   <si>
-    <t>Audrey Hepburn</t>
+    <t>James T. Kirk</t>
+  </si>
+  <si>
+    <t>commanding a spaceship</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>Boba Fett</t>
+  </si>
+  <si>
+    <t>tracking down fugitives</t>
+  </si>
+  <si>
+    <t>Jerry Seinfeld</t>
+  </si>
+  <si>
+    <t>starring in sit-coms</t>
+  </si>
+  <si>
+    <t>CS+DS</t>
+  </si>
+  <si>
+    <t>Yogi Berra</t>
+  </si>
+  <si>
+    <t>playing baseball</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>Alan Partridge</t>
+  </si>
+  <si>
+    <t>hosting radio shows</t>
+  </si>
+  <si>
+    <t>David Letterman</t>
+  </si>
+  <si>
+    <t>hosting a late night chat show</t>
+  </si>
+  <si>
+    <t>Ariel Sharon</t>
+  </si>
+  <si>
+    <t>building giant walls</t>
+  </si>
+  <si>
+    <t>Mother Teresa</t>
+  </si>
+  <si>
+    <t>giving to the poor</t>
+  </si>
+  <si>
+    <t>Jonathan Swift</t>
+  </si>
+  <si>
+    <t>writing political satires</t>
+  </si>
+  <si>
+    <t>Moses</t>
+  </si>
+  <si>
+    <t>leading an exodus</t>
+  </si>
+  <si>
+    <t>Joan of Arc</t>
+  </si>
+  <si>
+    <t>leading armies into battle</t>
+  </si>
+  <si>
+    <t>Sun Tzu</t>
+  </si>
+  <si>
+    <t>developing military strategies</t>
+  </si>
+  <si>
+    <t>Harry Potter</t>
+  </si>
+  <si>
+    <t>playing quidditch</t>
+  </si>
+  <si>
+    <t>Anthony Bourdain</t>
+  </si>
+  <si>
+    <t>eating exotic foods</t>
+  </si>
+  <si>
+    <t>Morty Smith</t>
+  </si>
+  <si>
+    <t>spying on girls</t>
+  </si>
+  <si>
+    <t>John McClane</t>
+  </si>
+  <si>
+    <t>foiling the schemes of evil villains</t>
+  </si>
+  <si>
+    <t>Commander Data</t>
+  </si>
+  <si>
+    <t>promoting logical thinking</t>
+  </si>
+  <si>
+    <t>Silvio Berlusconi</t>
+  </si>
+  <si>
+    <t>throwing Bunga Bunga parties</t>
+  </si>
+  <si>
+    <t>Auric Goldfinger</t>
+  </si>
+  <si>
+    <t>devising evil schemes</t>
+  </si>
+  <si>
+    <t>Bruce Banner</t>
+  </si>
+  <si>
+    <t>flying into a rage</t>
+  </si>
+  <si>
+    <t>Mike  Pence</t>
+  </si>
+  <si>
+    <t>promoting conservative values</t>
+  </si>
+  <si>
+    <t>Ludwig Van Beethoven</t>
+  </si>
+  <si>
+    <t>composing classical music</t>
+  </si>
+  <si>
+    <t>Eddie Van Halen</t>
+  </si>
+  <si>
+    <t>playing rock guitar</t>
+  </si>
+  <si>
+    <t>Friedrich Nietzsche</t>
+  </si>
+  <si>
+    <t>spreading philosophy</t>
+  </si>
+  <si>
+    <t>Jay Gatsby</t>
+  </si>
+  <si>
+    <t>throwing lavish parties</t>
+  </si>
+  <si>
+    <t>Charles Atlas</t>
+  </si>
+  <si>
+    <t>bodybuilding</t>
+  </si>
+  <si>
+    <t>Tony Montana</t>
+  </si>
+  <si>
+    <t>running a crime family</t>
+  </si>
+  <si>
+    <t>Dr. Evil</t>
+  </si>
+  <si>
+    <t>demanding ransoms from the U.N.</t>
+  </si>
+  <si>
+    <t>Ronald McDonald</t>
+  </si>
+  <si>
+    <t>flipping hamburgers</t>
+  </si>
+  <si>
+    <t>rescuing hostages</t>
+  </si>
+  <si>
+    <t>Harry S. Truman</t>
+  </si>
+  <si>
+    <t>wielding political power</t>
+  </si>
+  <si>
+    <t>Conan the Barbarian</t>
+  </si>
+  <si>
+    <t>fighting barbarian hordes</t>
+  </si>
+  <si>
+    <t>Daffy Duck</t>
+  </si>
+  <si>
+    <t>spitting while speaking</t>
+  </si>
+  <si>
+    <t>Mr. Bean</t>
+  </si>
+  <si>
+    <t>causing mayhem</t>
+  </si>
+  <si>
+    <t>Emily Dickinson</t>
+  </si>
+  <si>
+    <t>writing poetry</t>
+  </si>
+  <si>
+    <t>George McFly</t>
+  </si>
+  <si>
+    <t>standing up to bullies</t>
+  </si>
+  <si>
+    <t>Boy George</t>
+  </si>
+  <si>
+    <t>singing pop songs</t>
+  </si>
+  <si>
+    <t>O.J. Simpson</t>
+  </si>
+  <si>
+    <t>shilling for rental car companies</t>
+  </si>
+  <si>
+    <t>Optimus Prime</t>
+  </si>
+  <si>
+    <t>transforming into vehicles</t>
+  </si>
+  <si>
+    <t>Flash Gordon</t>
+  </si>
+  <si>
+    <t>fighting for justice</t>
+  </si>
+  <si>
+    <t>Ron Burgundy</t>
+  </si>
+  <si>
+    <t>maintaining salon-quality hair</t>
+  </si>
+  <si>
+    <t>Usain Bolt</t>
+  </si>
+  <si>
+    <t>running races</t>
+  </si>
+  <si>
+    <t>Jerry Springer</t>
+  </si>
+  <si>
+    <t>hosting reality TV shows</t>
+  </si>
+  <si>
+    <t>Kim Jong-Il</t>
+  </si>
+  <si>
+    <t>amassing nuclear weapons</t>
+  </si>
+  <si>
+    <t>Commissioner James Gordon</t>
+  </si>
+  <si>
+    <t>pursuing criminals</t>
+  </si>
+  <si>
+    <t>Roseanne Barr</t>
+  </si>
+  <si>
+    <t>making vulgar jokes</t>
+  </si>
+  <si>
+    <t>promoting Catholic values</t>
+  </si>
+  <si>
+    <t>Gustavo Fring</t>
+  </si>
+  <si>
+    <t>selling fried chicken</t>
+  </si>
+  <si>
+    <t>Popeye</t>
+  </si>
+  <si>
+    <t>promoting healthy eating</t>
+  </si>
+  <si>
+    <t>Hercule Poirot</t>
+  </si>
+  <si>
+    <t>tricking criminals</t>
+  </si>
+  <si>
+    <t>Diana Ross</t>
+  </si>
+  <si>
+    <t>Tom Sawyer</t>
+  </si>
+  <si>
+    <t>solving mysteries</t>
+  </si>
+  <si>
+    <t>Tiny Tim Cratchit</t>
+  </si>
+  <si>
+    <t>offering blessings</t>
+  </si>
+  <si>
+    <t>Piers Morgan</t>
+  </si>
+  <si>
+    <t>interviewing celebrities</t>
+  </si>
+  <si>
+    <t>Tarzan</t>
+  </si>
+  <si>
+    <t>swinging from tree to tree</t>
+  </si>
+  <si>
+    <t>Tim Burton</t>
+  </si>
+  <si>
+    <t>making bizarre movies</t>
+  </si>
+  <si>
+    <t>Dr. Strangelove</t>
+  </si>
+  <si>
+    <t>pushing the hardline</t>
+  </si>
+  <si>
+    <t>Richie Rich</t>
+  </si>
+  <si>
+    <t>squandering money</t>
+  </si>
+  <si>
+    <t>Pocahontas</t>
+  </si>
+  <si>
+    <t>bridging cultures</t>
+  </si>
+  <si>
+    <t>Beyoncé</t>
+  </si>
+  <si>
+    <t>singing Hipbop songs</t>
+  </si>
+  <si>
+    <t>The Artful Dodger</t>
+  </si>
+  <si>
+    <t>picking pockets</t>
+  </si>
+  <si>
+    <t>Benito Mussolini</t>
+  </si>
+  <si>
+    <t>making trains run on time</t>
+  </si>
+  <si>
+    <t>Lars von Trier</t>
+  </si>
+  <si>
+    <t>making new wave movies</t>
+  </si>
+  <si>
+    <t>Saul Goodman</t>
+  </si>
+  <si>
+    <t>bending the law</t>
+  </si>
+  <si>
+    <t>Mr. Miyagi</t>
+  </si>
+  <si>
+    <t>teaching martial arts</t>
+  </si>
+  <si>
+    <t>Dan Quayle</t>
+  </si>
+  <si>
+    <t>campaigning for the senate</t>
+  </si>
+  <si>
+    <t>Ed Wood</t>
+  </si>
+  <si>
+    <t>directing science fiction movies</t>
+  </si>
+  <si>
+    <t>Marie Curie</t>
+  </si>
+  <si>
+    <t>extracting Radium from pitchblend</t>
+  </si>
+  <si>
+    <t>Waylon Smithers</t>
+  </si>
+  <si>
+    <t>fawning on the boss</t>
+  </si>
+  <si>
+    <t>Larry Flynt</t>
+  </si>
+  <si>
+    <t>publishing soft pornography</t>
+  </si>
+  <si>
+    <t>Biff Tannen</t>
+  </si>
+  <si>
+    <t>giving noogies</t>
+  </si>
+  <si>
+    <t>Jimmy Stewart</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Jackson Pollock</t>
+  </si>
+  <si>
+    <t>painting abstract paintings</t>
+  </si>
+  <si>
+    <t>Tupac Shakur</t>
+  </si>
+  <si>
+    <t>writing rap songs</t>
+  </si>
+  <si>
+    <t>Samwise Gamgee</t>
+  </si>
+  <si>
+    <t>cooking a rabbit stew</t>
+  </si>
+  <si>
+    <t>playing everyman characters</t>
+  </si>
+  <si>
+    <t>Frank Gehry</t>
+  </si>
+  <si>
+    <t>designing modern buildings</t>
+  </si>
+  <si>
+    <t>Jared Kushner</t>
+  </si>
+  <si>
+    <t>running a business empire</t>
+  </si>
+  <si>
+    <t>P. T. Barnum</t>
+  </si>
+  <si>
+    <t>promoting circus attractions</t>
+  </si>
+  <si>
+    <t>Rick Sanchez</t>
+  </si>
+  <si>
+    <t>pioneering new technologies</t>
+  </si>
+  <si>
+    <t>Amy Winehouse</t>
+  </si>
+  <si>
+    <t>singing jazz songs</t>
+  </si>
+  <si>
+    <t>Carrie Bradshaw</t>
+  </si>
+  <si>
+    <t>shopping for shoes</t>
+  </si>
+  <si>
+    <t>Charlie Chaplin</t>
+  </si>
+  <si>
+    <t>rescuing kids</t>
+  </si>
+  <si>
+    <t>Norma Desmond</t>
+  </si>
+  <si>
+    <t>seducing toy boys</t>
+  </si>
+  <si>
+    <t>crushing dissent</t>
+  </si>
+  <si>
+    <t>Theodore Roosevelt</t>
+  </si>
+  <si>
+    <t>pushing anti-trust legislation</t>
+  </si>
+  <si>
+    <t>Edward Cullen</t>
+  </si>
+  <si>
+    <t>sucking blood</t>
+  </si>
+  <si>
+    <t>Bertie Wooster</t>
+  </si>
+  <si>
+    <t>playing the piano</t>
+  </si>
+  <si>
+    <t>Louis Armstrong</t>
+  </si>
+  <si>
+    <t>playing the trumpet</t>
+  </si>
+  <si>
+    <t>James Joyce</t>
+  </si>
+  <si>
+    <t>writing modern fiction</t>
+  </si>
+  <si>
+    <t>Elizabeth Taylor</t>
+  </si>
+  <si>
+    <t>racking up marriages</t>
+  </si>
+  <si>
+    <t>Willy Wonka</t>
+  </si>
+  <si>
+    <t>Marco Pierre White</t>
+  </si>
+  <si>
+    <t>selling stock cubes</t>
+  </si>
+  <si>
+    <t>Hulk Hogan</t>
+  </si>
+  <si>
+    <t>pretending to fight</t>
+  </si>
+  <si>
+    <t>Martin Luther</t>
+  </si>
+  <si>
+    <t>recruiting dissidents</t>
+  </si>
+  <si>
+    <t>Al Bundy</t>
+  </si>
+  <si>
+    <t>watching TV</t>
+  </si>
+  <si>
+    <t>issuing threats</t>
+  </si>
+  <si>
+    <t>Zac Efron</t>
+  </si>
+  <si>
+    <t>Sinead O'Connor</t>
+  </si>
+  <si>
+    <t>Nurse Ratched</t>
+  </si>
+  <si>
+    <t>terrorizing employees</t>
+  </si>
+  <si>
+    <t>Dr. Greg House</t>
+  </si>
+  <si>
+    <t>interpreting evidence</t>
+  </si>
+  <si>
+    <t>Fredo Corleone</t>
+  </si>
+  <si>
+    <t>disappointing the family</t>
+  </si>
+  <si>
+    <t>Emma Bovary</t>
+  </si>
+  <si>
+    <t>climbing social ladders</t>
+  </si>
+  <si>
+    <t>bursting out of shirts</t>
+  </si>
+  <si>
+    <t>Mr. Spock</t>
+  </si>
+  <si>
+    <t>Quasimodo</t>
+  </si>
+  <si>
+    <t>carving magnificent statues</t>
+  </si>
+  <si>
+    <t>Perry Mason</t>
+  </si>
+  <si>
+    <t>defending the innocent</t>
+  </si>
+  <si>
+    <t>Pope Francis</t>
+  </si>
+  <si>
+    <t>Jenna Maroney</t>
+  </si>
+  <si>
+    <t>singing on TV shows</t>
+  </si>
+  <si>
+    <t>Charlemagne</t>
+  </si>
+  <si>
+    <t>consolidating an empire</t>
+  </si>
+  <si>
+    <t>interviewing politicians</t>
+  </si>
+  <si>
+    <t>Dian Fossey</t>
+  </si>
+  <si>
+    <t>studying gorillas up close</t>
+  </si>
+  <si>
+    <t>Willie Nelson</t>
+  </si>
+  <si>
+    <t>singing country music</t>
+  </si>
+  <si>
+    <t>Derek Zoolander</t>
+  </si>
+  <si>
+    <t>peacocking in fancy clothes</t>
+  </si>
+  <si>
+    <t>Emperor Caligula</t>
+  </si>
+  <si>
+    <t>terrorizing citizens</t>
+  </si>
+  <si>
+    <t>Michael Moore</t>
+  </si>
+  <si>
+    <t>complaining about capitalism</t>
+  </si>
+  <si>
+    <t>Daniel Craig</t>
+  </si>
+  <si>
+    <t>starring in action movies</t>
+  </si>
+  <si>
+    <t>Helen of Troy</t>
+  </si>
+  <si>
+    <t>worrying about adultery</t>
+  </si>
+  <si>
+    <t>Daenerys Targaryen</t>
+  </si>
+  <si>
+    <t>ruling over subjects</t>
+  </si>
+  <si>
+    <t>Dean Winchester</t>
+  </si>
+  <si>
+    <t>eating bacon cheeseburgers</t>
+  </si>
+  <si>
+    <t>Tess Durbeyfield</t>
+  </si>
+  <si>
+    <t>Confucius</t>
+  </si>
+  <si>
+    <t>teaching the next generation</t>
+  </si>
+  <si>
+    <t>dreaming of yesteryear</t>
+  </si>
+  <si>
+    <t>Chris Rock</t>
+  </si>
+  <si>
+    <t>cross-dressing in women's clothes</t>
+  </si>
+  <si>
+    <t>Margaret Thatcher</t>
+  </si>
+  <si>
+    <t>ranting about liberals</t>
+  </si>
+  <si>
+    <t>Jimmy Cagney</t>
+  </si>
+  <si>
+    <t>playing tough guys</t>
+  </si>
+  <si>
+    <t>Billy Bob Thornton</t>
+  </si>
+  <si>
+    <t>playing intense characters</t>
+  </si>
+  <si>
+    <t>Walt Disney</t>
+  </si>
+  <si>
+    <t>running a media empire</t>
+  </si>
+  <si>
+    <t>Jeremy Paxman</t>
+  </si>
+  <si>
+    <t>posing pointed questions</t>
+  </si>
+  <si>
+    <t>saying grace</t>
+  </si>
+  <si>
+    <t>Pamela Anderson</t>
+  </si>
+  <si>
+    <t>monetizing physical assets</t>
+  </si>
+  <si>
+    <t>Elton John</t>
+  </si>
+  <si>
+    <t>Richard Wagner</t>
+  </si>
+  <si>
+    <t>Garry Trudeau</t>
+  </si>
+  <si>
+    <t>drawing political cartoons</t>
+  </si>
+  <si>
+    <t>studying magic tricks</t>
+  </si>
+  <si>
+    <t>Karen Carpenter</t>
+  </si>
+  <si>
+    <t>playing drums</t>
+  </si>
+  <si>
+    <t>J. Edgar Hoover</t>
+  </si>
+  <si>
+    <t>ordering wire-taps</t>
+  </si>
+  <si>
+    <t>Hedda Gabler</t>
+  </si>
+  <si>
+    <t>frowning at errant husbands</t>
+  </si>
+  <si>
+    <t>Lord Percy Percy</t>
+  </si>
+  <si>
+    <t>flaunting foppish fashions</t>
+  </si>
+  <si>
+    <t>Frida Kahlo</t>
+  </si>
+  <si>
+    <t>painting colorful pictures</t>
+  </si>
+  <si>
+    <t>Lord Voldemort</t>
+  </si>
+  <si>
+    <t>meddling in the dark arts</t>
+  </si>
+  <si>
+    <t>Richard Branson</t>
+  </si>
+  <si>
+    <t>selling airline seats</t>
+  </si>
+  <si>
+    <t>Carl Sagan</t>
+  </si>
+  <si>
+    <t>studying the cosmos</t>
+  </si>
+  <si>
+    <t>Shylock</t>
+  </si>
+  <si>
+    <t>seeking revenge</t>
+  </si>
+  <si>
+    <t>Louis Pasteur</t>
+  </si>
+  <si>
+    <t>studying science</t>
+  </si>
+  <si>
+    <t>JD Salinger</t>
+  </si>
+  <si>
+    <t>eluding the public gaze</t>
+  </si>
+  <si>
+    <t>dripping paint onto canvas</t>
+  </si>
+  <si>
+    <t>Heath Ledger</t>
+  </si>
+  <si>
+    <t>Robin Williams</t>
+  </si>
+  <si>
+    <t>making madcap comedies</t>
+  </si>
+  <si>
+    <t>George Clooney</t>
+  </si>
+  <si>
+    <t>starring in indy movies</t>
+  </si>
+  <si>
+    <t>Leon Trotsky</t>
+  </si>
+  <si>
+    <t>spreading revolution</t>
+  </si>
+  <si>
+    <t>Virginia Woolf</t>
+  </si>
+  <si>
+    <t>writing pop songs</t>
+  </si>
+  <si>
+    <t>Emperor Palpatine</t>
+  </si>
+  <si>
+    <t>running an empire</t>
+  </si>
+  <si>
+    <t>Princess Leia Organa</t>
+  </si>
+  <si>
+    <t>leading the rebel alliance</t>
+  </si>
+  <si>
+    <t>Romeo Montague</t>
+  </si>
+  <si>
+    <t>falling in love</t>
+  </si>
+  <si>
+    <t>King Richard III</t>
+  </si>
+  <si>
+    <t>amassing wealth</t>
+  </si>
+  <si>
+    <t>Nostradamus</t>
+  </si>
+  <si>
+    <t>making vague predictions</t>
+  </si>
+  <si>
+    <t>Tom Cruise</t>
+  </si>
+  <si>
+    <t>promoting Scientology</t>
+  </si>
+  <si>
+    <t>Hedda Hopper</t>
+  </si>
+  <si>
+    <t>spreading political gossip</t>
+  </si>
+  <si>
+    <t>Adolf Eichmann</t>
+  </si>
+  <si>
+    <t>running a criminal enterprise</t>
+  </si>
+  <si>
+    <t>Violet Baudelaire</t>
+  </si>
+  <si>
+    <t>painting self-portraits</t>
+  </si>
+  <si>
+    <t>Niles Crane</t>
+  </si>
+  <si>
+    <t>nurturing sibling rivalry</t>
+  </si>
+  <si>
+    <t>Osama Bin Laden</t>
+  </si>
+  <si>
+    <t>recruiting disaffected youths</t>
+  </si>
+  <si>
+    <t>John F. Kennedy</t>
+  </si>
+  <si>
+    <t>chasing starlets</t>
+  </si>
+  <si>
+    <t>Linus Torvalds</t>
+  </si>
+  <si>
+    <t>promoting open-source software</t>
+  </si>
+  <si>
+    <t>Bono</t>
+  </si>
+  <si>
+    <t>singing rock songs</t>
+  </si>
+  <si>
+    <t>Kobe Bryant</t>
+  </si>
+  <si>
+    <t>playing basketball</t>
+  </si>
+  <si>
+    <t>Alfred Hitchcock</t>
+  </si>
+  <si>
+    <t>making suspense movies</t>
+  </si>
+  <si>
+    <t>Shrek</t>
+  </si>
+  <si>
+    <t>defending the weak</t>
+  </si>
+  <si>
+    <t>Scott Evil</t>
+  </si>
+  <si>
+    <t>squabbling on television</t>
+  </si>
+  <si>
+    <t>Andy Warhol</t>
+  </si>
+  <si>
+    <t>painting soup cans</t>
+  </si>
+  <si>
+    <t>Robert Mueller</t>
+  </si>
+  <si>
+    <t>chasing rabbits</t>
+  </si>
+  <si>
+    <t>Wolverine</t>
+  </si>
+  <si>
+    <t>punishing criminals</t>
+  </si>
+  <si>
+    <t>Noam Chomsky</t>
+  </si>
+  <si>
+    <t>arguing with political opponents</t>
+  </si>
+  <si>
+    <t>Judge Joe Dredd</t>
+  </si>
+  <si>
+    <t>tracking down criminals</t>
+  </si>
+  <si>
+    <t>Serena Williams</t>
+  </si>
+  <si>
+    <t>winning tennis tournaments</t>
+  </si>
+  <si>
+    <t>Dante Alighieri</t>
+  </si>
+  <si>
+    <t>Russell Crowe</t>
+  </si>
+  <si>
+    <t>Jeremy Clarkson</t>
+  </si>
+  <si>
+    <t>insulting minorities</t>
+  </si>
+  <si>
+    <t>selling chrystal meth</t>
+  </si>
+  <si>
+    <t>Michael Jackson</t>
+  </si>
+  <si>
+    <t>playing pop music</t>
+  </si>
+  <si>
+    <t>competing in the Olympics</t>
+  </si>
+  <si>
+    <t>Ryan Reynolds</t>
+  </si>
+  <si>
+    <t>making dumb comedies</t>
+  </si>
+  <si>
+    <t>Jesse Jackson</t>
+  </si>
+  <si>
+    <t>suing large corporations</t>
+  </si>
+  <si>
+    <t>Shirley Temple</t>
+  </si>
+  <si>
+    <t>Rocket Raccoon</t>
+  </si>
+  <si>
+    <t>guarding the galaxy</t>
+  </si>
+  <si>
+    <t>Abraham Lincoln</t>
+  </si>
+  <si>
+    <t>fighting civil wars</t>
+  </si>
+  <si>
+    <t>Monsieur Hulot</t>
+  </si>
+  <si>
+    <t>Che Guevara</t>
+  </si>
+  <si>
+    <t>Martha Stewart</t>
+  </si>
+  <si>
+    <t>cooking dinners</t>
+  </si>
+  <si>
+    <t>Donald Trump</t>
+  </si>
+  <si>
+    <t>Karl Marx</t>
+  </si>
+  <si>
+    <t>promoting communism</t>
+  </si>
+  <si>
+    <t>Robbie Williams</t>
+  </si>
+  <si>
+    <t>Savonarola</t>
+  </si>
+  <si>
+    <t>Julia Child</t>
+  </si>
+  <si>
+    <t>Stewie Griffin</t>
+  </si>
+  <si>
+    <t>developing new technologies</t>
+  </si>
+  <si>
+    <t>Chelsea Manning</t>
+  </si>
+  <si>
+    <t>leaking state secrets</t>
+  </si>
+  <si>
+    <t>Johannes Gutenberg</t>
+  </si>
+  <si>
+    <t>Bridget Jones</t>
+  </si>
+  <si>
+    <t>looking for love</t>
+  </si>
+  <si>
+    <t>Frasier Crane</t>
+  </si>
+  <si>
+    <t>probing the mind</t>
+  </si>
+  <si>
+    <t>Snake Plissken</t>
+  </si>
+  <si>
+    <t>organizing prison breaks</t>
+  </si>
+  <si>
+    <t>Stephen Hawking</t>
+  </si>
+  <si>
+    <t>Ashton Kutcher</t>
+  </si>
+  <si>
+    <t>Barney Stinson</t>
+  </si>
+  <si>
+    <t>promoting capitalism</t>
+  </si>
+  <si>
+    <t>King Henry VIII</t>
+  </si>
+  <si>
+    <t>trading in wives</t>
+  </si>
+  <si>
+    <t>George Harrison</t>
+  </si>
+  <si>
+    <t>Arthur Dent</t>
+  </si>
+  <si>
+    <t>making sandwiches</t>
+  </si>
+  <si>
+    <t>Tom Hanks</t>
+  </si>
+  <si>
+    <t>Del Boy Trotter</t>
+  </si>
+  <si>
+    <t>selling dodgy goods</t>
+  </si>
+  <si>
+    <t>Bob Belcher</t>
+  </si>
+  <si>
+    <t>Michael Bay</t>
+  </si>
+  <si>
+    <t>directing action movies</t>
+  </si>
+  <si>
+    <t>Fox Mulder</t>
+  </si>
+  <si>
+    <t>investigating alien abductions</t>
+  </si>
+  <si>
+    <t>Edmund Blackadder</t>
+  </si>
+  <si>
+    <t>promoting the Dark Side</t>
+  </si>
+  <si>
+    <t>Brian Griffin</t>
+  </si>
+  <si>
+    <t>ranting about conservatives</t>
+  </si>
+  <si>
+    <t>Nelson Muntz</t>
+  </si>
+  <si>
+    <t>stealing lunch money</t>
+  </si>
+  <si>
+    <t>Ella Fitzgerald</t>
+  </si>
+  <si>
+    <t>singing torch songs</t>
+  </si>
+  <si>
+    <t>Catwoman</t>
+  </si>
+  <si>
+    <t>stealing jewels</t>
+  </si>
+  <si>
+    <t>Lee Marvin</t>
+  </si>
+  <si>
+    <t>Lara Croft</t>
+  </si>
+  <si>
+    <t>digging for antiquities</t>
+  </si>
+  <si>
+    <t>Enrico Caruso</t>
+  </si>
+  <si>
+    <t>singing opera arias</t>
+  </si>
+  <si>
+    <t>keeping a diary</t>
+  </si>
+  <si>
+    <t>Anthony Scaramucci</t>
+  </si>
+  <si>
+    <t>Dana Scully</t>
+  </si>
+  <si>
+    <t>Harriet Tubman</t>
+  </si>
+  <si>
+    <t>fighting for civil rights</t>
+  </si>
+  <si>
+    <t>reading the news</t>
+  </si>
+  <si>
+    <t>making antisemitic remarks</t>
+  </si>
+  <si>
+    <t>John Belushi</t>
+  </si>
+  <si>
+    <t>starring in madcap comedies</t>
+  </si>
+  <si>
+    <t>Joe DiMaggio</t>
+  </si>
+  <si>
+    <t>Billie Holiday</t>
+  </si>
+  <si>
+    <t>Leroy Jethro Gibbs</t>
+  </si>
+  <si>
+    <t>postulating bizarre theories</t>
+  </si>
+  <si>
+    <t>Julius Caesar</t>
+  </si>
+  <si>
+    <t>Benedict Arnold</t>
+  </si>
+  <si>
+    <t>selling out</t>
+  </si>
+  <si>
+    <t>Eleanor Roosevelt</t>
+  </si>
+  <si>
+    <t>campaigning for social causes</t>
+  </si>
+  <si>
+    <t>Wile E. Coyote</t>
+  </si>
+  <si>
+    <t>testing new technologies</t>
+  </si>
+  <si>
+    <t>Sheldon Cooper</t>
+  </si>
+  <si>
+    <t>promoting science</t>
+  </si>
+  <si>
+    <t>Spartacus</t>
+  </si>
+  <si>
+    <t>fighting with swords</t>
+  </si>
+  <si>
+    <t>Johann Sebastian Bach</t>
+  </si>
+  <si>
+    <t>playing the organ</t>
+  </si>
+  <si>
+    <t>Robert Downey Jr.</t>
+  </si>
+  <si>
+    <t>making Superhero movies</t>
+  </si>
+  <si>
+    <t>Natasha Romanova</t>
+  </si>
+  <si>
+    <t>kicking ass</t>
+  </si>
+  <si>
+    <t>John Wayne</t>
+  </si>
+  <si>
+    <t>starring in war movies</t>
+  </si>
+  <si>
+    <t>Mel Brooks</t>
+  </si>
+  <si>
+    <t>directing comedies</t>
+  </si>
+  <si>
+    <t>planning adultery</t>
+  </si>
+  <si>
+    <t>diagnosing diseases</t>
+  </si>
+  <si>
+    <t>avoiding growing old</t>
+  </si>
+  <si>
+    <t>Gwyneth Paltrow</t>
+  </si>
+  <si>
+    <t>Sean Hannity</t>
+  </si>
+  <si>
+    <t>Sarah Palin</t>
+  </si>
+  <si>
+    <t>making political gaffes</t>
+  </si>
+  <si>
+    <t>Harry Houdini</t>
+  </si>
+  <si>
+    <t>escaping from handcuffs</t>
+  </si>
+  <si>
+    <t>Davy Crockett</t>
+  </si>
+  <si>
+    <t>defending freedom</t>
+  </si>
+  <si>
+    <t>feeding the poor</t>
+  </si>
+  <si>
+    <t>Bjork</t>
+  </si>
+  <si>
+    <t>Boris Johnson</t>
+  </si>
+  <si>
+    <t>engaging in hapless hijinks</t>
+  </si>
+  <si>
+    <t>Patch Adams</t>
+  </si>
+  <si>
+    <t>making sick people laugh</t>
+  </si>
+  <si>
+    <t>Bruce Wayne</t>
+  </si>
+  <si>
+    <t>maintaining a secret identity</t>
+  </si>
+  <si>
+    <t>Wayne Rooney</t>
+  </si>
+  <si>
+    <t>playing soccer</t>
+  </si>
+  <si>
+    <t>Cameron Diaz</t>
   </si>
   <si>
     <t>starring in romantic comedies</t>
   </si>
   <si>
-    <t>CS+DS</t>
-  </si>
-  <si>
-    <t>Louis Armstrong</t>
-  </si>
-  <si>
-    <t>singing jazz songs</t>
-  </si>
-  <si>
-    <t>The HamBurglar</t>
-  </si>
-  <si>
-    <t>stealing hamburgers</t>
-  </si>
-  <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t>Giacomo Casanova</t>
+    <t>Wilkins Micawber</t>
+  </si>
+  <si>
+    <t>incurring debts</t>
+  </si>
+  <si>
+    <t>Nikola Tesla</t>
+  </si>
+  <si>
+    <t>inventing electrical marvels</t>
+  </si>
+  <si>
+    <t>Ray Kroc</t>
+  </si>
+  <si>
+    <t>running a multinational corporation</t>
+  </si>
+  <si>
+    <t>Cardinal Richelieu</t>
+  </si>
+  <si>
+    <t>directing the business of state</t>
+  </si>
+  <si>
+    <t>Tom Ripley</t>
+  </si>
+  <si>
+    <t>mangling idioms</t>
+  </si>
+  <si>
+    <t>Tim Berners-Lee</t>
+  </si>
+  <si>
+    <t>promoting the Web</t>
+  </si>
+  <si>
+    <t>John Travolta</t>
+  </si>
+  <si>
+    <t>playing camp villains</t>
+  </si>
+  <si>
+    <t>Lisa Simpson</t>
+  </si>
+  <si>
+    <t>playing the saxophone</t>
+  </si>
+  <si>
+    <t>Mrs. Doubtfire</t>
+  </si>
+  <si>
+    <t>performing household chores</t>
+  </si>
+  <si>
+    <t>Euclid</t>
+  </si>
+  <si>
+    <t>studying mathematics</t>
+  </si>
+  <si>
+    <t>Offred</t>
+  </si>
+  <si>
+    <t>Noël Coward</t>
+  </si>
+  <si>
+    <t>writing plays</t>
+  </si>
+  <si>
+    <t>Stanley Kowalski</t>
+  </si>
+  <si>
+    <t>moaning about women</t>
+  </si>
+  <si>
+    <t>Buck Rogers</t>
+  </si>
+  <si>
+    <t>surviving in the 25th century</t>
+  </si>
+  <si>
+    <t>Frank Zappa</t>
+  </si>
+  <si>
+    <t>writing experimental songs</t>
+  </si>
+  <si>
+    <t>Bob Marley</t>
+  </si>
+  <si>
+    <t>singing reggae songs</t>
+  </si>
+  <si>
+    <t>Carl Bernstein</t>
+  </si>
+  <si>
+    <t>reporting the news</t>
+  </si>
+  <si>
+    <t>planting daffodils</t>
+  </si>
+  <si>
+    <t>Marty McFly</t>
+  </si>
+  <si>
+    <t>Kurt Vonnegut</t>
+  </si>
+  <si>
+    <t>writing science fiction</t>
+  </si>
+  <si>
+    <t>Inspector Jacques Clouseau</t>
+  </si>
+  <si>
+    <t>Leonard Cohen</t>
+  </si>
+  <si>
+    <t>singing melancholy songs</t>
   </si>
   <si>
     <t>womanizing</t>
   </si>
   <si>
-    <t>Charlie Harper</t>
-  </si>
-  <si>
-    <t>seducing young women</t>
-  </si>
-  <si>
-    <t>Mad Max Rockatansky</t>
-  </si>
-  <si>
-    <t>surviving in a post-apocalyptic world</t>
-  </si>
-  <si>
-    <t>Larry Flynt</t>
-  </si>
-  <si>
-    <t>publishing soft pornography</t>
-  </si>
-  <si>
-    <t>Melania Trump</t>
-  </si>
-  <si>
-    <t>posing for photographs</t>
-  </si>
-  <si>
-    <t>Lord Byron</t>
-  </si>
-  <si>
-    <t>writing romantic poetry</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>Bugs Bunny</t>
-  </si>
-  <si>
-    <t>pulling pranks</t>
-  </si>
-  <si>
-    <t>Jack Donaghy</t>
-  </si>
-  <si>
-    <t>running a business empire</t>
-  </si>
-  <si>
-    <t>Selena Gomez</t>
-  </si>
-  <si>
-    <t>singing pop songs</t>
-  </si>
-  <si>
-    <t>Stanley Kowalski</t>
-  </si>
-  <si>
-    <t>moaning about women</t>
-  </si>
-  <si>
-    <t>Zsa Zsa Gabor</t>
-  </si>
-  <si>
-    <t>divorcing husbands</t>
-  </si>
-  <si>
-    <t>Hedda Hopper</t>
-  </si>
-  <si>
-    <t>spreading political gossip</t>
-  </si>
-  <si>
-    <t>Ringo Starr</t>
-  </si>
-  <si>
-    <t>writing pop songs</t>
-  </si>
-  <si>
-    <t>Marge Simpson</t>
-  </si>
-  <si>
-    <t>raising a family</t>
-  </si>
-  <si>
-    <t>Richard Branson</t>
-  </si>
-  <si>
-    <t>running a multinational corporation</t>
-  </si>
-  <si>
-    <t>Fred Astaire</t>
-  </si>
-  <si>
-    <t>starring in musical comedies</t>
-  </si>
-  <si>
-    <t>Jeff "Comic Book Guy" Albertson</t>
-  </si>
-  <si>
-    <t>spouting movie trivia</t>
-  </si>
-  <si>
-    <t>Lisa Simpson</t>
-  </si>
-  <si>
-    <t>playing the saxophone</t>
-  </si>
-  <si>
-    <t>Bob Marley</t>
-  </si>
-  <si>
-    <t>singing reggae songs</t>
-  </si>
-  <si>
-    <t>Tupac Shakur</t>
-  </si>
-  <si>
-    <t>singing Hipbop songs</t>
-  </si>
-  <si>
-    <t>Marc Jacobs</t>
-  </si>
-  <si>
-    <t>designing clothes</t>
-  </si>
-  <si>
-    <t>Nikola Tesla</t>
-  </si>
-  <si>
-    <t>inventing electrical marvels</t>
-  </si>
-  <si>
-    <t>Maximus Decimus Meridius</t>
-  </si>
-  <si>
-    <t>killing rival gladiators</t>
-  </si>
-  <si>
-    <t>Eleanor Rigby</t>
-  </si>
-  <si>
-    <t>performing household chores</t>
-  </si>
-  <si>
-    <t>Kurt Cobain</t>
-  </si>
-  <si>
-    <t>moaning about life</t>
-  </si>
-  <si>
-    <t>King Henry VIII</t>
-  </si>
-  <si>
-    <t>trading in wives</t>
-  </si>
-  <si>
-    <t>Simon Cowell</t>
-  </si>
-  <si>
-    <t>starring in reality TV shows</t>
-  </si>
-  <si>
-    <t>O.J. Simpson</t>
-  </si>
-  <si>
-    <t>shilling for rental car companies</t>
-  </si>
-  <si>
-    <t>Mr. Spock</t>
-  </si>
-  <si>
-    <t>promoting logical thinking</t>
-  </si>
-  <si>
-    <t>Matt "Daredevil" Murdock</t>
-  </si>
-  <si>
-    <t>maintaining a secret identity</t>
-  </si>
-  <si>
-    <t>Jackie Chan</t>
-  </si>
-  <si>
-    <t>starring in action movies</t>
-  </si>
-  <si>
-    <t>Brian Griffin</t>
-  </si>
-  <si>
-    <t>ranting about conservatives</t>
-  </si>
-  <si>
-    <t>Frank Sinatra</t>
-  </si>
-  <si>
-    <t>recording pop songs</t>
-  </si>
-  <si>
-    <t>Agent Smith</t>
-  </si>
-  <si>
-    <t>fighting the resistance</t>
-  </si>
-  <si>
-    <t>Dexter Morgan</t>
-  </si>
-  <si>
-    <t>analyzing murder scenes</t>
-  </si>
-  <si>
-    <t>Elton John</t>
-  </si>
-  <si>
-    <t>shopping for shoes</t>
-  </si>
-  <si>
-    <t>Scarlett O'Hara</t>
-  </si>
-  <si>
-    <t>attending cotillion balls</t>
-  </si>
-  <si>
-    <t>collecting alimony</t>
-  </si>
-  <si>
-    <t>Edward Scissorhands</t>
-  </si>
-  <si>
-    <t>making ice sculptures</t>
-  </si>
-  <si>
-    <t>Fidel Castro</t>
-  </si>
-  <si>
-    <t>promoting socialism</t>
-  </si>
-  <si>
-    <t>Marco Pierre White</t>
-  </si>
-  <si>
-    <t>cooking dinners</t>
+    <t>Whitney Houston</t>
+  </si>
+  <si>
+    <t>Stephen Jay Gould</t>
+  </si>
+  <si>
+    <t>collecting fossils</t>
+  </si>
+  <si>
+    <t>Donald Duck</t>
+  </si>
+  <si>
+    <t>eating Peking duck</t>
+  </si>
+  <si>
+    <t>Pablo Picasso</t>
+  </si>
+  <si>
+    <t>painting abstract pictures</t>
+  </si>
+  <si>
+    <t>Justin Timberlake</t>
+  </si>
+  <si>
+    <t>singing to teenagers</t>
+  </si>
+  <si>
+    <t>John Merrick</t>
+  </si>
+  <si>
+    <t>working in a freak show</t>
+  </si>
+  <si>
+    <t>solving crimes</t>
+  </si>
+  <si>
+    <t>Jeff Bezos</t>
+  </si>
+  <si>
+    <t>Holly Golightly</t>
+  </si>
+  <si>
+    <t>LeBron James</t>
+  </si>
+  <si>
+    <t>making dunk shots</t>
+  </si>
+  <si>
+    <t>R2D2</t>
+  </si>
+  <si>
+    <t>eluding imperial storm-troopers</t>
+  </si>
+  <si>
+    <t>Anne Frank</t>
+  </si>
+  <si>
+    <t>running a kingdom</t>
+  </si>
+  <si>
+    <t>Galileo Galilei</t>
+  </si>
+  <si>
+    <t>promoting Heliocentrism</t>
+  </si>
+  <si>
+    <t>going on commando missions</t>
+  </si>
+  <si>
+    <t>Jar Jar Binks</t>
+  </si>
+  <si>
+    <t>providing comic relief</t>
+  </si>
+  <si>
+    <t>Professor Hans Zarkov</t>
+  </si>
+  <si>
+    <t>building rocket ships</t>
+  </si>
+  <si>
+    <t>Federico Fellini</t>
+  </si>
+  <si>
+    <t>Sonny Crockett</t>
+  </si>
+  <si>
+    <t>arresting drug dealers</t>
+  </si>
+  <si>
+    <t>chasing flappers</t>
+  </si>
+  <si>
+    <t>Tyra Banks</t>
+  </si>
+  <si>
+    <t>modeling clothes</t>
+  </si>
+  <si>
+    <t>Roy Batty</t>
+  </si>
+  <si>
+    <t>avoiding retirement</t>
+  </si>
+  <si>
+    <t>Paul McCartney</t>
+  </si>
+  <si>
+    <t>Judge Judy Sheindlin</t>
+  </si>
+  <si>
+    <t>delivering judgments</t>
+  </si>
+  <si>
+    <t>Britney Spears</t>
+  </si>
+  <si>
+    <t>flirting with rednecks</t>
+  </si>
+  <si>
+    <t>Grigori Rasputin</t>
+  </si>
+  <si>
+    <t>Pyotr Ilyich Tchaikovsky</t>
+  </si>
+  <si>
+    <t>Albert Einstein</t>
+  </si>
+  <si>
+    <t>revolutionizing physics</t>
+  </si>
+  <si>
+    <t>Becky Sharp</t>
+  </si>
+  <si>
+    <t>John Calvin</t>
+  </si>
+  <si>
+    <t>John Lennon</t>
+  </si>
+  <si>
+    <t>Michael J. Fox</t>
+  </si>
+  <si>
+    <t>throwing fund-raisers for Parkinson's disease</t>
+  </si>
+  <si>
+    <t>Dorothy Parker</t>
+  </si>
+  <si>
+    <t>writing for the New Yorker</t>
+  </si>
+  <si>
+    <t>Beetlejuice</t>
+  </si>
+  <si>
+    <t>practicing the Occult</t>
+  </si>
+  <si>
+    <t>Napoleon Solo</t>
+  </si>
+  <si>
+    <t>rescuing damsels in distress</t>
+  </si>
+  <si>
+    <t>John McCain</t>
+  </si>
+  <si>
+    <t>campaigning for the presidency</t>
+  </si>
+  <si>
+    <t>Gianni Versace</t>
+  </si>
+  <si>
+    <t>Jack Kerouac</t>
+  </si>
+  <si>
+    <t>driving around America</t>
+  </si>
+  <si>
+    <t>making unauthorized sex tapes</t>
+  </si>
+  <si>
+    <t>spying for the enemy</t>
+  </si>
+  <si>
+    <t>Kylo Ren</t>
+  </si>
+  <si>
+    <t>duelling acrobatically</t>
+  </si>
+  <si>
+    <t>George Smiley</t>
+  </si>
+  <si>
+    <t>rooting out moles</t>
+  </si>
+  <si>
+    <t>Sir Hugo Drax</t>
+  </si>
+  <si>
+    <t>escaping from water tanks</t>
+  </si>
+  <si>
+    <t>Lou Reed</t>
+  </si>
+  <si>
+    <t>Lance Armstrong</t>
+  </si>
+  <si>
+    <t>pedalling furiously</t>
+  </si>
+  <si>
+    <t>Doris Day</t>
+  </si>
+  <si>
+    <t>looking for immortality</t>
+  </si>
+  <si>
+    <t>plotting terrorist outrages</t>
+  </si>
+  <si>
+    <t>Stan Lee</t>
+  </si>
+  <si>
+    <t>inventing superheroes</t>
+  </si>
+  <si>
+    <t>Professor James Moriarty</t>
+  </si>
+  <si>
+    <t>amassing ill-gotten wealth</t>
+  </si>
+  <si>
+    <t>Ted Cruz</t>
+  </si>
+  <si>
+    <t>Nick Fury</t>
+  </si>
+  <si>
+    <t>running a clandestine spy organization</t>
+  </si>
+  <si>
+    <t>Nigella Lawson</t>
+  </si>
+  <si>
+    <t>Bradley Manning</t>
+  </si>
+  <si>
+    <t>Grace Kelly</t>
+  </si>
+  <si>
+    <t>making bad movies</t>
+  </si>
+  <si>
+    <t>Trinity</t>
+  </si>
+  <si>
+    <t>hacking into corporate mainframes</t>
+  </si>
+  <si>
+    <t>Kevin Spacey</t>
+  </si>
+  <si>
+    <t>Freddy Krueger</t>
+  </si>
+  <si>
+    <t>creating nightmares</t>
+  </si>
+  <si>
+    <t>David Lynch</t>
+  </si>
+  <si>
+    <t>directing weird movies</t>
   </si>
   <si>
     <t>Don Draper</t>
   </si>
   <si>
-    <t>creating adverts</t>
-  </si>
-  <si>
-    <t>Mr. Darcy</t>
-  </si>
-  <si>
-    <t>looking for love</t>
-  </si>
-  <si>
-    <t>Tracy Jordan</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Charles Darwin</t>
-  </si>
-  <si>
-    <t>explaining natural selection</t>
-  </si>
-  <si>
-    <t>Tom Hanks</t>
-  </si>
-  <si>
-    <t>Martin Luther King</t>
-  </si>
-  <si>
-    <t>promoting racial harmony</t>
-  </si>
-  <si>
-    <t>Robert E. Lee</t>
-  </si>
-  <si>
-    <t>developing military strategies</t>
-  </si>
-  <si>
-    <t>Muhammad Ali</t>
-  </si>
-  <si>
-    <t>knocking out opponents</t>
-  </si>
-  <si>
-    <t>Santa Claus</t>
-  </si>
-  <si>
-    <t>climbing down chimneys</t>
-  </si>
-  <si>
-    <t>Uri Geller</t>
-  </si>
-  <si>
-    <t>bending spoons</t>
-  </si>
-  <si>
-    <t>King Arthur</t>
-  </si>
-  <si>
-    <t>leading armies into battle</t>
-  </si>
-  <si>
-    <t>Don Quixote</t>
-  </si>
-  <si>
-    <t>tilting at windmills</t>
-  </si>
-  <si>
-    <t>Philip Marlowe</t>
-  </si>
-  <si>
-    <t>solving mysteries</t>
-  </si>
-  <si>
-    <t>Jeff Bezos</t>
-  </si>
-  <si>
-    <t>selling consumer goods</t>
-  </si>
-  <si>
-    <t>Stevie Wonder</t>
-  </si>
-  <si>
-    <t>Garry Trudeau</t>
-  </si>
-  <si>
-    <t>drawing political cartoons</t>
-  </si>
-  <si>
-    <t>Chuck Norris</t>
-  </si>
-  <si>
-    <t>Deepak Chopra</t>
-  </si>
-  <si>
-    <t>promoting Eastern philosophy</t>
-  </si>
-  <si>
-    <t>Niccolò Machiavelli</t>
-  </si>
-  <si>
-    <t>currying favour</t>
-  </si>
-  <si>
-    <t>Dalton Trumbo</t>
-  </si>
-  <si>
-    <t>writing compelling dialogue</t>
-  </si>
-  <si>
-    <t>Pete Sampras</t>
-  </si>
-  <si>
-    <t>winning tennis matches</t>
-  </si>
-  <si>
-    <t>Del Boy Trotter</t>
-  </si>
-  <si>
-    <t>selling dodgy goods</t>
-  </si>
-  <si>
-    <t>Dominique Strauss-Kahn</t>
-  </si>
-  <si>
-    <t>throwing sex parties</t>
-  </si>
-  <si>
-    <t>Novak Djokovic</t>
-  </si>
-  <si>
-    <t>winning tennis tournaments</t>
-  </si>
-  <si>
-    <t>Rick Sanchez</t>
-  </si>
-  <si>
-    <t>Queen Elizabeth I</t>
-  </si>
-  <si>
-    <t>ruling over subjects</t>
-  </si>
-  <si>
-    <t>Fred Flintstone</t>
-  </si>
-  <si>
-    <t>pedalling engine-less cars</t>
-  </si>
-  <si>
-    <t>Nigel Farage</t>
-  </si>
-  <si>
-    <t>promoting conservative values</t>
-  </si>
-  <si>
-    <t>Hercule Poirot</t>
-  </si>
-  <si>
-    <t>tricking criminals</t>
-  </si>
-  <si>
-    <t>Daniel Craig</t>
-  </si>
-  <si>
-    <t>Grace Hopper</t>
-  </si>
-  <si>
-    <t>pioneering new technologies</t>
-  </si>
-  <si>
-    <t>Ayn Rand</t>
-  </si>
-  <si>
-    <t>promoting Objectivism</t>
-  </si>
-  <si>
-    <t>Benjamin Franklin</t>
-  </si>
-  <si>
-    <t>testing scientific theories</t>
-  </si>
-  <si>
-    <t>Judy Garland</t>
-  </si>
-  <si>
-    <t>singing torch songs</t>
-  </si>
-  <si>
-    <t>Richie Rich</t>
-  </si>
-  <si>
-    <t>enjoying money</t>
-  </si>
-  <si>
-    <t>Oscar Wilde</t>
-  </si>
-  <si>
-    <t>scandalizing polite society</t>
-  </si>
-  <si>
-    <t>King Solomon</t>
-  </si>
-  <si>
-    <t>running a kingdom</t>
-  </si>
-  <si>
-    <t>Lando Calrissian</t>
-  </si>
-  <si>
-    <t>fighting for the rebel alliance</t>
-  </si>
-  <si>
-    <t>Amelia Earhart</t>
-  </si>
-  <si>
-    <t>flying airplanes</t>
-  </si>
-  <si>
-    <t>Edward Hopper</t>
-  </si>
-  <si>
-    <t>painting melancholy pictures</t>
-  </si>
-  <si>
-    <t>Shirley Temple</t>
-  </si>
-  <si>
-    <t>Al Pacino</t>
-  </si>
-  <si>
-    <t>shouting in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Taylor Swift</t>
-  </si>
-  <si>
-    <t>Tom Wolfe</t>
-  </si>
-  <si>
-    <t>writing serialized stories</t>
-  </si>
-  <si>
-    <t>Truman Capote</t>
-  </si>
-  <si>
-    <t>coining sparkling witticisms</t>
-  </si>
-  <si>
-    <t>Selma Bouvier</t>
-  </si>
-  <si>
-    <t>smoking Laramie Hi-Tars</t>
-  </si>
-  <si>
-    <t>Fredo Corleone</t>
-  </si>
-  <si>
-    <t>disappointing the family</t>
-  </si>
-  <si>
-    <t>starring in comedies</t>
-  </si>
-  <si>
-    <t>Socrates</t>
-  </si>
-  <si>
-    <t>teaching philosophy to future leaders</t>
-  </si>
-  <si>
-    <t>Fletcher Christian</t>
-  </si>
-  <si>
-    <t>undermining authority</t>
-  </si>
-  <si>
-    <t>Steve Guttenberg</t>
-  </si>
-  <si>
-    <t>getting plastic surgery</t>
-  </si>
-  <si>
-    <t>Sappho</t>
-  </si>
-  <si>
-    <t>writing poetry</t>
-  </si>
-  <si>
-    <t>Alfred Nobel</t>
-  </si>
-  <si>
-    <t>promoting pacifism</t>
-  </si>
-  <si>
-    <t>Ilya Kuryakin</t>
-  </si>
-  <si>
-    <t>foiling the schemes of evil villains</t>
-  </si>
-  <si>
-    <t>Patch Adams</t>
-  </si>
-  <si>
-    <t>treating the sick with jokes</t>
-  </si>
-  <si>
-    <t>Reginald Jeeves</t>
-  </si>
-  <si>
-    <t>rescuing aristocrats</t>
-  </si>
-  <si>
-    <t>Justin Timberlake</t>
-  </si>
-  <si>
-    <t>entertaining teenagers</t>
-  </si>
-  <si>
-    <t>Frank Lloyd Wright</t>
-  </si>
-  <si>
-    <t>designing modern buildings</t>
-  </si>
-  <si>
-    <t>Hamlet</t>
-  </si>
-  <si>
-    <t>avenging loved ones</t>
-  </si>
-  <si>
-    <t>Scott Evil</t>
-  </si>
-  <si>
-    <t>squabbling on television</t>
-  </si>
-  <si>
-    <t>Travis Bickle</t>
-  </si>
-  <si>
-    <t>talking to mirrors</t>
-  </si>
-  <si>
-    <t>Jimmy Stewart</t>
-  </si>
-  <si>
-    <t>playing everyman characters</t>
-  </si>
-  <si>
-    <t>Henry Ford</t>
-  </si>
-  <si>
-    <t>mass-producing cars</t>
-  </si>
-  <si>
-    <t>wooing potential brides</t>
-  </si>
-  <si>
-    <t>George Smiley</t>
-  </si>
-  <si>
-    <t>rooting out spies</t>
-  </si>
-  <si>
-    <t>Lars von Trier</t>
-  </si>
-  <si>
-    <t>making new wave movies</t>
-  </si>
-  <si>
-    <t>Blanche DuBois</t>
-  </si>
-  <si>
-    <t>moaning about men</t>
-  </si>
-  <si>
-    <t>Daffy Duck</t>
-  </si>
-  <si>
-    <t>spitting while speaking</t>
-  </si>
-  <si>
-    <t>John McCain</t>
-  </si>
-  <si>
-    <t>running for the senate</t>
-  </si>
-  <si>
-    <t>going on romantic quests</t>
-  </si>
-  <si>
-    <t>Yoda</t>
-  </si>
-  <si>
-    <t>fighting for the resistance</t>
-  </si>
-  <si>
-    <t>Karl Lagerfeld</t>
-  </si>
-  <si>
-    <t>Bill Cosby</t>
-  </si>
-  <si>
-    <t>telling affable jokes</t>
-  </si>
-  <si>
-    <t>Timothy McGee</t>
-  </si>
-  <si>
-    <t>interpreting evidence</t>
-  </si>
-  <si>
-    <t>selling comic books</t>
-  </si>
-  <si>
-    <t>Julia Child</t>
-  </si>
-  <si>
-    <t>Napoleon Bonaparte</t>
-  </si>
-  <si>
-    <t>winning battles</t>
-  </si>
-  <si>
-    <t>Superman</t>
-  </si>
-  <si>
-    <t>fighting for justice</t>
-  </si>
-  <si>
-    <t>George Michael</t>
-  </si>
-  <si>
-    <t>G. Gordon Liddy</t>
-  </si>
-  <si>
-    <t>ranting about liberals</t>
-  </si>
-  <si>
-    <t>Leonardo Da Vinci</t>
-  </si>
-  <si>
-    <t>developing new technologies</t>
-  </si>
-  <si>
-    <t>Waylon Smithers</t>
-  </si>
-  <si>
-    <t>Willie Nelson</t>
-  </si>
-  <si>
-    <t>singing country music</t>
-  </si>
-  <si>
-    <t>Robert Downey Jr.</t>
-  </si>
-  <si>
-    <t>making Superhero movies</t>
-  </si>
-  <si>
-    <t>Lizzy Bennet</t>
-  </si>
-  <si>
-    <t>disappointing suitors</t>
-  </si>
-  <si>
-    <t>Louis Pasteur</t>
-  </si>
-  <si>
-    <t>studying science</t>
-  </si>
-  <si>
-    <t>Baldrick</t>
-  </si>
-  <si>
-    <t>providing comic relief</t>
-  </si>
-  <si>
-    <t>George Bernard Shaw</t>
-  </si>
-  <si>
-    <t>writing plays</t>
-  </si>
-  <si>
-    <t>Lady Macbeth</t>
-  </si>
-  <si>
-    <t>climbing social ladders</t>
-  </si>
-  <si>
-    <t>Wernher von Braun</t>
-  </si>
-  <si>
-    <t>building rocket ships</t>
-  </si>
-  <si>
-    <t>Bobby Fischer</t>
-  </si>
-  <si>
-    <t>playing aggressive chess</t>
-  </si>
-  <si>
-    <t>Tweety Pie</t>
-  </si>
-  <si>
-    <t>swinging on a perch</t>
-  </si>
-  <si>
-    <t>Johann von Goethe</t>
-  </si>
-  <si>
-    <t>writing about social problems</t>
-  </si>
-  <si>
-    <t>Pablo Picasso</t>
-  </si>
-  <si>
-    <t>painting abstract pictures</t>
-  </si>
-  <si>
-    <t>Gordon Ramsay</t>
-  </si>
-  <si>
-    <t>cooking fancy food</t>
-  </si>
-  <si>
-    <t>Joan Rivers</t>
-  </si>
-  <si>
-    <t>doing stand-up</t>
-  </si>
-  <si>
-    <t>Sheldon Cooper</t>
-  </si>
-  <si>
-    <t>promoting science</t>
-  </si>
-  <si>
-    <t>Victor Meldrew</t>
-  </si>
-  <si>
-    <t>complaining about everything</t>
-  </si>
-  <si>
-    <t>Dean Winchester</t>
-  </si>
-  <si>
-    <t>killing monsters</t>
-  </si>
-  <si>
-    <t>Clarice Starling</t>
-  </si>
-  <si>
-    <t>hunting serial killers</t>
-  </si>
-  <si>
-    <t>Warren Buffett</t>
-  </si>
-  <si>
-    <t>Walter White</t>
-  </si>
-  <si>
-    <t>running a criminal empire</t>
-  </si>
-  <si>
-    <t>Emma Bovary</t>
-  </si>
-  <si>
-    <t>John Constantine</t>
-  </si>
-  <si>
-    <t>smoking Silk Cut cigarettes</t>
-  </si>
-  <si>
-    <t>Marlene Dietrich</t>
-  </si>
-  <si>
-    <t>General Zod</t>
-  </si>
-  <si>
-    <t>seeking revenge</t>
-  </si>
-  <si>
-    <t>Ron Weasley</t>
-  </si>
-  <si>
-    <t>performing magic tricks</t>
-  </si>
-  <si>
-    <t>Erasmus</t>
-  </si>
-  <si>
-    <t>promoting humanism</t>
-  </si>
-  <si>
-    <t>Kobe Bryant</t>
-  </si>
-  <si>
-    <t>making dunk shots</t>
-  </si>
-  <si>
-    <t>playing jazz trumpet</t>
-  </si>
-  <si>
-    <t>Princess Fiona</t>
-  </si>
-  <si>
-    <t>waiting for a hero</t>
-  </si>
-  <si>
-    <t>Al Capone</t>
-  </si>
-  <si>
-    <t>selling illegal alcohol</t>
-  </si>
-  <si>
-    <t>Salvador Dali</t>
-  </si>
-  <si>
-    <t>painting surreal pictures</t>
-  </si>
-  <si>
-    <t>Gustavo Fring</t>
-  </si>
-  <si>
-    <t>selling fried chicken</t>
-  </si>
-  <si>
-    <t>Gerard Manley Hopkins</t>
-  </si>
-  <si>
-    <t>writing modern poetry</t>
-  </si>
-  <si>
-    <t>Barney Stinson</t>
-  </si>
-  <si>
-    <t>promoting capitalism</t>
-  </si>
-  <si>
-    <t>Thomas Edison</t>
-  </si>
-  <si>
-    <t>Doc Emmett Brown</t>
-  </si>
-  <si>
-    <t>Darth Maul</t>
-  </si>
-  <si>
-    <t>duelling acrobatically</t>
-  </si>
-  <si>
-    <t>Antonio Salieri</t>
-  </si>
-  <si>
-    <t>burning with envy</t>
-  </si>
-  <si>
-    <t>George Soros</t>
-  </si>
-  <si>
-    <t>making billions</t>
-  </si>
-  <si>
-    <t>Pippi Longstocking</t>
-  </si>
-  <si>
-    <t>playing pranks</t>
-  </si>
-  <si>
-    <t>Tiger Woods</t>
-  </si>
-  <si>
-    <t>winning golf tournaments</t>
-  </si>
-  <si>
-    <t>Kate Moss</t>
-  </si>
-  <si>
-    <t>modeling clothes</t>
-  </si>
-  <si>
-    <t>Jean-Paul Sartre</t>
-  </si>
-  <si>
-    <t>popping amphetamines</t>
-  </si>
-  <si>
-    <t>selling airline seats</t>
-  </si>
-  <si>
-    <t>Captain America</t>
-  </si>
-  <si>
-    <t>defending the weak</t>
-  </si>
-  <si>
-    <t>Reince Priebus</t>
-  </si>
-  <si>
-    <t>Roy Batty</t>
-  </si>
-  <si>
-    <t>looking for immortality</t>
-  </si>
-  <si>
-    <t>Ariana Grande</t>
-  </si>
-  <si>
-    <t>Gordon Gekko</t>
-  </si>
-  <si>
-    <t>launching hostile takeovers</t>
-  </si>
-  <si>
-    <t>Don King</t>
-  </si>
-  <si>
-    <t>promoting boxing fights</t>
-  </si>
-  <si>
-    <t>Hunter S. Thompson</t>
-  </si>
-  <si>
-    <t>writing about manly pursuits</t>
-  </si>
-  <si>
-    <t>Princess Diana</t>
-  </si>
-  <si>
-    <t>Jonathan Swift</t>
-  </si>
-  <si>
-    <t>writing political satires</t>
-  </si>
-  <si>
-    <t>Heath Ledger</t>
-  </si>
-  <si>
-    <t>complaining about big brother</t>
-  </si>
-  <si>
-    <t>Will Smith</t>
-  </si>
-  <si>
-    <t>Boba Fett</t>
-  </si>
-  <si>
-    <t>tracking down fugitives</t>
-  </si>
-  <si>
-    <t>Jim Morrison</t>
-  </si>
-  <si>
-    <t>writing rock songs</t>
-  </si>
-  <si>
-    <t>Wesley Crusher</t>
-  </si>
-  <si>
-    <t>Michael Jackson</t>
-  </si>
-  <si>
-    <t>Franz Liszt</t>
-  </si>
-  <si>
-    <t>playing classical piano</t>
-  </si>
-  <si>
-    <t>Tiny Tim Cratchit</t>
-  </si>
-  <si>
-    <t>offering blessings</t>
-  </si>
-  <si>
-    <t>Tyra Banks</t>
-  </si>
-  <si>
-    <t>selling cosmetics</t>
-  </si>
-  <si>
-    <t>Lord Voldemort</t>
-  </si>
-  <si>
-    <t>tormenting muggles</t>
-  </si>
-  <si>
-    <t>Annie Oakley</t>
-  </si>
-  <si>
-    <t>promoting circus attractions</t>
-  </si>
-  <si>
-    <t>running a dictatorship</t>
-  </si>
-  <si>
-    <t>Barney Rubble</t>
-  </si>
-  <si>
-    <t>eating dinosaur ribs</t>
-  </si>
-  <si>
-    <t>rooting out moles</t>
-  </si>
-  <si>
-    <t>Noah</t>
-  </si>
-  <si>
-    <t>surviving large-scale floods</t>
-  </si>
-  <si>
-    <t>Walt Disney</t>
-  </si>
-  <si>
-    <t>making cartoons</t>
-  </si>
-  <si>
-    <t>Jor El</t>
-  </si>
-  <si>
-    <t>inventing new technologies</t>
-  </si>
-  <si>
-    <t>solving crimes</t>
-  </si>
-  <si>
-    <t>Fox Mulder</t>
-  </si>
-  <si>
-    <t>postulating bizarre theories</t>
-  </si>
-  <si>
-    <t>Edward Snowden</t>
-  </si>
-  <si>
-    <t>leaking classified documents</t>
-  </si>
-  <si>
-    <t>Adam West</t>
-  </si>
-  <si>
-    <t>wearing tights</t>
-  </si>
-  <si>
-    <t>Orville Wright</t>
-  </si>
-  <si>
-    <t>Robert De Niro</t>
-  </si>
-  <si>
-    <t>Mr. Krabs</t>
-  </si>
-  <si>
-    <t>pinching pennies</t>
-  </si>
-  <si>
-    <t>Ophelia</t>
-  </si>
-  <si>
-    <t>talking in riddles</t>
-  </si>
-  <si>
-    <t>Dan Quayle</t>
-  </si>
-  <si>
-    <t>campaigning for the senate</t>
-  </si>
-  <si>
-    <t>Russell Crowe</t>
-  </si>
-  <si>
-    <t>throwing temper tantrums</t>
-  </si>
-  <si>
-    <t>Huckleberry Finn</t>
-  </si>
-  <si>
-    <t>growing up poor</t>
-  </si>
-  <si>
-    <t>Boy George</t>
-  </si>
-  <si>
-    <t>starring in indy movies</t>
-  </si>
-  <si>
-    <t>The Artful Dodger</t>
-  </si>
-  <si>
-    <t>picking pockets</t>
-  </si>
-  <si>
-    <t>Michael Jordan</t>
-  </si>
-  <si>
-    <t>playing basketball</t>
-  </si>
-  <si>
-    <t>Hugh Jackman</t>
-  </si>
-  <si>
-    <t>Peter Griffin</t>
-  </si>
-  <si>
-    <t>making silly decisions</t>
-  </si>
-  <si>
-    <t>Mrs. Doubtfire</t>
-  </si>
-  <si>
-    <t>Le Chiffre</t>
-  </si>
-  <si>
-    <t>devising evil schemes</t>
-  </si>
-  <si>
-    <t>Buffy Summers</t>
-  </si>
-  <si>
-    <t>hunting monsters</t>
-  </si>
-  <si>
-    <t>Phoebe Buffay</t>
-  </si>
-  <si>
-    <t>singing goofy songs</t>
-  </si>
-  <si>
-    <t>Ricky Martin</t>
-  </si>
-  <si>
-    <t>gyrating hips</t>
-  </si>
-  <si>
-    <t>Donald Duck</t>
-  </si>
-  <si>
-    <t>eating Peking duck</t>
-  </si>
-  <si>
-    <t>Clark Gable</t>
-  </si>
-  <si>
-    <t>Ben Affleck</t>
-  </si>
-  <si>
-    <t>avoiding paparazzi</t>
-  </si>
-  <si>
-    <t>John Wilkes Booth</t>
-  </si>
-  <si>
-    <t>assassinating presidents</t>
-  </si>
-  <si>
-    <t>Mary Poppins</t>
-  </si>
-  <si>
-    <t>looking after children</t>
-  </si>
-  <si>
-    <t>Judas Iscariot</t>
-  </si>
-  <si>
-    <t>betraying friends</t>
-  </si>
-  <si>
-    <t>Sonny Crockett</t>
-  </si>
-  <si>
-    <t>preventing crime</t>
-  </si>
-  <si>
-    <t>Benedict Arnold</t>
-  </si>
-  <si>
-    <t>changing sides</t>
-  </si>
-  <si>
-    <t>Silvio Berlusconi</t>
-  </si>
-  <si>
-    <t>avoiding taxes</t>
-  </si>
-  <si>
-    <t>running an empire</t>
-  </si>
-  <si>
-    <t>Pepé Le Pew</t>
-  </si>
-  <si>
-    <t>seducing women</t>
-  </si>
-  <si>
-    <t>Luis Suarez</t>
-  </si>
-  <si>
-    <t>biting opponents</t>
-  </si>
-  <si>
-    <t>Mel Brooks</t>
-  </si>
-  <si>
-    <t>directing comedies</t>
-  </si>
-  <si>
-    <t>Hulk Hogan</t>
-  </si>
-  <si>
-    <t>pretending to wrestle</t>
-  </si>
-  <si>
-    <t>Darth Vader</t>
-  </si>
-  <si>
-    <t>fighting the forces of good</t>
-  </si>
-  <si>
-    <t>Ashton Kutcher</t>
-  </si>
-  <si>
-    <t>starring in sit-coms</t>
-  </si>
-  <si>
-    <t>Hans Moleman</t>
-  </si>
-  <si>
-    <t>getting run over by cars</t>
-  </si>
-  <si>
-    <t>leaking state secrets</t>
-  </si>
-  <si>
-    <t>Tom Ripley</t>
-  </si>
-  <si>
-    <t>planning confidence tricks</t>
-  </si>
-  <si>
-    <t>Grace Jones</t>
-  </si>
-  <si>
-    <t>Margaret Thatcher</t>
-  </si>
-  <si>
-    <t>Adolf Eichmann</t>
-  </si>
-  <si>
-    <t>running a bureaucracy</t>
-  </si>
-  <si>
-    <t>Savonarola</t>
-  </si>
-  <si>
-    <t>Severus Snape</t>
-  </si>
-  <si>
-    <t>teaching Defence Against the Dark Arts</t>
-  </si>
-  <si>
-    <t>Samwise Gamgee</t>
-  </si>
-  <si>
-    <t>tending the garden</t>
-  </si>
-  <si>
-    <t>Spartacus</t>
-  </si>
-  <si>
-    <t>instigating rebellion</t>
-  </si>
-  <si>
-    <t>Pope Francis</t>
-  </si>
-  <si>
-    <t>promoting Catholic values</t>
-  </si>
-  <si>
-    <t>Trinity</t>
-  </si>
-  <si>
-    <t>hacking into corporate mainframes</t>
-  </si>
-  <si>
-    <t>Kevin Smith</t>
-  </si>
-  <si>
-    <t>Coco Chanel</t>
-  </si>
-  <si>
-    <t>selling perfumes</t>
-  </si>
-  <si>
-    <t>Richard B. Riddick</t>
-  </si>
-  <si>
-    <t>evading mercenaries</t>
-  </si>
-  <si>
-    <t>Judge Joe Dredd</t>
-  </si>
-  <si>
-    <t>punishing criminals</t>
-  </si>
-  <si>
-    <t>Paris Hilton</t>
-  </si>
-  <si>
-    <t>monetizing celebrity status</t>
-  </si>
-  <si>
-    <t>Saint Peter</t>
-  </si>
-  <si>
-    <t>Brian Wilson</t>
-  </si>
-  <si>
-    <t>waxing a surfboard</t>
-  </si>
-  <si>
-    <t>running a criminal enterprise</t>
-  </si>
-  <si>
-    <t>Robin Hood</t>
-  </si>
-  <si>
-    <t>robbing from the rich</t>
-  </si>
-  <si>
-    <t>Theodore Roosevelt</t>
-  </si>
-  <si>
-    <t>campaigning for environmental causes</t>
-  </si>
-  <si>
-    <t>Peter Rabbit</t>
-  </si>
-  <si>
-    <t>eating carrots</t>
-  </si>
-  <si>
-    <t>pretending to fight</t>
-  </si>
-  <si>
-    <t>P. T. Barnum</t>
-  </si>
-  <si>
-    <t>selling tickets</t>
-  </si>
-  <si>
-    <t>Spider-Man</t>
-  </si>
-  <si>
-    <t>pursuing criminals</t>
-  </si>
-  <si>
-    <t>playing the trumpet</t>
-  </si>
-  <si>
-    <t>Eddy Merckx</t>
-  </si>
-  <si>
-    <t>pedalling furiously</t>
-  </si>
-  <si>
-    <t>Hannibal Lecter</t>
-  </si>
-  <si>
-    <t>eluding FBI profilers</t>
-  </si>
-  <si>
-    <t>Amy Winehouse</t>
-  </si>
-  <si>
-    <t>General George Patton</t>
-  </si>
-  <si>
-    <t>slapping soldiers</t>
-  </si>
-  <si>
-    <t>Robinson Crusoe</t>
-  </si>
-  <si>
-    <t>surviving a shipwreck</t>
-  </si>
-  <si>
-    <t>Joe DiMaggio</t>
-  </si>
-  <si>
-    <t>playing baseball</t>
-  </si>
-  <si>
-    <t>Bing Crosby</t>
-  </si>
-  <si>
-    <t>singing middle-of-the-road songs</t>
-  </si>
-  <si>
-    <t>Kim Kardashian</t>
-  </si>
-  <si>
-    <t>making mediocre movies</t>
-  </si>
-  <si>
-    <t>Marie Curie</t>
-  </si>
-  <si>
-    <t>extracting Radium from pitchblend</t>
-  </si>
-  <si>
-    <t>Becky Sharp</t>
-  </si>
-  <si>
-    <t>James Bond</t>
-  </si>
-  <si>
-    <t>developing cunning plans</t>
-  </si>
-  <si>
-    <t>Bruce Willis</t>
-  </si>
-  <si>
-    <t>making action movies</t>
-  </si>
-  <si>
-    <t>testing new technologies</t>
-  </si>
-  <si>
-    <t>writing on wax tablets</t>
-  </si>
-  <si>
-    <t>Oedipus Rex</t>
-  </si>
-  <si>
-    <t>solving riddles</t>
-  </si>
-  <si>
-    <t>Christiane Amanpour</t>
-  </si>
-  <si>
-    <t>interviewing politicians</t>
-  </si>
-  <si>
-    <t>Katniss Everdeen</t>
-  </si>
-  <si>
-    <t>El Chappo</t>
-  </si>
-  <si>
-    <t>running a crime family</t>
-  </si>
-  <si>
-    <t>Simon Pegg</t>
-  </si>
-  <si>
-    <t>dressing up in cosplay costumes</t>
-  </si>
-  <si>
-    <t>Voltaire</t>
-  </si>
-  <si>
-    <t>promoting enlightenment</t>
-  </si>
-  <si>
-    <t>Joseph Goebbels</t>
-  </si>
-  <si>
-    <t>promoting totalitarianism</t>
-  </si>
-  <si>
-    <t>Jar Jar Binks</t>
-  </si>
-  <si>
-    <t>Holly Golightly</t>
-  </si>
-  <si>
-    <t>Wayne Rooney</t>
-  </si>
-  <si>
-    <t>playing soccer</t>
-  </si>
-  <si>
-    <t>Madeleine Albright</t>
-  </si>
-  <si>
-    <t>fighting for democracy</t>
-  </si>
-  <si>
-    <t>Wolfgang Amadeus Mozart</t>
-  </si>
-  <si>
-    <t>playing the piano</t>
-  </si>
-  <si>
-    <t>John Grisham</t>
-  </si>
-  <si>
-    <t>writing legal fiction</t>
-  </si>
-  <si>
-    <t>Sarah Silverman</t>
-  </si>
-  <si>
-    <t>insulting minorities</t>
-  </si>
-  <si>
-    <t>Beetlejuice</t>
-  </si>
-  <si>
-    <t>practicing the Occult</t>
-  </si>
-  <si>
-    <t>Professor James Moriarty</t>
-  </si>
-  <si>
-    <t>amassing ill-gotten wealth</t>
-  </si>
-  <si>
-    <t>making topiary sculptures</t>
-  </si>
-  <si>
-    <t>Lois Lane</t>
-  </si>
-  <si>
-    <t>reporting for The Daily Planet</t>
-  </si>
-  <si>
-    <t>Richard Wagner</t>
-  </si>
-  <si>
-    <t>making antisemitic remarks</t>
-  </si>
-  <si>
-    <t>Edward Cullen</t>
-  </si>
-  <si>
-    <t>avoiding growing old</t>
-  </si>
-  <si>
-    <t>Monsieur Hulot</t>
-  </si>
-  <si>
-    <t>causing mayhem</t>
-  </si>
-  <si>
-    <t>selling chrystal meth</t>
-  </si>
-  <si>
-    <t>Billy Bob Thornton</t>
-  </si>
-  <si>
-    <t>playing intense characters</t>
-  </si>
-  <si>
-    <t>Thomas Jefferson</t>
-  </si>
-  <si>
-    <t>wielding political power</t>
-  </si>
-  <si>
-    <t>Stewie Griffin</t>
-  </si>
-  <si>
-    <t>plotting against family members</t>
-  </si>
-  <si>
-    <t>promoting greed</t>
-  </si>
-  <si>
-    <t>Tyler Durden</t>
-  </si>
-  <si>
-    <t>Gregor Mendel</t>
-  </si>
-  <si>
-    <t>Mr. Edward Hyde</t>
-  </si>
-  <si>
-    <t>expressing violent urges</t>
-  </si>
-  <si>
-    <t>Jean-Luc Picard</t>
-  </si>
-  <si>
-    <t>commanding a spaceship</t>
-  </si>
-  <si>
-    <t>Tom Waits</t>
-  </si>
-  <si>
-    <t>writing blues songs</t>
-  </si>
-  <si>
-    <t>Hugh Hefner</t>
-  </si>
-  <si>
-    <t>Jerry Lewis</t>
-  </si>
-  <si>
-    <t>doing slapstick comedy</t>
-  </si>
-  <si>
-    <t>Dorothy Parker</t>
-  </si>
-  <si>
-    <t>making witty remarks</t>
-  </si>
-  <si>
-    <t>impersonating women</t>
-  </si>
-  <si>
-    <t>Napoleon Solo</t>
-  </si>
-  <si>
-    <t>Atticus Finch</t>
-  </si>
-  <si>
-    <t>representing the disenfranchised</t>
-  </si>
-  <si>
-    <t>eating bacon cheeseburgers</t>
-  </si>
-  <si>
-    <t>Edgar Allan Poe</t>
-  </si>
-  <si>
-    <t>writing mystery stories</t>
-  </si>
-  <si>
-    <t>Andy Warhol</t>
-  </si>
-  <si>
-    <t>painting soup cans</t>
-  </si>
-  <si>
-    <t>Jane Eyre</t>
-  </si>
-  <si>
-    <t>Donald Trump</t>
-  </si>
-  <si>
-    <t>developing real estate</t>
-  </si>
-  <si>
-    <t>Sergey Brin</t>
-  </si>
-  <si>
-    <t>performing Web searches</t>
-  </si>
-  <si>
-    <t>Morgana Le Fay</t>
-  </si>
-  <si>
-    <t>brewing magican potions</t>
-  </si>
-  <si>
-    <t>Larry David</t>
-  </si>
-  <si>
-    <t>writing TV comedies</t>
-  </si>
-  <si>
-    <t>Wolverine</t>
-  </si>
-  <si>
-    <t>slashing victims</t>
-  </si>
-  <si>
-    <t>planning adultery</t>
-  </si>
-  <si>
-    <t>Snake Plissken</t>
-  </si>
-  <si>
-    <t>organizing prison breaks</t>
-  </si>
-  <si>
-    <t>Dr. Strangelove</t>
-  </si>
-  <si>
-    <t>pushing the hardline</t>
-  </si>
-  <si>
-    <t>Peter Parker</t>
-  </si>
-  <si>
-    <t>Winnie the Pooh</t>
-  </si>
-  <si>
-    <t>cooking for friends</t>
-  </si>
-  <si>
-    <t>Neville Chamberlain</t>
-  </si>
-  <si>
-    <t>appeasing belligerent dictators</t>
-  </si>
-  <si>
-    <t>Daniel Day-Lewis</t>
-  </si>
-  <si>
-    <t>winning Oscars</t>
-  </si>
-  <si>
-    <t>singing multipart harmonies</t>
-  </si>
-  <si>
-    <t>eating census takers</t>
-  </si>
-  <si>
-    <t>James Joyce</t>
-  </si>
-  <si>
-    <t>writing modern fiction</t>
-  </si>
-  <si>
-    <t>Frank Capra</t>
-  </si>
-  <si>
-    <t>making idealistic movies</t>
-  </si>
-  <si>
-    <t>Joan of Arc</t>
-  </si>
-  <si>
-    <t>Kim Philby</t>
-  </si>
-  <si>
-    <t>Karl Marx</t>
-  </si>
-  <si>
-    <t>promoting communism</t>
-  </si>
-  <si>
-    <t>Coriolanus Snow</t>
-  </si>
-  <si>
-    <t>crushing dissent</t>
-  </si>
-  <si>
-    <t>Tony Robbins</t>
-  </si>
-  <si>
-    <t>selling self-help books</t>
-  </si>
-  <si>
-    <t>Bill Clinton</t>
-  </si>
-  <si>
-    <t>chasing interns</t>
-  </si>
-  <si>
-    <t>running a media empire</t>
-  </si>
-  <si>
-    <t>Ed Wood</t>
-  </si>
-  <si>
-    <t>directing bad movies</t>
-  </si>
-  <si>
-    <t>expressing dissent</t>
-  </si>
-  <si>
-    <t>Tomás de Torquemada</t>
-  </si>
-  <si>
-    <t>extracting confessions</t>
-  </si>
-  <si>
-    <t>Mickey Mouse</t>
-  </si>
-  <si>
-    <t>promoting movie violence</t>
+    <t>developing advertising campaigns</t>
+  </si>
+  <si>
+    <t>collecting comic books</t>
   </si>
 </sst>
 </file>
@@ -1923,8 +1869,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="30.21875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="36.00390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="27.04296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="41.19921875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.69921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -1980,62 +1926,62 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
@@ -2068,7 +2014,7 @@
         <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -2079,7 +2025,7 @@
         <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -2090,7 +2036,7 @@
         <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -2101,7 +2047,7 @@
         <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -2123,7 +2069,7 @@
         <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -2134,7 +2080,7 @@
         <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -2156,7 +2102,7 @@
         <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -2167,7 +2113,7 @@
         <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
@@ -2178,7 +2124,7 @@
         <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
@@ -2189,7 +2135,7 @@
         <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -2200,7 +2146,7 @@
         <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -2260,10 +2206,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" t="s">
         <v>64</v>
-      </c>
-      <c r="B31" t="s">
-        <v>65</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -2271,43 +2217,43 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" t="s">
         <v>66</v>
       </c>
-      <c r="B32" t="s">
-        <v>67</v>
-      </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" t="s">
         <v>68</v>
       </c>
-      <c r="B33" t="s">
-        <v>69</v>
-      </c>
       <c r="C33" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" t="s">
         <v>70</v>
       </c>
-      <c r="B34" t="s">
-        <v>71</v>
-      </c>
       <c r="C34" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" t="s">
         <v>72</v>
-      </c>
-      <c r="B35" t="s">
-        <v>73</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -2315,21 +2261,21 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" t="s">
         <v>74</v>
       </c>
-      <c r="B36" t="s">
-        <v>75</v>
-      </c>
       <c r="C36" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" t="s">
         <v>76</v>
-      </c>
-      <c r="B37" t="s">
-        <v>77</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -2337,10 +2283,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" t="s">
         <v>78</v>
-      </c>
-      <c r="B38" t="s">
-        <v>79</v>
       </c>
       <c r="C38" t="s">
         <v>10</v>
@@ -2348,10 +2294,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" t="s">
         <v>80</v>
-      </c>
-      <c r="B39" t="s">
-        <v>81</v>
       </c>
       <c r="C39" t="s">
         <v>10</v>
@@ -2359,10 +2305,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" t="s">
         <v>82</v>
-      </c>
-      <c r="B40" t="s">
-        <v>83</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -2370,18 +2316,18 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" t="s">
         <v>84</v>
       </c>
-      <c r="B41" t="s">
-        <v>85</v>
-      </c>
       <c r="C41" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="B42" t="s">
         <v>86</v>
@@ -2398,7 +2344,7 @@
         <v>88</v>
       </c>
       <c r="C43" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44">
@@ -2409,7 +2355,7 @@
         <v>90</v>
       </c>
       <c r="C44" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45">
@@ -2420,7 +2366,7 @@
         <v>92</v>
       </c>
       <c r="C45" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46">
@@ -2431,7 +2377,7 @@
         <v>94</v>
       </c>
       <c r="C46" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47">
@@ -2447,21 +2393,21 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" t="s">
         <v>97</v>
       </c>
-      <c r="B48" t="s">
-        <v>98</v>
-      </c>
       <c r="C48" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" t="s">
         <v>99</v>
-      </c>
-      <c r="B49" t="s">
-        <v>100</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -2469,10 +2415,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" t="s">
         <v>101</v>
-      </c>
-      <c r="B50" t="s">
-        <v>98</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -2494,18 +2440,18 @@
         <v>104</v>
       </c>
       <c r="B52" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="C52" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53" t="s">
         <v>106</v>
-      </c>
-      <c r="B53" t="s">
-        <v>107</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -2513,32 +2459,32 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54" t="s">
         <v>108</v>
       </c>
-      <c r="B54" t="s">
-        <v>109</v>
-      </c>
       <c r="C54" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" t="s">
         <v>110</v>
       </c>
-      <c r="B55" t="s">
-        <v>111</v>
-      </c>
       <c r="C55" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
+        <v>111</v>
+      </c>
+      <c r="B56" t="s">
         <v>112</v>
-      </c>
-      <c r="B56" t="s">
-        <v>113</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -2546,10 +2492,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>113</v>
+      </c>
+      <c r="B57" t="s">
         <v>114</v>
-      </c>
-      <c r="B57" t="s">
-        <v>115</v>
       </c>
       <c r="C57" t="s">
         <v>10</v>
@@ -2557,35 +2503,35 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58" t="s">
         <v>116</v>
       </c>
-      <c r="B58" t="s">
-        <v>117</v>
-      </c>
       <c r="C58" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
+        <v>117</v>
+      </c>
+      <c r="B59" t="s">
         <v>118</v>
       </c>
-      <c r="B59" t="s">
-        <v>119</v>
-      </c>
       <c r="C59" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
+        <v>119</v>
+      </c>
+      <c r="B60" t="s">
         <v>120</v>
       </c>
-      <c r="B60" t="s">
-        <v>29</v>
-      </c>
       <c r="C60" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61">
@@ -2596,7 +2542,7 @@
         <v>122</v>
       </c>
       <c r="C61" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62">
@@ -2604,7 +2550,7 @@
         <v>123</v>
       </c>
       <c r="B62" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -2612,43 +2558,43 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B63" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C63" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B64" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C64" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B65" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C65" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B66" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -2656,109 +2602,109 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B67" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C67" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B68" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C68" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B69" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C69" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B70" t="s">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="C70" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B71" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C71" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B72" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C72" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B73" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C73" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B74" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C74" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B75" t="s">
-        <v>73</v>
+        <v>150</v>
       </c>
       <c r="C75" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B76" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -2766,54 +2712,54 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B77" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C77" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B78" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C78" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B79" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C79" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B80" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C80" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B81" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -2821,219 +2767,219 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B82" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C82" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B83" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C83" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B84" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C84" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B85" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C85" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="B86" t="s">
-        <v>37</v>
+        <v>170</v>
       </c>
       <c r="C86" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B87" t="s">
-        <v>98</v>
+        <v>172</v>
       </c>
       <c r="C87" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B88" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C88" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B89" t="s">
-        <v>37</v>
+        <v>176</v>
       </c>
       <c r="C89" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B90" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C90" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B91" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C91" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B92" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C92" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B93" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="C93" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>97</v>
+        <v>184</v>
       </c>
       <c r="B94" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C94" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B95" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C95" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B96" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C96" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B97" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C97" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>187</v>
+        <v>91</v>
       </c>
       <c r="B98" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C98" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B99" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
       <c r="C99" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B100" t="s">
-        <v>192</v>
+        <v>78</v>
       </c>
       <c r="C100" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B101" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -3041,32 +2987,32 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B102" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C102" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B103" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C103" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B104" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -3074,24 +3020,24 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>201</v>
+        <v>44</v>
       </c>
       <c r="B105" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C105" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B106" t="s">
-        <v>204</v>
+        <v>39</v>
       </c>
       <c r="C106" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107">
@@ -3102,7 +3048,7 @@
         <v>206</v>
       </c>
       <c r="C107" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108">
@@ -3113,7 +3059,7 @@
         <v>208</v>
       </c>
       <c r="C108" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109">
@@ -3121,21 +3067,21 @@
         <v>209</v>
       </c>
       <c r="B109" t="s">
-        <v>210</v>
+        <v>97</v>
       </c>
       <c r="C109" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>95</v>
+        <v>210</v>
       </c>
       <c r="B110" t="s">
         <v>211</v>
       </c>
       <c r="C110" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111">
@@ -3151,21 +3097,21 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
+        <v>109</v>
+      </c>
+      <c r="B112" t="s">
         <v>214</v>
       </c>
-      <c r="B112" t="s">
-        <v>215</v>
-      </c>
       <c r="C112" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
+        <v>215</v>
+      </c>
+      <c r="B113" t="s">
         <v>216</v>
-      </c>
-      <c r="B113" t="s">
-        <v>217</v>
       </c>
       <c r="C113" t="s">
         <v>10</v>
@@ -3173,10 +3119,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
+        <v>217</v>
+      </c>
+      <c r="B114" t="s">
         <v>218</v>
-      </c>
-      <c r="B114" t="s">
-        <v>219</v>
       </c>
       <c r="C114" t="s">
         <v>10</v>
@@ -3184,10 +3130,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
+        <v>219</v>
+      </c>
+      <c r="B115" t="s">
         <v>220</v>
-      </c>
-      <c r="B115" t="s">
-        <v>221</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -3195,13 +3141,13 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>114</v>
+        <v>221</v>
       </c>
       <c r="B116" t="s">
         <v>222</v>
       </c>
       <c r="C116" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="117">
@@ -3212,7 +3158,7 @@
         <v>224</v>
       </c>
       <c r="C117" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="118">
@@ -3220,87 +3166,87 @@
         <v>225</v>
       </c>
       <c r="B118" t="s">
-        <v>53</v>
+        <v>226</v>
       </c>
       <c r="C118" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B119" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C119" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B120" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C120" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>44</v>
+        <v>231</v>
       </c>
       <c r="B121" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C121" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B122" t="s">
-        <v>92</v>
+        <v>202</v>
       </c>
       <c r="C122" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B123" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C123" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>234</v>
+        <v>168</v>
       </c>
       <c r="B124" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C124" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="B125" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="C125" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126">
@@ -3311,7 +3257,7 @@
         <v>238</v>
       </c>
       <c r="C126" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="127">
@@ -3322,7 +3268,7 @@
         <v>240</v>
       </c>
       <c r="C127" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="128">
@@ -3330,7 +3276,7 @@
         <v>241</v>
       </c>
       <c r="B128" t="s">
-        <v>127</v>
+        <v>242</v>
       </c>
       <c r="C128" t="s">
         <v>10</v>
@@ -3338,46 +3284,46 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B129" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C129" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B130" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C130" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B131" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C131" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>248</v>
+        <v>107</v>
       </c>
       <c r="B132" t="s">
         <v>249</v>
       </c>
       <c r="C132" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133">
@@ -3393,24 +3339,24 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="B134" t="s">
-        <v>29</v>
+        <v>220</v>
       </c>
       <c r="C134" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B135" t="s">
-        <v>253</v>
+        <v>49</v>
       </c>
       <c r="C135" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136">
@@ -3421,15 +3367,15 @@
         <v>255</v>
       </c>
       <c r="C136" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
+        <v>30</v>
+      </c>
+      <c r="B137" t="s">
         <v>256</v>
-      </c>
-      <c r="B137" t="s">
-        <v>257</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -3437,21 +3383,21 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
+        <v>257</v>
+      </c>
+      <c r="B138" t="s">
         <v>258</v>
       </c>
-      <c r="B138" t="s">
-        <v>259</v>
-      </c>
       <c r="C138" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
+        <v>259</v>
+      </c>
+      <c r="B139" t="s">
         <v>260</v>
-      </c>
-      <c r="B139" t="s">
-        <v>261</v>
       </c>
       <c r="C139" t="s">
         <v>10</v>
@@ -3459,10 +3405,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
+        <v>261</v>
+      </c>
+      <c r="B140" t="s">
         <v>262</v>
-      </c>
-      <c r="B140" t="s">
-        <v>263</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -3470,32 +3416,32 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
+        <v>263</v>
+      </c>
+      <c r="B141" t="s">
         <v>264</v>
       </c>
-      <c r="B141" t="s">
-        <v>265</v>
-      </c>
       <c r="C141" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
+        <v>265</v>
+      </c>
+      <c r="B142" t="s">
         <v>266</v>
       </c>
-      <c r="B142" t="s">
-        <v>267</v>
-      </c>
       <c r="C142" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
+        <v>267</v>
+      </c>
+      <c r="B143" t="s">
         <v>268</v>
-      </c>
-      <c r="B143" t="s">
-        <v>269</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -3503,10 +3449,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>270</v>
+        <v>95</v>
       </c>
       <c r="B144" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="C144" t="s">
         <v>10</v>
@@ -3514,21 +3460,21 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B145" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C145" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B146" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C146" t="s">
         <v>10</v>
@@ -3536,32 +3482,32 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B147" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C147" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B148" t="s">
-        <v>27</v>
+        <v>276</v>
       </c>
       <c r="C148" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B149" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C149" t="s">
         <v>10</v>
@@ -3569,21 +3515,21 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>281</v>
+        <v>147</v>
       </c>
       <c r="B150" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="C150" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B151" t="s">
-        <v>283</v>
+        <v>146</v>
       </c>
       <c r="C151" t="s">
         <v>10</v>
@@ -3591,21 +3537,21 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B152" t="s">
-        <v>98</v>
+        <v>282</v>
       </c>
       <c r="C152" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B153" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C153" t="s">
         <v>10</v>
@@ -3613,10 +3559,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B154" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C154" t="s">
         <v>10</v>
@@ -3624,32 +3570,32 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B155" t="s">
-        <v>290</v>
+        <v>180</v>
       </c>
       <c r="C155" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>291</v>
+        <v>104</v>
       </c>
       <c r="B156" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C156" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>6</v>
+        <v>289</v>
       </c>
       <c r="B157" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -3657,65 +3603,65 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B158" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C158" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B159" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C159" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B160" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C160" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B161" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C161" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>42</v>
+        <v>299</v>
       </c>
       <c r="B162" t="s">
-        <v>98</v>
+        <v>300</v>
       </c>
       <c r="C162" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>68</v>
+        <v>301</v>
       </c>
       <c r="B163" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="C163" t="s">
         <v>10</v>
@@ -3723,35 +3669,35 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B164" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C164" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B165" t="s">
-        <v>305</v>
+        <v>161</v>
       </c>
       <c r="C165" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
+        <v>265</v>
+      </c>
+      <c r="B166" t="s">
         <v>306</v>
       </c>
-      <c r="B166" t="s">
-        <v>149</v>
-      </c>
       <c r="C166" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="167">
@@ -3759,51 +3705,51 @@
         <v>307</v>
       </c>
       <c r="B167" t="s">
-        <v>240</v>
+        <v>308</v>
       </c>
       <c r="C167" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B168" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C168" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B169" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C169" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B170" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C170" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B171" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C171" t="s">
         <v>10</v>
@@ -3811,43 +3757,43 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B172" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C172" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B173" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C173" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B174" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C174" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>40</v>
+        <v>323</v>
       </c>
       <c r="B175" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -3855,10 +3801,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B176" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C176" t="s">
         <v>10</v>
@@ -3866,120 +3812,120 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>102</v>
+        <v>327</v>
       </c>
       <c r="B177" t="s">
-        <v>190</v>
+        <v>37</v>
       </c>
       <c r="C177" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>325</v>
+        <v>69</v>
       </c>
       <c r="B178" t="s">
-        <v>144</v>
+        <v>328</v>
       </c>
       <c r="C178" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B179" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C179" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B180" t="s">
-        <v>37</v>
+        <v>332</v>
       </c>
       <c r="C180" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B181" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C181" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B182" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C182" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B183" t="s">
-        <v>334</v>
+        <v>74</v>
       </c>
       <c r="C183" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B184" t="s">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c r="C184" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B185" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C185" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>338</v>
+        <v>98</v>
       </c>
       <c r="B186" t="s">
-        <v>98</v>
+        <v>341</v>
       </c>
       <c r="C186" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>178</v>
+        <v>342</v>
       </c>
       <c r="B187" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C187" t="s">
         <v>10</v>
@@ -3987,21 +3933,21 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>340</v>
+        <v>87</v>
       </c>
       <c r="B188" t="s">
-        <v>98</v>
+        <v>344</v>
       </c>
       <c r="C188" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B189" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C189" t="s">
         <v>10</v>
@@ -4009,21 +3955,21 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B190" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C190" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B191" t="s">
-        <v>249</v>
+        <v>146</v>
       </c>
       <c r="C191" t="s">
         <v>10</v>
@@ -4031,10 +3977,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B192" t="s">
-        <v>29</v>
+        <v>351</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -4042,109 +3988,109 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="B193" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="C193" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="B194" t="s">
-        <v>350</v>
+        <v>72</v>
       </c>
       <c r="C194" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B195" t="s">
-        <v>352</v>
+        <v>286</v>
       </c>
       <c r="C195" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B196" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C196" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B197" t="s">
-        <v>356</v>
+        <v>19</v>
       </c>
       <c r="C197" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>89</v>
+        <v>359</v>
       </c>
       <c r="B198" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C198" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B199" t="s">
-        <v>359</v>
+        <v>288</v>
       </c>
       <c r="C199" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>212</v>
+        <v>362</v>
       </c>
       <c r="B200" t="s">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="C200" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B201" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C201" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B202" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -4152,10 +4098,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B203" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C203" t="s">
         <v>10</v>
@@ -4163,10 +4109,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>116</v>
+        <v>368</v>
       </c>
       <c r="B204" t="s">
-        <v>367</v>
+        <v>161</v>
       </c>
       <c r="C204" t="s">
         <v>10</v>
@@ -4174,76 +4120,76 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B205" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C205" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B206" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C206" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B207" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C207" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B208" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="C208" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B209" t="s">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="C209" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B210" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C210" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B211" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C211" t="s">
         <v>10</v>
@@ -4251,13 +4197,13 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B212" t="s">
-        <v>381</v>
+        <v>78</v>
       </c>
       <c r="C212" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="213">
@@ -4268,7 +4214,7 @@
         <v>383</v>
       </c>
       <c r="C213" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="214">
@@ -4276,7 +4222,7 @@
         <v>384</v>
       </c>
       <c r="B214" t="s">
-        <v>385</v>
+        <v>153</v>
       </c>
       <c r="C214" t="s">
         <v>10</v>
@@ -4284,10 +4230,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
+        <v>385</v>
+      </c>
+      <c r="B215" t="s">
         <v>386</v>
-      </c>
-      <c r="B215" t="s">
-        <v>37</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -4295,10 +4241,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>147</v>
+        <v>387</v>
       </c>
       <c r="B216" t="s">
-        <v>387</v>
+        <v>63</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -4312,15 +4258,15 @@
         <v>389</v>
       </c>
       <c r="C217" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>328</v>
+        <v>390</v>
       </c>
       <c r="B218" t="s">
-        <v>29</v>
+        <v>391</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -4328,76 +4274,76 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B219" t="s">
-        <v>391</v>
+        <v>66</v>
       </c>
       <c r="C219" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>392</v>
+        <v>289</v>
       </c>
       <c r="B220" t="s">
-        <v>98</v>
+        <v>393</v>
       </c>
       <c r="C220" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B221" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C221" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B222" t="s">
-        <v>59</v>
+        <v>397</v>
       </c>
       <c r="C222" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B223" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C223" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B224" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C224" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B225" t="s">
-        <v>401</v>
+        <v>242</v>
       </c>
       <c r="C225" t="s">
         <v>10</v>
@@ -4405,21 +4351,21 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B226" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C226" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B227" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C227" t="s">
         <v>10</v>
@@ -4427,10 +4373,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>406</v>
+        <v>369</v>
       </c>
       <c r="B228" t="s">
-        <v>98</v>
+        <v>407</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -4438,13 +4384,13 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B229" t="s">
-        <v>408</v>
+        <v>240</v>
       </c>
       <c r="C229" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="230">
@@ -4452,7 +4398,7 @@
         <v>409</v>
       </c>
       <c r="B230" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -4460,32 +4406,32 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>411</v>
+        <v>362</v>
       </c>
       <c r="B231" t="s">
-        <v>412</v>
+        <v>47</v>
       </c>
       <c r="C231" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B232" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C232" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="B233" t="s">
-        <v>416</v>
+        <v>146</v>
       </c>
       <c r="C233" t="s">
         <v>10</v>
@@ -4493,43 +4439,43 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>417</v>
+        <v>85</v>
       </c>
       <c r="B234" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="C234" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>419</v>
+        <v>253</v>
       </c>
       <c r="B235" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="C235" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>232</v>
+        <v>414</v>
       </c>
       <c r="B236" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C236" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B237" t="s">
-        <v>423</v>
+        <v>12</v>
       </c>
       <c r="C237" t="s">
         <v>10</v>
@@ -4537,32 +4483,32 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="B238" t="s">
-        <v>425</v>
+        <v>163</v>
       </c>
       <c r="C238" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B239" t="s">
-        <v>427</v>
+        <v>106</v>
       </c>
       <c r="C239" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>428</v>
+        <v>390</v>
       </c>
       <c r="B240" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -4570,10 +4516,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="B241" t="s">
-        <v>431</v>
+        <v>290</v>
       </c>
       <c r="C241" t="s">
         <v>10</v>
@@ -4581,21 +4527,21 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="B242" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="C242" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="B243" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="C243" t="s">
         <v>10</v>
@@ -4603,120 +4549,120 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>118</v>
+        <v>425</v>
       </c>
       <c r="B244" t="s">
-        <v>27</v>
+        <v>426</v>
       </c>
       <c r="C244" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>370</v>
+        <v>427</v>
       </c>
       <c r="B245" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="C245" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="B246" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="C246" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="B247" t="s">
-        <v>37</v>
+        <v>432</v>
       </c>
       <c r="C247" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="B248" t="s">
-        <v>238</v>
+        <v>434</v>
       </c>
       <c r="C248" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="B249" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="C249" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B250" t="s">
-        <v>238</v>
+        <v>438</v>
       </c>
       <c r="C250" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B251" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="C251" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>446</v>
+        <v>201</v>
       </c>
       <c r="B252" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C252" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>448</v>
+        <v>197</v>
       </c>
       <c r="B253" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="C253" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>450</v>
+        <v>173</v>
       </c>
       <c r="B254" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -4724,98 +4670,98 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="B255" t="s">
-        <v>453</v>
+        <v>146</v>
       </c>
       <c r="C255" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="B256" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="C256" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="B257" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="C257" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="B258" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="C258" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="B259" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="C259" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>461</v>
+        <v>20</v>
       </c>
       <c r="B260" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="C260" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="B261" t="s">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c r="C261" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="B262" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="C262" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>162</v>
+        <v>456</v>
       </c>
       <c r="B263" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C263" t="s">
         <v>10</v>
@@ -4823,21 +4769,21 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>467</v>
+        <v>252</v>
       </c>
       <c r="B264" t="s">
-        <v>468</v>
+        <v>165</v>
       </c>
       <c r="C264" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="B265" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -4845,109 +4791,109 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="B266" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="C266" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>428</v>
+        <v>462</v>
       </c>
       <c r="B267" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="C267" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>474</v>
+        <v>273</v>
       </c>
       <c r="B268" t="s">
-        <v>475</v>
+        <v>296</v>
       </c>
       <c r="C268" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="B269" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="C269" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>6</v>
+        <v>466</v>
       </c>
       <c r="B270" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="C270" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="B271" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="C271" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="B272" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="C272" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="B273" t="s">
-        <v>7</v>
+        <v>202</v>
       </c>
       <c r="C273" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>484</v>
+        <v>11</v>
       </c>
       <c r="B274" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="C274" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="B275" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="C275" t="s">
         <v>10</v>
@@ -4955,32 +4901,32 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="B276" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="C276" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="B277" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="C277" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>492</v>
+        <v>38</v>
       </c>
       <c r="B278" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -4988,32 +4934,32 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>454</v>
+        <v>480</v>
       </c>
       <c r="B279" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="C279" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="B280" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="C280" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="B281" t="s">
-        <v>255</v>
+        <v>481</v>
       </c>
       <c r="C281" t="s">
         <v>10</v>
@@ -5021,21 +4967,21 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="B282" t="s">
-        <v>192</v>
+        <v>486</v>
       </c>
       <c r="C282" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>126</v>
+        <v>487</v>
       </c>
       <c r="B283" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -5043,43 +4989,43 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="B284" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="C284" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>374</v>
+        <v>491</v>
       </c>
       <c r="B285" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="C285" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>181</v>
+        <v>493</v>
       </c>
       <c r="B286" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="C286" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="B287" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="C287" t="s">
         <v>10</v>
@@ -5087,43 +5033,43 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>505</v>
+        <v>151</v>
       </c>
       <c r="B288" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="C288" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="B289" t="s">
-        <v>235</v>
+        <v>51</v>
       </c>
       <c r="C289" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="B290" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="C290" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="B291" t="s">
-        <v>511</v>
+        <v>198</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -5131,43 +5077,43 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="B292" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="C292" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>514</v>
+        <v>283</v>
       </c>
       <c r="B293" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="C293" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="B294" t="s">
-        <v>251</v>
+        <v>288</v>
       </c>
       <c r="C294" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="B295" t="s">
-        <v>255</v>
+        <v>507</v>
       </c>
       <c r="C295" t="s">
         <v>10</v>
@@ -5175,241 +5121,241 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="B296" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="C296" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>24</v>
+        <v>510</v>
       </c>
       <c r="B297" t="s">
-        <v>472</v>
+        <v>511</v>
       </c>
       <c r="C297" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="B298" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="C298" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="B299" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="C299" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>524</v>
+        <v>333</v>
       </c>
       <c r="B300" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="C300" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="B301" t="s">
-        <v>527</v>
+        <v>157</v>
       </c>
       <c r="C301" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="B302" t="s">
-        <v>529</v>
+        <v>202</v>
       </c>
       <c r="C302" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="B303" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="C303" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>87</v>
+        <v>445</v>
       </c>
       <c r="B304" t="s">
-        <v>532</v>
+        <v>214</v>
       </c>
       <c r="C304" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="B305" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="C305" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="B306" t="s">
-        <v>536</v>
+        <v>407</v>
       </c>
       <c r="C306" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>537</v>
+        <v>229</v>
       </c>
       <c r="B307" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="C307" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="B308" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="C308" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>300</v>
+        <v>373</v>
       </c>
       <c r="B309" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="C309" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="B310" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="C310" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>300</v>
+        <v>530</v>
       </c>
       <c r="B311" t="s">
-        <v>280</v>
+        <v>531</v>
       </c>
       <c r="C311" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="B312" t="s">
-        <v>545</v>
+        <v>128</v>
       </c>
       <c r="C312" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="B313" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="C313" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>329</v>
+        <v>175</v>
       </c>
       <c r="B314" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="C314" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="B315" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C315" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="B316" t="s">
-        <v>447</v>
+        <v>539</v>
       </c>
       <c r="C316" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="B317" t="s">
-        <v>552</v>
+        <v>78</v>
       </c>
       <c r="C317" t="s">
         <v>10</v>
@@ -5417,21 +5363,21 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>120</v>
+        <v>541</v>
       </c>
       <c r="B318" t="s">
-        <v>37</v>
+        <v>542</v>
       </c>
       <c r="C318" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="B319" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="C319" t="s">
         <v>10</v>
@@ -5439,87 +5385,87 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="B320" t="s">
-        <v>556</v>
+        <v>202</v>
       </c>
       <c r="C320" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="B321" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="C321" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>358</v>
+        <v>547</v>
       </c>
       <c r="B322" t="s">
-        <v>142</v>
+        <v>548</v>
       </c>
       <c r="C322" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="B323" t="s">
-        <v>559</v>
+        <v>202</v>
       </c>
       <c r="C323" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="B324" t="s">
-        <v>561</v>
+        <v>47</v>
       </c>
       <c r="C324" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>395</v>
+        <v>551</v>
       </c>
       <c r="B325" t="s">
-        <v>562</v>
+        <v>288</v>
       </c>
       <c r="C325" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="B326" t="s">
-        <v>192</v>
+        <v>553</v>
       </c>
       <c r="C326" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="B327" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="C327" t="s">
         <v>10</v>
@@ -5527,87 +5473,87 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>274</v>
+        <v>556</v>
       </c>
       <c r="B328" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="C328" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="B329" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="C329" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="B330" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="C330" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="B331" t="s">
-        <v>412</v>
+        <v>264</v>
       </c>
       <c r="C331" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="B332" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="C332" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>574</v>
+        <v>250</v>
       </c>
       <c r="B333" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="C333" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>576</v>
+        <v>435</v>
       </c>
       <c r="B334" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="C334" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="B335" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="C335" t="s">
         <v>5</v>
@@ -5615,43 +5561,43 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="B336" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="C336" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>281</v>
+        <v>571</v>
       </c>
       <c r="B337" t="s">
-        <v>582</v>
+        <v>43</v>
       </c>
       <c r="C337" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>583</v>
+        <v>448</v>
       </c>
       <c r="B338" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="C338" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="B339" t="s">
-        <v>586</v>
+        <v>51</v>
       </c>
       <c r="C339" t="s">
         <v>10</v>
@@ -5659,32 +5605,32 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="B340" t="s">
-        <v>71</v>
+        <v>575</v>
       </c>
       <c r="C340" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="B341" t="s">
-        <v>589</v>
+        <v>463</v>
       </c>
       <c r="C341" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>590</v>
+        <v>538</v>
       </c>
       <c r="B342" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="C342" t="s">
         <v>5</v>
@@ -5692,153 +5638,153 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>592</v>
+        <v>295</v>
       </c>
       <c r="B343" t="s">
-        <v>593</v>
+        <v>43</v>
       </c>
       <c r="C343" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>464</v>
+        <v>309</v>
       </c>
       <c r="B344" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="C344" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>481</v>
+        <v>579</v>
       </c>
       <c r="B345" t="s">
-        <v>595</v>
+        <v>580</v>
       </c>
       <c r="C345" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>145</v>
+        <v>581</v>
       </c>
       <c r="B346" t="s">
-        <v>477</v>
+        <v>582</v>
       </c>
       <c r="C346" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="B347" t="s">
-        <v>597</v>
+        <v>47</v>
       </c>
       <c r="C347" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="B348" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="C348" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="B349" t="s">
-        <v>113</v>
+        <v>357</v>
       </c>
       <c r="C349" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>601</v>
+        <v>329</v>
       </c>
       <c r="B350" t="s">
-        <v>414</v>
+        <v>37</v>
       </c>
       <c r="C350" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>602</v>
+        <v>587</v>
       </c>
       <c r="B351" t="s">
-        <v>603</v>
+        <v>367</v>
       </c>
       <c r="C351" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="B352" t="s">
-        <v>605</v>
+        <v>146</v>
       </c>
       <c r="C352" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>606</v>
+        <v>135</v>
       </c>
       <c r="B353" t="s">
-        <v>607</v>
+        <v>589</v>
       </c>
       <c r="C353" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>608</v>
+        <v>590</v>
       </c>
       <c r="B354" t="s">
-        <v>609</v>
+        <v>591</v>
       </c>
       <c r="C354" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>363</v>
+        <v>592</v>
       </c>
       <c r="B355" t="s">
-        <v>610</v>
+        <v>146</v>
       </c>
       <c r="C355" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>611</v>
+        <v>593</v>
       </c>
       <c r="B356" t="s">
-        <v>612</v>
+        <v>594</v>
       </c>
       <c r="C356" t="s">
         <v>5</v>
@@ -5846,21 +5792,21 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>183</v>
+        <v>595</v>
       </c>
       <c r="B357" t="s">
-        <v>613</v>
+        <v>596</v>
       </c>
       <c r="C357" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>158</v>
+        <v>597</v>
       </c>
       <c r="B358" t="s">
-        <v>253</v>
+        <v>598</v>
       </c>
       <c r="C358" t="s">
         <v>5</v>
@@ -5868,21 +5814,21 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>614</v>
+        <v>317</v>
       </c>
       <c r="B359" t="s">
-        <v>615</v>
+        <v>520</v>
       </c>
       <c r="C359" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>616</v>
+        <v>212</v>
       </c>
       <c r="B360" t="s">
-        <v>617</v>
+        <v>290</v>
       </c>
       <c r="C360" t="s">
         <v>10</v>
@@ -5890,13 +5836,13 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>353</v>
+        <v>427</v>
       </c>
       <c r="B361" t="s">
-        <v>397</v>
+        <v>599</v>
       </c>
       <c r="C361" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
